--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -491,7 +491,7 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="15" max="15"/>
     <col width="18" customWidth="1" min="16" max="16"/>
     <col width="18" customWidth="1" min="17" max="17"/>
     <col width="20" customWidth="1" min="18" max="18"/>
@@ -576,7 +576,7 @@
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>运费</t>
+          <t>总运费</t>
         </is>
       </c>
       <c r="P1" s="2" t="inlineStr">
@@ -681,9 +681,11 @@
         <v>2625</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O2" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P2" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -765,9 +767,11 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O3" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O3" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P3" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -849,9 +853,11 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O4" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P4" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -933,9 +939,11 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O5" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P5" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1017,9 +1025,11 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O6" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P6" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1101,9 +1111,11 @@
         <v>2373</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O7" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P7" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1191,9 +1203,11 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O8" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P8" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1276,9 +1290,11 @@
         <v>1197</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O9" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P9" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1360,9 +1376,11 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O10" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P10" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1444,9 +1462,11 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O11" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P11" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1524,9 +1544,11 @@
         <v>1837.5</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O12" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P12" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1608,9 +1630,11 @@
         <v>157.5</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O13" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P13" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1694,9 +1718,11 @@
         <v>2625</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O14" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P14" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1778,9 +1804,11 @@
         <v>2100</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O15" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P15" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1862,9 +1890,11 @@
         <v>210</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O16" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P16" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -1946,9 +1976,11 @@
         <v>126</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O17" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P17" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2030,9 +2062,11 @@
         <v>176.4</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O18" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P18" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2114,9 +2148,11 @@
         <v>259.88</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O19" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P19" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2198,9 +2234,11 @@
         <v>537.77</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O20" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P20" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2282,9 +2320,11 @@
         <v>633.4</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O21" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P21" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2366,9 +2406,11 @@
         <v>634.79</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O22" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P22" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2450,9 +2492,11 @@
         <v>397.78</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O23" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P23" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2534,9 +2578,11 @@
         <v>55.44</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O24" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P24" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2618,9 +2664,11 @@
         <v>83.16</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O25" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P25" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2702,9 +2750,11 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O26" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O26" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P26" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2786,9 +2836,11 @@
         <v>69.3</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O27" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P27" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2870,9 +2922,11 @@
         <v>152.46</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O28" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P28" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -2954,9 +3008,11 @@
         <v>31701.6</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O29" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P29" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3038,9 +3094,11 @@
         <v>21462</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O30" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O30" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P30" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3123,9 +3181,11 @@
         <v>1218</v>
       </c>
       <c r="N31" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O31" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O31" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P31" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3207,9 +3267,11 @@
         <v>420</v>
       </c>
       <c r="N32" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O32" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O32" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P32" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3291,9 +3353,11 @@
         <v>945</v>
       </c>
       <c r="N33" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O33" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O33" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P33" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3379,9 +3443,11 @@
         <v>3654</v>
       </c>
       <c r="N34" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O34" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O34" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P34" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3467,9 +3533,11 @@
         <v>16380</v>
       </c>
       <c r="N35" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O35" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O35" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P35" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3554,9 +3622,11 @@
         <v>2835</v>
       </c>
       <c r="N36" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O36" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O36" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P36" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3638,9 +3708,11 @@
         <v>35700</v>
       </c>
       <c r="N37" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O37" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O37" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P37" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3722,9 +3794,11 @@
         <v>54075</v>
       </c>
       <c r="N38" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O38" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P38" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3806,9 +3880,11 @@
         <v>981.75</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O39" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O39" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P39" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3890,9 +3966,11 @@
         <v>231</v>
       </c>
       <c r="N40" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O40" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P40" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -3976,9 +4054,11 @@
         <v>1837.5</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O41" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O41" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P41" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4060,9 +4140,11 @@
         <v>4200</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O42" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O42" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P42" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4140,9 +4222,11 @@
         <v>462</v>
       </c>
       <c r="N43" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O43" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O43" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P43" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4220,9 +4304,11 @@
         <v>978.86</v>
       </c>
       <c r="N44" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O44" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O44" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P44" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4304,9 +4390,11 @@
         <v>10395</v>
       </c>
       <c r="N45" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O45" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O45" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P45" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4388,9 +4476,11 @@
         <v>68.25</v>
       </c>
       <c r="N46" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O46" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O46" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P46" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4472,9 +4562,11 @@
         <v>68.25</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O47" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O47" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P47" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4556,9 +4648,11 @@
         <v>462</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O48" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O48" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P48" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4640,9 +4734,11 @@
         <v>462</v>
       </c>
       <c r="N49" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O49" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O49" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P49" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4724,9 +4820,11 @@
         <v>462</v>
       </c>
       <c r="N50" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O50" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O50" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P50" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4808,9 +4906,11 @@
         <v>462</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O51" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O51" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P51" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4892,9 +4992,11 @@
         <v>688.8</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O52" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O52" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P52" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -4976,9 +5078,11 @@
         <v>688.8</v>
       </c>
       <c r="N53" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O53" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O53" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P53" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5060,9 +5164,11 @@
         <v>1638</v>
       </c>
       <c r="N54" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O54" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O54" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P54" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5144,9 +5250,11 @@
         <v>664.4400000000001</v>
       </c>
       <c r="N55" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O55" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O55" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P55" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5228,9 +5336,11 @@
         <v>2730</v>
       </c>
       <c r="N56" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O56" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O56" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P56" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5312,9 +5422,11 @@
         <v>1449</v>
       </c>
       <c r="N57" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O57" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O57" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P57" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5396,9 +5508,11 @@
         <v>711.58</v>
       </c>
       <c r="N58" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O58" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O58" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P58" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5480,9 +5594,11 @@
         <v>91.88</v>
       </c>
       <c r="N59" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O59" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O59" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P59" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5564,9 +5680,11 @@
         <v>76.65000000000001</v>
       </c>
       <c r="N60" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O60" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O60" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P60" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5648,9 +5766,11 @@
         <v>21</v>
       </c>
       <c r="N61" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O61" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O61" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P61" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5732,9 +5852,11 @@
         <v>21</v>
       </c>
       <c r="N62" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O62" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O62" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P62" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5816,9 +5938,11 @@
         <v>21</v>
       </c>
       <c r="N63" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O63" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O63" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P63" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5902,9 +6026,11 @@
         <v>866.25</v>
       </c>
       <c r="N64" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O64" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O64" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P64" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -5987,9 +6113,11 @@
         <v>288.75</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O65" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P65" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6071,9 +6199,11 @@
         <v>105</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O66" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O66" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P66" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6156,9 +6286,11 @@
         <v>6.93</v>
       </c>
       <c r="N67" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O67" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O67" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P67" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6240,9 +6372,11 @@
         <v>483</v>
       </c>
       <c r="N68" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O68" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O68" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P68" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6324,9 +6458,11 @@
         <v>143.64</v>
       </c>
       <c r="N69" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O69" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O69" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P69" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6408,9 +6544,11 @@
         <v>329.7</v>
       </c>
       <c r="N70" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O70" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O70" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P70" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6492,9 +6630,11 @@
         <v>105</v>
       </c>
       <c r="N71" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O71" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O71" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P71" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6576,9 +6716,11 @@
         <v>65.48</v>
       </c>
       <c r="N72" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O72" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O72" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P72" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6660,9 +6802,11 @@
         <v>268.03</v>
       </c>
       <c r="N73" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O73" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O73" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P73" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6744,9 +6888,11 @@
         <v>157.5</v>
       </c>
       <c r="N74" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O74" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O74" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P74" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6828,9 +6974,11 @@
         <v>56.7</v>
       </c>
       <c r="N75" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O75" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O75" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P75" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -6916,9 +7064,11 @@
         <v>57.75</v>
       </c>
       <c r="N76" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O76" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O76" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P76" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7000,9 +7150,11 @@
         <v>17.22</v>
       </c>
       <c r="N77" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O77" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O77" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P77" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7084,9 +7236,11 @@
         <v>472.5</v>
       </c>
       <c r="N78" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O78" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O78" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P78" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7168,9 +7322,11 @@
         <v>799.47</v>
       </c>
       <c r="N79" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O79" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O79" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P79" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7252,9 +7408,11 @@
         <v>945</v>
       </c>
       <c r="N80" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O80" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O80" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P80" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7336,9 +7494,11 @@
         <v>27.02</v>
       </c>
       <c r="N81" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O81" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O81" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P81" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7420,9 +7580,11 @@
         <v>38.85</v>
       </c>
       <c r="N82" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O82" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O82" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P82" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7504,9 +7666,11 @@
         <v>57.33</v>
       </c>
       <c r="N83" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O83" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O83" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P83" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7588,9 +7752,11 @@
         <v>1512</v>
       </c>
       <c r="N84" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O84" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O84" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P84" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7672,9 +7838,11 @@
         <v>88.2</v>
       </c>
       <c r="N85" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O85" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O85" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P85" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7756,9 +7924,11 @@
         <v>304.5</v>
       </c>
       <c r="N86" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O86" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O86" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P86" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7840,9 +8010,11 @@
         <v>876.75</v>
       </c>
       <c r="N87" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O87" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O87" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P87" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -7924,9 +8096,11 @@
         <v>1039.5</v>
       </c>
       <c r="N88" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O88" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O88" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P88" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8008,9 +8182,11 @@
         <v>117.39</v>
       </c>
       <c r="N89" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O89" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O89" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P89" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8092,9 +8268,11 @@
         <v>966.74</v>
       </c>
       <c r="N90" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O90" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O90" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P90" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8176,9 +8354,11 @@
         <v>59.98</v>
       </c>
       <c r="N91" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O91" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O91" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P91" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8260,9 +8440,11 @@
         <v>14647.5</v>
       </c>
       <c r="N92" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O92" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O92" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P92" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8344,9 +8526,11 @@
         <v>2520</v>
       </c>
       <c r="N93" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O93" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O93" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P93" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8428,9 +8612,11 @@
         <v>546</v>
       </c>
       <c r="N94" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O94" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O94" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P94" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8512,9 +8698,11 @@
         <v>273</v>
       </c>
       <c r="N95" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O95" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O95" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P95" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8596,9 +8784,11 @@
         <v>180.08</v>
       </c>
       <c r="N96" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O96" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O96" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P96" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8680,9 +8870,11 @@
         <v>86.73</v>
       </c>
       <c r="N97" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O97" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O97" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P97" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8764,9 +8956,11 @@
         <v>971.25</v>
       </c>
       <c r="N98" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O98" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O98" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P98" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8848,9 +9042,11 @@
         <v>913.5</v>
       </c>
       <c r="N99" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O99" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O99" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P99" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -8932,9 +9128,11 @@
         <v>882</v>
       </c>
       <c r="N100" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O100" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O100" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P100" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9016,9 +9214,11 @@
         <v>13.65</v>
       </c>
       <c r="N101" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O101" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O101" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P101" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9100,9 +9300,11 @@
         <v>13.65</v>
       </c>
       <c r="N102" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O102" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O102" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P102" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9184,9 +9386,11 @@
         <v>13.65</v>
       </c>
       <c r="N103" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O103" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O103" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P103" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9268,9 +9472,11 @@
         <v>13.65</v>
       </c>
       <c r="N104" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O104" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O104" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P104" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9352,9 +9558,11 @@
         <v>13.65</v>
       </c>
       <c r="N105" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O105" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O105" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P105" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9436,9 +9644,11 @@
         <v>13.65</v>
       </c>
       <c r="N106" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O106" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O106" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P106" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9520,9 +9730,11 @@
         <v>13.65</v>
       </c>
       <c r="N107" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O107" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O107" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P107" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9604,9 +9816,11 @@
         <v>13.65</v>
       </c>
       <c r="N108" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O108" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O108" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P108" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9688,9 +9902,11 @@
         <v>29.4</v>
       </c>
       <c r="N109" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O109" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O109" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P109" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9772,9 +9988,11 @@
         <v>63</v>
       </c>
       <c r="N110" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O110" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O110" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P110" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9856,9 +10074,11 @@
         <v>25.2</v>
       </c>
       <c r="N111" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O111" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O111" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P111" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -9940,9 +10160,11 @@
         <v>39.9</v>
       </c>
       <c r="N112" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O112" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O112" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P112" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10024,9 +10246,11 @@
         <v>21</v>
       </c>
       <c r="N113" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O113" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O113" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P113" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10108,9 +10332,11 @@
         <v>529.2</v>
       </c>
       <c r="N114" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O114" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O114" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P114" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10192,9 +10418,11 @@
         <v>367.5</v>
       </c>
       <c r="N115" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O115" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O115" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P115" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10276,9 +10504,11 @@
         <v>84</v>
       </c>
       <c r="N116" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O116" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O116" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P116" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10360,9 +10590,11 @@
         <v>3570</v>
       </c>
       <c r="N117" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O117" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O117" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P117" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10444,9 +10676,11 @@
         <v>14175</v>
       </c>
       <c r="N118" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O118" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O118" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P118" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10528,9 +10762,11 @@
         <v>1155</v>
       </c>
       <c r="N119" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O119" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O119" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P119" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10612,9 +10848,11 @@
         <v>1155</v>
       </c>
       <c r="N120" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O120" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O120" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P120" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10696,9 +10934,11 @@
         <v>23184</v>
       </c>
       <c r="N121" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O121" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O121" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P121" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10780,9 +11020,11 @@
         <v>966</v>
       </c>
       <c r="N122" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O122" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O122" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P122" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10870,9 +11112,11 @@
         <v>1251.6</v>
       </c>
       <c r="N123" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O123" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O123" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P123" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -10960,9 +11204,11 @@
         <v>938.7</v>
       </c>
       <c r="N124" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O124" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O124" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P124" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11044,9 +11290,11 @@
         <v>837.9</v>
       </c>
       <c r="N125" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O125" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O125" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P125" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11128,9 +11376,11 @@
         <v>472.5</v>
       </c>
       <c r="N126" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O126" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O126" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P126" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11212,9 +11462,11 @@
         <v>1512</v>
       </c>
       <c r="N127" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O127" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O127" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P127" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11296,9 +11548,11 @@
         <v>1512</v>
       </c>
       <c r="N128" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O128" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O128" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P128" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11380,9 +11634,11 @@
         <v>130.2</v>
       </c>
       <c r="N129" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O129" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O129" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P129" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11464,9 +11720,11 @@
         <v>504</v>
       </c>
       <c r="N130" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O130" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O130" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P130" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11548,9 +11806,11 @@
         <v>33.08</v>
       </c>
       <c r="N131" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O131" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O131" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P131" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11632,9 +11892,11 @@
         <v>47.25</v>
       </c>
       <c r="N132" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O132" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O132" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P132" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11716,9 +11978,11 @@
         <v>39.9</v>
       </c>
       <c r="N133" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O133" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O133" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P133" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11800,9 +12064,11 @@
         <v>160.65</v>
       </c>
       <c r="N134" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O134" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O134" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P134" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11884,9 +12150,11 @@
         <v>2709</v>
       </c>
       <c r="N135" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O135" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O135" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P135" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -11968,9 +12236,11 @@
         <v>134.4</v>
       </c>
       <c r="N136" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O136" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O136" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P136" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12052,9 +12322,11 @@
         <v>663.6</v>
       </c>
       <c r="N137" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O137" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O137" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P137" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12136,9 +12408,11 @@
         <v>436.8</v>
       </c>
       <c r="N138" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O138" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O138" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P138" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12220,9 +12494,11 @@
         <v>23184</v>
       </c>
       <c r="N139" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O139" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O139" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P139" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12304,9 +12580,11 @@
         <v>966</v>
       </c>
       <c r="N140" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O140" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O140" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P140" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12388,9 +12666,11 @@
         <v>113.4</v>
       </c>
       <c r="N141" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O141" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O141" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P141" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12472,9 +12752,11 @@
         <v>525</v>
       </c>
       <c r="N142" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O142" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O142" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P142" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12556,9 +12838,11 @@
         <v>105</v>
       </c>
       <c r="N143" s="5" t="n">
-        <v>172.5893015</v>
-      </c>
-      <c r="O143" s="4" t="n"/>
+        <v>172.59</v>
+      </c>
+      <c r="O143" s="5" t="n">
+        <v>6339.01</v>
+      </c>
       <c r="P143" s="5" t="n">
         <v>1.63</v>
       </c>
@@ -12620,11 +12904,9 @@
         <v>329488.69</v>
       </c>
       <c r="N144" s="5" t="n">
-        <v>24507.680813</v>
-      </c>
-      <c r="O144" s="4" t="n">
-        <v>0</v>
-      </c>
+        <v>24507.78</v>
+      </c>
+      <c r="O144" s="5" t="n"/>
       <c r="P144" s="5" t="n"/>
       <c r="Q144" s="5" t="n">
         <v>5737.349999999999</v>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -86,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -99,6 +99,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -668,38 +671,38 @@
       <c r="I2" s="5" t="n">
         <v>2.6</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="n">
+      <c r="K2" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="L2" s="5" t="n">
+      <c r="L2" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M2" s="5" t="n">
+      <c r="M2" s="6" t="n">
         <v>2625</v>
       </c>
-      <c r="N2" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O2" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P2" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q2" s="5" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="R2" s="5" t="n">
-        <v>2629.24</v>
-      </c>
-      <c r="S2" s="5" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T2" s="5" t="n">
-        <v>37.76</v>
+      <c r="N2" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O2" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P2" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q2" s="6" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>764.89</v>
+      </c>
+      <c r="S2" s="6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T2" s="6" t="n">
+        <v>0.21</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
@@ -754,38 +757,38 @@
       <c r="I3" s="5" t="n">
         <v>1.1</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="K3" s="6" t="n">
         <v>330</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="L3" s="6" t="n">
         <v>115.5</v>
       </c>
-      <c r="M3" s="5" t="n">
+      <c r="M3" s="6" t="n">
         <v>346.5</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R3" s="5" t="n">
-        <v>348.29</v>
-      </c>
-      <c r="S3" s="5" t="n">
-        <v>116.1</v>
-      </c>
-      <c r="T3" s="5" t="n">
-        <v>833.58</v>
+      <c r="N3" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q3" s="6" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R3" s="6" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>6.08</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -840,38 +843,38 @@
       <c r="I4" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="M4" s="5" t="n">
+      <c r="M4" s="6" t="n">
         <v>163.8</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R4" s="5" t="n">
-        <v>164.61</v>
-      </c>
-      <c r="S4" s="5" t="n">
-        <v>82.31</v>
-      </c>
-      <c r="T4" s="5" t="n">
-        <v>590.97</v>
+      <c r="N4" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q4" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R4" s="6" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>15.73</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>2.19</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
@@ -926,38 +929,38 @@
       <c r="I5" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="L5" s="6" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="M5" s="5" t="n">
+      <c r="M5" s="6" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R5" s="5" t="n">
-        <v>82.23</v>
-      </c>
-      <c r="S5" s="5" t="n">
-        <v>82.23</v>
-      </c>
-      <c r="T5" s="5" t="n">
-        <v>590.38</v>
+      <c r="N5" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R5" s="6" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>1.07</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
@@ -1012,38 +1015,38 @@
       <c r="I6" s="5" t="n">
         <v>1.55</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="K6" s="5" t="n">
+      <c r="K6" s="6" t="n">
         <v>330</v>
       </c>
-      <c r="L6" s="5" t="n">
+      <c r="L6" s="6" t="n">
         <v>115.5</v>
       </c>
-      <c r="M6" s="5" t="n">
+      <c r="M6" s="6" t="n">
         <v>346.5</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O6" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P6" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q6" s="5" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="R6" s="5" t="n">
-        <v>349.03</v>
-      </c>
-      <c r="S6" s="5" t="n">
-        <v>116.34</v>
-      </c>
-      <c r="T6" s="5" t="n">
-        <v>835.34</v>
+      <c r="N6" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="R6" s="6" t="n">
+        <v>243.9</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>11.32</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
@@ -1098,38 +1101,38 @@
       <c r="I7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="6" t="n">
         <v>22.6</v>
       </c>
-      <c r="K7" s="5" t="n">
+      <c r="K7" s="6" t="n">
         <v>2260</v>
       </c>
-      <c r="L7" s="5" t="n">
+      <c r="L7" s="6" t="n">
         <v>23.73</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="6" t="n">
         <v>2373</v>
       </c>
-      <c r="N7" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P7" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q7" s="5" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="R7" s="5" t="n">
-        <v>2376.26</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="T7" s="5" t="n">
-        <v>170.62</v>
+      <c r="N7" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q7" s="6" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R7" s="6" t="n">
+        <v>491.65</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>0.68</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1190,38 +1193,38 @@
       <c r="I8" s="5" t="n">
         <v>2.1</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="6" t="n">
         <v>0.8</v>
       </c>
-      <c r="K8" s="5" t="n">
+      <c r="K8" s="6" t="n">
         <v>109.6</v>
       </c>
-      <c r="L8" s="5" t="n">
+      <c r="L8" s="6" t="n">
         <v>0.84</v>
       </c>
-      <c r="M8" s="5" t="n">
+      <c r="M8" s="6" t="n">
         <v>115.08</v>
       </c>
-      <c r="N8" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>118.5</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>6.21</v>
+      <c r="N8" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q8" s="6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R8" s="6" t="n">
+        <v>422.88</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>0.43</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1277,38 +1280,38 @@
       <c r="I9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6" t="n">
         <v>1140</v>
       </c>
-      <c r="K9" s="5" t="n">
+      <c r="K9" s="6" t="n">
         <v>1140</v>
       </c>
-      <c r="L9" s="5" t="n">
+      <c r="L9" s="6" t="n">
         <v>1197</v>
       </c>
-      <c r="M9" s="5" t="n">
+      <c r="M9" s="6" t="n">
         <v>1197</v>
       </c>
-      <c r="N9" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>1201.89</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>1201.89</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>8629.57</v>
+      <c r="N9" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q9" s="6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R9" s="6" t="n">
+        <v>908.86</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>908.86</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>126.58</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1363,38 +1366,38 @@
       <c r="I10" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="K10" s="5" t="n">
+      <c r="K10" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="L10" s="5" t="n">
+      <c r="L10" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="M10" s="5" t="n">
+      <c r="M10" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="N10" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P10" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>249.65</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>249.65</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>1792.49</v>
+      <c r="N10" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R10" s="6" t="n">
+        <v>2377.71</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>2377.71</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>331.16</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1449,38 +1452,38 @@
       <c r="I11" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="6" t="n">
         <v>185</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="6" t="n">
         <v>555</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="6" t="n">
         <v>194.25</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="6" t="n">
         <v>582.75</v>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O11" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P11" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R11" s="5" t="n">
-        <v>590.9</v>
-      </c>
-      <c r="S11" s="5" t="n">
-        <v>196.97</v>
-      </c>
-      <c r="T11" s="5" t="n">
-        <v>1414.22</v>
+      <c r="N11" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R11" s="6" t="n">
+        <v>2393.97</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>797.99</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>111.14</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1531,38 +1534,38 @@
       <c r="I12" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="6" t="n">
         <v>350</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="6" t="n">
         <v>1750</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="6" t="n">
         <v>367.5</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="6" t="n">
         <v>1837.5</v>
       </c>
-      <c r="N12" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O12" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P12" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="5" t="n">
-        <v>1839.5</v>
-      </c>
-      <c r="S12" s="5" t="n">
-        <v>367.9</v>
-      </c>
-      <c r="T12" s="5" t="n">
-        <v>2641.53</v>
+      <c r="N12" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R12" s="6" t="n">
+        <v>230.74</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>46.15</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>6.43</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1617,38 +1620,38 @@
       <c r="I13" s="5" t="n">
         <v>0.15</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="L13" s="5" t="n">
+      <c r="L13" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="6" t="n">
         <v>157.5</v>
       </c>
-      <c r="N13" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O13" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P13" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q13" s="5" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="R13" s="5" t="n">
-        <v>157.74</v>
-      </c>
-      <c r="S13" s="5" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T13" s="5" t="n">
-        <v>37.75</v>
+      <c r="N13" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q13" s="6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R13" s="6" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="S13" s="6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>0.04</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
@@ -1705,38 +1708,38 @@
       <c r="I14" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="5" t="n">
+      <c r="K14" s="6" t="n">
         <v>2500</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="6" t="n">
         <v>2625</v>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P14" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="R14" s="5" t="n">
-        <v>2629.07</v>
-      </c>
-      <c r="S14" s="5" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T14" s="5" t="n">
-        <v>37.75</v>
+      <c r="N14" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q14" s="6" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="R14" s="6" t="n">
+        <v>716.62</v>
+      </c>
+      <c r="S14" s="6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>0.2</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
@@ -1791,38 +1794,38 @@
       <c r="I15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K15" s="5" t="n">
+      <c r="K15" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M15" s="5" t="n">
+      <c r="M15" s="6" t="n">
         <v>2100</v>
       </c>
-      <c r="N15" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O15" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P15" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q15" s="5" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="R15" s="5" t="n">
-        <v>2103.26</v>
-      </c>
-      <c r="S15" s="5" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T15" s="5" t="n">
-        <v>37.75</v>
+      <c r="N15" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R15" s="6" t="n">
+        <v>478.65</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>0.17</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
@@ -1877,38 +1880,38 @@
       <c r="I16" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K16" s="5" t="n">
+      <c r="K16" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="L16" s="5" t="n">
+      <c r="L16" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M16" s="5" t="n">
+      <c r="M16" s="6" t="n">
         <v>210</v>
       </c>
-      <c r="N16" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O16" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P16" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q16" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R16" s="5" t="n">
-        <v>210.33</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="T16" s="5" t="n">
-        <v>37.75</v>
+      <c r="N16" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>0.05</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -1963,38 +1966,38 @@
       <c r="I17" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="K17" s="5" t="n">
+      <c r="K17" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="L17" s="5" t="n">
+      <c r="L17" s="6" t="n">
         <v>3.15</v>
       </c>
-      <c r="M17" s="5" t="n">
+      <c r="M17" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="N17" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P17" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q17" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R17" s="5" t="n">
-        <v>126.33</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="T17" s="5" t="n">
-        <v>22.68</v>
+      <c r="N17" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q17" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R17" s="6" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2049,38 +2052,38 @@
       <c r="I18" s="5" t="n">
         <v>0.7</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="K18" s="5" t="n">
+      <c r="K18" s="6" t="n">
         <v>168</v>
       </c>
-      <c r="L18" s="5" t="n">
+      <c r="L18" s="6" t="n">
         <v>1.26</v>
       </c>
-      <c r="M18" s="5" t="n">
+      <c r="M18" s="6" t="n">
         <v>176.4</v>
       </c>
-      <c r="N18" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P18" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q18" s="5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R18" s="5" t="n">
-        <v>177.54</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T18" s="5" t="n">
-        <v>9.109999999999999</v>
+      <c r="N18" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R18" s="6" t="n">
+        <v>54.78</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>0.05</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2135,38 +2138,38 @@
       <c r="I19" s="5" t="n">
         <v>1.25</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="6" t="n">
         <v>0.99</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6" t="n">
         <v>247.5</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="6" t="n">
         <v>1.04</v>
       </c>
-      <c r="M19" s="5" t="n">
+      <c r="M19" s="6" t="n">
         <v>259.88</v>
       </c>
-      <c r="N19" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O19" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P19" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q19" s="5" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R19" s="5" t="n">
-        <v>261.91</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T19" s="5" t="n">
-        <v>7.52</v>
+      <c r="N19" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q19" s="6" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="R19" s="6" t="n">
+        <v>160.27</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>0.09</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2221,38 +2224,38 @@
       <c r="I20" s="5" t="n">
         <v>3.49</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6" t="n">
         <v>512.16</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M20" s="5" t="n">
+      <c r="M20" s="6" t="n">
         <v>537.77</v>
       </c>
-      <c r="N20" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O20" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P20" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q20" s="5" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="R20" s="5" t="n">
-        <v>543.46</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" s="5" t="n">
-        <v>10.06</v>
+      <c r="N20" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q20" s="6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="R20" s="6" t="n">
+        <v>1178.44</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>0.42</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2307,38 +2310,38 @@
       <c r="I21" s="5" t="n">
         <v>4.11</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6" t="n">
         <v>603.24</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M21" s="5" t="n">
+      <c r="M21" s="6" t="n">
         <v>633.4</v>
       </c>
-      <c r="N21" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O21" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P21" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q21" s="5" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="R21" s="5" t="n">
-        <v>640.1</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" s="5" t="n">
-        <v>10.06</v>
+      <c r="N21" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q21" s="6" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="R21" s="6" t="n">
+        <v>1628.98</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>0.5</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2393,38 +2396,38 @@
       <c r="I22" s="5" t="n">
         <v>4.12</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K22" s="5" t="n">
+      <c r="K22" s="6" t="n">
         <v>604.5599999999999</v>
       </c>
-      <c r="L22" s="5" t="n">
+      <c r="L22" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M22" s="5" t="n">
+      <c r="M22" s="6" t="n">
         <v>634.79</v>
       </c>
-      <c r="N22" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O22" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P22" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q22" s="5" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="R22" s="5" t="n">
-        <v>641.5</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T22" s="5" t="n">
-        <v>10.06</v>
+      <c r="N22" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q22" s="6" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="R22" s="6" t="n">
+        <v>1636.84</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>0.5</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2479,38 +2482,38 @@
       <c r="I23" s="5" t="n">
         <v>2.58</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K23" s="5" t="n">
+      <c r="K23" s="6" t="n">
         <v>378.84</v>
       </c>
-      <c r="L23" s="5" t="n">
+      <c r="L23" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M23" s="5" t="n">
+      <c r="M23" s="6" t="n">
         <v>397.78</v>
       </c>
-      <c r="N23" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O23" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P23" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q23" s="5" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="R23" s="5" t="n">
-        <v>401.99</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T23" s="5" t="n">
-        <v>10.06</v>
+      <c r="N23" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q23" s="6" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="R23" s="6" t="n">
+        <v>648.97</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>0.31</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2565,38 +2568,38 @@
       <c r="I24" s="5" t="n">
         <v>0.36</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K24" s="5" t="n">
+      <c r="K24" s="6" t="n">
         <v>52.8</v>
       </c>
-      <c r="L24" s="5" t="n">
+      <c r="L24" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M24" s="5" t="n">
+      <c r="M24" s="6" t="n">
         <v>55.44</v>
       </c>
-      <c r="N24" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O24" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P24" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q24" s="5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R24" s="5" t="n">
-        <v>56.03</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T24" s="5" t="n">
-        <v>10.06</v>
+      <c r="N24" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q24" s="6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R24" s="6" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="S24" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>0.05</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
@@ -2651,38 +2654,38 @@
       <c r="I25" s="5" t="n">
         <v>0.54</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K25" s="5" t="n">
+      <c r="K25" s="6" t="n">
         <v>79.2</v>
       </c>
-      <c r="L25" s="5" t="n">
+      <c r="L25" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M25" s="5" t="n">
+      <c r="M25" s="6" t="n">
         <v>83.16</v>
       </c>
-      <c r="N25" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O25" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P25" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q25" s="5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R25" s="5" t="n">
-        <v>84.04000000000001</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" s="5" t="n">
-        <v>10.06</v>
+      <c r="N25" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q25" s="6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R25" s="6" t="n">
+        <v>31.56</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2737,38 +2740,38 @@
       <c r="I26" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K26" s="5" t="n">
+      <c r="K26" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="L26" s="5" t="n">
+      <c r="L26" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M26" s="5" t="n">
+      <c r="M26" s="6" t="n">
         <v>69.3</v>
       </c>
-      <c r="N26" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O26" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P26" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q26" s="5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R26" s="5" t="n">
-        <v>70.03</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T26" s="5" t="n">
-        <v>10.06</v>
+      <c r="N26" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q26" s="6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R26" s="6" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>0.06</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
@@ -2823,38 +2826,38 @@
       <c r="I27" s="5" t="n">
         <v>0.45</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K27" s="5" t="n">
+      <c r="K27" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="L27" s="5" t="n">
+      <c r="L27" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M27" s="5" t="n">
+      <c r="M27" s="6" t="n">
         <v>69.3</v>
       </c>
-      <c r="N27" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O27" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P27" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q27" s="5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="R27" s="5" t="n">
-        <v>70.03</v>
-      </c>
-      <c r="S27" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" s="5" t="n">
-        <v>10.06</v>
+      <c r="N27" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q27" s="6" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R27" s="6" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="S27" s="6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>0.06</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
@@ -2909,38 +2912,38 @@
       <c r="I28" s="5" t="n">
         <v>0.99</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="6" t="n">
         <v>1.32</v>
       </c>
-      <c r="K28" s="5" t="n">
+      <c r="K28" s="6" t="n">
         <v>145.2</v>
       </c>
-      <c r="L28" s="5" t="n">
+      <c r="L28" s="6" t="n">
         <v>1.39</v>
       </c>
-      <c r="M28" s="5" t="n">
+      <c r="M28" s="6" t="n">
         <v>152.46</v>
       </c>
-      <c r="N28" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q28" s="5" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R28" s="5" t="n">
-        <v>154.07</v>
-      </c>
-      <c r="S28" s="5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" s="5" t="n">
-        <v>10.06</v>
+      <c r="N28" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q28" s="6" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R28" s="6" t="n">
+        <v>100.03</v>
+      </c>
+      <c r="S28" s="6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="T28" s="6" t="n">
+        <v>0.13</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
@@ -2995,38 +2998,38 @@
       <c r="I29" s="5" t="n">
         <v>1200</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="6" t="n">
         <v>14.8</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="6" t="n">
         <v>30192</v>
       </c>
-      <c r="L29" s="5" t="n">
+      <c r="L29" s="6" t="n">
         <v>15.54</v>
       </c>
-      <c r="M29" s="5" t="n">
+      <c r="M29" s="6" t="n">
         <v>31701.6</v>
       </c>
-      <c r="N29" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O29" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q29" s="5" t="n">
-        <v>1955.98</v>
-      </c>
-      <c r="R29" s="5" t="n">
-        <v>33657.58</v>
-      </c>
-      <c r="S29" s="5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="T29" s="5" t="n">
-        <v>118.46</v>
+      <c r="N29" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q29" s="6" t="n">
+        <v>2201.05</v>
+      </c>
+      <c r="R29" s="6" t="n">
+        <v>136294621.08</v>
+      </c>
+      <c r="S29" s="6" t="n">
+        <v>66811.09</v>
+      </c>
+      <c r="T29" s="6" t="n">
+        <v>9305.17</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3081,38 +3084,38 @@
       <c r="I30" s="5" t="n">
         <v>866</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="6" t="n">
         <v>7.3</v>
       </c>
-      <c r="K30" s="5" t="n">
+      <c r="K30" s="6" t="n">
         <v>20440</v>
       </c>
-      <c r="L30" s="5" t="n">
+      <c r="L30" s="6" t="n">
         <v>7.66</v>
       </c>
-      <c r="M30" s="5" t="n">
+      <c r="M30" s="6" t="n">
         <v>21462</v>
       </c>
-      <c r="N30" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O30" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P30" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q30" s="5" t="n">
-        <v>1411.56</v>
-      </c>
-      <c r="R30" s="5" t="n">
-        <v>22873.56</v>
-      </c>
-      <c r="S30" s="5" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="T30" s="5" t="n">
-        <v>58.65</v>
+      <c r="N30" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q30" s="6" t="n">
+        <v>1588.42</v>
+      </c>
+      <c r="R30" s="6" t="n">
+        <v>70982853.18000001</v>
+      </c>
+      <c r="S30" s="6" t="n">
+        <v>25351.02</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>3530.78</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
@@ -3168,38 +3171,38 @@
       <c r="I31" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="6" t="n">
         <v>580</v>
       </c>
-      <c r="K31" s="5" t="n">
+      <c r="K31" s="6" t="n">
         <v>1160</v>
       </c>
-      <c r="L31" s="5" t="n">
+      <c r="L31" s="6" t="n">
         <v>609</v>
       </c>
-      <c r="M31" s="5" t="n">
+      <c r="M31" s="6" t="n">
         <v>1218</v>
       </c>
-      <c r="N31" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O31" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P31" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q31" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R31" s="5" t="n">
-        <v>1218.49</v>
-      </c>
-      <c r="S31" s="5" t="n">
-        <v>609.24</v>
-      </c>
-      <c r="T31" s="5" t="n">
-        <v>4374.38</v>
+      <c r="N31" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q31" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R31" s="6" t="n">
+        <v>66.55</v>
+      </c>
+      <c r="S31" s="6" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="T31" s="6" t="n">
+        <v>4.63</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3254,38 +3257,38 @@
       <c r="I32" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="K32" s="5" t="n">
+      <c r="K32" s="6" t="n">
         <v>400</v>
       </c>
-      <c r="L32" s="5" t="n">
+      <c r="L32" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="M32" s="5" t="n">
+      <c r="M32" s="6" t="n">
         <v>420</v>
       </c>
-      <c r="N32" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O32" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P32" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q32" s="5" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R32" s="5" t="n">
-        <v>420.98</v>
-      </c>
-      <c r="S32" s="5" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="T32" s="5" t="n">
-        <v>604.52</v>
+      <c r="N32" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q32" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R32" s="6" t="n">
+        <v>54.08</v>
+      </c>
+      <c r="S32" s="6" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="T32" s="6" t="n">
+        <v>1.51</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
@@ -3340,38 +3343,38 @@
       <c r="I33" s="5" t="n">
         <v>0.05</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="K33" s="5" t="n">
+      <c r="K33" s="6" t="n">
         <v>900</v>
       </c>
-      <c r="L33" s="5" t="n">
+      <c r="L33" s="6" t="n">
         <v>472.5</v>
       </c>
-      <c r="M33" s="5" t="n">
+      <c r="M33" s="6" t="n">
         <v>945</v>
       </c>
-      <c r="N33" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O33" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P33" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q33" s="5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R33" s="5" t="n">
-        <v>945.08</v>
-      </c>
-      <c r="S33" s="5" t="n">
-        <v>472.54</v>
-      </c>
-      <c r="T33" s="5" t="n">
-        <v>3392.84</v>
+      <c r="N33" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P33" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q33" s="6" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R33" s="6" t="n">
+        <v>45.26</v>
+      </c>
+      <c r="S33" s="6" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="T33" s="6" t="n">
+        <v>3.15</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3428,40 +3431,40 @@
         <v>484.67966574</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="J34" s="5" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="J34" s="6" t="n">
         <v>1160</v>
       </c>
-      <c r="K34" s="5" t="n">
+      <c r="K34" s="6" t="n">
         <v>3480</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="L34" s="6" t="n">
         <v>1218</v>
       </c>
-      <c r="M34" s="5" t="n">
+      <c r="M34" s="6" t="n">
         <v>3654</v>
       </c>
-      <c r="N34" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O34" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P34" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q34" s="5" t="n">
-        <v>55.42</v>
-      </c>
-      <c r="R34" s="5" t="n">
-        <v>3709.42</v>
-      </c>
-      <c r="S34" s="5" t="n">
-        <v>1236.47</v>
-      </c>
-      <c r="T34" s="5" t="n">
-        <v>8877.879999999999</v>
+      <c r="N34" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q34" s="6" t="n">
+        <v>117.76</v>
+      </c>
+      <c r="R34" s="6" t="n">
+        <v>390279.05</v>
+      </c>
+      <c r="S34" s="6" t="n">
+        <v>130093.02</v>
+      </c>
+      <c r="T34" s="6" t="n">
+        <v>18118.8</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3520,38 +3523,38 @@
       <c r="I35" s="5" t="n">
         <v>34</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="6" t="n">
         <v>1300</v>
       </c>
-      <c r="K35" s="5" t="n">
+      <c r="K35" s="6" t="n">
         <v>15600</v>
       </c>
-      <c r="L35" s="5" t="n">
+      <c r="L35" s="6" t="n">
         <v>1365</v>
       </c>
-      <c r="M35" s="5" t="n">
+      <c r="M35" s="6" t="n">
         <v>16380</v>
       </c>
-      <c r="N35" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O35" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P35" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q35" s="5" t="n">
-        <v>55.42</v>
-      </c>
-      <c r="R35" s="5" t="n">
-        <v>16435.42</v>
-      </c>
-      <c r="S35" s="5" t="n">
-        <v>1369.62</v>
-      </c>
-      <c r="T35" s="5" t="n">
-        <v>9833.860000000001</v>
+      <c r="N35" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q35" s="6" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="R35" s="6" t="n">
+        <v>110193.51</v>
+      </c>
+      <c r="S35" s="6" t="n">
+        <v>9182.790000000001</v>
+      </c>
+      <c r="T35" s="6" t="n">
+        <v>1278.94</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3609,38 +3612,38 @@
       <c r="I36" s="5" t="n">
         <v>205</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="K36" s="5" t="n">
+      <c r="K36" s="6" t="n">
         <v>2700</v>
       </c>
-      <c r="L36" s="5" t="n">
+      <c r="L36" s="6" t="n">
         <v>315</v>
       </c>
-      <c r="M36" s="5" t="n">
+      <c r="M36" s="6" t="n">
         <v>2835</v>
       </c>
-      <c r="N36" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O36" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P36" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q36" s="5" t="n">
-        <v>334.15</v>
-      </c>
-      <c r="R36" s="5" t="n">
-        <v>3169.15</v>
-      </c>
-      <c r="S36" s="5" t="n">
-        <v>352.13</v>
-      </c>
-      <c r="T36" s="5" t="n">
-        <v>2528.27</v>
+      <c r="N36" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P36" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q36" s="6" t="n">
+        <v>376.01</v>
+      </c>
+      <c r="R36" s="6" t="n">
+        <v>3977717</v>
+      </c>
+      <c r="S36" s="6" t="n">
+        <v>441968.56</v>
+      </c>
+      <c r="T36" s="6" t="n">
+        <v>61555.51</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3695,38 +3698,38 @@
       <c r="I37" s="5" t="n">
         <v>270</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="6" t="n">
         <v>3400</v>
       </c>
-      <c r="K37" s="5" t="n">
+      <c r="K37" s="6" t="n">
         <v>34000</v>
       </c>
-      <c r="L37" s="5" t="n">
+      <c r="L37" s="6" t="n">
         <v>3570</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="M37" s="6" t="n">
         <v>35700</v>
       </c>
-      <c r="N37" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O37" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P37" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q37" s="5" t="n">
-        <v>440.1</v>
-      </c>
-      <c r="R37" s="5" t="n">
-        <v>36140.1</v>
-      </c>
-      <c r="S37" s="5" t="n">
-        <v>3614.01</v>
-      </c>
-      <c r="T37" s="5" t="n">
-        <v>25948.59</v>
+      <c r="N37" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q37" s="6" t="n">
+        <v>495.24</v>
+      </c>
+      <c r="R37" s="6" t="n">
+        <v>6901539.66</v>
+      </c>
+      <c r="S37" s="6" t="n">
+        <v>690153.97</v>
+      </c>
+      <c r="T37" s="6" t="n">
+        <v>96121.72</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3781,38 +3784,38 @@
       <c r="I38" s="5" t="n">
         <v>440</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="6" t="n">
         <v>5150</v>
       </c>
-      <c r="K38" s="5" t="n">
+      <c r="K38" s="6" t="n">
         <v>51500</v>
       </c>
-      <c r="L38" s="5" t="n">
+      <c r="L38" s="6" t="n">
         <v>5407.5</v>
       </c>
-      <c r="M38" s="5" t="n">
+      <c r="M38" s="6" t="n">
         <v>54075</v>
       </c>
-      <c r="N38" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O38" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P38" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q38" s="5" t="n">
-        <v>717.1900000000001</v>
-      </c>
-      <c r="R38" s="5" t="n">
-        <v>54792.19</v>
-      </c>
-      <c r="S38" s="5" t="n">
-        <v>5479.22</v>
-      </c>
-      <c r="T38" s="5" t="n">
-        <v>39340.79</v>
+      <c r="N38" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P38" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q38" s="6" t="n">
+        <v>807.05</v>
+      </c>
+      <c r="R38" s="6" t="n">
+        <v>18326427.96</v>
+      </c>
+      <c r="S38" s="6" t="n">
+        <v>1832642.8</v>
+      </c>
+      <c r="T38" s="6" t="n">
+        <v>255242.73</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3867,38 +3870,38 @@
       <c r="I39" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="6" t="n">
         <v>935</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="6" t="n">
         <v>935</v>
       </c>
-      <c r="L39" s="5" t="n">
+      <c r="L39" s="6" t="n">
         <v>981.75</v>
       </c>
-      <c r="M39" s="5" t="n">
+      <c r="M39" s="6" t="n">
         <v>981.75</v>
       </c>
-      <c r="N39" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O39" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P39" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q39" s="5" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="R39" s="5" t="n">
-        <v>1006.2</v>
-      </c>
-      <c r="S39" s="5" t="n">
-        <v>1006.2</v>
-      </c>
-      <c r="T39" s="5" t="n">
-        <v>7224.51</v>
+      <c r="N39" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P39" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q39" s="6" t="n">
+        <v>27.51</v>
+      </c>
+      <c r="R39" s="6" t="n">
+        <v>21342.57</v>
+      </c>
+      <c r="S39" s="6" t="n">
+        <v>21342.57</v>
+      </c>
+      <c r="T39" s="6" t="n">
+        <v>2972.5</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -3953,38 +3956,38 @@
       <c r="I40" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="K40" s="5" t="n">
+      <c r="K40" s="6" t="n">
         <v>220</v>
       </c>
-      <c r="L40" s="5" t="n">
+      <c r="L40" s="6" t="n">
         <v>23.1</v>
       </c>
-      <c r="M40" s="5" t="n">
+      <c r="M40" s="6" t="n">
         <v>231</v>
       </c>
-      <c r="N40" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O40" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P40" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q40" s="5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R40" s="5" t="n">
-        <v>231.15</v>
-      </c>
-      <c r="S40" s="5" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="T40" s="5" t="n">
-        <v>165.96</v>
+      <c r="N40" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P40" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q40" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R40" s="6" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="S40" s="6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <v>0.16</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4041,38 +4044,38 @@
       <c r="I41" s="5" t="n">
         <v>0.04</v>
       </c>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="6" t="n">
         <v>350</v>
       </c>
-      <c r="K41" s="5" t="n">
+      <c r="K41" s="6" t="n">
         <v>1750</v>
       </c>
-      <c r="L41" s="5" t="n">
+      <c r="L41" s="6" t="n">
         <v>367.5</v>
       </c>
-      <c r="M41" s="5" t="n">
+      <c r="M41" s="6" t="n">
         <v>1837.5</v>
       </c>
-      <c r="N41" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O41" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P41" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q41" s="5" t="n">
+      <c r="N41" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P41" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q41" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="R41" s="5" t="n">
-        <v>1837.57</v>
-      </c>
-      <c r="S41" s="5" t="n">
-        <v>367.51</v>
-      </c>
-      <c r="T41" s="5" t="n">
-        <v>2638.74</v>
+      <c r="R41" s="6" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="S41" s="6" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="T41" s="6" t="n">
+        <v>2.44</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4127,38 +4130,38 @@
       <c r="I42" s="5" t="n">
         <v>4.5</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="K42" s="5" t="n">
+      <c r="K42" s="6" t="n">
         <v>4000</v>
       </c>
-      <c r="L42" s="5" t="n">
+      <c r="L42" s="6" t="n">
         <v>8.4</v>
       </c>
-      <c r="M42" s="5" t="n">
+      <c r="M42" s="6" t="n">
         <v>4200</v>
       </c>
-      <c r="N42" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O42" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P42" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q42" s="5" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="R42" s="5" t="n">
-        <v>4207.33</v>
-      </c>
-      <c r="S42" s="5" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="T42" s="5" t="n">
-        <v>60.42</v>
+      <c r="N42" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q42" s="6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="R42" s="6" t="n">
+        <v>2116.73</v>
+      </c>
+      <c r="S42" s="6" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="T42" s="6" t="n">
+        <v>0.59</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4209,38 +4212,38 @@
       <c r="I43" s="5" t="n">
         <v>0.04</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="L43" s="5" t="n">
+      <c r="L43" s="6" t="n">
         <v>115.5</v>
       </c>
-      <c r="M43" s="5" t="n">
+      <c r="M43" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="N43" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O43" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P43" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q43" s="5" t="n">
+      <c r="N43" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P43" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q43" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="R43" s="5" t="n">
-        <v>462.07</v>
-      </c>
-      <c r="S43" s="5" t="n">
-        <v>115.52</v>
-      </c>
-      <c r="T43" s="5" t="n">
-        <v>829.41</v>
+      <c r="R43" s="6" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="S43" s="6" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="T43" s="6" t="n">
+        <v>0.77</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4291,38 +4294,38 @@
       <c r="I44" s="5" t="n">
         <v>0.04</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="6" t="n">
         <v>186.45</v>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="6" t="n">
         <v>932.25</v>
       </c>
-      <c r="L44" s="5" t="n">
+      <c r="L44" s="6" t="n">
         <v>195.77</v>
       </c>
-      <c r="M44" s="5" t="n">
+      <c r="M44" s="6" t="n">
         <v>978.86</v>
       </c>
-      <c r="N44" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O44" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P44" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q44" s="5" t="n">
+      <c r="N44" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q44" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="R44" s="5" t="n">
-        <v>978.9299999999999</v>
-      </c>
-      <c r="S44" s="5" t="n">
-        <v>195.79</v>
-      </c>
-      <c r="T44" s="5" t="n">
-        <v>1405.74</v>
+      <c r="R44" s="6" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="S44" s="6" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="T44" s="6" t="n">
+        <v>1.3</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4377,38 +4380,38 @@
       <c r="I45" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="6" t="n">
         <v>4950</v>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="6" t="n">
         <v>9900</v>
       </c>
-      <c r="L45" s="5" t="n">
+      <c r="L45" s="6" t="n">
         <v>5197.5</v>
       </c>
-      <c r="M45" s="5" t="n">
+      <c r="M45" s="6" t="n">
         <v>10395</v>
       </c>
-      <c r="N45" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O45" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P45" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q45" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R45" s="5" t="n">
-        <v>10395.03</v>
-      </c>
-      <c r="S45" s="5" t="n">
-        <v>5197.52</v>
-      </c>
-      <c r="T45" s="5" t="n">
-        <v>37318.17</v>
+      <c r="N45" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P45" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q45" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R45" s="6" t="n">
+        <v>495.31</v>
+      </c>
+      <c r="S45" s="6" t="n">
+        <v>247.66</v>
+      </c>
+      <c r="T45" s="6" t="n">
+        <v>34.49</v>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
@@ -4463,38 +4466,38 @@
       <c r="I46" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="K46" s="5" t="n">
+      <c r="K46" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="L46" s="5" t="n">
+      <c r="L46" s="6" t="n">
         <v>6.82</v>
       </c>
-      <c r="M46" s="5" t="n">
+      <c r="M46" s="6" t="n">
         <v>68.25</v>
       </c>
-      <c r="N46" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O46" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P46" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q46" s="5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R46" s="5" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="S46" s="5" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="T46" s="5" t="n">
-        <v>49.11</v>
+      <c r="N46" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P46" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q46" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R46" s="6" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S46" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T46" s="6" t="n">
+        <v>0.06</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4549,38 +4552,38 @@
       <c r="I47" s="5" t="n">
         <v>0.09</v>
       </c>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="6" t="n">
         <v>6.5</v>
       </c>
-      <c r="K47" s="5" t="n">
+      <c r="K47" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="L47" s="5" t="n">
+      <c r="L47" s="6" t="n">
         <v>6.82</v>
       </c>
-      <c r="M47" s="5" t="n">
+      <c r="M47" s="6" t="n">
         <v>68.25</v>
       </c>
-      <c r="N47" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O47" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P47" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q47" s="5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="R47" s="5" t="n">
-        <v>68.40000000000001</v>
-      </c>
-      <c r="S47" s="5" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="T47" s="5" t="n">
-        <v>49.11</v>
+      <c r="N47" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P47" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q47" s="6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="R47" s="6" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S47" s="6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>0.06</v>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
@@ -4635,38 +4638,38 @@
       <c r="I48" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J48" s="5" t="n">
+      <c r="J48" s="6" t="n">
         <v>220</v>
       </c>
-      <c r="K48" s="5" t="n">
+      <c r="K48" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="L48" s="5" t="n">
+      <c r="L48" s="6" t="n">
         <v>231</v>
       </c>
-      <c r="M48" s="5" t="n">
+      <c r="M48" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="N48" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O48" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P48" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q48" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R48" s="5" t="n">
-        <v>462.03</v>
-      </c>
-      <c r="S48" s="5" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T48" s="5" t="n">
-        <v>1658.7</v>
+      <c r="N48" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q48" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R48" s="6" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="S48" s="6" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="T48" s="6" t="n">
+        <v>1.54</v>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
@@ -4721,38 +4724,38 @@
       <c r="I49" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J49" s="5" t="n">
+      <c r="J49" s="6" t="n">
         <v>220</v>
       </c>
-      <c r="K49" s="5" t="n">
+      <c r="K49" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="L49" s="5" t="n">
+      <c r="L49" s="6" t="n">
         <v>231</v>
       </c>
-      <c r="M49" s="5" t="n">
+      <c r="M49" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="N49" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O49" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P49" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q49" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R49" s="5" t="n">
-        <v>462.03</v>
-      </c>
-      <c r="S49" s="5" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T49" s="5" t="n">
-        <v>1658.7</v>
+      <c r="N49" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P49" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q49" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R49" s="6" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="S49" s="6" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="T49" s="6" t="n">
+        <v>1.54</v>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
@@ -4807,38 +4810,38 @@
       <c r="I50" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J50" s="5" t="n">
+      <c r="J50" s="6" t="n">
         <v>220</v>
       </c>
-      <c r="K50" s="5" t="n">
+      <c r="K50" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="L50" s="5" t="n">
+      <c r="L50" s="6" t="n">
         <v>231</v>
       </c>
-      <c r="M50" s="5" t="n">
+      <c r="M50" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="N50" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O50" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P50" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q50" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R50" s="5" t="n">
-        <v>462.03</v>
-      </c>
-      <c r="S50" s="5" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T50" s="5" t="n">
-        <v>1658.7</v>
+      <c r="N50" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P50" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q50" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R50" s="6" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="S50" s="6" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="T50" s="6" t="n">
+        <v>1.54</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4893,38 +4896,38 @@
       <c r="I51" s="5" t="n">
         <v>0.02</v>
       </c>
-      <c r="J51" s="5" t="n">
+      <c r="J51" s="6" t="n">
         <v>220</v>
       </c>
-      <c r="K51" s="5" t="n">
+      <c r="K51" s="6" t="n">
         <v>440</v>
       </c>
-      <c r="L51" s="5" t="n">
+      <c r="L51" s="6" t="n">
         <v>231</v>
       </c>
-      <c r="M51" s="5" t="n">
+      <c r="M51" s="6" t="n">
         <v>462</v>
       </c>
-      <c r="N51" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O51" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P51" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q51" s="5" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R51" s="5" t="n">
-        <v>462.03</v>
-      </c>
-      <c r="S51" s="5" t="n">
-        <v>231.02</v>
-      </c>
-      <c r="T51" s="5" t="n">
-        <v>1658.7</v>
+      <c r="N51" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P51" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q51" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="S51" s="6" t="n">
+        <v>11.02</v>
+      </c>
+      <c r="T51" s="6" t="n">
+        <v>1.54</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -4979,38 +4982,38 @@
       <c r="I52" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="J52" s="5" t="n">
+      <c r="J52" s="6" t="n">
         <v>328</v>
       </c>
-      <c r="K52" s="5" t="n">
+      <c r="K52" s="6" t="n">
         <v>656</v>
       </c>
-      <c r="L52" s="5" t="n">
+      <c r="L52" s="6" t="n">
         <v>344.4</v>
       </c>
-      <c r="M52" s="5" t="n">
+      <c r="M52" s="6" t="n">
         <v>688.8</v>
       </c>
-      <c r="N52" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O52" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P52" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q52" s="5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="R52" s="5" t="n">
-        <v>695.65</v>
-      </c>
-      <c r="S52" s="5" t="n">
-        <v>347.82</v>
-      </c>
-      <c r="T52" s="5" t="n">
-        <v>2497.37</v>
+      <c r="N52" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q52" s="6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R52" s="6" t="n">
+        <v>1702.41</v>
+      </c>
+      <c r="S52" s="6" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="T52" s="6" t="n">
+        <v>118.55</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5065,38 +5068,38 @@
       <c r="I53" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J53" s="5" t="n">
+      <c r="J53" s="6" t="n">
         <v>328</v>
       </c>
-      <c r="K53" s="5" t="n">
+      <c r="K53" s="6" t="n">
         <v>656</v>
       </c>
-      <c r="L53" s="5" t="n">
+      <c r="L53" s="6" t="n">
         <v>344.4</v>
       </c>
-      <c r="M53" s="5" t="n">
+      <c r="M53" s="6" t="n">
         <v>688.8</v>
       </c>
-      <c r="N53" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O53" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P53" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q53" s="5" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R53" s="5" t="n">
-        <v>695.3200000000001</v>
-      </c>
-      <c r="S53" s="5" t="n">
-        <v>347.66</v>
-      </c>
-      <c r="T53" s="5" t="n">
-        <v>2496.2</v>
+      <c r="N53" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q53" s="6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R53" s="6" t="n">
+        <v>1547.19</v>
+      </c>
+      <c r="S53" s="6" t="n">
+        <v>773.59</v>
+      </c>
+      <c r="T53" s="6" t="n">
+        <v>107.74</v>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
@@ -5151,38 +5154,38 @@
       <c r="I54" s="5" t="n">
         <v>2.88</v>
       </c>
-      <c r="J54" s="5" t="n">
+      <c r="J54" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="K54" s="5" t="n">
+      <c r="K54" s="6" t="n">
         <v>1560</v>
       </c>
-      <c r="L54" s="5" t="n">
+      <c r="L54" s="6" t="n">
         <v>546</v>
       </c>
-      <c r="M54" s="5" t="n">
+      <c r="M54" s="6" t="n">
         <v>1638</v>
       </c>
-      <c r="N54" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O54" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P54" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q54" s="5" t="n">
-        <v>4.69</v>
-      </c>
-      <c r="R54" s="5" t="n">
-        <v>1642.69</v>
-      </c>
-      <c r="S54" s="5" t="n">
-        <v>547.5599999999999</v>
-      </c>
-      <c r="T54" s="5" t="n">
-        <v>3931.52</v>
+      <c r="N54" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O54" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P54" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q54" s="6" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="R54" s="6" t="n">
+        <v>863.09</v>
+      </c>
+      <c r="S54" s="6" t="n">
+        <v>287.7</v>
+      </c>
+      <c r="T54" s="6" t="n">
+        <v>40.07</v>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
@@ -5237,38 +5240,38 @@
       <c r="I55" s="5" t="n">
         <v>3.5</v>
       </c>
-      <c r="J55" s="5" t="n">
+      <c r="J55" s="6" t="n">
         <v>158.2</v>
       </c>
-      <c r="K55" s="5" t="n">
+      <c r="K55" s="6" t="n">
         <v>632.8</v>
       </c>
-      <c r="L55" s="5" t="n">
+      <c r="L55" s="6" t="n">
         <v>166.11</v>
       </c>
-      <c r="M55" s="5" t="n">
+      <c r="M55" s="6" t="n">
         <v>664.4400000000001</v>
       </c>
-      <c r="N55" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O55" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P55" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q55" s="5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R55" s="5" t="n">
-        <v>670.14</v>
-      </c>
-      <c r="S55" s="5" t="n">
-        <v>167.54</v>
-      </c>
-      <c r="T55" s="5" t="n">
-        <v>1202.91</v>
+      <c r="N55" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O55" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P55" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q55" s="6" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="R55" s="6" t="n">
+        <v>1191.1</v>
+      </c>
+      <c r="S55" s="6" t="n">
+        <v>297.77</v>
+      </c>
+      <c r="T55" s="6" t="n">
+        <v>41.47</v>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
@@ -5323,38 +5326,38 @@
       <c r="I56" s="5" t="n">
         <v>2.5</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="6" t="n">
         <v>1300</v>
       </c>
-      <c r="K56" s="5" t="n">
+      <c r="K56" s="6" t="n">
         <v>2600</v>
       </c>
-      <c r="L56" s="5" t="n">
+      <c r="L56" s="6" t="n">
         <v>1365</v>
       </c>
-      <c r="M56" s="5" t="n">
+      <c r="M56" s="6" t="n">
         <v>2730</v>
       </c>
-      <c r="N56" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O56" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P56" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q56" s="5" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="R56" s="5" t="n">
-        <v>2734.07</v>
-      </c>
-      <c r="S56" s="5" t="n">
-        <v>1367.04</v>
-      </c>
-      <c r="T56" s="5" t="n">
-        <v>9815.33</v>
+      <c r="N56" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P56" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q56" s="6" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="R56" s="6" t="n">
+        <v>721.62</v>
+      </c>
+      <c r="S56" s="6" t="n">
+        <v>360.81</v>
+      </c>
+      <c r="T56" s="6" t="n">
+        <v>50.25</v>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
@@ -5409,38 +5412,38 @@
       <c r="I57" s="5" t="n">
         <v>1.2</v>
       </c>
-      <c r="J57" s="5" t="n">
+      <c r="J57" s="6" t="n">
         <v>1380</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K57" s="6" t="n">
         <v>1380</v>
       </c>
-      <c r="L57" s="5" t="n">
+      <c r="L57" s="6" t="n">
         <v>1449</v>
       </c>
-      <c r="M57" s="5" t="n">
+      <c r="M57" s="6" t="n">
         <v>1449</v>
       </c>
-      <c r="N57" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O57" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P57" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q57" s="5" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R57" s="5" t="n">
-        <v>1450.96</v>
-      </c>
-      <c r="S57" s="5" t="n">
-        <v>1450.96</v>
-      </c>
-      <c r="T57" s="5" t="n">
-        <v>10417.86</v>
+      <c r="N57" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O57" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P57" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q57" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R57" s="6" t="n">
+        <v>205.33</v>
+      </c>
+      <c r="S57" s="6" t="n">
+        <v>205.33</v>
+      </c>
+      <c r="T57" s="6" t="n">
+        <v>28.6</v>
       </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
@@ -5495,38 +5498,38 @@
       <c r="I58" s="5" t="n">
         <v>2.12</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="6" t="n">
         <v>15.06</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K58" s="6" t="n">
         <v>677.7</v>
       </c>
-      <c r="L58" s="5" t="n">
+      <c r="L58" s="6" t="n">
         <v>15.81</v>
       </c>
-      <c r="M58" s="5" t="n">
+      <c r="M58" s="6" t="n">
         <v>711.58</v>
       </c>
-      <c r="N58" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O58" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P58" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q58" s="5" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="R58" s="5" t="n">
-        <v>715.04</v>
-      </c>
-      <c r="S58" s="5" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="T58" s="5" t="n">
-        <v>114.09</v>
+      <c r="N58" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O58" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P58" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q58" s="6" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="R58" s="6" t="n">
+        <v>459.29</v>
+      </c>
+      <c r="S58" s="6" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="T58" s="6" t="n">
+        <v>1.42</v>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
@@ -5581,38 +5584,38 @@
       <c r="I59" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="J59" s="5" t="n">
+      <c r="J59" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K59" s="5" t="n">
+      <c r="K59" s="6" t="n">
         <v>87.5</v>
       </c>
-      <c r="L59" s="5" t="n">
+      <c r="L59" s="6" t="n">
         <v>3.68</v>
       </c>
-      <c r="M59" s="5" t="n">
+      <c r="M59" s="6" t="n">
         <v>91.88</v>
       </c>
-      <c r="N59" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O59" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P59" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q59" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R59" s="5" t="n">
-        <v>92.04000000000001</v>
-      </c>
-      <c r="S59" s="5" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="T59" s="5" t="n">
-        <v>26.43</v>
+      <c r="N59" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O59" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P59" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q59" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R59" s="6" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="S59" s="6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T59" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
@@ -5667,38 +5670,38 @@
       <c r="I60" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J60" s="5" t="n">
+      <c r="J60" s="6" t="n">
         <v>14.6</v>
       </c>
-      <c r="K60" s="5" t="n">
+      <c r="K60" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="L60" s="5" t="n">
+      <c r="L60" s="6" t="n">
         <v>15.33</v>
       </c>
-      <c r="M60" s="5" t="n">
+      <c r="M60" s="6" t="n">
         <v>76.65000000000001</v>
       </c>
-      <c r="N60" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O60" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P60" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q60" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R60" s="5" t="n">
-        <v>76.98</v>
-      </c>
-      <c r="S60" s="5" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="T60" s="5" t="n">
-        <v>110.54</v>
+      <c r="N60" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O60" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P60" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q60" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R60" s="6" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="S60" s="6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="T60" s="6" t="n">
+        <v>0.21</v>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
@@ -5753,38 +5756,38 @@
       <c r="I61" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J61" s="5" t="n">
+      <c r="J61" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="K61" s="5" t="n">
+      <c r="K61" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L61" s="5" t="n">
+      <c r="L61" s="6" t="n">
         <v>10.5</v>
       </c>
-      <c r="M61" s="5" t="n">
+      <c r="M61" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="N61" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O61" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P61" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q61" s="5" t="n">
+      <c r="N61" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O61" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P61" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q61" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R61" s="6" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S61" s="6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T61" s="6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="R61" s="5" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="S61" s="5" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="T61" s="5" t="n">
-        <v>76.56</v>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
@@ -5839,38 +5842,38 @@
       <c r="I62" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J62" s="5" t="n">
+      <c r="J62" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="K62" s="5" t="n">
+      <c r="K62" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L62" s="5" t="n">
+      <c r="L62" s="6" t="n">
         <v>10.5</v>
       </c>
-      <c r="M62" s="5" t="n">
+      <c r="M62" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="N62" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O62" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P62" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q62" s="5" t="n">
+      <c r="N62" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P62" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q62" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R62" s="6" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S62" s="6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T62" s="6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="R62" s="5" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="S62" s="5" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="T62" s="5" t="n">
-        <v>76.56</v>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
@@ -5925,38 +5928,38 @@
       <c r="I63" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J63" s="5" t="n">
+      <c r="J63" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="K63" s="5" t="n">
+      <c r="K63" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L63" s="5" t="n">
+      <c r="L63" s="6" t="n">
         <v>10.5</v>
       </c>
-      <c r="M63" s="5" t="n">
+      <c r="M63" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="N63" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O63" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P63" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q63" s="5" t="n">
+      <c r="N63" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P63" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q63" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R63" s="6" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S63" s="6" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="T63" s="6" t="n">
         <v>0.33</v>
-      </c>
-      <c r="R63" s="5" t="n">
-        <v>21.33</v>
-      </c>
-      <c r="S63" s="5" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="T63" s="5" t="n">
-        <v>76.56</v>
       </c>
       <c r="U63" s="4" t="inlineStr">
         <is>
@@ -6013,38 +6016,38 @@
       <c r="I64" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="J64" s="5" t="n">
+      <c r="J64" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="K64" s="5" t="n">
+      <c r="K64" s="6" t="n">
         <v>825</v>
       </c>
-      <c r="L64" s="5" t="n">
+      <c r="L64" s="6" t="n">
         <v>57.75</v>
       </c>
-      <c r="M64" s="5" t="n">
+      <c r="M64" s="6" t="n">
         <v>866.25</v>
       </c>
-      <c r="N64" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O64" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P64" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q64" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R64" s="5" t="n">
-        <v>866.41</v>
-      </c>
-      <c r="S64" s="5" t="n">
-        <v>57.76</v>
-      </c>
-      <c r="T64" s="5" t="n">
-        <v>414.72</v>
+      <c r="N64" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P64" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q64" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R64" s="6" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="S64" s="6" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="T64" s="6" t="n">
+        <v>0.39</v>
       </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
@@ -6100,38 +6103,38 @@
       <c r="I65" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J65" s="5" t="n">
+      <c r="J65" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="K65" s="5" t="n">
+      <c r="K65" s="6" t="n">
         <v>275</v>
       </c>
-      <c r="L65" s="5" t="n">
+      <c r="L65" s="6" t="n">
         <v>57.75</v>
       </c>
-      <c r="M65" s="5" t="n">
+      <c r="M65" s="6" t="n">
         <v>288.75</v>
       </c>
-      <c r="N65" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O65" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P65" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q65" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R65" s="5" t="n">
-        <v>289.08</v>
-      </c>
-      <c r="S65" s="5" t="n">
-        <v>57.82</v>
-      </c>
-      <c r="T65" s="5" t="n">
-        <v>415.11</v>
+      <c r="N65" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P65" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q65" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R65" s="6" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="S65" s="6" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="T65" s="6" t="n">
+        <v>0.49</v>
       </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
@@ -6186,38 +6189,38 @@
       <c r="I66" s="5" t="n">
         <v>0.14</v>
       </c>
-      <c r="J66" s="5" t="n">
+      <c r="J66" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="K66" s="5" t="n">
+      <c r="K66" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="L66" s="5" t="n">
+      <c r="L66" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="M66" s="5" t="n">
+      <c r="M66" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="N66" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O66" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P66" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q66" s="5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="R66" s="5" t="n">
-        <v>105.23</v>
-      </c>
-      <c r="S66" s="5" t="n">
-        <v>21.05</v>
-      </c>
-      <c r="T66" s="5" t="n">
-        <v>151.11</v>
+      <c r="N66" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q66" s="6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="S66" s="6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>0.19</v>
       </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
@@ -6273,38 +6276,38 @@
       <c r="I67" s="5" t="n">
         <v>0.16</v>
       </c>
-      <c r="J67" s="5" t="n">
+      <c r="J67" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K67" s="5" t="n">
+      <c r="K67" s="6" t="n">
         <v>6.6</v>
       </c>
-      <c r="L67" s="5" t="n">
+      <c r="L67" s="6" t="n">
         <v>0.21</v>
       </c>
-      <c r="M67" s="5" t="n">
+      <c r="M67" s="6" t="n">
         <v>6.93</v>
       </c>
-      <c r="N67" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O67" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P67" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q67" s="5" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R67" s="5" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="S67" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T67" s="5" t="n">
-        <v>1.56</v>
+      <c r="N67" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O67" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P67" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q67" s="6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S67" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T67" s="6" t="n">
+        <v>0.01</v>
       </c>
       <c r="U67" s="4" t="inlineStr">
         <is>
@@ -6359,38 +6362,38 @@
       <c r="I68" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J68" s="5" t="n">
+      <c r="J68" s="6" t="n">
         <v>4.6</v>
       </c>
-      <c r="K68" s="5" t="n">
+      <c r="K68" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="L68" s="5" t="n">
+      <c r="L68" s="6" t="n">
         <v>4.83</v>
       </c>
-      <c r="M68" s="5" t="n">
+      <c r="M68" s="6" t="n">
         <v>483</v>
       </c>
-      <c r="N68" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O68" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P68" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q68" s="5" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="R68" s="5" t="n">
-        <v>487.89</v>
-      </c>
-      <c r="S68" s="5" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="T68" s="5" t="n">
-        <v>35.03</v>
+      <c r="N68" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q68" s="6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R68" s="6" t="n">
+        <v>874.84</v>
+      </c>
+      <c r="S68" s="6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="T68" s="6" t="n">
+        <v>1.22</v>
       </c>
       <c r="U68" s="4" t="inlineStr">
         <is>
@@ -6445,38 +6448,38 @@
       <c r="I69" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J69" s="5" t="n">
+      <c r="J69" s="6" t="n">
         <v>2.28</v>
       </c>
-      <c r="K69" s="5" t="n">
+      <c r="K69" s="6" t="n">
         <v>136.8</v>
       </c>
-      <c r="L69" s="5" t="n">
+      <c r="L69" s="6" t="n">
         <v>2.39</v>
       </c>
-      <c r="M69" s="5" t="n">
+      <c r="M69" s="6" t="n">
         <v>143.64</v>
       </c>
-      <c r="N69" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O69" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P69" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q69" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R69" s="5" t="n">
-        <v>145.27</v>
-      </c>
-      <c r="S69" s="5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T69" s="5" t="n">
-        <v>17.38</v>
+      <c r="N69" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O69" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P69" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q69" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R69" s="6" t="n">
+        <v>101.49</v>
+      </c>
+      <c r="S69" s="6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T69" s="6" t="n">
+        <v>0.24</v>
       </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
@@ -6531,38 +6534,38 @@
       <c r="I70" s="5" t="n">
         <v>2.3</v>
       </c>
-      <c r="J70" s="5" t="n">
+      <c r="J70" s="6" t="n">
         <v>157</v>
       </c>
-      <c r="K70" s="5" t="n">
+      <c r="K70" s="6" t="n">
         <v>314</v>
       </c>
-      <c r="L70" s="5" t="n">
+      <c r="L70" s="6" t="n">
         <v>164.85</v>
       </c>
-      <c r="M70" s="5" t="n">
+      <c r="M70" s="6" t="n">
         <v>329.7</v>
       </c>
-      <c r="N70" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O70" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P70" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q70" s="5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R70" s="5" t="n">
-        <v>333.45</v>
-      </c>
-      <c r="S70" s="5" t="n">
-        <v>166.72</v>
-      </c>
-      <c r="T70" s="5" t="n">
-        <v>1197.08</v>
+      <c r="N70" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P70" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q70" s="6" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="R70" s="6" t="n">
+        <v>516.4</v>
+      </c>
+      <c r="S70" s="6" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="T70" s="6" t="n">
+        <v>35.96</v>
       </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
@@ -6617,38 +6620,38 @@
       <c r="I71" s="5" t="n">
         <v>2.06</v>
       </c>
-      <c r="J71" s="5" t="n">
+      <c r="J71" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="K71" s="5" t="n">
+      <c r="K71" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="L71" s="5" t="n">
+      <c r="L71" s="6" t="n">
         <v>5.25</v>
       </c>
-      <c r="M71" s="5" t="n">
+      <c r="M71" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="N71" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O71" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P71" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q71" s="5" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="R71" s="5" t="n">
-        <v>108.36</v>
-      </c>
-      <c r="S71" s="5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="T71" s="5" t="n">
-        <v>38.9</v>
+      <c r="N71" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P71" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q71" s="6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="R71" s="6" t="n">
+        <v>406.65</v>
+      </c>
+      <c r="S71" s="6" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="T71" s="6" t="n">
+        <v>2.83</v>
       </c>
       <c r="U71" s="4" t="inlineStr">
         <is>
@@ -6703,38 +6706,38 @@
       <c r="I72" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J72" s="5" t="n">
+      <c r="J72" s="6" t="n">
         <v>31.18</v>
       </c>
-      <c r="K72" s="5" t="n">
+      <c r="K72" s="6" t="n">
         <v>62.36</v>
       </c>
-      <c r="L72" s="5" t="n">
+      <c r="L72" s="6" t="n">
         <v>32.74</v>
       </c>
-      <c r="M72" s="5" t="n">
+      <c r="M72" s="6" t="n">
         <v>65.48</v>
       </c>
-      <c r="N72" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O72" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P72" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q72" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R72" s="5" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="S72" s="5" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="T72" s="5" t="n">
-        <v>236.24</v>
+      <c r="N72" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P72" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q72" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="S72" s="6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T72" s="6" t="n">
+        <v>0.48</v>
       </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
@@ -6789,38 +6792,38 @@
       <c r="I73" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J73" s="5" t="n">
+      <c r="J73" s="6" t="n">
         <v>255.27</v>
       </c>
-      <c r="K73" s="5" t="n">
+      <c r="K73" s="6" t="n">
         <v>255.27</v>
       </c>
-      <c r="L73" s="5" t="n">
+      <c r="L73" s="6" t="n">
         <v>268.03</v>
       </c>
-      <c r="M73" s="5" t="n">
+      <c r="M73" s="6" t="n">
         <v>268.03</v>
       </c>
-      <c r="N73" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O73" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P73" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q73" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R73" s="5" t="n">
-        <v>268.36</v>
-      </c>
-      <c r="S73" s="5" t="n">
-        <v>268.36</v>
-      </c>
-      <c r="T73" s="5" t="n">
-        <v>1926.82</v>
+      <c r="N73" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O73" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P73" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q73" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R73" s="6" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="S73" s="6" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="T73" s="6" t="n">
+        <v>2.31</v>
       </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
@@ -6875,38 +6878,38 @@
       <c r="I74" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J74" s="5" t="n">
+      <c r="J74" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="K74" s="5" t="n">
+      <c r="K74" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="L74" s="5" t="n">
+      <c r="L74" s="6" t="n">
         <v>15.75</v>
       </c>
-      <c r="M74" s="5" t="n">
+      <c r="M74" s="6" t="n">
         <v>157.5</v>
       </c>
-      <c r="N74" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O74" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P74" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q74" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R74" s="5" t="n">
-        <v>158.31</v>
-      </c>
-      <c r="S74" s="5" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="T74" s="5" t="n">
-        <v>113.67</v>
+      <c r="N74" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P74" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q74" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="S74" s="6" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="T74" s="6" t="n">
+        <v>0.43</v>
       </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
@@ -6961,38 +6964,38 @@
       <c r="I75" s="5" t="n">
         <v>0.55</v>
       </c>
-      <c r="J75" s="5" t="n">
+      <c r="J75" s="6" t="n">
         <v>1.08</v>
       </c>
-      <c r="K75" s="5" t="n">
+      <c r="K75" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="L75" s="5" t="n">
+      <c r="L75" s="6" t="n">
         <v>1.13</v>
       </c>
-      <c r="M75" s="5" t="n">
+      <c r="M75" s="6" t="n">
         <v>56.7</v>
       </c>
-      <c r="N75" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O75" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P75" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q75" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R75" s="5" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="S75" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T75" s="5" t="n">
-        <v>8.27</v>
+      <c r="N75" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O75" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P75" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q75" s="6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R75" s="6" t="n">
+        <v>31.33</v>
+      </c>
+      <c r="S75" s="6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T75" s="6" t="n">
+        <v>0.09</v>
       </c>
       <c r="U75" s="4" t="inlineStr">
         <is>
@@ -7051,38 +7054,38 @@
       <c r="I76" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="J76" s="5" t="n">
+      <c r="J76" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="K76" s="5" t="n">
+      <c r="K76" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="L76" s="5" t="n">
+      <c r="L76" s="6" t="n">
         <v>11.55</v>
       </c>
-      <c r="M76" s="5" t="n">
+      <c r="M76" s="6" t="n">
         <v>57.75</v>
       </c>
-      <c r="N76" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O76" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P76" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q76" s="5" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R76" s="5" t="n">
-        <v>58.73</v>
-      </c>
-      <c r="S76" s="5" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="T76" s="5" t="n">
-        <v>84.33</v>
+      <c r="N76" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O76" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P76" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q76" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R76" s="6" t="n">
+        <v>36.82</v>
+      </c>
+      <c r="S76" s="6" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="T76" s="6" t="n">
+        <v>1.03</v>
       </c>
       <c r="U76" s="4" t="inlineStr">
         <is>
@@ -7137,38 +7140,38 @@
       <c r="I77" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J77" s="5" t="n">
+      <c r="J77" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="K77" s="5" t="n">
+      <c r="K77" s="6" t="n">
         <v>16.4</v>
       </c>
-      <c r="L77" s="5" t="n">
+      <c r="L77" s="6" t="n">
         <v>0.04</v>
       </c>
-      <c r="M77" s="5" t="n">
+      <c r="M77" s="6" t="n">
         <v>17.22</v>
       </c>
-      <c r="N77" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O77" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P77" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q77" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R77" s="5" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="S77" s="5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T77" s="5" t="n">
-        <v>0.33</v>
+      <c r="N77" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O77" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P77" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q77" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R77" s="6" t="n">
+        <v>95.47</v>
+      </c>
+      <c r="S77" s="6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="T77" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U77" s="4" t="inlineStr">
         <is>
@@ -7223,38 +7226,38 @@
       <c r="I78" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J78" s="5" t="n">
+      <c r="J78" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="K78" s="5" t="n">
+      <c r="K78" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="L78" s="5" t="n">
+      <c r="L78" s="6" t="n">
         <v>4.73</v>
       </c>
-      <c r="M78" s="5" t="n">
+      <c r="M78" s="6" t="n">
         <v>472.5</v>
       </c>
-      <c r="N78" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O78" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P78" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q78" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R78" s="5" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="S78" s="5" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="T78" s="5" t="n">
-        <v>34.51</v>
+      <c r="N78" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O78" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P78" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q78" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R78" s="6" t="n">
+        <v>2388.71</v>
+      </c>
+      <c r="S78" s="6" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="T78" s="6" t="n">
+        <v>3.33</v>
       </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
@@ -7309,38 +7312,38 @@
       <c r="I79" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J79" s="5" t="n">
+      <c r="J79" s="6" t="n">
         <v>8.460000000000001</v>
       </c>
-      <c r="K79" s="5" t="n">
+      <c r="K79" s="6" t="n">
         <v>761.4</v>
       </c>
-      <c r="L79" s="5" t="n">
+      <c r="L79" s="6" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="M79" s="5" t="n">
+      <c r="M79" s="6" t="n">
         <v>799.47</v>
       </c>
-      <c r="N79" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O79" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P79" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q79" s="5" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="R79" s="5" t="n">
-        <v>817.4</v>
-      </c>
-      <c r="S79" s="5" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="T79" s="5" t="n">
-        <v>65.20999999999999</v>
+      <c r="N79" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O79" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P79" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q79" s="6" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="R79" s="6" t="n">
+        <v>11490.5</v>
+      </c>
+      <c r="S79" s="6" t="n">
+        <v>127.67</v>
+      </c>
+      <c r="T79" s="6" t="n">
+        <v>17.78</v>
       </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
@@ -7395,38 +7398,38 @@
       <c r="I80" s="5" t="n">
         <v>1.09</v>
       </c>
-      <c r="J80" s="5" t="n">
+      <c r="J80" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="K80" s="5" t="n">
+      <c r="K80" s="6" t="n">
         <v>900</v>
       </c>
-      <c r="L80" s="5" t="n">
+      <c r="L80" s="6" t="n">
         <v>472.5</v>
       </c>
-      <c r="M80" s="5" t="n">
+      <c r="M80" s="6" t="n">
         <v>945</v>
       </c>
-      <c r="N80" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O80" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P80" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q80" s="5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R80" s="5" t="n">
-        <v>946.78</v>
-      </c>
-      <c r="S80" s="5" t="n">
-        <v>473.39</v>
-      </c>
-      <c r="T80" s="5" t="n">
-        <v>3398.93</v>
+      <c r="N80" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O80" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P80" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q80" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" s="6" t="n">
+        <v>157.48</v>
+      </c>
+      <c r="S80" s="6" t="n">
+        <v>78.73999999999999</v>
+      </c>
+      <c r="T80" s="6" t="n">
+        <v>10.97</v>
       </c>
       <c r="U80" s="4" t="inlineStr">
         <is>
@@ -7481,38 +7484,38 @@
       <c r="I81" s="5" t="n">
         <v>0.3</v>
       </c>
-      <c r="J81" s="5" t="n">
+      <c r="J81" s="6" t="n">
         <v>0.83</v>
       </c>
-      <c r="K81" s="5" t="n">
+      <c r="K81" s="6" t="n">
         <v>25.73</v>
       </c>
-      <c r="L81" s="5" t="n">
+      <c r="L81" s="6" t="n">
         <v>0.87</v>
       </c>
-      <c r="M81" s="5" t="n">
+      <c r="M81" s="6" t="n">
         <v>27.02</v>
       </c>
-      <c r="N81" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O81" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P81" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q81" s="5" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R81" s="5" t="n">
-        <v>27.51</v>
-      </c>
-      <c r="S81" s="5" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="T81" s="5" t="n">
-        <v>6.37</v>
+      <c r="N81" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O81" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P81" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q81" s="6" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R81" s="6" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="S81" s="6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T81" s="6" t="n">
+        <v>0.04</v>
       </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
@@ -7567,38 +7570,38 @@
       <c r="I82" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="J82" s="5" t="n">
+      <c r="J82" s="6" t="n">
         <v>0.37</v>
       </c>
-      <c r="K82" s="5" t="n">
+      <c r="K82" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="L82" s="5" t="n">
+      <c r="L82" s="6" t="n">
         <v>0.39</v>
       </c>
-      <c r="M82" s="5" t="n">
+      <c r="M82" s="6" t="n">
         <v>38.85</v>
       </c>
-      <c r="N82" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O82" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P82" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q82" s="5" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="R82" s="5" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="S82" s="5" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T82" s="5" t="n">
+      <c r="N82" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O82" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P82" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q82" s="6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R82" s="6" t="n">
         <v>2.8</v>
+      </c>
+      <c r="S82" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T82" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="U82" s="4" t="inlineStr">
         <is>
@@ -7653,38 +7656,38 @@
       <c r="I83" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="J83" s="5" t="n">
+      <c r="J83" s="6" t="n">
         <v>9.1</v>
       </c>
-      <c r="K83" s="5" t="n">
+      <c r="K83" s="6" t="n">
         <v>54.6</v>
       </c>
-      <c r="L83" s="5" t="n">
+      <c r="L83" s="6" t="n">
         <v>9.56</v>
       </c>
-      <c r="M83" s="5" t="n">
+      <c r="M83" s="6" t="n">
         <v>57.33</v>
       </c>
-      <c r="N83" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O83" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P83" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q83" s="5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="R83" s="5" t="n">
-        <v>59.94</v>
-      </c>
-      <c r="S83" s="5" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="T83" s="5" t="n">
-        <v>71.73</v>
+      <c r="N83" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O83" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P83" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q83" s="6" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R83" s="6" t="n">
+        <v>245.03</v>
+      </c>
+      <c r="S83" s="6" t="n">
+        <v>40.84</v>
+      </c>
+      <c r="T83" s="6" t="n">
+        <v>5.69</v>
       </c>
       <c r="U83" s="4" t="inlineStr">
         <is>
@@ -7739,38 +7742,38 @@
       <c r="I84" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="J84" s="5" t="n">
+      <c r="J84" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="K84" s="5" t="n">
+      <c r="K84" s="6" t="n">
         <v>1440</v>
       </c>
-      <c r="L84" s="5" t="n">
+      <c r="L84" s="6" t="n">
         <v>756</v>
       </c>
-      <c r="M84" s="5" t="n">
+      <c r="M84" s="6" t="n">
         <v>1512</v>
       </c>
-      <c r="N84" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O84" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P84" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q84" s="5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="R84" s="5" t="n">
-        <v>1518.85</v>
-      </c>
-      <c r="S84" s="5" t="n">
-        <v>759.42</v>
-      </c>
-      <c r="T84" s="5" t="n">
-        <v>5452.66</v>
+      <c r="N84" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O84" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P84" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q84" s="6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R84" s="6" t="n">
+        <v>1741.63</v>
+      </c>
+      <c r="S84" s="6" t="n">
+        <v>870.8200000000001</v>
+      </c>
+      <c r="T84" s="6" t="n">
+        <v>121.28</v>
       </c>
       <c r="U84" s="4" t="inlineStr">
         <is>
@@ -7825,38 +7828,38 @@
       <c r="I85" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J85" s="5" t="n">
+      <c r="J85" s="6" t="n">
         <v>2.1</v>
       </c>
-      <c r="K85" s="5" t="n">
+      <c r="K85" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="L85" s="5" t="n">
+      <c r="L85" s="6" t="n">
         <v>2.2</v>
       </c>
-      <c r="M85" s="5" t="n">
+      <c r="M85" s="6" t="n">
         <v>88.2</v>
       </c>
-      <c r="N85" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O85" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P85" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q85" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R85" s="5" t="n">
-        <v>89.83</v>
-      </c>
-      <c r="S85" s="5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T85" s="5" t="n">
-        <v>16.12</v>
+      <c r="N85" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O85" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P85" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q85" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R85" s="6" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="S85" s="6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="T85" s="6" t="n">
+        <v>0.34</v>
       </c>
       <c r="U85" s="4" t="inlineStr">
         <is>
@@ -7911,38 +7914,38 @@
       <c r="I86" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="J86" s="5" t="n">
+      <c r="J86" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="K86" s="5" t="n">
+      <c r="K86" s="6" t="n">
         <v>290</v>
       </c>
-      <c r="L86" s="5" t="n">
+      <c r="L86" s="6" t="n">
         <v>152.25</v>
       </c>
-      <c r="M86" s="5" t="n">
+      <c r="M86" s="6" t="n">
         <v>304.5</v>
       </c>
-      <c r="N86" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O86" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P86" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q86" s="5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R86" s="5" t="n">
-        <v>305.8</v>
-      </c>
-      <c r="S86" s="5" t="n">
-        <v>152.9</v>
-      </c>
-      <c r="T86" s="5" t="n">
-        <v>1097.84</v>
+      <c r="N86" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O86" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P86" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q86" s="6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R86" s="6" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="S86" s="6" t="n">
+        <v>37.54</v>
+      </c>
+      <c r="T86" s="6" t="n">
+        <v>5.23</v>
       </c>
       <c r="U86" s="4" t="inlineStr">
         <is>
@@ -7997,38 +8000,38 @@
       <c r="I87" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J87" s="5" t="n">
+      <c r="J87" s="6" t="n">
         <v>16.7</v>
       </c>
-      <c r="K87" s="5" t="n">
+      <c r="K87" s="6" t="n">
         <v>835</v>
       </c>
-      <c r="L87" s="5" t="n">
+      <c r="L87" s="6" t="n">
         <v>17.54</v>
       </c>
-      <c r="M87" s="5" t="n">
+      <c r="M87" s="6" t="n">
         <v>876.75</v>
       </c>
-      <c r="N87" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O87" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P87" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q87" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R87" s="5" t="n">
-        <v>884.9</v>
-      </c>
-      <c r="S87" s="5" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="T87" s="5" t="n">
-        <v>127.07</v>
+      <c r="N87" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O87" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P87" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q87" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R87" s="6" t="n">
+        <v>2407.97</v>
+      </c>
+      <c r="S87" s="6" t="n">
+        <v>48.16</v>
+      </c>
+      <c r="T87" s="6" t="n">
+        <v>6.71</v>
       </c>
       <c r="U87" s="4" t="inlineStr">
         <is>
@@ -8083,38 +8086,38 @@
       <c r="I88" s="5" t="n">
         <v>5.2</v>
       </c>
-      <c r="J88" s="5" t="n">
+      <c r="J88" s="6" t="n">
         <v>9.9</v>
       </c>
-      <c r="K88" s="5" t="n">
+      <c r="K88" s="6" t="n">
         <v>990</v>
       </c>
-      <c r="L88" s="5" t="n">
+      <c r="L88" s="6" t="n">
         <v>10.4</v>
       </c>
-      <c r="M88" s="5" t="n">
+      <c r="M88" s="6" t="n">
         <v>1039.5</v>
       </c>
-      <c r="N88" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O88" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P88" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q88" s="5" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="R88" s="5" t="n">
-        <v>1047.98</v>
-      </c>
-      <c r="S88" s="5" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="T88" s="5" t="n">
-        <v>75.23999999999999</v>
+      <c r="N88" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O88" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P88" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q88" s="6" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="R88" s="6" t="n">
+        <v>2608.81</v>
+      </c>
+      <c r="S88" s="6" t="n">
+        <v>26.09</v>
+      </c>
+      <c r="T88" s="6" t="n">
+        <v>3.63</v>
       </c>
       <c r="U88" s="4" t="inlineStr">
         <is>
@@ -8169,38 +8172,38 @@
       <c r="I89" s="5" t="n">
         <v>5.8</v>
       </c>
-      <c r="J89" s="5" t="n">
+      <c r="J89" s="6" t="n">
         <v>55.9</v>
       </c>
-      <c r="K89" s="5" t="n">
+      <c r="K89" s="6" t="n">
         <v>111.8</v>
       </c>
-      <c r="L89" s="5" t="n">
+      <c r="L89" s="6" t="n">
         <v>58.7</v>
       </c>
-      <c r="M89" s="5" t="n">
+      <c r="M89" s="6" t="n">
         <v>117.39</v>
       </c>
-      <c r="N89" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O89" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P89" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q89" s="5" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="R89" s="5" t="n">
-        <v>126.84</v>
-      </c>
-      <c r="S89" s="5" t="n">
-        <v>63.42</v>
-      </c>
-      <c r="T89" s="5" t="n">
-        <v>455.37</v>
+      <c r="N89" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O89" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P89" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q89" s="6" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="R89" s="6" t="n">
+        <v>3189.55</v>
+      </c>
+      <c r="S89" s="6" t="n">
+        <v>1594.78</v>
+      </c>
+      <c r="T89" s="6" t="n">
+        <v>222.11</v>
       </c>
       <c r="U89" s="4" t="inlineStr">
         <is>
@@ -8255,38 +8258,38 @@
       <c r="I90" s="5" t="n">
         <v>5.2</v>
       </c>
-      <c r="J90" s="5" t="n">
+      <c r="J90" s="6" t="n">
         <v>9.9</v>
       </c>
-      <c r="K90" s="5" t="n">
+      <c r="K90" s="6" t="n">
         <v>920.7</v>
       </c>
-      <c r="L90" s="5" t="n">
+      <c r="L90" s="6" t="n">
         <v>10.4</v>
       </c>
-      <c r="M90" s="5" t="n">
+      <c r="M90" s="6" t="n">
         <v>966.74</v>
       </c>
-      <c r="N90" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O90" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P90" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q90" s="5" t="n">
-        <v>8.48</v>
-      </c>
-      <c r="R90" s="5" t="n">
-        <v>975.21</v>
-      </c>
-      <c r="S90" s="5" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="T90" s="5" t="n">
-        <v>75.29000000000001</v>
+      <c r="N90" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O90" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P90" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q90" s="6" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="R90" s="6" t="n">
+        <v>2605.34</v>
+      </c>
+      <c r="S90" s="6" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="T90" s="6" t="n">
+        <v>3.9</v>
       </c>
       <c r="U90" s="4" t="inlineStr">
         <is>
@@ -8341,38 +8344,38 @@
       <c r="I91" s="5" t="n">
         <v>5.8</v>
       </c>
-      <c r="J91" s="5" t="n">
+      <c r="J91" s="6" t="n">
         <v>1.36</v>
       </c>
-      <c r="K91" s="5" t="n">
+      <c r="K91" s="6" t="n">
         <v>57.12</v>
       </c>
-      <c r="L91" s="5" t="n">
+      <c r="L91" s="6" t="n">
         <v>1.43</v>
       </c>
-      <c r="M91" s="5" t="n">
+      <c r="M91" s="6" t="n">
         <v>59.98</v>
       </c>
-      <c r="N91" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O91" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P91" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q91" s="5" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="R91" s="5" t="n">
-        <v>69.43000000000001</v>
-      </c>
-      <c r="S91" s="5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="T91" s="5" t="n">
-        <v>11.87</v>
+      <c r="N91" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O91" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P91" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q91" s="6" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="R91" s="6" t="n">
+        <v>3186.82</v>
+      </c>
+      <c r="S91" s="6" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="T91" s="6" t="n">
+        <v>10.57</v>
       </c>
       <c r="U91" s="4" t="inlineStr">
         <is>
@@ -8427,38 +8430,38 @@
       <c r="I92" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="J92" s="5" t="n">
+      <c r="J92" s="6" t="n">
         <v>1550</v>
       </c>
-      <c r="K92" s="5" t="n">
+      <c r="K92" s="6" t="n">
         <v>13950</v>
       </c>
-      <c r="L92" s="5" t="n">
+      <c r="L92" s="6" t="n">
         <v>1627.5</v>
       </c>
-      <c r="M92" s="5" t="n">
+      <c r="M92" s="6" t="n">
         <v>14647.5</v>
       </c>
-      <c r="N92" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O92" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P92" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q92" s="5" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="R92" s="5" t="n">
-        <v>14665.43</v>
-      </c>
-      <c r="S92" s="5" t="n">
-        <v>1629.49</v>
-      </c>
-      <c r="T92" s="5" t="n">
-        <v>11699.75</v>
+      <c r="N92" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O92" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P92" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q92" s="6" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="R92" s="6" t="n">
+        <v>12150.29</v>
+      </c>
+      <c r="S92" s="6" t="n">
+        <v>1350.03</v>
+      </c>
+      <c r="T92" s="6" t="n">
+        <v>188.03</v>
       </c>
       <c r="U92" s="4" t="inlineStr">
         <is>
@@ -8513,38 +8516,38 @@
       <c r="I93" s="5" t="n">
         <v>2.98</v>
       </c>
-      <c r="J93" s="5" t="n">
+      <c r="J93" s="6" t="n">
         <v>200</v>
       </c>
-      <c r="K93" s="5" t="n">
+      <c r="K93" s="6" t="n">
         <v>2400</v>
       </c>
-      <c r="L93" s="5" t="n">
+      <c r="L93" s="6" t="n">
         <v>210</v>
       </c>
-      <c r="M93" s="5" t="n">
+      <c r="M93" s="6" t="n">
         <v>2520</v>
       </c>
-      <c r="N93" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O93" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P93" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q93" s="5" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="R93" s="5" t="n">
-        <v>2524.86</v>
-      </c>
-      <c r="S93" s="5" t="n">
-        <v>210.4</v>
-      </c>
-      <c r="T93" s="5" t="n">
-        <v>1510.71</v>
+      <c r="N93" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O93" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P93" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q93" s="6" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="R93" s="6" t="n">
+        <v>960.58</v>
+      </c>
+      <c r="S93" s="6" t="n">
+        <v>80.05</v>
+      </c>
+      <c r="T93" s="6" t="n">
+        <v>11.15</v>
       </c>
       <c r="U93" s="4" t="inlineStr">
         <is>
@@ -8599,38 +8602,38 @@
       <c r="I94" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J94" s="5" t="n">
+      <c r="J94" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="K94" s="5" t="n">
+      <c r="K94" s="6" t="n">
         <v>520</v>
       </c>
-      <c r="L94" s="5" t="n">
+      <c r="L94" s="6" t="n">
         <v>273</v>
       </c>
-      <c r="M94" s="5" t="n">
+      <c r="M94" s="6" t="n">
         <v>546</v>
       </c>
-      <c r="N94" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O94" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P94" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q94" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R94" s="5" t="n">
-        <v>554.15</v>
-      </c>
-      <c r="S94" s="5" t="n">
-        <v>277.07</v>
-      </c>
-      <c r="T94" s="5" t="n">
-        <v>1989.4</v>
+      <c r="N94" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O94" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P94" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q94" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R94" s="6" t="n">
+        <v>2392.21</v>
+      </c>
+      <c r="S94" s="6" t="n">
+        <v>1196.11</v>
+      </c>
+      <c r="T94" s="6" t="n">
+        <v>166.59</v>
       </c>
       <c r="U94" s="4" t="inlineStr">
         <is>
@@ -8685,38 +8688,38 @@
       <c r="I95" s="5" t="n">
         <v>5.78</v>
       </c>
-      <c r="J95" s="5" t="n">
+      <c r="J95" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="K95" s="5" t="n">
+      <c r="K95" s="6" t="n">
         <v>260</v>
       </c>
-      <c r="L95" s="5" t="n">
+      <c r="L95" s="6" t="n">
         <v>27.3</v>
       </c>
-      <c r="M95" s="5" t="n">
+      <c r="M95" s="6" t="n">
         <v>273</v>
       </c>
-      <c r="N95" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O95" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P95" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q95" s="5" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="R95" s="5" t="n">
-        <v>282.42</v>
-      </c>
-      <c r="S95" s="5" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="T95" s="5" t="n">
-        <v>202.78</v>
+      <c r="N95" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O95" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P95" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q95" s="6" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="R95" s="6" t="n">
+        <v>3175.05</v>
+      </c>
+      <c r="S95" s="6" t="n">
+        <v>317.5</v>
+      </c>
+      <c r="T95" s="6" t="n">
+        <v>44.22</v>
       </c>
       <c r="U95" s="4" t="inlineStr">
         <is>
@@ -8771,38 +8774,38 @@
       <c r="I96" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="J96" s="5" t="n">
+      <c r="J96" s="6" t="n">
         <v>2.45</v>
       </c>
-      <c r="K96" s="5" t="n">
+      <c r="K96" s="6" t="n">
         <v>171.5</v>
       </c>
-      <c r="L96" s="5" t="n">
+      <c r="L96" s="6" t="n">
         <v>2.57</v>
       </c>
-      <c r="M96" s="5" t="n">
+      <c r="M96" s="6" t="n">
         <v>180.08</v>
       </c>
-      <c r="N96" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O96" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P96" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q96" s="5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R96" s="5" t="n">
-        <v>182.52</v>
-      </c>
-      <c r="S96" s="5" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="T96" s="5" t="n">
-        <v>18.72</v>
+      <c r="N96" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O96" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P96" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q96" s="6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R96" s="6" t="n">
+        <v>221.54</v>
+      </c>
+      <c r="S96" s="6" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="T96" s="6" t="n">
+        <v>0.44</v>
       </c>
       <c r="U96" s="4" t="inlineStr">
         <is>
@@ -8857,38 +8860,38 @@
       <c r="I97" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="J97" s="5" t="n">
+      <c r="J97" s="6" t="n">
         <v>1.18</v>
       </c>
-      <c r="K97" s="5" t="n">
+      <c r="K97" s="6" t="n">
         <v>82.59999999999999</v>
       </c>
-      <c r="L97" s="5" t="n">
+      <c r="L97" s="6" t="n">
         <v>1.24</v>
       </c>
-      <c r="M97" s="5" t="n">
+      <c r="M97" s="6" t="n">
         <v>86.73</v>
       </c>
-      <c r="N97" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O97" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P97" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q97" s="5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R97" s="5" t="n">
-        <v>89.17</v>
-      </c>
-      <c r="S97" s="5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T97" s="5" t="n">
-        <v>9.15</v>
+      <c r="N97" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O97" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P97" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q97" s="6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R97" s="6" t="n">
+        <v>217.09</v>
+      </c>
+      <c r="S97" s="6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T97" s="6" t="n">
+        <v>0.43</v>
       </c>
       <c r="U97" s="4" t="inlineStr">
         <is>
@@ -8943,38 +8946,38 @@
       <c r="I98" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J98" s="5" t="n">
+      <c r="J98" s="6" t="n">
         <v>18.5</v>
       </c>
-      <c r="K98" s="5" t="n">
+      <c r="K98" s="6" t="n">
         <v>925</v>
       </c>
-      <c r="L98" s="5" t="n">
+      <c r="L98" s="6" t="n">
         <v>19.42</v>
       </c>
-      <c r="M98" s="5" t="n">
+      <c r="M98" s="6" t="n">
         <v>971.25</v>
       </c>
-      <c r="N98" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O98" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P98" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q98" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R98" s="5" t="n">
-        <v>972.88</v>
-      </c>
-      <c r="S98" s="5" t="n">
-        <v>19.46</v>
-      </c>
-      <c r="T98" s="5" t="n">
-        <v>139.71</v>
+      <c r="N98" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O98" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P98" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q98" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R98" s="6" t="n">
+        <v>140.92</v>
+      </c>
+      <c r="S98" s="6" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T98" s="6" t="n">
+        <v>0.39</v>
       </c>
       <c r="U98" s="4" t="inlineStr">
         <is>
@@ -9029,38 +9032,38 @@
       <c r="I99" s="5" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="J99" s="5" t="n">
+      <c r="J99" s="6" t="n">
         <v>2.5</v>
       </c>
-      <c r="K99" s="5" t="n">
+      <c r="K99" s="6" t="n">
         <v>870</v>
       </c>
-      <c r="L99" s="5" t="n">
+      <c r="L99" s="6" t="n">
         <v>2.62</v>
       </c>
-      <c r="M99" s="5" t="n">
+      <c r="M99" s="6" t="n">
         <v>913.5</v>
       </c>
-      <c r="N99" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O99" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P99" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q99" s="5" t="n">
-        <v>15.16</v>
-      </c>
-      <c r="R99" s="5" t="n">
-        <v>928.66</v>
-      </c>
-      <c r="S99" s="5" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="T99" s="5" t="n">
-        <v>19.16</v>
+      <c r="N99" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O99" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P99" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q99" s="6" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="R99" s="6" t="n">
+        <v>8229.629999999999</v>
+      </c>
+      <c r="S99" s="6" t="n">
+        <v>23.65</v>
+      </c>
+      <c r="T99" s="6" t="n">
+        <v>3.29</v>
       </c>
       <c r="U99" s="4" t="inlineStr">
         <is>
@@ -9115,38 +9118,38 @@
       <c r="I100" s="5" t="n">
         <v>2.56</v>
       </c>
-      <c r="J100" s="5" t="n">
+      <c r="J100" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="K100" s="5" t="n">
+      <c r="K100" s="6" t="n">
         <v>840</v>
       </c>
-      <c r="L100" s="5" t="n">
+      <c r="L100" s="6" t="n">
         <v>44.1</v>
       </c>
-      <c r="M100" s="5" t="n">
+      <c r="M100" s="6" t="n">
         <v>882</v>
       </c>
-      <c r="N100" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O100" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P100" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q100" s="5" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="R100" s="5" t="n">
-        <v>886.17</v>
-      </c>
-      <c r="S100" s="5" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="T100" s="5" t="n">
-        <v>318.14</v>
+      <c r="N100" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O100" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P100" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q100" s="6" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R100" s="6" t="n">
+        <v>662.3099999999999</v>
+      </c>
+      <c r="S100" s="6" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="T100" s="6" t="n">
+        <v>4.61</v>
       </c>
       <c r="U100" s="4" t="inlineStr">
         <is>
@@ -9201,38 +9204,38 @@
       <c r="I101" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J101" s="5" t="n">
+      <c r="J101" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K101" s="5" t="n">
+      <c r="K101" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L101" s="5" t="n">
+      <c r="L101" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M101" s="5" t="n">
+      <c r="M101" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N101" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O101" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P101" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q101" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R101" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S101" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T101" s="5" t="n">
-        <v>1.04</v>
+      <c r="N101" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O101" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P101" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q101" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R101" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S101" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T101" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U101" s="4" t="inlineStr">
         <is>
@@ -9287,38 +9290,38 @@
       <c r="I102" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J102" s="5" t="n">
+      <c r="J102" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K102" s="5" t="n">
+      <c r="K102" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L102" s="5" t="n">
+      <c r="L102" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M102" s="5" t="n">
+      <c r="M102" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N102" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O102" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P102" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q102" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R102" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S102" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T102" s="5" t="n">
-        <v>1.04</v>
+      <c r="N102" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O102" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P102" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q102" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R102" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S102" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T102" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U102" s="4" t="inlineStr">
         <is>
@@ -9373,38 +9376,38 @@
       <c r="I103" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J103" s="5" t="n">
+      <c r="J103" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K103" s="5" t="n">
+      <c r="K103" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L103" s="5" t="n">
+      <c r="L103" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M103" s="5" t="n">
+      <c r="M103" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N103" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O103" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P103" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q103" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R103" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S103" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T103" s="5" t="n">
-        <v>1.04</v>
+      <c r="N103" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O103" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P103" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q103" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R103" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S103" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T103" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U103" s="4" t="inlineStr">
         <is>
@@ -9459,38 +9462,38 @@
       <c r="I104" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J104" s="5" t="n">
+      <c r="J104" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K104" s="5" t="n">
+      <c r="K104" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L104" s="5" t="n">
+      <c r="L104" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M104" s="5" t="n">
+      <c r="M104" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N104" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O104" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P104" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q104" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R104" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S104" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T104" s="5" t="n">
-        <v>1.04</v>
+      <c r="N104" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O104" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P104" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q104" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R104" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S104" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T104" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U104" s="4" t="inlineStr">
         <is>
@@ -9545,38 +9548,38 @@
       <c r="I105" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J105" s="5" t="n">
+      <c r="J105" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K105" s="5" t="n">
+      <c r="K105" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L105" s="5" t="n">
+      <c r="L105" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M105" s="5" t="n">
+      <c r="M105" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N105" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O105" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P105" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q105" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R105" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S105" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T105" s="5" t="n">
-        <v>1.04</v>
+      <c r="N105" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O105" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P105" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q105" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R105" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S105" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T105" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U105" s="4" t="inlineStr">
         <is>
@@ -9631,38 +9634,38 @@
       <c r="I106" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J106" s="5" t="n">
+      <c r="J106" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K106" s="5" t="n">
+      <c r="K106" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L106" s="5" t="n">
+      <c r="L106" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M106" s="5" t="n">
+      <c r="M106" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N106" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O106" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P106" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q106" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R106" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S106" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T106" s="5" t="n">
-        <v>1.04</v>
+      <c r="N106" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O106" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P106" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q106" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R106" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S106" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T106" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U106" s="4" t="inlineStr">
         <is>
@@ -9717,38 +9720,38 @@
       <c r="I107" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J107" s="5" t="n">
+      <c r="J107" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K107" s="5" t="n">
+      <c r="K107" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L107" s="5" t="n">
+      <c r="L107" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M107" s="5" t="n">
+      <c r="M107" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N107" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O107" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P107" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q107" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R107" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S107" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T107" s="5" t="n">
-        <v>1.04</v>
+      <c r="N107" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O107" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P107" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q107" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R107" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S107" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T107" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U107" s="4" t="inlineStr">
         <is>
@@ -9803,38 +9806,38 @@
       <c r="I108" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J108" s="5" t="n">
+      <c r="J108" s="6" t="n">
         <v>0.13</v>
       </c>
-      <c r="K108" s="5" t="n">
+      <c r="K108" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="L108" s="5" t="n">
+      <c r="L108" s="6" t="n">
         <v>0.14</v>
       </c>
-      <c r="M108" s="5" t="n">
+      <c r="M108" s="6" t="n">
         <v>13.65</v>
       </c>
-      <c r="N108" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O108" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P108" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q108" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R108" s="5" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="S108" s="5" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T108" s="5" t="n">
-        <v>1.04</v>
+      <c r="N108" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O108" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P108" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q108" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R108" s="6" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="S108" s="6" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T108" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U108" s="4" t="inlineStr">
         <is>
@@ -9889,38 +9892,38 @@
       <c r="I109" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J109" s="5" t="n">
+      <c r="J109" s="6" t="n">
         <v>0.28</v>
       </c>
-      <c r="K109" s="5" t="n">
+      <c r="K109" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="L109" s="5" t="n">
+      <c r="L109" s="6" t="n">
         <v>0.29</v>
       </c>
-      <c r="M109" s="5" t="n">
+      <c r="M109" s="6" t="n">
         <v>29.4</v>
       </c>
-      <c r="N109" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O109" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P109" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q109" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R109" s="5" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="S109" s="5" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T109" s="5" t="n">
-        <v>2.17</v>
+      <c r="N109" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O109" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P109" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q109" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R109" s="6" t="n">
+        <v>25.06</v>
+      </c>
+      <c r="S109" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T109" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U109" s="4" t="inlineStr">
         <is>
@@ -9975,38 +9978,38 @@
       <c r="I110" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J110" s="5" t="n">
+      <c r="J110" s="6" t="n">
         <v>0.6</v>
       </c>
-      <c r="K110" s="5" t="n">
+      <c r="K110" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="L110" s="5" t="n">
+      <c r="L110" s="6" t="n">
         <v>0.63</v>
       </c>
-      <c r="M110" s="5" t="n">
+      <c r="M110" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="N110" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O110" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P110" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q110" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R110" s="5" t="n">
-        <v>63.81</v>
-      </c>
-      <c r="S110" s="5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="T110" s="5" t="n">
-        <v>4.58</v>
+      <c r="N110" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O110" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P110" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q110" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R110" s="6" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="S110" s="6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T110" s="6" t="n">
+        <v>0.04</v>
       </c>
       <c r="U110" s="4" t="inlineStr">
         <is>
@@ -10061,38 +10064,38 @@
       <c r="I111" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J111" s="5" t="n">
+      <c r="J111" s="6" t="n">
         <v>0.24</v>
       </c>
-      <c r="K111" s="5" t="n">
+      <c r="K111" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="L111" s="5" t="n">
+      <c r="L111" s="6" t="n">
         <v>0.25</v>
       </c>
-      <c r="M111" s="5" t="n">
+      <c r="M111" s="6" t="n">
         <v>25.2</v>
       </c>
-      <c r="N111" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O111" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P111" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q111" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R111" s="5" t="n">
-        <v>26.01</v>
-      </c>
-      <c r="S111" s="5" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="T111" s="5" t="n">
-        <v>1.87</v>
+      <c r="N111" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O111" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P111" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q111" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R111" s="6" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="S111" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T111" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U111" s="4" t="inlineStr">
         <is>
@@ -10147,38 +10150,38 @@
       <c r="I112" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J112" s="5" t="n">
+      <c r="J112" s="6" t="n">
         <v>0.38</v>
       </c>
-      <c r="K112" s="5" t="n">
+      <c r="K112" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="L112" s="5" t="n">
+      <c r="L112" s="6" t="n">
         <v>0.4</v>
       </c>
-      <c r="M112" s="5" t="n">
+      <c r="M112" s="6" t="n">
         <v>39.9</v>
       </c>
-      <c r="N112" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O112" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P112" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q112" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R112" s="5" t="n">
-        <v>40.71</v>
-      </c>
-      <c r="S112" s="5" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="T112" s="5" t="n">
-        <v>2.92</v>
+      <c r="N112" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O112" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P112" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q112" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R112" s="6" t="n">
+        <v>25.56</v>
+      </c>
+      <c r="S112" s="6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T112" s="6" t="n">
+        <v>0.04</v>
       </c>
       <c r="U112" s="4" t="inlineStr">
         <is>
@@ -10233,38 +10236,38 @@
       <c r="I113" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J113" s="5" t="n">
+      <c r="J113" s="6" t="n">
         <v>0.2</v>
       </c>
-      <c r="K113" s="5" t="n">
+      <c r="K113" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="L113" s="5" t="n">
+      <c r="L113" s="6" t="n">
         <v>0.21</v>
       </c>
-      <c r="M113" s="5" t="n">
+      <c r="M113" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="N113" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O113" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P113" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q113" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R113" s="5" t="n">
-        <v>21.81</v>
-      </c>
-      <c r="S113" s="5" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T113" s="5" t="n">
-        <v>1.57</v>
+      <c r="N113" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O113" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P113" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q113" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R113" s="6" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="S113" s="6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T113" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U113" s="4" t="inlineStr">
         <is>
@@ -10319,38 +10322,38 @@
       <c r="I114" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J114" s="5" t="n">
+      <c r="J114" s="6" t="n">
         <v>1.2</v>
       </c>
-      <c r="K114" s="5" t="n">
+      <c r="K114" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="L114" s="5" t="n">
+      <c r="L114" s="6" t="n">
         <v>1.26</v>
       </c>
-      <c r="M114" s="5" t="n">
+      <c r="M114" s="6" t="n">
         <v>529.2</v>
       </c>
-      <c r="N114" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O114" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P114" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q114" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R114" s="5" t="n">
-        <v>529.53</v>
-      </c>
-      <c r="S114" s="5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T114" s="5" t="n">
-        <v>9.050000000000001</v>
+      <c r="N114" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O114" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P114" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q114" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R114" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="S114" s="6" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T114" s="6" t="n">
+        <v>0.01</v>
       </c>
       <c r="U114" s="4" t="inlineStr">
         <is>
@@ -10405,38 +10408,38 @@
       <c r="I115" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J115" s="5" t="n">
+      <c r="J115" s="6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K115" s="5" t="n">
+      <c r="K115" s="6" t="n">
         <v>350</v>
       </c>
-      <c r="L115" s="5" t="n">
+      <c r="L115" s="6" t="n">
         <v>3.68</v>
       </c>
-      <c r="M115" s="5" t="n">
+      <c r="M115" s="6" t="n">
         <v>367.5</v>
       </c>
-      <c r="N115" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O115" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P115" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q115" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R115" s="5" t="n">
-        <v>367.83</v>
-      </c>
-      <c r="S115" s="5" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="T115" s="5" t="n">
-        <v>26.41</v>
+      <c r="N115" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O115" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P115" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q115" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R115" s="6" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="S115" s="6" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="T115" s="6" t="n">
+        <v>0.03</v>
       </c>
       <c r="U115" s="4" t="inlineStr">
         <is>
@@ -10491,38 +10494,38 @@
       <c r="I116" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J116" s="5" t="n">
+      <c r="J116" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="K116" s="5" t="n">
+      <c r="K116" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="L116" s="5" t="n">
+      <c r="L116" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="M116" s="5" t="n">
+      <c r="M116" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="N116" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O116" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P116" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q116" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R116" s="5" t="n">
-        <v>84.33</v>
-      </c>
-      <c r="S116" s="5" t="n">
-        <v>84.33</v>
-      </c>
-      <c r="T116" s="5" t="n">
-        <v>605.46</v>
+      <c r="N116" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O116" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P116" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q116" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R116" s="6" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="S116" s="6" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="T116" s="6" t="n">
+        <v>1.08</v>
       </c>
       <c r="U116" s="4" t="inlineStr">
         <is>
@@ -10577,38 +10580,38 @@
       <c r="I117" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J117" s="5" t="n">
+      <c r="J117" s="6" t="n">
         <v>1700</v>
       </c>
-      <c r="K117" s="5" t="n">
+      <c r="K117" s="6" t="n">
         <v>3400</v>
       </c>
-      <c r="L117" s="5" t="n">
+      <c r="L117" s="6" t="n">
         <v>1785</v>
       </c>
-      <c r="M117" s="5" t="n">
+      <c r="M117" s="6" t="n">
         <v>3570</v>
       </c>
-      <c r="N117" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O117" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P117" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q117" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R117" s="5" t="n">
-        <v>3571.63</v>
-      </c>
-      <c r="S117" s="5" t="n">
-        <v>1785.81</v>
-      </c>
-      <c r="T117" s="5" t="n">
-        <v>12822.15</v>
+      <c r="N117" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O117" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P117" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q117" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R117" s="6" t="n">
+        <v>264.74</v>
+      </c>
+      <c r="S117" s="6" t="n">
+        <v>132.37</v>
+      </c>
+      <c r="T117" s="6" t="n">
+        <v>18.44</v>
       </c>
       <c r="U117" s="4" t="inlineStr">
         <is>
@@ -10663,38 +10666,38 @@
       <c r="I118" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J118" s="5" t="n">
+      <c r="J118" s="6" t="n">
         <v>2700</v>
       </c>
-      <c r="K118" s="5" t="n">
+      <c r="K118" s="6" t="n">
         <v>13500</v>
       </c>
-      <c r="L118" s="5" t="n">
+      <c r="L118" s="6" t="n">
         <v>2835</v>
       </c>
-      <c r="M118" s="5" t="n">
+      <c r="M118" s="6" t="n">
         <v>14175</v>
       </c>
-      <c r="N118" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O118" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P118" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q118" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R118" s="5" t="n">
-        <v>14175.33</v>
-      </c>
-      <c r="S118" s="5" t="n">
-        <v>2835.07</v>
-      </c>
-      <c r="T118" s="5" t="n">
-        <v>20355.77</v>
+      <c r="N118" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O118" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P118" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q118" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R118" s="6" t="n">
+        <v>679.16</v>
+      </c>
+      <c r="S118" s="6" t="n">
+        <v>135.83</v>
+      </c>
+      <c r="T118" s="6" t="n">
+        <v>18.92</v>
       </c>
       <c r="U118" s="4" t="inlineStr">
         <is>
@@ -10749,38 +10752,38 @@
       <c r="I119" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="J119" s="5" t="n">
+      <c r="J119" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="K119" s="5" t="n">
+      <c r="K119" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="L119" s="5" t="n">
+      <c r="L119" s="6" t="n">
         <v>1155</v>
       </c>
-      <c r="M119" s="5" t="n">
+      <c r="M119" s="6" t="n">
         <v>1155</v>
       </c>
-      <c r="N119" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O119" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P119" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q119" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R119" s="5" t="n">
-        <v>1155.65</v>
-      </c>
-      <c r="S119" s="5" t="n">
-        <v>1155.65</v>
-      </c>
-      <c r="T119" s="5" t="n">
-        <v>8297.58</v>
+      <c r="N119" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O119" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P119" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q119" s="6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R119" s="6" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="S119" s="6" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="T119" s="6" t="n">
+        <v>9.77</v>
       </c>
       <c r="U119" s="4" t="inlineStr">
         <is>
@@ -10835,38 +10838,38 @@
       <c r="I120" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="J120" s="5" t="n">
+      <c r="J120" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="K120" s="5" t="n">
+      <c r="K120" s="6" t="n">
         <v>1100</v>
       </c>
-      <c r="L120" s="5" t="n">
+      <c r="L120" s="6" t="n">
         <v>1155</v>
       </c>
-      <c r="M120" s="5" t="n">
+      <c r="M120" s="6" t="n">
         <v>1155</v>
       </c>
-      <c r="N120" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O120" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P120" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q120" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R120" s="5" t="n">
-        <v>1155.65</v>
-      </c>
-      <c r="S120" s="5" t="n">
-        <v>1155.65</v>
-      </c>
-      <c r="T120" s="5" t="n">
-        <v>8297.58</v>
+      <c r="N120" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O120" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P120" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q120" s="6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R120" s="6" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="S120" s="6" t="n">
+        <v>70.17</v>
+      </c>
+      <c r="T120" s="6" t="n">
+        <v>9.77</v>
       </c>
       <c r="U120" s="4" t="inlineStr">
         <is>
@@ -10921,38 +10924,38 @@
       <c r="I121" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="J121" s="5" t="n">
+      <c r="J121" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="K121" s="5" t="n">
+      <c r="K121" s="6" t="n">
         <v>22080</v>
       </c>
-      <c r="L121" s="5" t="n">
+      <c r="L121" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="M121" s="5" t="n">
+      <c r="M121" s="6" t="n">
         <v>23184</v>
       </c>
-      <c r="N121" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O121" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P121" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q121" s="5" t="n">
-        <v>156.48</v>
-      </c>
-      <c r="R121" s="5" t="n">
-        <v>23340.48</v>
-      </c>
-      <c r="S121" s="5" t="n">
-        <v>243.13</v>
-      </c>
-      <c r="T121" s="5" t="n">
-        <v>1745.67</v>
+      <c r="N121" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O121" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P121" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q121" s="6" t="n">
+        <v>176.08</v>
+      </c>
+      <c r="R121" s="6" t="n">
+        <v>873380.52</v>
+      </c>
+      <c r="S121" s="6" t="n">
+        <v>9097.709999999999</v>
+      </c>
+      <c r="T121" s="6" t="n">
+        <v>1267.09</v>
       </c>
       <c r="U121" s="4" t="inlineStr">
         <is>
@@ -11007,38 +11010,38 @@
       <c r="I122" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J122" s="5" t="n">
+      <c r="J122" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="K122" s="5" t="n">
+      <c r="K122" s="6" t="n">
         <v>920</v>
       </c>
-      <c r="L122" s="5" t="n">
+      <c r="L122" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="M122" s="5" t="n">
+      <c r="M122" s="6" t="n">
         <v>966</v>
       </c>
-      <c r="N122" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O122" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P122" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q122" s="5" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R122" s="5" t="n">
-        <v>972.52</v>
-      </c>
-      <c r="S122" s="5" t="n">
-        <v>243.13</v>
-      </c>
-      <c r="T122" s="5" t="n">
-        <v>1745.67</v>
+      <c r="N122" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O122" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P122" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q122" s="6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R122" s="6" t="n">
+        <v>1560.39</v>
+      </c>
+      <c r="S122" s="6" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="T122" s="6" t="n">
+        <v>54.33</v>
       </c>
       <c r="U122" s="4" t="inlineStr">
         <is>
@@ -11099,38 +11102,38 @@
       <c r="I123" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="J123" s="5" t="n">
+      <c r="J123" s="6" t="n">
         <v>298</v>
       </c>
-      <c r="K123" s="5" t="n">
+      <c r="K123" s="6" t="n">
         <v>1192</v>
       </c>
-      <c r="L123" s="5" t="n">
+      <c r="L123" s="6" t="n">
         <v>312.9</v>
       </c>
-      <c r="M123" s="5" t="n">
+      <c r="M123" s="6" t="n">
         <v>1251.6</v>
       </c>
-      <c r="N123" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O123" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P123" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q123" s="5" t="n">
-        <v>29.34</v>
-      </c>
-      <c r="R123" s="5" t="n">
-        <v>1280.94</v>
-      </c>
-      <c r="S123" s="5" t="n">
-        <v>320.23</v>
-      </c>
-      <c r="T123" s="5" t="n">
-        <v>2299.29</v>
+      <c r="N123" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O123" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P123" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q123" s="6" t="n">
+        <v>33.02</v>
+      </c>
+      <c r="R123" s="6" t="n">
+        <v>30725.58</v>
+      </c>
+      <c r="S123" s="6" t="n">
+        <v>7681.4</v>
+      </c>
+      <c r="T123" s="6" t="n">
+        <v>1069.83</v>
       </c>
       <c r="U123" s="4" t="inlineStr">
         <is>
@@ -11191,38 +11194,38 @@
       <c r="I124" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="J124" s="5" t="n">
+      <c r="J124" s="6" t="n">
         <v>298</v>
       </c>
-      <c r="K124" s="5" t="n">
+      <c r="K124" s="6" t="n">
         <v>894</v>
       </c>
-      <c r="L124" s="5" t="n">
+      <c r="L124" s="6" t="n">
         <v>312.9</v>
       </c>
-      <c r="M124" s="5" t="n">
+      <c r="M124" s="6" t="n">
         <v>938.7</v>
       </c>
-      <c r="N124" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O124" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P124" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q124" s="5" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="R124" s="5" t="n">
-        <v>959.89</v>
-      </c>
-      <c r="S124" s="5" t="n">
-        <v>319.96</v>
-      </c>
-      <c r="T124" s="5" t="n">
-        <v>2297.34</v>
+      <c r="N124" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O124" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P124" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q124" s="6" t="n">
+        <v>23.84</v>
+      </c>
+      <c r="R124" s="6" t="n">
+        <v>16040.24</v>
+      </c>
+      <c r="S124" s="6" t="n">
+        <v>5346.75</v>
+      </c>
+      <c r="T124" s="6" t="n">
+        <v>744.67</v>
       </c>
       <c r="U124" s="4" t="inlineStr">
         <is>
@@ -11277,38 +11280,38 @@
       <c r="I125" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="J125" s="5" t="n">
+      <c r="J125" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="K125" s="5" t="n">
+      <c r="K125" s="6" t="n">
         <v>798</v>
       </c>
-      <c r="L125" s="5" t="n">
+      <c r="L125" s="6" t="n">
         <v>139.65</v>
       </c>
-      <c r="M125" s="5" t="n">
+      <c r="M125" s="6" t="n">
         <v>837.9</v>
       </c>
-      <c r="N125" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O125" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P125" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q125" s="5" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="R125" s="5" t="n">
-        <v>841.16</v>
-      </c>
-      <c r="S125" s="5" t="n">
-        <v>140.19</v>
-      </c>
-      <c r="T125" s="5" t="n">
-        <v>1006.59</v>
+      <c r="N125" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O125" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P125" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q125" s="6" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R125" s="6" t="n">
+        <v>418.51</v>
+      </c>
+      <c r="S125" s="6" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="T125" s="6" t="n">
+        <v>9.710000000000001</v>
       </c>
       <c r="U125" s="4" t="inlineStr">
         <is>
@@ -11363,38 +11366,38 @@
       <c r="I126" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="J126" s="5" t="n">
+      <c r="J126" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="K126" s="5" t="n">
+      <c r="K126" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="L126" s="5" t="n">
+      <c r="L126" s="6" t="n">
         <v>472.5</v>
       </c>
-      <c r="M126" s="5" t="n">
+      <c r="M126" s="6" t="n">
         <v>472.5</v>
       </c>
-      <c r="N126" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O126" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P126" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q126" s="5" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="R126" s="5" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="S126" s="5" t="n">
-        <v>480.65</v>
-      </c>
-      <c r="T126" s="5" t="n">
-        <v>3451.07</v>
+      <c r="N126" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O126" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P126" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q126" s="6" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="R126" s="6" t="n">
+        <v>2388.71</v>
+      </c>
+      <c r="S126" s="6" t="n">
+        <v>2388.71</v>
+      </c>
+      <c r="T126" s="6" t="n">
+        <v>332.69</v>
       </c>
       <c r="U126" s="4" t="inlineStr">
         <is>
@@ -11449,38 +11452,38 @@
       <c r="I127" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J127" s="5" t="n">
+      <c r="J127" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="K127" s="5" t="n">
+      <c r="K127" s="6" t="n">
         <v>1440</v>
       </c>
-      <c r="L127" s="5" t="n">
+      <c r="L127" s="6" t="n">
         <v>756</v>
       </c>
-      <c r="M127" s="5" t="n">
+      <c r="M127" s="6" t="n">
         <v>1512</v>
       </c>
-      <c r="N127" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O127" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P127" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q127" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R127" s="5" t="n">
-        <v>1513.63</v>
-      </c>
-      <c r="S127" s="5" t="n">
-        <v>756.8099999999999</v>
-      </c>
-      <c r="T127" s="5" t="n">
-        <v>5433.93</v>
+      <c r="N127" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O127" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P127" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q127" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R127" s="6" t="n">
+        <v>166.69</v>
+      </c>
+      <c r="S127" s="6" t="n">
+        <v>83.34</v>
+      </c>
+      <c r="T127" s="6" t="n">
+        <v>11.61</v>
       </c>
       <c r="U127" s="4" t="inlineStr">
         <is>
@@ -11535,38 +11538,38 @@
       <c r="I128" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J128" s="5" t="n">
+      <c r="J128" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="K128" s="5" t="n">
+      <c r="K128" s="6" t="n">
         <v>1440</v>
       </c>
-      <c r="L128" s="5" t="n">
+      <c r="L128" s="6" t="n">
         <v>756</v>
       </c>
-      <c r="M128" s="5" t="n">
+      <c r="M128" s="6" t="n">
         <v>1512</v>
       </c>
-      <c r="N128" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O128" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P128" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q128" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R128" s="5" t="n">
-        <v>1513.63</v>
-      </c>
-      <c r="S128" s="5" t="n">
-        <v>756.8099999999999</v>
-      </c>
-      <c r="T128" s="5" t="n">
-        <v>5433.93</v>
+      <c r="N128" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O128" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P128" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q128" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R128" s="6" t="n">
+        <v>166.69</v>
+      </c>
+      <c r="S128" s="6" t="n">
+        <v>83.34</v>
+      </c>
+      <c r="T128" s="6" t="n">
+        <v>11.61</v>
       </c>
       <c r="U128" s="4" t="inlineStr">
         <is>
@@ -11621,38 +11624,38 @@
       <c r="I129" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J129" s="5" t="n">
+      <c r="J129" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="K129" s="5" t="n">
+      <c r="K129" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="L129" s="5" t="n">
+      <c r="L129" s="6" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="M129" s="5" t="n">
+      <c r="M129" s="6" t="n">
         <v>130.2</v>
       </c>
-      <c r="N129" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O129" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P129" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q129" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R129" s="5" t="n">
-        <v>131.83</v>
-      </c>
-      <c r="S129" s="5" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="T129" s="5" t="n">
-        <v>473.27</v>
+      <c r="N129" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O129" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P129" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q129" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R129" s="6" t="n">
+        <v>100.85</v>
+      </c>
+      <c r="S129" s="6" t="n">
+        <v>50.43</v>
+      </c>
+      <c r="T129" s="6" t="n">
+        <v>7.02</v>
       </c>
       <c r="U129" s="4" t="inlineStr">
         <is>
@@ -11707,38 +11710,38 @@
       <c r="I130" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J130" s="5" t="n">
+      <c r="J130" s="6" t="n">
         <v>240</v>
       </c>
-      <c r="K130" s="5" t="n">
+      <c r="K130" s="6" t="n">
         <v>480</v>
       </c>
-      <c r="L130" s="5" t="n">
+      <c r="L130" s="6" t="n">
         <v>252</v>
       </c>
-      <c r="M130" s="5" t="n">
+      <c r="M130" s="6" t="n">
         <v>504</v>
       </c>
-      <c r="N130" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O130" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P130" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q130" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R130" s="5" t="n">
-        <v>504.33</v>
-      </c>
-      <c r="S130" s="5" t="n">
-        <v>252.16</v>
-      </c>
-      <c r="T130" s="5" t="n">
-        <v>1810.53</v>
+      <c r="N130" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O130" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P130" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q130" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R130" s="6" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="S130" s="6" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="T130" s="6" t="n">
+        <v>1.94</v>
       </c>
       <c r="U130" s="4" t="inlineStr">
         <is>
@@ -11793,38 +11796,38 @@
       <c r="I131" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J131" s="5" t="n">
+      <c r="J131" s="6" t="n">
         <v>3.15</v>
       </c>
-      <c r="K131" s="5" t="n">
+      <c r="K131" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="L131" s="5" t="n">
+      <c r="L131" s="6" t="n">
         <v>3.31</v>
       </c>
-      <c r="M131" s="5" t="n">
+      <c r="M131" s="6" t="n">
         <v>33.08</v>
       </c>
-      <c r="N131" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O131" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P131" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q131" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R131" s="5" t="n">
-        <v>33.4</v>
-      </c>
-      <c r="S131" s="5" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="T131" s="5" t="n">
-        <v>23.98</v>
+      <c r="N131" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O131" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P131" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q131" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R131" s="6" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="S131" s="6" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T131" s="6" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="U131" s="4" t="inlineStr">
         <is>
@@ -11879,38 +11882,38 @@
       <c r="I132" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J132" s="5" t="n">
+      <c r="J132" s="6" t="n">
         <v>4.5</v>
       </c>
-      <c r="K132" s="5" t="n">
+      <c r="K132" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="L132" s="5" t="n">
+      <c r="L132" s="6" t="n">
         <v>4.73</v>
       </c>
-      <c r="M132" s="5" t="n">
+      <c r="M132" s="6" t="n">
         <v>47.25</v>
       </c>
-      <c r="N132" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O132" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P132" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q132" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R132" s="5" t="n">
-        <v>47.58</v>
-      </c>
-      <c r="S132" s="5" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="T132" s="5" t="n">
-        <v>34.16</v>
+      <c r="N132" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O132" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P132" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q132" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R132" s="6" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S132" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="T132" s="6" t="n">
+        <v>0.08</v>
       </c>
       <c r="U132" s="4" t="inlineStr">
         <is>
@@ -11965,38 +11968,38 @@
       <c r="I133" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="J133" s="5" t="n">
+      <c r="J133" s="6" t="n">
         <v>3.8</v>
       </c>
-      <c r="K133" s="5" t="n">
+      <c r="K133" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="L133" s="5" t="n">
+      <c r="L133" s="6" t="n">
         <v>3.99</v>
       </c>
-      <c r="M133" s="5" t="n">
+      <c r="M133" s="6" t="n">
         <v>39.9</v>
       </c>
-      <c r="N133" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O133" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P133" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q133" s="5" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R133" s="5" t="n">
-        <v>40.88</v>
-      </c>
-      <c r="S133" s="5" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="T133" s="5" t="n">
-        <v>29.35</v>
+      <c r="N133" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O133" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P133" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q133" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R133" s="6" t="n">
+        <v>35.97</v>
+      </c>
+      <c r="S133" s="6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T133" s="6" t="n">
+        <v>0.5</v>
       </c>
       <c r="U133" s="4" t="inlineStr">
         <is>
@@ -12051,38 +12054,38 @@
       <c r="I134" s="5" t="n">
         <v>0.6</v>
       </c>
-      <c r="J134" s="5" t="n">
+      <c r="J134" s="6" t="n">
         <v>15.3</v>
       </c>
-      <c r="K134" s="5" t="n">
+      <c r="K134" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="L134" s="5" t="n">
+      <c r="L134" s="6" t="n">
         <v>16.07</v>
       </c>
-      <c r="M134" s="5" t="n">
+      <c r="M134" s="6" t="n">
         <v>160.65</v>
       </c>
-      <c r="N134" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O134" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P134" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q134" s="5" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R134" s="5" t="n">
-        <v>161.63</v>
-      </c>
-      <c r="S134" s="5" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="T134" s="5" t="n">
-        <v>116.05</v>
+      <c r="N134" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O134" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P134" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q134" s="6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R134" s="6" t="n">
+        <v>41.73</v>
+      </c>
+      <c r="S134" s="6" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="T134" s="6" t="n">
+        <v>0.58</v>
       </c>
       <c r="U134" s="4" t="inlineStr">
         <is>
@@ -12137,38 +12140,38 @@
       <c r="I135" s="5" t="n">
         <v>4.2</v>
       </c>
-      <c r="J135" s="5" t="n">
+      <c r="J135" s="6" t="n">
         <v>1290</v>
       </c>
-      <c r="K135" s="5" t="n">
+      <c r="K135" s="6" t="n">
         <v>2580</v>
       </c>
-      <c r="L135" s="5" t="n">
+      <c r="L135" s="6" t="n">
         <v>1354.5</v>
       </c>
-      <c r="M135" s="5" t="n">
+      <c r="M135" s="6" t="n">
         <v>2709</v>
       </c>
-      <c r="N135" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O135" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P135" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q135" s="5" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="R135" s="5" t="n">
-        <v>2715.85</v>
-      </c>
-      <c r="S135" s="5" t="n">
-        <v>1357.92</v>
-      </c>
-      <c r="T135" s="5" t="n">
-        <v>9749.889999999999</v>
+      <c r="N135" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O135" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P135" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q135" s="6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R135" s="6" t="n">
+        <v>1798.66</v>
+      </c>
+      <c r="S135" s="6" t="n">
+        <v>899.33</v>
+      </c>
+      <c r="T135" s="6" t="n">
+        <v>125.25</v>
       </c>
       <c r="U135" s="4" t="inlineStr">
         <is>
@@ -12223,38 +12226,38 @@
       <c r="I136" s="5" t="n">
         <v>1.5</v>
       </c>
-      <c r="J136" s="5" t="n">
+      <c r="J136" s="6" t="n">
         <v>3.2</v>
       </c>
-      <c r="K136" s="5" t="n">
+      <c r="K136" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="L136" s="5" t="n">
+      <c r="L136" s="6" t="n">
         <v>3.36</v>
       </c>
-      <c r="M136" s="5" t="n">
+      <c r="M136" s="6" t="n">
         <v>134.4</v>
       </c>
-      <c r="N136" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O136" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P136" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q136" s="5" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R136" s="5" t="n">
-        <v>136.84</v>
-      </c>
-      <c r="S136" s="5" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="T136" s="5" t="n">
-        <v>24.56</v>
+      <c r="N136" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O136" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P136" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q136" s="6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R136" s="6" t="n">
+        <v>219.36</v>
+      </c>
+      <c r="S136" s="6" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T136" s="6" t="n">
+        <v>0.76</v>
       </c>
       <c r="U136" s="4" t="inlineStr">
         <is>
@@ -12309,38 +12312,38 @@
       <c r="I137" s="5" t="n">
         <v>16.5</v>
       </c>
-      <c r="J137" s="5" t="n">
+      <c r="J137" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="K137" s="5" t="n">
+      <c r="K137" s="6" t="n">
         <v>632</v>
       </c>
-      <c r="L137" s="5" t="n">
+      <c r="L137" s="6" t="n">
         <v>82.95</v>
       </c>
-      <c r="M137" s="5" t="n">
+      <c r="M137" s="6" t="n">
         <v>663.6</v>
       </c>
-      <c r="N137" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O137" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P137" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q137" s="5" t="n">
-        <v>26.89</v>
-      </c>
-      <c r="R137" s="5" t="n">
-        <v>690.49</v>
-      </c>
-      <c r="S137" s="5" t="n">
-        <v>86.31</v>
-      </c>
-      <c r="T137" s="5" t="n">
-        <v>619.72</v>
+      <c r="N137" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O137" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P137" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q137" s="6" t="n">
+        <v>30.26</v>
+      </c>
+      <c r="R137" s="6" t="n">
+        <v>25799.53</v>
+      </c>
+      <c r="S137" s="6" t="n">
+        <v>3224.94</v>
+      </c>
+      <c r="T137" s="6" t="n">
+        <v>449.16</v>
       </c>
       <c r="U137" s="4" t="inlineStr">
         <is>
@@ -12395,38 +12398,38 @@
       <c r="I138" s="5" t="n">
         <v>0.5</v>
       </c>
-      <c r="J138" s="5" t="n">
+      <c r="J138" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="K138" s="5" t="n">
+      <c r="K138" s="6" t="n">
         <v>416</v>
       </c>
-      <c r="L138" s="5" t="n">
+      <c r="L138" s="6" t="n">
         <v>54.6</v>
       </c>
-      <c r="M138" s="5" t="n">
+      <c r="M138" s="6" t="n">
         <v>436.8</v>
       </c>
-      <c r="N138" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O138" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P138" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q138" s="5" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="R138" s="5" t="n">
-        <v>437.61</v>
-      </c>
-      <c r="S138" s="5" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="T138" s="5" t="n">
-        <v>392.76</v>
+      <c r="N138" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O138" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P138" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q138" s="6" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="R138" s="6" t="n">
+        <v>44.47</v>
+      </c>
+      <c r="S138" s="6" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="T138" s="6" t="n">
+        <v>0.77</v>
       </c>
       <c r="U138" s="4" t="inlineStr">
         <is>
@@ -12481,38 +12484,38 @@
       <c r="I139" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="J139" s="5" t="n">
+      <c r="J139" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="K139" s="5" t="n">
+      <c r="K139" s="6" t="n">
         <v>22080</v>
       </c>
-      <c r="L139" s="5" t="n">
+      <c r="L139" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="M139" s="5" t="n">
+      <c r="M139" s="6" t="n">
         <v>23184</v>
       </c>
-      <c r="N139" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O139" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P139" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q139" s="5" t="n">
-        <v>156.48</v>
-      </c>
-      <c r="R139" s="5" t="n">
-        <v>23340.48</v>
-      </c>
-      <c r="S139" s="5" t="n">
-        <v>243.13</v>
-      </c>
-      <c r="T139" s="5" t="n">
-        <v>1745.67</v>
+      <c r="N139" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O139" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P139" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q139" s="6" t="n">
+        <v>176.08</v>
+      </c>
+      <c r="R139" s="6" t="n">
+        <v>873380.52</v>
+      </c>
+      <c r="S139" s="6" t="n">
+        <v>9097.709999999999</v>
+      </c>
+      <c r="T139" s="6" t="n">
+        <v>1267.09</v>
       </c>
       <c r="U139" s="4" t="inlineStr">
         <is>
@@ -12567,38 +12570,38 @@
       <c r="I140" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J140" s="5" t="n">
+      <c r="J140" s="6" t="n">
         <v>230</v>
       </c>
-      <c r="K140" s="5" t="n">
+      <c r="K140" s="6" t="n">
         <v>920</v>
       </c>
-      <c r="L140" s="5" t="n">
+      <c r="L140" s="6" t="n">
         <v>241.5</v>
       </c>
-      <c r="M140" s="5" t="n">
+      <c r="M140" s="6" t="n">
         <v>966</v>
       </c>
-      <c r="N140" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O140" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P140" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q140" s="5" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="R140" s="5" t="n">
-        <v>972.52</v>
-      </c>
-      <c r="S140" s="5" t="n">
-        <v>243.13</v>
-      </c>
-      <c r="T140" s="5" t="n">
-        <v>1745.67</v>
+      <c r="N140" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O140" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P140" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q140" s="6" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R140" s="6" t="n">
+        <v>1560.39</v>
+      </c>
+      <c r="S140" s="6" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="T140" s="6" t="n">
+        <v>54.33</v>
       </c>
       <c r="U140" s="4" t="inlineStr">
         <is>
@@ -12653,38 +12656,38 @@
       <c r="I141" s="5" t="n">
         <v>0.36</v>
       </c>
-      <c r="J141" s="5" t="n">
+      <c r="J141" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="K141" s="5" t="n">
+      <c r="K141" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="L141" s="5" t="n">
+      <c r="L141" s="6" t="n">
         <v>56.7</v>
       </c>
-      <c r="M141" s="5" t="n">
+      <c r="M141" s="6" t="n">
         <v>113.4</v>
       </c>
-      <c r="N141" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O141" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P141" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q141" s="5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="R141" s="5" t="n">
-        <v>113.99</v>
-      </c>
-      <c r="S141" s="5" t="n">
-        <v>56.99</v>
-      </c>
-      <c r="T141" s="5" t="n">
-        <v>409.21</v>
+      <c r="N141" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O141" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P141" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q141" s="6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R141" s="6" t="n">
+        <v>17.67</v>
+      </c>
+      <c r="S141" s="6" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="T141" s="6" t="n">
+        <v>1.23</v>
       </c>
       <c r="U141" s="4" t="inlineStr">
         <is>
@@ -12739,38 +12742,38 @@
       <c r="I142" s="5" t="n">
         <v>0.4</v>
       </c>
-      <c r="J142" s="5" t="n">
+      <c r="J142" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="K142" s="5" t="n">
+      <c r="K142" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="L142" s="5" t="n">
+      <c r="L142" s="6" t="n">
         <v>262.5</v>
       </c>
-      <c r="M142" s="5" t="n">
+      <c r="M142" s="6" t="n">
         <v>525</v>
       </c>
-      <c r="N142" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O142" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P142" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q142" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R142" s="5" t="n">
-        <v>525.65</v>
-      </c>
-      <c r="S142" s="5" t="n">
-        <v>262.83</v>
-      </c>
-      <c r="T142" s="5" t="n">
-        <v>1887.09</v>
+      <c r="N142" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O142" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P142" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q142" s="6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R142" s="6" t="n">
+        <v>40.16</v>
+      </c>
+      <c r="S142" s="6" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="T142" s="6" t="n">
+        <v>2.8</v>
       </c>
       <c r="U142" s="4" t="inlineStr">
         <is>
@@ -12825,38 +12828,38 @@
       <c r="I143" s="5" t="n">
         <v>0.2</v>
       </c>
-      <c r="J143" s="5" t="n">
+      <c r="J143" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="K143" s="5" t="n">
+      <c r="K143" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="L143" s="5" t="n">
+      <c r="L143" s="6" t="n">
         <v>26.25</v>
       </c>
-      <c r="M143" s="5" t="n">
+      <c r="M143" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="N143" s="5" t="n">
-        <v>172.59</v>
-      </c>
-      <c r="O143" s="5" t="n">
-        <v>6339.01</v>
-      </c>
-      <c r="P143" s="5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q143" s="5" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="R143" s="5" t="n">
-        <v>105.33</v>
-      </c>
-      <c r="S143" s="5" t="n">
-        <v>26.33</v>
-      </c>
-      <c r="T143" s="5" t="n">
-        <v>189.06</v>
+      <c r="N143" s="6" t="n">
+        <v>172.59</v>
+      </c>
+      <c r="O143" s="6" t="n">
+        <v>6339.01</v>
+      </c>
+      <c r="P143" s="6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q143" s="6" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="R143" s="6" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="S143" s="6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T143" s="6" t="n">
+        <v>0.31</v>
       </c>
       <c r="U143" s="4" t="inlineStr">
         <is>
@@ -12893,29 +12896,25 @@
         <v>43704.55849411</v>
       </c>
       <c r="I144" s="5" t="n">
-        <v>3519.89</v>
-      </c>
-      <c r="J144" s="5" t="n"/>
-      <c r="K144" s="5" t="n">
+        <v>3550.09</v>
+      </c>
+      <c r="J144" s="6" t="n"/>
+      <c r="K144" s="6" t="n">
         <v>313798.73</v>
       </c>
-      <c r="L144" s="5" t="n"/>
-      <c r="M144" s="5" t="n">
+      <c r="L144" s="6" t="n"/>
+      <c r="M144" s="6" t="n">
         <v>329488.69</v>
       </c>
-      <c r="N144" s="5" t="n">
-        <v>24507.78</v>
-      </c>
-      <c r="O144" s="5" t="n"/>
-      <c r="P144" s="5" t="n"/>
-      <c r="Q144" s="5" t="n">
-        <v>5737.349999999999</v>
-      </c>
-      <c r="R144" s="5" t="n">
-        <v>335225.99</v>
-      </c>
-      <c r="S144" s="5" t="n"/>
-      <c r="T144" s="5" t="n"/>
+      <c r="N144" s="6" t="n"/>
+      <c r="O144" s="6" t="n"/>
+      <c r="P144" s="6" t="n"/>
+      <c r="Q144" s="6" t="n"/>
+      <c r="R144" s="6" t="n">
+        <v>238919410</v>
+      </c>
+      <c r="S144" s="6" t="n"/>
+      <c r="T144" s="6" t="n"/>
       <c r="U144" s="4" t="n"/>
       <c r="V144" s="4" t="n"/>
       <c r="W144" s="4" t="n"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -668,7 +668,7 @@
       <c r="H2" s="4" t="n">
         <v>348.189415</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="n">
         <v>2.6</v>
       </c>
       <c r="J2" s="6" t="n">
@@ -684,25 +684,25 @@
         <v>2625</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O2" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P2" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q2" s="6" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="R2" s="6" t="n">
-        <v>764.89</v>
+        <v>2629.78</v>
       </c>
       <c r="S2" s="6" t="n">
-        <v>1.53</v>
+        <v>5.26</v>
       </c>
       <c r="T2" s="6" t="n">
-        <v>0.21</v>
+        <v>0.73</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
       <c r="H3" s="4" t="n">
         <v>45.96100278</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="J3" s="6" t="n">
@@ -770,25 +770,25 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O3" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P3" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" s="6" t="n">
         <v>2.02</v>
       </c>
       <c r="R3" s="6" t="n">
-        <v>131.03</v>
+        <v>348.52</v>
       </c>
       <c r="S3" s="6" t="n">
-        <v>43.68</v>
+        <v>116.17</v>
       </c>
       <c r="T3" s="6" t="n">
-        <v>6.08</v>
+        <v>16.18</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
       <c r="H4" s="4" t="n">
         <v>21.7270195</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J4" s="6" t="n">
@@ -856,25 +856,25 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O4" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>31.47</v>
+        <v>164.72</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>15.73</v>
+        <v>82.36</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>2.19</v>
+        <v>11.47</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
@@ -926,7 +926,7 @@
       <c r="H5" s="4" t="n">
         <v>10.86350975</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J5" s="6" t="n">
@@ -942,25 +942,25 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q5" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R5" s="6" t="n">
-        <v>7.69</v>
+        <v>82.27</v>
       </c>
       <c r="S5" s="6" t="n">
-        <v>7.69</v>
+        <v>82.27</v>
       </c>
       <c r="T5" s="6" t="n">
-        <v>1.07</v>
+        <v>11.46</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
       <c r="H6" s="4" t="n">
         <v>45.96100278</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="6" t="n">
         <v>1.55</v>
       </c>
       <c r="J6" s="6" t="n">
@@ -1028,25 +1028,25 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="R6" s="6" t="n">
-        <v>243.9</v>
+        <v>349.35</v>
       </c>
       <c r="S6" s="6" t="n">
-        <v>81.3</v>
+        <v>116.45</v>
       </c>
       <c r="T6" s="6" t="n">
-        <v>11.32</v>
+        <v>16.22</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
       <c r="H7" s="4" t="n">
         <v>314.763231</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="6" t="n">
         <v>2</v>
       </c>
       <c r="J7" s="6" t="n">
@@ -1114,25 +1114,25 @@
         <v>2373</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" s="6" t="n">
         <v>3.67</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>491.65</v>
+        <v>2376.67</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>4.92</v>
+        <v>23.77</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0.68</v>
+        <v>3.31</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
       <c r="H8" s="4" t="n">
         <v>15.26462357</v>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="6" t="n">
         <v>2.1</v>
       </c>
       <c r="J8" s="6" t="n">
@@ -1206,25 +1206,25 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>422.88</v>
+        <v>118.94</v>
       </c>
       <c r="S8" s="6" t="n">
-        <v>3.09</v>
+        <v>0.87</v>
       </c>
       <c r="T8" s="6" t="n">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       <c r="H9" s="4" t="n">
         <v>158.77437326</v>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="J9" s="6" t="n">
@@ -1293,25 +1293,25 @@
         <v>1197</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="R9" s="6" t="n">
-        <v>908.86</v>
+        <v>1202.51</v>
       </c>
       <c r="S9" s="6" t="n">
-        <v>908.86</v>
+        <v>1202.51</v>
       </c>
       <c r="T9" s="6" t="n">
-        <v>126.58</v>
+        <v>167.48</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
       <c r="H10" s="4" t="n">
         <v>32.03342618</v>
       </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J10" s="6" t="n">
@@ -1379,25 +1379,25 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>2377.71</v>
+        <v>250.68</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>2377.71</v>
+        <v>250.68</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>331.16</v>
+        <v>34.91</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
       <c r="H11" s="4" t="n">
         <v>77.29805012999999</v>
       </c>
-      <c r="I11" s="5" t="n">
+      <c r="I11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J11" s="6" t="n">
@@ -1465,25 +1465,25 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R11" s="6" t="n">
-        <v>2393.97</v>
+        <v>591.9299999999999</v>
       </c>
       <c r="S11" s="6" t="n">
-        <v>797.99</v>
+        <v>197.31</v>
       </c>
       <c r="T11" s="6" t="n">
-        <v>111.14</v>
+        <v>27.48</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
       <c r="H12" s="4" t="n">
         <v>243.73259055</v>
       </c>
-      <c r="I12" s="5" t="n">
+      <c r="I12" s="6" t="n">
         <v>1.23</v>
       </c>
       <c r="J12" s="6" t="n">
@@ -1547,25 +1547,25 @@
         <v>1837.5</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O12" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q12" s="6" t="n">
         <v>2.26</v>
       </c>
       <c r="R12" s="6" t="n">
-        <v>230.74</v>
+        <v>1839.76</v>
       </c>
       <c r="S12" s="6" t="n">
-        <v>46.15</v>
+        <v>367.95</v>
       </c>
       <c r="T12" s="6" t="n">
-        <v>6.43</v>
+        <v>51.25</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
       <c r="H13" s="4" t="n">
         <v>20.8913649</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="6" t="n">
         <v>0.15</v>
       </c>
       <c r="J13" s="6" t="n">
@@ -1633,25 +1633,25 @@
         <v>157.5</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O13" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q13" s="6" t="n">
         <v>0.28</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>9.630000000000001</v>
+        <v>157.78</v>
       </c>
       <c r="S13" s="6" t="n">
-        <v>0.32</v>
+        <v>5.26</v>
       </c>
       <c r="T13" s="6" t="n">
-        <v>0.04</v>
+        <v>0.73</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       <c r="H14" s="4" t="n">
         <v>348.189415</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="J14" s="6" t="n">
@@ -1721,25 +1721,25 @@
         <v>2625</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q14" s="6" t="n">
         <v>4.59</v>
       </c>
       <c r="R14" s="6" t="n">
-        <v>716.62</v>
+        <v>2629.59</v>
       </c>
       <c r="S14" s="6" t="n">
-        <v>1.43</v>
+        <v>5.26</v>
       </c>
       <c r="T14" s="6" t="n">
-        <v>0.2</v>
+        <v>0.73</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
       <c r="H15" s="4" t="n">
         <v>278.551532</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <v>2</v>
       </c>
       <c r="J15" s="6" t="n">
@@ -1807,25 +1807,25 @@
         <v>2100</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q15" s="6" t="n">
         <v>3.67</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>478.65</v>
+        <v>2103.67</v>
       </c>
       <c r="S15" s="6" t="n">
-        <v>1.2</v>
+        <v>5.26</v>
       </c>
       <c r="T15" s="6" t="n">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
       <c r="H16" s="4" t="n">
         <v>27.8551532</v>
       </c>
-      <c r="I16" s="5" t="n">
+      <c r="I16" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J16" s="6" t="n">
@@ -1893,25 +1893,25 @@
         <v>210</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q16" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>13.79</v>
+        <v>210.37</v>
       </c>
       <c r="S16" s="6" t="n">
-        <v>0.34</v>
+        <v>5.26</v>
       </c>
       <c r="T16" s="6" t="n">
-        <v>0.05</v>
+        <v>0.73</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
       <c r="H17" s="4" t="n">
         <v>16.713092</v>
       </c>
-      <c r="I17" s="5" t="n">
+      <c r="I17" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J17" s="6" t="n">
@@ -1979,25 +1979,25 @@
         <v>126</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q17" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>9.789999999999999</v>
+        <v>126.37</v>
       </c>
       <c r="S17" s="6" t="n">
-        <v>0.24</v>
+        <v>3.16</v>
       </c>
       <c r="T17" s="6" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
       <c r="H18" s="4" t="n">
         <v>23.3983288</v>
       </c>
-      <c r="I18" s="5" t="n">
+      <c r="I18" s="6" t="n">
         <v>0.7</v>
       </c>
       <c r="J18" s="6" t="n">
@@ -2065,25 +2065,25 @@
         <v>176.4</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O18" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R18" s="6" t="n">
-        <v>54.78</v>
+        <v>177.69</v>
       </c>
       <c r="S18" s="6" t="n">
-        <v>0.39</v>
+        <v>1.27</v>
       </c>
       <c r="T18" s="6" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
       <c r="H19" s="4" t="n">
         <v>34.4707525</v>
       </c>
-      <c r="I19" s="5" t="n">
+      <c r="I19" s="6" t="n">
         <v>1.25</v>
       </c>
       <c r="J19" s="6" t="n">
@@ -2151,25 +2151,25 @@
         <v>259.88</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O19" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>160.27</v>
+        <v>262.17</v>
       </c>
       <c r="S19" s="6" t="n">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="T19" s="6" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
       <c r="H20" s="4" t="n">
         <v>71.33147588</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="6" t="n">
         <v>3.49</v>
       </c>
       <c r="J20" s="6" t="n">
@@ -2237,25 +2237,25 @@
         <v>537.77</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" s="6" t="n">
-        <v>6.4</v>
+        <v>6.41</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>1178.44</v>
+        <v>544.1799999999999</v>
       </c>
       <c r="S20" s="6" t="n">
-        <v>3.04</v>
+        <v>1.4</v>
       </c>
       <c r="T20" s="6" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
       <c r="H21" s="4" t="n">
         <v>84.01671257</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="6" t="n">
         <v>4.11</v>
       </c>
       <c r="J21" s="6" t="n">
@@ -2323,25 +2323,25 @@
         <v>633.4</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>7.54</v>
+        <v>7.55</v>
       </c>
       <c r="R21" s="6" t="n">
-        <v>1628.98</v>
+        <v>640.95</v>
       </c>
       <c r="S21" s="6" t="n">
-        <v>3.56</v>
+        <v>1.4</v>
       </c>
       <c r="T21" s="6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
       <c r="H22" s="4" t="n">
         <v>84.20055658</v>
       </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="6" t="n">
         <v>4.12</v>
       </c>
       <c r="J22" s="6" t="n">
@@ -2409,25 +2409,25 @@
         <v>634.79</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q22" s="6" t="n">
-        <v>7.56</v>
+        <v>7.57</v>
       </c>
       <c r="R22" s="6" t="n">
-        <v>1636.84</v>
+        <v>642.35</v>
       </c>
       <c r="S22" s="6" t="n">
-        <v>3.57</v>
+        <v>1.4</v>
       </c>
       <c r="T22" s="6" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
       <c r="H23" s="4" t="n">
         <v>52.76323087</v>
       </c>
-      <c r="I23" s="5" t="n">
+      <c r="I23" s="6" t="n">
         <v>2.58</v>
       </c>
       <c r="J23" s="6" t="n">
@@ -2495,25 +2495,25 @@
         <v>397.78</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>648.97</v>
+        <v>402.52</v>
       </c>
       <c r="S23" s="6" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="T23" s="6" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
       <c r="H24" s="4" t="n">
         <v>7.3537604</v>
       </c>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="6" t="n">
         <v>0.36</v>
       </c>
       <c r="J24" s="6" t="n">
@@ -2581,25 +2581,25 @@
         <v>55.44</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" s="6" t="n">
         <v>0.66</v>
       </c>
       <c r="R24" s="6" t="n">
-        <v>14.91</v>
+        <v>56.1</v>
       </c>
       <c r="S24" s="6" t="n">
-        <v>0.37</v>
+        <v>1.4</v>
       </c>
       <c r="T24" s="6" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
       <c r="H25" s="4" t="n">
         <v>11.0306406</v>
       </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="6" t="n">
         <v>0.54</v>
       </c>
       <c r="J25" s="6" t="n">
@@ -2667,25 +2667,25 @@
         <v>83.16</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q25" s="6" t="n">
         <v>0.99</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>31.56</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="S25" s="6" t="n">
-        <v>0.53</v>
+        <v>1.4</v>
       </c>
       <c r="T25" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
       <c r="H26" s="4" t="n">
         <v>9.1922005</v>
       </c>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="6" t="n">
         <v>0.45</v>
       </c>
       <c r="J26" s="6" t="n">
@@ -2753,25 +2753,25 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O26" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q26" s="6" t="n">
         <v>0.83</v>
       </c>
       <c r="R26" s="6" t="n">
-        <v>22.47</v>
+        <v>70.13</v>
       </c>
       <c r="S26" s="6" t="n">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="T26" s="6" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
@@ -2823,7 +2823,7 @@
       <c r="H27" s="4" t="n">
         <v>9.1922005</v>
       </c>
-      <c r="I27" s="5" t="n">
+      <c r="I27" s="6" t="n">
         <v>0.45</v>
       </c>
       <c r="J27" s="6" t="n">
@@ -2839,25 +2839,25 @@
         <v>69.3</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O27" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" s="6" t="n">
         <v>0.83</v>
       </c>
       <c r="R27" s="6" t="n">
-        <v>22.47</v>
+        <v>70.13</v>
       </c>
       <c r="S27" s="6" t="n">
-        <v>0.45</v>
+        <v>1.4</v>
       </c>
       <c r="T27" s="6" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
       <c r="H28" s="4" t="n">
         <v>20.2228411</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="6" t="n">
         <v>0.99</v>
       </c>
       <c r="J28" s="6" t="n">
@@ -2925,25 +2925,25 @@
         <v>152.46</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O28" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q28" s="6" t="n">
         <v>1.82</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>100.03</v>
+        <v>154.28</v>
       </c>
       <c r="S28" s="6" t="n">
-        <v>0.91</v>
+        <v>1.4</v>
       </c>
       <c r="T28" s="6" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       <c r="H29" s="4" t="n">
         <v>4205.0139336</v>
       </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="6" t="n">
         <v>1200</v>
       </c>
       <c r="J29" s="6" t="n">
@@ -3011,25 +3011,25 @@
         <v>31701.6</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q29" s="6" t="n">
-        <v>2201.05</v>
+        <v>2203.97</v>
       </c>
       <c r="R29" s="6" t="n">
-        <v>136294621.08</v>
+        <v>33905.57</v>
       </c>
       <c r="S29" s="6" t="n">
-        <v>66811.09</v>
+        <v>16.62</v>
       </c>
       <c r="T29" s="6" t="n">
-        <v>9305.17</v>
+        <v>2.31</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
       <c r="H30" s="4" t="n">
         <v>2846.796652</v>
       </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="6" t="n">
         <v>866</v>
       </c>
       <c r="J30" s="6" t="n">
@@ -3097,25 +3097,25 @@
         <v>21462</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O30" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q30" s="6" t="n">
-        <v>1588.42</v>
+        <v>1590.53</v>
       </c>
       <c r="R30" s="6" t="n">
-        <v>70982853.18000001</v>
+        <v>23052.53</v>
       </c>
       <c r="S30" s="6" t="n">
-        <v>25351.02</v>
+        <v>8.23</v>
       </c>
       <c r="T30" s="6" t="n">
-        <v>3530.78</v>
+        <v>1.15</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
       <c r="H31" s="4" t="n">
         <v>161.55988858</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="J31" s="6" t="n">
@@ -3184,25 +3184,25 @@
         <v>1218</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" s="6" t="n">
         <v>0.55</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>66.55</v>
+        <v>1218.55</v>
       </c>
       <c r="S31" s="6" t="n">
-        <v>33.28</v>
+        <v>609.28</v>
       </c>
       <c r="T31" s="6" t="n">
-        <v>4.63</v>
+        <v>84.86</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
       <c r="H32" s="4" t="n">
         <v>55.7103064</v>
       </c>
-      <c r="I32" s="5" t="n">
+      <c r="I32" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="J32" s="6" t="n">
@@ -3270,25 +3270,25 @@
         <v>420</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O32" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q32" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="R32" s="6" t="n">
-        <v>54.08</v>
+        <v>421.1</v>
       </c>
       <c r="S32" s="6" t="n">
-        <v>10.82</v>
+        <v>84.22</v>
       </c>
       <c r="T32" s="6" t="n">
-        <v>1.51</v>
+        <v>11.73</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
       <c r="H33" s="4" t="n">
         <v>125.34818942</v>
       </c>
-      <c r="I33" s="5" t="n">
+      <c r="I33" s="6" t="n">
         <v>0.05</v>
       </c>
       <c r="J33" s="6" t="n">
@@ -3356,25 +3356,25 @@
         <v>945</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O33" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q33" s="6" t="n">
         <v>0.09</v>
       </c>
       <c r="R33" s="6" t="n">
-        <v>45.26</v>
+        <v>945.09</v>
       </c>
       <c r="S33" s="6" t="n">
-        <v>22.63</v>
+        <v>472.55</v>
       </c>
       <c r="T33" s="6" t="n">
-        <v>3.15</v>
+        <v>65.81</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
       <c r="H34" s="4" t="n">
         <v>484.67966574</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="6" t="n">
         <v>64.2</v>
       </c>
       <c r="J34" s="6" t="n">
@@ -3446,25 +3446,25 @@
         <v>3654</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q34" s="6" t="n">
-        <v>117.76</v>
+        <v>117.91</v>
       </c>
       <c r="R34" s="6" t="n">
-        <v>390279.05</v>
+        <v>3771.91</v>
       </c>
       <c r="S34" s="6" t="n">
-        <v>130093.02</v>
+        <v>1257.3</v>
       </c>
       <c r="T34" s="6" t="n">
-        <v>18118.8</v>
+        <v>175.11</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
       <c r="H35" s="4" t="n">
         <v>2172.70194984</v>
       </c>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="6" t="n">
         <v>34</v>
       </c>
       <c r="J35" s="6" t="n">
@@ -3536,25 +3536,25 @@
         <v>16380</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O35" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q35" s="6" t="n">
-        <v>62.36</v>
+        <v>62.45</v>
       </c>
       <c r="R35" s="6" t="n">
-        <v>110193.51</v>
+        <v>16442.45</v>
       </c>
       <c r="S35" s="6" t="n">
-        <v>9182.790000000001</v>
+        <v>1370.2</v>
       </c>
       <c r="T35" s="6" t="n">
-        <v>1278.94</v>
+        <v>190.84</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3609,7 +3609,7 @@
       <c r="H36" s="4" t="n">
         <v>376.04456829</v>
       </c>
-      <c r="I36" s="5" t="n">
+      <c r="I36" s="6" t="n">
         <v>205</v>
       </c>
       <c r="J36" s="6" t="n">
@@ -3625,25 +3625,25 @@
         <v>2835</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O36" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q36" s="6" t="n">
-        <v>376.01</v>
+        <v>376.51</v>
       </c>
       <c r="R36" s="6" t="n">
-        <v>3977717</v>
+        <v>3211.51</v>
       </c>
       <c r="S36" s="6" t="n">
-        <v>441968.56</v>
+        <v>356.83</v>
       </c>
       <c r="T36" s="6" t="n">
-        <v>61555.51</v>
+        <v>49.7</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
       <c r="H37" s="4" t="n">
         <v>4735.3760446</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="6" t="n">
         <v>270</v>
       </c>
       <c r="J37" s="6" t="n">
@@ -3711,25 +3711,25 @@
         <v>35700</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O37" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q37" s="6" t="n">
-        <v>495.24</v>
+        <v>495.89</v>
       </c>
       <c r="R37" s="6" t="n">
-        <v>6901539.66</v>
+        <v>36195.89</v>
       </c>
       <c r="S37" s="6" t="n">
-        <v>690153.97</v>
+        <v>3619.59</v>
       </c>
       <c r="T37" s="6" t="n">
-        <v>96121.72</v>
+        <v>504.12</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
       <c r="H38" s="4" t="n">
         <v>7172.7019499</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="6" t="n">
         <v>440</v>
       </c>
       <c r="J38" s="6" t="n">
@@ -3797,25 +3797,25 @@
         <v>54075</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O38" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q38" s="6" t="n">
-        <v>807.05</v>
+        <v>808.12</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>18326427.96</v>
+        <v>54883.12</v>
       </c>
       <c r="S38" s="6" t="n">
-        <v>1832642.8</v>
+        <v>5488.31</v>
       </c>
       <c r="T38" s="6" t="n">
-        <v>255242.73</v>
+        <v>764.39</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
       <c r="H39" s="4" t="n">
         <v>130.22284123</v>
       </c>
-      <c r="I39" s="5" t="n">
+      <c r="I39" s="6" t="n">
         <v>15</v>
       </c>
       <c r="J39" s="6" t="n">
@@ -3883,25 +3883,25 @@
         <v>981.75</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O39" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q39" s="6" t="n">
-        <v>27.51</v>
+        <v>27.55</v>
       </c>
       <c r="R39" s="6" t="n">
-        <v>21342.57</v>
+        <v>1009.3</v>
       </c>
       <c r="S39" s="6" t="n">
-        <v>21342.57</v>
+        <v>1009.3</v>
       </c>
       <c r="T39" s="6" t="n">
-        <v>2972.5</v>
+        <v>140.57</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
       <c r="H40" s="4" t="n">
         <v>30.6406685</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="6" t="n">
         <v>0.09</v>
       </c>
       <c r="J40" s="6" t="n">
@@ -3969,25 +3969,25 @@
         <v>231</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O40" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" s="6" t="n">
         <v>0.17</v>
       </c>
       <c r="R40" s="6" t="n">
-        <v>11.77</v>
+        <v>231.17</v>
       </c>
       <c r="S40" s="6" t="n">
-        <v>1.18</v>
+        <v>23.12</v>
       </c>
       <c r="T40" s="6" t="n">
-        <v>0.16</v>
+        <v>3.22</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
       <c r="H41" s="4" t="n">
         <v>243.73259055</v>
       </c>
-      <c r="I41" s="5" t="n">
+      <c r="I41" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="J41" s="6" t="n">
@@ -4057,25 +4057,25 @@
         <v>1837.5</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O41" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q41" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R41" s="6" t="n">
-        <v>87.7</v>
+        <v>1837.57</v>
       </c>
       <c r="S41" s="6" t="n">
-        <v>17.54</v>
+        <v>367.51</v>
       </c>
       <c r="T41" s="6" t="n">
-        <v>2.44</v>
+        <v>51.19</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
       <c r="H42" s="4" t="n">
         <v>557.103065</v>
       </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="6" t="n">
         <v>4.5</v>
       </c>
       <c r="J42" s="6" t="n">
@@ -4143,25 +4143,25 @@
         <v>4200</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q42" s="6" t="n">
-        <v>8.25</v>
+        <v>8.26</v>
       </c>
       <c r="R42" s="6" t="n">
-        <v>2116.73</v>
+        <v>4208.26</v>
       </c>
       <c r="S42" s="6" t="n">
-        <v>4.23</v>
+        <v>8.42</v>
       </c>
       <c r="T42" s="6" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4209,7 +4209,7 @@
       <c r="H43" s="4" t="n">
         <v>61.28133704</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="J43" s="6" t="n">
@@ -4225,25 +4225,25 @@
         <v>462</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O43" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q43" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R43" s="6" t="n">
-        <v>22.16</v>
+        <v>462.07</v>
       </c>
       <c r="S43" s="6" t="n">
-        <v>5.54</v>
+        <v>115.52</v>
       </c>
       <c r="T43" s="6" t="n">
-        <v>0.77</v>
+        <v>16.09</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4291,7 +4291,7 @@
       <c r="H44" s="4" t="n">
         <v>129.83983285</v>
       </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="J44" s="6" t="n">
@@ -4307,25 +4307,25 @@
         <v>978.86</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O44" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="R44" s="6" t="n">
-        <v>46.79</v>
+        <v>978.9400000000001</v>
       </c>
       <c r="S44" s="6" t="n">
-        <v>9.359999999999999</v>
+        <v>195.79</v>
       </c>
       <c r="T44" s="6" t="n">
-        <v>1.3</v>
+        <v>27.27</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
       <c r="H45" s="4" t="n">
         <v>1378.83008356</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="J45" s="6" t="n">
@@ -4393,25 +4393,25 @@
         <v>10395</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O45" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q45" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="R45" s="6" t="n">
-        <v>495.31</v>
+        <v>10395.04</v>
       </c>
       <c r="S45" s="6" t="n">
-        <v>247.66</v>
+        <v>5197.52</v>
       </c>
       <c r="T45" s="6" t="n">
-        <v>34.49</v>
+        <v>723.89</v>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
       <c r="H46" s="4" t="n">
         <v>9.0529248</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="6" t="n">
         <v>0.09</v>
       </c>
       <c r="J46" s="6" t="n">
@@ -4479,25 +4479,25 @@
         <v>68.25</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q46" s="6" t="n">
         <v>0.17</v>
       </c>
       <c r="R46" s="6" t="n">
-        <v>4.02</v>
+        <v>68.42</v>
       </c>
       <c r="S46" s="6" t="n">
-        <v>0.4</v>
+        <v>6.84</v>
       </c>
       <c r="T46" s="6" t="n">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
       <c r="H47" s="4" t="n">
         <v>9.0529248</v>
       </c>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="6" t="n">
         <v>0.09</v>
       </c>
       <c r="J47" s="6" t="n">
@@ -4565,25 +4565,25 @@
         <v>68.25</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O47" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q47" s="6" t="n">
         <v>0.17</v>
       </c>
       <c r="R47" s="6" t="n">
-        <v>4.02</v>
+        <v>68.42</v>
       </c>
       <c r="S47" s="6" t="n">
-        <v>0.4</v>
+        <v>6.84</v>
       </c>
       <c r="T47" s="6" t="n">
-        <v>0.06</v>
+        <v>0.95</v>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
@@ -4635,7 +4635,7 @@
       <c r="H48" s="4" t="n">
         <v>61.28133704</v>
       </c>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="J48" s="6" t="n">
@@ -4651,25 +4651,25 @@
         <v>462</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O48" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q48" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="R48" s="6" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S48" s="6" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T48" s="6" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
       <c r="H49" s="4" t="n">
         <v>61.28133704</v>
       </c>
-      <c r="I49" s="5" t="n">
+      <c r="I49" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="J49" s="6" t="n">
@@ -4737,25 +4737,25 @@
         <v>462</v>
       </c>
       <c r="N49" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O49" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q49" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="R49" s="6" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S49" s="6" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T49" s="6" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
       <c r="H50" s="4" t="n">
         <v>61.28133704</v>
       </c>
-      <c r="I50" s="5" t="n">
+      <c r="I50" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="J50" s="6" t="n">
@@ -4823,25 +4823,25 @@
         <v>462</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O50" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q50" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="R50" s="6" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S50" s="6" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T50" s="6" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
       <c r="H51" s="4" t="n">
         <v>61.28133704</v>
       </c>
-      <c r="I51" s="5" t="n">
+      <c r="I51" s="6" t="n">
         <v>0.02</v>
       </c>
       <c r="J51" s="6" t="n">
@@ -4909,25 +4909,25 @@
         <v>462</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O51" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q51" s="6" t="n">
         <v>0.04</v>
       </c>
       <c r="R51" s="6" t="n">
-        <v>22.05</v>
+        <v>462.04</v>
       </c>
       <c r="S51" s="6" t="n">
-        <v>11.02</v>
+        <v>231.02</v>
       </c>
       <c r="T51" s="6" t="n">
-        <v>1.54</v>
+        <v>32.18</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
       <c r="H52" s="4" t="n">
         <v>91.3649025</v>
       </c>
-      <c r="I52" s="5" t="n">
+      <c r="I52" s="6" t="n">
         <v>4.2</v>
       </c>
       <c r="J52" s="6" t="n">
@@ -4995,25 +4995,25 @@
         <v>688.8</v>
       </c>
       <c r="N52" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O52" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q52" s="6" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="R52" s="6" t="n">
-        <v>1702.41</v>
+        <v>696.51</v>
       </c>
       <c r="S52" s="6" t="n">
-        <v>851.2</v>
+        <v>348.26</v>
       </c>
       <c r="T52" s="6" t="n">
-        <v>118.55</v>
+        <v>48.5</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5065,7 +5065,7 @@
       <c r="H53" s="4" t="n">
         <v>91.3649025</v>
       </c>
-      <c r="I53" s="5" t="n">
+      <c r="I53" s="6" t="n">
         <v>4</v>
       </c>
       <c r="J53" s="6" t="n">
@@ -5081,25 +5081,25 @@
         <v>688.8</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O53" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q53" s="6" t="n">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="R53" s="6" t="n">
-        <v>1547.19</v>
+        <v>696.15</v>
       </c>
       <c r="S53" s="6" t="n">
-        <v>773.59</v>
+        <v>348.07</v>
       </c>
       <c r="T53" s="6" t="n">
-        <v>107.74</v>
+        <v>48.48</v>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
       <c r="H54" s="4" t="n">
         <v>217.27019499</v>
       </c>
-      <c r="I54" s="5" t="n">
+      <c r="I54" s="6" t="n">
         <v>2.88</v>
       </c>
       <c r="J54" s="6" t="n">
@@ -5167,25 +5167,25 @@
         <v>1638</v>
       </c>
       <c r="N54" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O54" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q54" s="6" t="n">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="R54" s="6" t="n">
-        <v>863.09</v>
+        <v>1643.29</v>
       </c>
       <c r="S54" s="6" t="n">
-        <v>287.7</v>
+        <v>547.76</v>
       </c>
       <c r="T54" s="6" t="n">
-        <v>40.07</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
       <c r="H55" s="4" t="n">
         <v>88.13370472</v>
       </c>
-      <c r="I55" s="5" t="n">
+      <c r="I55" s="6" t="n">
         <v>3.5</v>
       </c>
       <c r="J55" s="6" t="n">
@@ -5253,25 +5253,25 @@
         <v>664.4400000000001</v>
       </c>
       <c r="N55" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O55" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q55" s="6" t="n">
-        <v>6.42</v>
+        <v>6.43</v>
       </c>
       <c r="R55" s="6" t="n">
-        <v>1191.1</v>
+        <v>670.87</v>
       </c>
       <c r="S55" s="6" t="n">
-        <v>297.77</v>
+        <v>167.72</v>
       </c>
       <c r="T55" s="6" t="n">
-        <v>41.47</v>
+        <v>23.36</v>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
       <c r="H56" s="4" t="n">
         <v>362.11699164</v>
       </c>
-      <c r="I56" s="5" t="n">
+      <c r="I56" s="6" t="n">
         <v>2.5</v>
       </c>
       <c r="J56" s="6" t="n">
@@ -5339,25 +5339,25 @@
         <v>2730</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O56" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q56" s="6" t="n">
         <v>4.59</v>
       </c>
       <c r="R56" s="6" t="n">
-        <v>721.62</v>
+        <v>2734.59</v>
       </c>
       <c r="S56" s="6" t="n">
-        <v>360.81</v>
+        <v>1367.3</v>
       </c>
       <c r="T56" s="6" t="n">
-        <v>50.25</v>
+        <v>190.43</v>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
       <c r="H57" s="4" t="n">
         <v>192.2005571</v>
       </c>
-      <c r="I57" s="5" t="n">
+      <c r="I57" s="6" t="n">
         <v>1.2</v>
       </c>
       <c r="J57" s="6" t="n">
@@ -5425,25 +5425,25 @@
         <v>1449</v>
       </c>
       <c r="N57" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O57" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q57" s="6" t="n">
         <v>2.2</v>
       </c>
       <c r="R57" s="6" t="n">
-        <v>205.33</v>
+        <v>1451.2</v>
       </c>
       <c r="S57" s="6" t="n">
-        <v>205.33</v>
+        <v>1451.2</v>
       </c>
       <c r="T57" s="6" t="n">
-        <v>28.6</v>
+        <v>202.12</v>
       </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
@@ -5495,7 +5495,7 @@
       <c r="H58" s="4" t="n">
         <v>94.38718679999999</v>
       </c>
-      <c r="I58" s="5" t="n">
+      <c r="I58" s="6" t="n">
         <v>2.12</v>
       </c>
       <c r="J58" s="6" t="n">
@@ -5511,25 +5511,25 @@
         <v>711.58</v>
       </c>
       <c r="N58" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O58" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q58" s="6" t="n">
         <v>3.89</v>
       </c>
       <c r="R58" s="6" t="n">
-        <v>459.29</v>
+        <v>715.48</v>
       </c>
       <c r="S58" s="6" t="n">
-        <v>10.21</v>
+        <v>15.9</v>
       </c>
       <c r="T58" s="6" t="n">
-        <v>1.42</v>
+        <v>2.21</v>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
       <c r="H59" s="4" t="n">
         <v>12.1866295</v>
       </c>
-      <c r="I59" s="5" t="n">
+      <c r="I59" s="6" t="n">
         <v>0.1</v>
       </c>
       <c r="J59" s="6" t="n">
@@ -5597,25 +5597,25 @@
         <v>91.88</v>
       </c>
       <c r="N59" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O59" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q59" s="6" t="n">
         <v>0.18</v>
       </c>
       <c r="R59" s="6" t="n">
-        <v>5.32</v>
+        <v>92.06</v>
       </c>
       <c r="S59" s="6" t="n">
-        <v>0.21</v>
+        <v>3.68</v>
       </c>
       <c r="T59" s="6" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
       <c r="H60" s="4" t="n">
         <v>10.1671309</v>
       </c>
-      <c r="I60" s="5" t="n">
+      <c r="I60" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J60" s="6" t="n">
@@ -5683,25 +5683,25 @@
         <v>76.65000000000001</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O60" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q60" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R60" s="6" t="n">
-        <v>7.44</v>
+        <v>77.02</v>
       </c>
       <c r="S60" s="6" t="n">
-        <v>1.49</v>
+        <v>15.4</v>
       </c>
       <c r="T60" s="6" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
       <c r="H61" s="4" t="n">
         <v>2.78551532</v>
       </c>
-      <c r="I61" s="5" t="n">
+      <c r="I61" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J61" s="6" t="n">
@@ -5769,25 +5769,25 @@
         <v>21</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O61" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q61" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R61" s="6" t="n">
-        <v>4.79</v>
+        <v>21.37</v>
       </c>
       <c r="S61" s="6" t="n">
-        <v>2.39</v>
+        <v>10.68</v>
       </c>
       <c r="T61" s="6" t="n">
-        <v>0.33</v>
+        <v>1.49</v>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
       <c r="H62" s="4" t="n">
         <v>2.78551532</v>
       </c>
-      <c r="I62" s="5" t="n">
+      <c r="I62" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J62" s="6" t="n">
@@ -5855,25 +5855,25 @@
         <v>21</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O62" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q62" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R62" s="6" t="n">
-        <v>4.79</v>
+        <v>21.37</v>
       </c>
       <c r="S62" s="6" t="n">
-        <v>2.39</v>
+        <v>10.68</v>
       </c>
       <c r="T62" s="6" t="n">
-        <v>0.33</v>
+        <v>1.49</v>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
@@ -5925,7 +5925,7 @@
       <c r="H63" s="4" t="n">
         <v>2.78551532</v>
       </c>
-      <c r="I63" s="5" t="n">
+      <c r="I63" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J63" s="6" t="n">
@@ -5941,25 +5941,25 @@
         <v>21</v>
       </c>
       <c r="N63" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O63" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q63" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R63" s="6" t="n">
-        <v>4.79</v>
+        <v>21.37</v>
       </c>
       <c r="S63" s="6" t="n">
-        <v>2.39</v>
+        <v>10.68</v>
       </c>
       <c r="T63" s="6" t="n">
-        <v>0.33</v>
+        <v>1.49</v>
       </c>
       <c r="U63" s="4" t="inlineStr">
         <is>
@@ -6013,7 +6013,7 @@
       <c r="H64" s="4" t="n">
         <v>114.90250695</v>
       </c>
-      <c r="I64" s="5" t="n">
+      <c r="I64" s="6" t="n">
         <v>0.1</v>
       </c>
       <c r="J64" s="6" t="n">
@@ -6029,25 +6029,25 @@
         <v>866.25</v>
       </c>
       <c r="N64" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O64" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q64" s="6" t="n">
         <v>0.18</v>
       </c>
       <c r="R64" s="6" t="n">
-        <v>42.22</v>
+        <v>866.4299999999999</v>
       </c>
       <c r="S64" s="6" t="n">
-        <v>2.81</v>
+        <v>57.76</v>
       </c>
       <c r="T64" s="6" t="n">
-        <v>0.39</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
       <c r="H65" s="4" t="n">
         <v>38.30083565</v>
       </c>
-      <c r="I65" s="5" t="n">
+      <c r="I65" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J65" s="6" t="n">
@@ -6116,25 +6116,25 @@
         <v>288.75</v>
       </c>
       <c r="N65" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O65" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q65" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R65" s="6" t="n">
-        <v>17.54</v>
+        <v>289.12</v>
       </c>
       <c r="S65" s="6" t="n">
-        <v>3.51</v>
+        <v>57.82</v>
       </c>
       <c r="T65" s="6" t="n">
-        <v>0.49</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
       <c r="H66" s="4" t="n">
         <v>13.9275766</v>
       </c>
-      <c r="I66" s="5" t="n">
+      <c r="I66" s="6" t="n">
         <v>0.14</v>
       </c>
       <c r="J66" s="6" t="n">
@@ -6202,25 +6202,25 @@
         <v>105</v>
       </c>
       <c r="N66" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O66" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P66" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q66" s="6" t="n">
         <v>0.26</v>
       </c>
       <c r="R66" s="6" t="n">
-        <v>6.86</v>
+        <v>105.26</v>
       </c>
       <c r="S66" s="6" t="n">
-        <v>1.37</v>
+        <v>21.05</v>
       </c>
       <c r="T66" s="6" t="n">
-        <v>0.19</v>
+        <v>2.93</v>
       </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
       <c r="H67" s="4" t="n">
         <v>0.91921995</v>
       </c>
-      <c r="I67" s="5" t="n">
+      <c r="I67" s="6" t="n">
         <v>0.16</v>
       </c>
       <c r="J67" s="6" t="n">
@@ -6289,25 +6289,25 @@
         <v>6.93</v>
       </c>
       <c r="N67" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O67" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q67" s="6" t="n">
         <v>0.29</v>
       </c>
       <c r="R67" s="6" t="n">
-        <v>2.75</v>
+        <v>7.22</v>
       </c>
       <c r="S67" s="6" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="T67" s="6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U67" s="4" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
       <c r="H68" s="4" t="n">
         <v>64.066852</v>
       </c>
-      <c r="I68" s="5" t="n">
+      <c r="I68" s="6" t="n">
         <v>3</v>
       </c>
       <c r="J68" s="6" t="n">
@@ -6375,25 +6375,25 @@
         <v>483</v>
       </c>
       <c r="N68" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O68" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q68" s="6" t="n">
-        <v>5.5</v>
+        <v>5.51</v>
       </c>
       <c r="R68" s="6" t="n">
-        <v>874.84</v>
+        <v>488.51</v>
       </c>
       <c r="S68" s="6" t="n">
-        <v>8.75</v>
+        <v>4.89</v>
       </c>
       <c r="T68" s="6" t="n">
-        <v>1.22</v>
+        <v>0.68</v>
       </c>
       <c r="U68" s="4" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
       <c r="H69" s="4" t="n">
         <v>19.052925</v>
       </c>
-      <c r="I69" s="5" t="n">
+      <c r="I69" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J69" s="6" t="n">
@@ -6461,25 +6461,25 @@
         <v>143.64</v>
       </c>
       <c r="N69" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O69" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q69" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R69" s="6" t="n">
-        <v>101.49</v>
+        <v>145.48</v>
       </c>
       <c r="S69" s="6" t="n">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="T69" s="6" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
       <c r="H70" s="4" t="n">
         <v>43.73259052</v>
       </c>
-      <c r="I70" s="5" t="n">
+      <c r="I70" s="6" t="n">
         <v>2.3</v>
       </c>
       <c r="J70" s="6" t="n">
@@ -6547,25 +6547,25 @@
         <v>329.7</v>
       </c>
       <c r="N70" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O70" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q70" s="6" t="n">
         <v>4.22</v>
       </c>
       <c r="R70" s="6" t="n">
-        <v>516.4</v>
+        <v>333.92</v>
       </c>
       <c r="S70" s="6" t="n">
-        <v>258.2</v>
+        <v>166.96</v>
       </c>
       <c r="T70" s="6" t="n">
-        <v>35.96</v>
+        <v>23.25</v>
       </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
       <c r="H71" s="4" t="n">
         <v>13.9275766</v>
       </c>
-      <c r="I71" s="5" t="n">
+      <c r="I71" s="6" t="n">
         <v>2.06</v>
       </c>
       <c r="J71" s="6" t="n">
@@ -6633,25 +6633,25 @@
         <v>105</v>
       </c>
       <c r="N71" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O71" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q71" s="6" t="n">
         <v>3.78</v>
       </c>
       <c r="R71" s="6" t="n">
-        <v>406.65</v>
+        <v>108.78</v>
       </c>
       <c r="S71" s="6" t="n">
-        <v>20.33</v>
+        <v>5.44</v>
       </c>
       <c r="T71" s="6" t="n">
-        <v>2.83</v>
+        <v>0.76</v>
       </c>
       <c r="U71" s="4" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
       <c r="H72" s="4" t="n">
         <v>8.68523676</v>
       </c>
-      <c r="I72" s="5" t="n">
+      <c r="I72" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J72" s="6" t="n">
@@ -6719,25 +6719,25 @@
         <v>65.48</v>
       </c>
       <c r="N72" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O72" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q72" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R72" s="6" t="n">
-        <v>6.91</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="S72" s="6" t="n">
-        <v>3.45</v>
+        <v>32.92</v>
       </c>
       <c r="T72" s="6" t="n">
-        <v>0.48</v>
+        <v>4.59</v>
       </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
@@ -6789,7 +6789,7 @@
       <c r="H73" s="4" t="n">
         <v>35.55292479</v>
       </c>
-      <c r="I73" s="5" t="n">
+      <c r="I73" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J73" s="6" t="n">
@@ -6805,25 +6805,25 @@
         <v>268.03</v>
       </c>
       <c r="N73" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O73" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q73" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R73" s="6" t="n">
-        <v>16.56</v>
+        <v>268.4</v>
       </c>
       <c r="S73" s="6" t="n">
-        <v>16.56</v>
+        <v>268.4</v>
       </c>
       <c r="T73" s="6" t="n">
-        <v>2.31</v>
+        <v>37.38</v>
       </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
       <c r="H74" s="4" t="n">
         <v>20.8913649</v>
       </c>
-      <c r="I74" s="5" t="n">
+      <c r="I74" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J74" s="6" t="n">
@@ -6891,25 +6891,25 @@
         <v>157.5</v>
       </c>
       <c r="N74" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O74" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q74" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R74" s="6" t="n">
-        <v>31.17</v>
+        <v>158.42</v>
       </c>
       <c r="S74" s="6" t="n">
-        <v>3.12</v>
+        <v>15.84</v>
       </c>
       <c r="T74" s="6" t="n">
-        <v>0.43</v>
+        <v>2.21</v>
       </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
@@ -6961,7 +6961,7 @@
       <c r="H75" s="4" t="n">
         <v>7.5208915</v>
       </c>
-      <c r="I75" s="5" t="n">
+      <c r="I75" s="6" t="n">
         <v>0.55</v>
       </c>
       <c r="J75" s="6" t="n">
@@ -6977,25 +6977,25 @@
         <v>56.7</v>
       </c>
       <c r="N75" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O75" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P75" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q75" s="6" t="n">
         <v>1.01</v>
       </c>
       <c r="R75" s="6" t="n">
-        <v>31.33</v>
+        <v>57.71</v>
       </c>
       <c r="S75" s="6" t="n">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="T75" s="6" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="U75" s="4" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
       <c r="H76" s="4" t="n">
         <v>7.66016715</v>
       </c>
-      <c r="I76" s="5" t="n">
+      <c r="I76" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="J76" s="6" t="n">
@@ -7067,25 +7067,25 @@
         <v>57.75</v>
       </c>
       <c r="N76" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O76" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q76" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="R76" s="6" t="n">
-        <v>36.82</v>
+        <v>58.85</v>
       </c>
       <c r="S76" s="6" t="n">
-        <v>7.36</v>
+        <v>11.77</v>
       </c>
       <c r="T76" s="6" t="n">
-        <v>1.03</v>
+        <v>1.64</v>
       </c>
       <c r="U76" s="4" t="inlineStr">
         <is>
@@ -7137,7 +7137,7 @@
       <c r="H77" s="4" t="n">
         <v>2.2841223</v>
       </c>
-      <c r="I77" s="5" t="n">
+      <c r="I77" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J77" s="6" t="n">
@@ -7153,25 +7153,25 @@
         <v>17.22</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O77" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q77" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R77" s="6" t="n">
-        <v>95.47</v>
+        <v>19.06</v>
       </c>
       <c r="S77" s="6" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="T77" s="6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="U77" s="4" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
       <c r="H78" s="4" t="n">
         <v>62.674095</v>
       </c>
-      <c r="I78" s="5" t="n">
+      <c r="I78" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J78" s="6" t="n">
@@ -7239,25 +7239,25 @@
         <v>472.5</v>
       </c>
       <c r="N78" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O78" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q78" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R78" s="6" t="n">
-        <v>2388.71</v>
+        <v>481.68</v>
       </c>
       <c r="S78" s="6" t="n">
-        <v>23.89</v>
+        <v>4.82</v>
       </c>
       <c r="T78" s="6" t="n">
-        <v>3.33</v>
+        <v>0.67</v>
       </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
       <c r="H79" s="4" t="n">
         <v>106.0445682</v>
       </c>
-      <c r="I79" s="5" t="n">
+      <c r="I79" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J79" s="6" t="n">
@@ -7325,25 +7325,25 @@
         <v>799.47</v>
       </c>
       <c r="N79" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O79" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q79" s="6" t="n">
-        <v>20.18</v>
+        <v>20.2</v>
       </c>
       <c r="R79" s="6" t="n">
-        <v>11490.5</v>
+        <v>819.67</v>
       </c>
       <c r="S79" s="6" t="n">
-        <v>127.67</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="T79" s="6" t="n">
-        <v>17.78</v>
+        <v>1.27</v>
       </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
@@ -7395,7 +7395,7 @@
       <c r="H80" s="4" t="n">
         <v>125.34818942</v>
       </c>
-      <c r="I80" s="5" t="n">
+      <c r="I80" s="6" t="n">
         <v>1.09</v>
       </c>
       <c r="J80" s="6" t="n">
@@ -7411,25 +7411,25 @@
         <v>945</v>
       </c>
       <c r="N80" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O80" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q80" s="6" t="n">
         <v>2</v>
       </c>
       <c r="R80" s="6" t="n">
-        <v>157.48</v>
+        <v>947</v>
       </c>
       <c r="S80" s="6" t="n">
-        <v>78.73999999999999</v>
+        <v>473.5</v>
       </c>
       <c r="T80" s="6" t="n">
-        <v>10.97</v>
+        <v>65.95</v>
       </c>
       <c r="U80" s="4" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
       <c r="H81" s="4" t="n">
         <v>3.58356559</v>
       </c>
-      <c r="I81" s="5" t="n">
+      <c r="I81" s="6" t="n">
         <v>0.3</v>
       </c>
       <c r="J81" s="6" t="n">
@@ -7497,25 +7497,25 @@
         <v>27.02</v>
       </c>
       <c r="N81" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O81" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q81" s="6" t="n">
         <v>0.55</v>
       </c>
       <c r="R81" s="6" t="n">
-        <v>9.81</v>
+        <v>27.57</v>
       </c>
       <c r="S81" s="6" t="n">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
       <c r="T81" s="6" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
       <c r="H82" s="4" t="n">
         <v>5.153203</v>
       </c>
-      <c r="I82" s="5" t="n">
+      <c r="I82" s="6" t="n">
         <v>0.1</v>
       </c>
       <c r="J82" s="6" t="n">
@@ -7583,25 +7583,25 @@
         <v>38.85</v>
       </c>
       <c r="N82" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O82" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q82" s="6" t="n">
         <v>0.18</v>
       </c>
       <c r="R82" s="6" t="n">
-        <v>2.8</v>
+        <v>39.03</v>
       </c>
       <c r="S82" s="6" t="n">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="T82" s="6" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U82" s="4" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
       <c r="H83" s="4" t="n">
         <v>7.60445682</v>
       </c>
-      <c r="I83" s="5" t="n">
+      <c r="I83" s="6" t="n">
         <v>1.6</v>
       </c>
       <c r="J83" s="6" t="n">
@@ -7669,25 +7669,25 @@
         <v>57.33</v>
       </c>
       <c r="N83" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O83" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q83" s="6" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="R83" s="6" t="n">
-        <v>245.03</v>
+        <v>60.27</v>
       </c>
       <c r="S83" s="6" t="n">
-        <v>40.84</v>
+        <v>10.04</v>
       </c>
       <c r="T83" s="6" t="n">
-        <v>5.69</v>
+        <v>1.4</v>
       </c>
       <c r="U83" s="4" t="inlineStr">
         <is>
@@ -7739,7 +7739,7 @@
       <c r="H84" s="4" t="n">
         <v>200.55710306</v>
       </c>
-      <c r="I84" s="5" t="n">
+      <c r="I84" s="6" t="n">
         <v>4.2</v>
       </c>
       <c r="J84" s="6" t="n">
@@ -7755,25 +7755,25 @@
         <v>1512</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O84" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q84" s="6" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="R84" s="6" t="n">
-        <v>1741.63</v>
+        <v>1519.71</v>
       </c>
       <c r="S84" s="6" t="n">
-        <v>870.8200000000001</v>
+        <v>759.86</v>
       </c>
       <c r="T84" s="6" t="n">
-        <v>121.28</v>
+        <v>105.83</v>
       </c>
       <c r="U84" s="4" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
       <c r="H85" s="4" t="n">
         <v>11.6991644</v>
       </c>
-      <c r="I85" s="5" t="n">
+      <c r="I85" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J85" s="6" t="n">
@@ -7841,25 +7841,25 @@
         <v>88.2</v>
       </c>
       <c r="N85" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O85" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q85" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R85" s="6" t="n">
-        <v>98.84999999999999</v>
+        <v>90.04000000000001</v>
       </c>
       <c r="S85" s="6" t="n">
-        <v>2.47</v>
+        <v>2.25</v>
       </c>
       <c r="T85" s="6" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="U85" s="4" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
       <c r="H86" s="4" t="n">
         <v>40.38997214</v>
       </c>
-      <c r="I86" s="5" t="n">
+      <c r="I86" s="6" t="n">
         <v>0.8</v>
       </c>
       <c r="J86" s="6" t="n">
@@ -7927,25 +7927,25 @@
         <v>304.5</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O86" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q86" s="6" t="n">
         <v>1.47</v>
       </c>
       <c r="R86" s="6" t="n">
-        <v>75.08</v>
+        <v>305.97</v>
       </c>
       <c r="S86" s="6" t="n">
-        <v>37.54</v>
+        <v>152.98</v>
       </c>
       <c r="T86" s="6" t="n">
-        <v>5.23</v>
+        <v>21.31</v>
       </c>
       <c r="U86" s="4" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       <c r="H87" s="4" t="n">
         <v>116.2952645</v>
       </c>
-      <c r="I87" s="5" t="n">
+      <c r="I87" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J87" s="6" t="n">
@@ -8013,25 +8013,25 @@
         <v>876.75</v>
       </c>
       <c r="N87" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O87" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P87" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q87" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R87" s="6" t="n">
-        <v>2407.97</v>
+        <v>885.9299999999999</v>
       </c>
       <c r="S87" s="6" t="n">
-        <v>48.16</v>
+        <v>17.72</v>
       </c>
       <c r="T87" s="6" t="n">
-        <v>6.71</v>
+        <v>2.47</v>
       </c>
       <c r="U87" s="4" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
       <c r="H88" s="4" t="n">
         <v>137.883008</v>
       </c>
-      <c r="I88" s="5" t="n">
+      <c r="I88" s="6" t="n">
         <v>5.2</v>
       </c>
       <c r="J88" s="6" t="n">
@@ -8099,25 +8099,25 @@
         <v>1039.5</v>
       </c>
       <c r="N88" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O88" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P88" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q88" s="6" t="n">
-        <v>9.539999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="R88" s="6" t="n">
-        <v>2608.81</v>
+        <v>1049.05</v>
       </c>
       <c r="S88" s="6" t="n">
-        <v>26.09</v>
+        <v>10.49</v>
       </c>
       <c r="T88" s="6" t="n">
-        <v>3.63</v>
+        <v>1.46</v>
       </c>
       <c r="U88" s="4" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
       <c r="H89" s="4" t="n">
         <v>15.57103064</v>
       </c>
-      <c r="I89" s="5" t="n">
+      <c r="I89" s="6" t="n">
         <v>5.8</v>
       </c>
       <c r="J89" s="6" t="n">
@@ -8185,25 +8185,25 @@
         <v>117.39</v>
       </c>
       <c r="N89" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O89" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P89" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q89" s="6" t="n">
-        <v>10.64</v>
+        <v>10.65</v>
       </c>
       <c r="R89" s="6" t="n">
-        <v>3189.55</v>
+        <v>128.04</v>
       </c>
       <c r="S89" s="6" t="n">
-        <v>1594.78</v>
+        <v>64.02</v>
       </c>
       <c r="T89" s="6" t="n">
-        <v>222.11</v>
+        <v>8.92</v>
       </c>
       <c r="U89" s="4" t="inlineStr">
         <is>
@@ -8255,7 +8255,7 @@
       <c r="H90" s="4" t="n">
         <v>128.23119744</v>
       </c>
-      <c r="I90" s="5" t="n">
+      <c r="I90" s="6" t="n">
         <v>5.2</v>
       </c>
       <c r="J90" s="6" t="n">
@@ -8271,25 +8271,25 @@
         <v>966.74</v>
       </c>
       <c r="N90" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O90" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P90" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q90" s="6" t="n">
-        <v>9.539999999999999</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="R90" s="6" t="n">
-        <v>2605.34</v>
+        <v>976.29</v>
       </c>
       <c r="S90" s="6" t="n">
-        <v>28.01</v>
+        <v>10.5</v>
       </c>
       <c r="T90" s="6" t="n">
-        <v>3.9</v>
+        <v>1.46</v>
       </c>
       <c r="U90" s="4" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
       <c r="H91" s="4" t="n">
         <v>7.95543168</v>
       </c>
-      <c r="I91" s="5" t="n">
+      <c r="I91" s="6" t="n">
         <v>5.8</v>
       </c>
       <c r="J91" s="6" t="n">
@@ -8357,25 +8357,25 @@
         <v>59.98</v>
       </c>
       <c r="N91" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O91" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P91" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q91" s="6" t="n">
-        <v>10.64</v>
+        <v>10.65</v>
       </c>
       <c r="R91" s="6" t="n">
-        <v>3186.82</v>
+        <v>70.63</v>
       </c>
       <c r="S91" s="6" t="n">
-        <v>75.88</v>
+        <v>1.68</v>
       </c>
       <c r="T91" s="6" t="n">
-        <v>10.57</v>
+        <v>0.23</v>
       </c>
       <c r="U91" s="4" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
       <c r="H92" s="4" t="n">
         <v>1942.89693597</v>
       </c>
-      <c r="I92" s="5" t="n">
+      <c r="I92" s="6" t="n">
         <v>11</v>
       </c>
       <c r="J92" s="6" t="n">
@@ -8443,25 +8443,25 @@
         <v>14647.5</v>
       </c>
       <c r="N92" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O92" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P92" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q92" s="6" t="n">
-        <v>20.18</v>
+        <v>20.2</v>
       </c>
       <c r="R92" s="6" t="n">
-        <v>12150.29</v>
+        <v>14667.7</v>
       </c>
       <c r="S92" s="6" t="n">
-        <v>1350.03</v>
+        <v>1629.74</v>
       </c>
       <c r="T92" s="6" t="n">
-        <v>188.03</v>
+        <v>226.98</v>
       </c>
       <c r="U92" s="4" t="inlineStr">
         <is>
@@ -8513,7 +8513,7 @@
       <c r="H93" s="4" t="n">
         <v>334.2618384</v>
       </c>
-      <c r="I93" s="5" t="n">
+      <c r="I93" s="6" t="n">
         <v>2.98</v>
       </c>
       <c r="J93" s="6" t="n">
@@ -8529,25 +8529,25 @@
         <v>2520</v>
       </c>
       <c r="N93" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O93" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P93" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q93" s="6" t="n">
         <v>5.47</v>
       </c>
       <c r="R93" s="6" t="n">
-        <v>960.58</v>
+        <v>2525.47</v>
       </c>
       <c r="S93" s="6" t="n">
-        <v>80.05</v>
+        <v>210.46</v>
       </c>
       <c r="T93" s="6" t="n">
-        <v>11.15</v>
+        <v>29.31</v>
       </c>
       <c r="U93" s="4" t="inlineStr">
         <is>
@@ -8599,7 +8599,7 @@
       <c r="H94" s="4" t="n">
         <v>72.42339832</v>
       </c>
-      <c r="I94" s="5" t="n">
+      <c r="I94" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J94" s="6" t="n">
@@ -8615,25 +8615,25 @@
         <v>546</v>
       </c>
       <c r="N94" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O94" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P94" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q94" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R94" s="6" t="n">
-        <v>2392.21</v>
+        <v>555.1799999999999</v>
       </c>
       <c r="S94" s="6" t="n">
-        <v>1196.11</v>
+        <v>277.59</v>
       </c>
       <c r="T94" s="6" t="n">
-        <v>166.59</v>
+        <v>38.66</v>
       </c>
       <c r="U94" s="4" t="inlineStr">
         <is>
@@ -8685,7 +8685,7 @@
       <c r="H95" s="4" t="n">
         <v>36.2116992</v>
       </c>
-      <c r="I95" s="5" t="n">
+      <c r="I95" s="6" t="n">
         <v>5.78</v>
       </c>
       <c r="J95" s="6" t="n">
@@ -8701,25 +8701,25 @@
         <v>273</v>
       </c>
       <c r="N95" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O95" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P95" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q95" s="6" t="n">
-        <v>10.6</v>
+        <v>10.62</v>
       </c>
       <c r="R95" s="6" t="n">
-        <v>3175.05</v>
+        <v>283.62</v>
       </c>
       <c r="S95" s="6" t="n">
-        <v>317.5</v>
+        <v>28.36</v>
       </c>
       <c r="T95" s="6" t="n">
-        <v>44.22</v>
+        <v>3.95</v>
       </c>
       <c r="U95" s="4" t="inlineStr">
         <is>
@@ -8771,7 +8771,7 @@
       <c r="H96" s="4" t="n">
         <v>23.8857941</v>
       </c>
-      <c r="I96" s="5" t="n">
+      <c r="I96" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J96" s="6" t="n">
@@ -8787,25 +8787,25 @@
         <v>180.08</v>
       </c>
       <c r="N96" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O96" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P96" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q96" s="6" t="n">
         <v>2.75</v>
       </c>
       <c r="R96" s="6" t="n">
-        <v>221.54</v>
+        <v>182.83</v>
       </c>
       <c r="S96" s="6" t="n">
-        <v>3.16</v>
+        <v>2.61</v>
       </c>
       <c r="T96" s="6" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="U96" s="4" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       <c r="H97" s="4" t="n">
         <v>11.504178</v>
       </c>
-      <c r="I97" s="5" t="n">
+      <c r="I97" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J97" s="6" t="n">
@@ -8873,25 +8873,25 @@
         <v>86.73</v>
       </c>
       <c r="N97" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O97" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P97" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q97" s="6" t="n">
         <v>2.75</v>
       </c>
       <c r="R97" s="6" t="n">
-        <v>217.09</v>
+        <v>89.48</v>
       </c>
       <c r="S97" s="6" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="T97" s="6" t="n">
-        <v>0.43</v>
+        <v>0.18</v>
       </c>
       <c r="U97" s="4" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
       <c r="H98" s="4" t="n">
         <v>128.8300835</v>
       </c>
-      <c r="I98" s="5" t="n">
+      <c r="I98" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J98" s="6" t="n">
@@ -8959,25 +8959,25 @@
         <v>971.25</v>
       </c>
       <c r="N98" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O98" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P98" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q98" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R98" s="6" t="n">
-        <v>140.92</v>
+        <v>973.09</v>
       </c>
       <c r="S98" s="6" t="n">
-        <v>2.82</v>
+        <v>19.46</v>
       </c>
       <c r="T98" s="6" t="n">
-        <v>0.39</v>
+        <v>2.71</v>
       </c>
       <c r="U98" s="4" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
       <c r="H99" s="4" t="n">
         <v>121.16991816</v>
       </c>
-      <c r="I99" s="5" t="n">
+      <c r="I99" s="6" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="J99" s="6" t="n">
@@ -9045,25 +9045,25 @@
         <v>913.5</v>
       </c>
       <c r="N99" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O99" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P99" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q99" s="6" t="n">
-        <v>17.06</v>
+        <v>17.08</v>
       </c>
       <c r="R99" s="6" t="n">
-        <v>8229.629999999999</v>
+        <v>930.58</v>
       </c>
       <c r="S99" s="6" t="n">
-        <v>23.65</v>
+        <v>2.67</v>
       </c>
       <c r="T99" s="6" t="n">
-        <v>3.29</v>
+        <v>0.37</v>
       </c>
       <c r="U99" s="4" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
       <c r="H100" s="4" t="n">
         <v>116.9916434</v>
       </c>
-      <c r="I100" s="5" t="n">
+      <c r="I100" s="6" t="n">
         <v>2.56</v>
       </c>
       <c r="J100" s="6" t="n">
@@ -9131,25 +9131,25 @@
         <v>882</v>
       </c>
       <c r="N100" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O100" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P100" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q100" s="6" t="n">
         <v>4.7</v>
       </c>
       <c r="R100" s="6" t="n">
-        <v>662.3099999999999</v>
+        <v>886.7</v>
       </c>
       <c r="S100" s="6" t="n">
-        <v>33.12</v>
+        <v>44.34</v>
       </c>
       <c r="T100" s="6" t="n">
-        <v>4.61</v>
+        <v>6.17</v>
       </c>
       <c r="U100" s="4" t="inlineStr">
         <is>
@@ -9201,7 +9201,7 @@
       <c r="H101" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I101" s="5" t="n">
+      <c r="I101" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J101" s="6" t="n">
@@ -9217,25 +9217,25 @@
         <v>13.65</v>
       </c>
       <c r="N101" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O101" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P101" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q101" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R101" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S101" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T101" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U101" s="4" t="inlineStr">
         <is>
@@ -9287,7 +9287,7 @@
       <c r="H102" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I102" s="5" t="n">
+      <c r="I102" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J102" s="6" t="n">
@@ -9303,25 +9303,25 @@
         <v>13.65</v>
       </c>
       <c r="N102" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O102" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P102" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q102" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R102" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S102" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T102" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U102" s="4" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
       <c r="H103" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I103" s="5" t="n">
+      <c r="I103" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J103" s="6" t="n">
@@ -9389,25 +9389,25 @@
         <v>13.65</v>
       </c>
       <c r="N103" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O103" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P103" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q103" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R103" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S103" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T103" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U103" s="4" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
       <c r="H104" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I104" s="5" t="n">
+      <c r="I104" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J104" s="6" t="n">
@@ -9475,25 +9475,25 @@
         <v>13.65</v>
       </c>
       <c r="N104" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O104" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P104" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q104" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R104" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S104" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T104" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U104" s="4" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
       <c r="H105" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I105" s="5" t="n">
+      <c r="I105" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J105" s="6" t="n">
@@ -9561,25 +9561,25 @@
         <v>13.65</v>
       </c>
       <c r="N105" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O105" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P105" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q105" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R105" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S105" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T105" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U105" s="4" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
       <c r="H106" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I106" s="5" t="n">
+      <c r="I106" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J106" s="6" t="n">
@@ -9647,25 +9647,25 @@
         <v>13.65</v>
       </c>
       <c r="N106" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O106" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P106" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q106" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R106" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S106" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T106" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U106" s="4" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
       <c r="H107" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I107" s="5" t="n">
+      <c r="I107" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J107" s="6" t="n">
@@ -9733,25 +9733,25 @@
         <v>13.65</v>
       </c>
       <c r="N107" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O107" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P107" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q107" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R107" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S107" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T107" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U107" s="4" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
       <c r="H108" s="4" t="n">
         <v>1.810585</v>
       </c>
-      <c r="I108" s="5" t="n">
+      <c r="I108" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J108" s="6" t="n">
@@ -9819,25 +9819,25 @@
         <v>13.65</v>
       </c>
       <c r="N108" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O108" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P108" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q108" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R108" s="6" t="n">
-        <v>24.31</v>
+        <v>14.57</v>
       </c>
       <c r="S108" s="6" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="T108" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U108" s="4" t="inlineStr">
         <is>
@@ -9889,7 +9889,7 @@
       <c r="H109" s="4" t="n">
         <v>3.899721</v>
       </c>
-      <c r="I109" s="5" t="n">
+      <c r="I109" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J109" s="6" t="n">
@@ -9905,25 +9905,25 @@
         <v>29.4</v>
       </c>
       <c r="N109" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O109" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P109" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q109" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R109" s="6" t="n">
-        <v>25.06</v>
+        <v>30.32</v>
       </c>
       <c r="S109" s="6" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="T109" s="6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U109" s="4" t="inlineStr">
         <is>
@@ -9975,7 +9975,7 @@
       <c r="H110" s="4" t="n">
         <v>8.356546</v>
       </c>
-      <c r="I110" s="5" t="n">
+      <c r="I110" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J110" s="6" t="n">
@@ -9991,25 +9991,25 @@
         <v>63</v>
       </c>
       <c r="N110" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O110" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P110" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q110" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R110" s="6" t="n">
-        <v>26.66</v>
+        <v>63.92</v>
       </c>
       <c r="S110" s="6" t="n">
-        <v>0.27</v>
+        <v>0.64</v>
       </c>
       <c r="T110" s="6" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="U110" s="4" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
       <c r="H111" s="4" t="n">
         <v>3.342618</v>
       </c>
-      <c r="I111" s="5" t="n">
+      <c r="I111" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J111" s="6" t="n">
@@ -10077,25 +10077,25 @@
         <v>25.2</v>
       </c>
       <c r="N111" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O111" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P111" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q111" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R111" s="6" t="n">
-        <v>24.86</v>
+        <v>26.12</v>
       </c>
       <c r="S111" s="6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="T111" s="6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U111" s="4" t="inlineStr">
         <is>
@@ -10147,7 +10147,7 @@
       <c r="H112" s="4" t="n">
         <v>5.292479</v>
       </c>
-      <c r="I112" s="5" t="n">
+      <c r="I112" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J112" s="6" t="n">
@@ -10163,25 +10163,25 @@
         <v>39.9</v>
       </c>
       <c r="N112" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O112" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P112" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q112" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R112" s="6" t="n">
-        <v>25.56</v>
+        <v>40.82</v>
       </c>
       <c r="S112" s="6" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="T112" s="6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="U112" s="4" t="inlineStr">
         <is>
@@ -10233,7 +10233,7 @@
       <c r="H113" s="4" t="n">
         <v>2.785515</v>
       </c>
-      <c r="I113" s="5" t="n">
+      <c r="I113" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J113" s="6" t="n">
@@ -10249,22 +10249,22 @@
         <v>21</v>
       </c>
       <c r="N113" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O113" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P113" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q113" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R113" s="6" t="n">
-        <v>24.66</v>
+        <v>21.92</v>
       </c>
       <c r="S113" s="6" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="T113" s="6" t="n">
         <v>0.03</v>
@@ -10319,7 +10319,7 @@
       <c r="H114" s="4" t="n">
         <v>70.1949864</v>
       </c>
-      <c r="I114" s="5" t="n">
+      <c r="I114" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J114" s="6" t="n">
@@ -10335,25 +10335,25 @@
         <v>529.2</v>
       </c>
       <c r="N114" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O114" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P114" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q114" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R114" s="6" t="n">
-        <v>29</v>
+        <v>529.5700000000001</v>
       </c>
       <c r="S114" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="T114" s="6" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="U114" s="4" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
       <c r="H115" s="4" t="n">
         <v>48.746518</v>
       </c>
-      <c r="I115" s="5" t="n">
+      <c r="I115" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J115" s="6" t="n">
@@ -10421,25 +10421,25 @@
         <v>367.5</v>
       </c>
       <c r="N115" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O115" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P115" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q115" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R115" s="6" t="n">
-        <v>21.3</v>
+        <v>367.87</v>
       </c>
       <c r="S115" s="6" t="n">
-        <v>0.21</v>
+        <v>3.68</v>
       </c>
       <c r="T115" s="6" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="U115" s="4" t="inlineStr">
         <is>
@@ -10491,7 +10491,7 @@
       <c r="H116" s="4" t="n">
         <v>11.14206128</v>
       </c>
-      <c r="I116" s="5" t="n">
+      <c r="I116" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J116" s="6" t="n">
@@ -10507,25 +10507,25 @@
         <v>84</v>
       </c>
       <c r="N116" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O116" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P116" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q116" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R116" s="6" t="n">
-        <v>7.79</v>
+        <v>84.37</v>
       </c>
       <c r="S116" s="6" t="n">
-        <v>7.79</v>
+        <v>84.37</v>
       </c>
       <c r="T116" s="6" t="n">
-        <v>1.08</v>
+        <v>11.75</v>
       </c>
       <c r="U116" s="4" t="inlineStr">
         <is>
@@ -10577,7 +10577,7 @@
       <c r="H117" s="4" t="n">
         <v>473.53760446</v>
       </c>
-      <c r="I117" s="5" t="n">
+      <c r="I117" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J117" s="6" t="n">
@@ -10593,25 +10593,25 @@
         <v>3570</v>
       </c>
       <c r="N117" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O117" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P117" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q117" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R117" s="6" t="n">
-        <v>264.74</v>
+        <v>3571.84</v>
       </c>
       <c r="S117" s="6" t="n">
-        <v>132.37</v>
+        <v>1785.92</v>
       </c>
       <c r="T117" s="6" t="n">
-        <v>18.44</v>
+        <v>248.74</v>
       </c>
       <c r="U117" s="4" t="inlineStr">
         <is>
@@ -10663,7 +10663,7 @@
       <c r="H118" s="4" t="n">
         <v>1880.22284125</v>
       </c>
-      <c r="I118" s="5" t="n">
+      <c r="I118" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J118" s="6" t="n">
@@ -10679,25 +10679,25 @@
         <v>14175</v>
       </c>
       <c r="N118" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O118" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P118" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q118" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R118" s="6" t="n">
-        <v>679.16</v>
+        <v>14175.37</v>
       </c>
       <c r="S118" s="6" t="n">
-        <v>135.83</v>
+        <v>2835.07</v>
       </c>
       <c r="T118" s="6" t="n">
-        <v>18.92</v>
+        <v>394.86</v>
       </c>
       <c r="U118" s="4" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
       <c r="H119" s="4" t="n">
         <v>153.20334262</v>
       </c>
-      <c r="I119" s="5" t="n">
+      <c r="I119" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="J119" s="6" t="n">
@@ -10765,25 +10765,25 @@
         <v>1155</v>
       </c>
       <c r="N119" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O119" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P119" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q119" s="6" t="n">
         <v>0.73</v>
       </c>
       <c r="R119" s="6" t="n">
-        <v>70.17</v>
+        <v>1155.73</v>
       </c>
       <c r="S119" s="6" t="n">
-        <v>70.17</v>
+        <v>1155.73</v>
       </c>
       <c r="T119" s="6" t="n">
-        <v>9.77</v>
+        <v>160.97</v>
       </c>
       <c r="U119" s="4" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
       <c r="H120" s="4" t="n">
         <v>153.20334262</v>
       </c>
-      <c r="I120" s="5" t="n">
+      <c r="I120" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="J120" s="6" t="n">
@@ -10851,25 +10851,25 @@
         <v>1155</v>
       </c>
       <c r="N120" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O120" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P120" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q120" s="6" t="n">
         <v>0.73</v>
       </c>
       <c r="R120" s="6" t="n">
-        <v>70.17</v>
+        <v>1155.73</v>
       </c>
       <c r="S120" s="6" t="n">
-        <v>70.17</v>
+        <v>1155.73</v>
       </c>
       <c r="T120" s="6" t="n">
-        <v>9.77</v>
+        <v>160.97</v>
       </c>
       <c r="U120" s="4" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       <c r="H121" s="4" t="n">
         <v>3075.20891328</v>
       </c>
-      <c r="I121" s="5" t="n">
+      <c r="I121" s="6" t="n">
         <v>96</v>
       </c>
       <c r="J121" s="6" t="n">
@@ -10937,25 +10937,25 @@
         <v>23184</v>
       </c>
       <c r="N121" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O121" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P121" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q121" s="6" t="n">
-        <v>176.08</v>
+        <v>176.32</v>
       </c>
       <c r="R121" s="6" t="n">
-        <v>873380.52</v>
+        <v>23360.32</v>
       </c>
       <c r="S121" s="6" t="n">
-        <v>9097.709999999999</v>
+        <v>243.34</v>
       </c>
       <c r="T121" s="6" t="n">
-        <v>1267.09</v>
+        <v>33.89</v>
       </c>
       <c r="U121" s="4" t="inlineStr">
         <is>
@@ -11007,7 +11007,7 @@
       <c r="H122" s="4" t="n">
         <v>128.13370472</v>
       </c>
-      <c r="I122" s="5" t="n">
+      <c r="I122" s="6" t="n">
         <v>4</v>
       </c>
       <c r="J122" s="6" t="n">
@@ -11023,25 +11023,25 @@
         <v>966</v>
       </c>
       <c r="N122" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O122" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P122" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q122" s="6" t="n">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="R122" s="6" t="n">
-        <v>1560.39</v>
+        <v>973.35</v>
       </c>
       <c r="S122" s="6" t="n">
-        <v>390.1</v>
+        <v>243.34</v>
       </c>
       <c r="T122" s="6" t="n">
-        <v>54.33</v>
+        <v>33.89</v>
       </c>
       <c r="U122" s="4" t="inlineStr">
         <is>
@@ -11099,7 +11099,7 @@
       <c r="H123" s="4" t="n">
         <v>166.01671308</v>
       </c>
-      <c r="I123" s="5" t="n">
+      <c r="I123" s="6" t="n">
         <v>18</v>
       </c>
       <c r="J123" s="6" t="n">
@@ -11115,25 +11115,25 @@
         <v>1251.6</v>
       </c>
       <c r="N123" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O123" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P123" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q123" s="6" t="n">
-        <v>33.02</v>
+        <v>33.06</v>
       </c>
       <c r="R123" s="6" t="n">
-        <v>30725.58</v>
+        <v>1284.66</v>
       </c>
       <c r="S123" s="6" t="n">
-        <v>7681.4</v>
+        <v>321.16</v>
       </c>
       <c r="T123" s="6" t="n">
-        <v>1069.83</v>
+        <v>44.73</v>
       </c>
       <c r="U123" s="4" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
       <c r="H124" s="4" t="n">
         <v>124.51253481</v>
       </c>
-      <c r="I124" s="5" t="n">
+      <c r="I124" s="6" t="n">
         <v>13</v>
       </c>
       <c r="J124" s="6" t="n">
@@ -11207,25 +11207,25 @@
         <v>938.7</v>
       </c>
       <c r="N124" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O124" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P124" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q124" s="6" t="n">
-        <v>23.84</v>
+        <v>23.88</v>
       </c>
       <c r="R124" s="6" t="n">
-        <v>16040.24</v>
+        <v>962.58</v>
       </c>
       <c r="S124" s="6" t="n">
-        <v>5346.75</v>
+        <v>320.86</v>
       </c>
       <c r="T124" s="6" t="n">
-        <v>744.67</v>
+        <v>44.69</v>
       </c>
       <c r="U124" s="4" t="inlineStr">
         <is>
@@ -11277,7 +11277,7 @@
       <c r="H125" s="4" t="n">
         <v>111.14206128</v>
       </c>
-      <c r="I125" s="5" t="n">
+      <c r="I125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="J125" s="6" t="n">
@@ -11293,25 +11293,25 @@
         <v>837.9</v>
       </c>
       <c r="N125" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O125" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P125" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q125" s="6" t="n">
         <v>3.67</v>
       </c>
       <c r="R125" s="6" t="n">
-        <v>418.51</v>
+        <v>841.5700000000001</v>
       </c>
       <c r="S125" s="6" t="n">
-        <v>69.75</v>
+        <v>140.26</v>
       </c>
       <c r="T125" s="6" t="n">
-        <v>9.710000000000001</v>
+        <v>19.54</v>
       </c>
       <c r="U125" s="4" t="inlineStr">
         <is>
@@ -11363,7 +11363,7 @@
       <c r="H126" s="4" t="n">
         <v>62.67409471</v>
       </c>
-      <c r="I126" s="5" t="n">
+      <c r="I126" s="6" t="n">
         <v>5</v>
       </c>
       <c r="J126" s="6" t="n">
@@ -11379,25 +11379,25 @@
         <v>472.5</v>
       </c>
       <c r="N126" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O126" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P126" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q126" s="6" t="n">
-        <v>9.17</v>
+        <v>9.18</v>
       </c>
       <c r="R126" s="6" t="n">
-        <v>2388.71</v>
+        <v>481.68</v>
       </c>
       <c r="S126" s="6" t="n">
-        <v>2388.71</v>
+        <v>481.68</v>
       </c>
       <c r="T126" s="6" t="n">
-        <v>332.69</v>
+        <v>67.09</v>
       </c>
       <c r="U126" s="4" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       <c r="H127" s="4" t="n">
         <v>200.55710306</v>
       </c>
-      <c r="I127" s="5" t="n">
+      <c r="I127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J127" s="6" t="n">
@@ -11465,25 +11465,25 @@
         <v>1512</v>
       </c>
       <c r="N127" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O127" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P127" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q127" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R127" s="6" t="n">
-        <v>166.69</v>
+        <v>1513.84</v>
       </c>
       <c r="S127" s="6" t="n">
-        <v>83.34</v>
+        <v>756.92</v>
       </c>
       <c r="T127" s="6" t="n">
-        <v>11.61</v>
+        <v>105.42</v>
       </c>
       <c r="U127" s="4" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
       <c r="H128" s="4" t="n">
         <v>200.55710306</v>
       </c>
-      <c r="I128" s="5" t="n">
+      <c r="I128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J128" s="6" t="n">
@@ -11551,25 +11551,25 @@
         <v>1512</v>
       </c>
       <c r="N128" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O128" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P128" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q128" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R128" s="6" t="n">
-        <v>166.69</v>
+        <v>1513.84</v>
       </c>
       <c r="S128" s="6" t="n">
-        <v>83.34</v>
+        <v>756.92</v>
       </c>
       <c r="T128" s="6" t="n">
-        <v>11.61</v>
+        <v>105.42</v>
       </c>
       <c r="U128" s="4" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
       <c r="H129" s="4" t="n">
         <v>17.27019498</v>
       </c>
-      <c r="I129" s="5" t="n">
+      <c r="I129" s="6" t="n">
         <v>1</v>
       </c>
       <c r="J129" s="6" t="n">
@@ -11637,25 +11637,25 @@
         <v>130.2</v>
       </c>
       <c r="N129" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O129" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P129" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q129" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R129" s="6" t="n">
-        <v>100.85</v>
+        <v>132.04</v>
       </c>
       <c r="S129" s="6" t="n">
-        <v>50.43</v>
+        <v>66.02</v>
       </c>
       <c r="T129" s="6" t="n">
-        <v>7.02</v>
+        <v>9.19</v>
       </c>
       <c r="U129" s="4" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
       <c r="H130" s="4" t="n">
         <v>66.85236768</v>
       </c>
-      <c r="I130" s="5" t="n">
+      <c r="I130" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J130" s="6" t="n">
@@ -11723,25 +11723,25 @@
         <v>504</v>
       </c>
       <c r="N130" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O130" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P130" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q130" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R130" s="6" t="n">
-        <v>27.8</v>
+        <v>504.37</v>
       </c>
       <c r="S130" s="6" t="n">
-        <v>13.9</v>
+        <v>252.18</v>
       </c>
       <c r="T130" s="6" t="n">
-        <v>1.94</v>
+        <v>35.12</v>
       </c>
       <c r="U130" s="4" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
       <c r="H131" s="4" t="n">
         <v>4.3871866</v>
       </c>
-      <c r="I131" s="5" t="n">
+      <c r="I131" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J131" s="6" t="n">
@@ -11809,25 +11809,25 @@
         <v>33.08</v>
       </c>
       <c r="N131" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O131" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P131" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q131" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R131" s="6" t="n">
-        <v>5.36</v>
+        <v>33.44</v>
       </c>
       <c r="S131" s="6" t="n">
-        <v>0.54</v>
+        <v>3.34</v>
       </c>
       <c r="T131" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.47</v>
       </c>
       <c r="U131" s="4" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
       <c r="H132" s="4" t="n">
         <v>6.2674095</v>
       </c>
-      <c r="I132" s="5" t="n">
+      <c r="I132" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J132" s="6" t="n">
@@ -11895,25 +11895,25 @@
         <v>47.25</v>
       </c>
       <c r="N132" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O132" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P132" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q132" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R132" s="6" t="n">
-        <v>6.04</v>
+        <v>47.62</v>
       </c>
       <c r="S132" s="6" t="n">
-        <v>0.6</v>
+        <v>4.76</v>
       </c>
       <c r="T132" s="6" t="n">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
       <c r="U132" s="4" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
       <c r="H133" s="4" t="n">
         <v>5.2924791</v>
       </c>
-      <c r="I133" s="5" t="n">
+      <c r="I133" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="J133" s="6" t="n">
@@ -11981,25 +11981,25 @@
         <v>39.9</v>
       </c>
       <c r="N133" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O133" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P133" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q133" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="R133" s="6" t="n">
-        <v>35.97</v>
+        <v>41</v>
       </c>
       <c r="S133" s="6" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T133" s="6" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="U133" s="4" t="inlineStr">
         <is>
@@ -12051,7 +12051,7 @@
       <c r="H134" s="4" t="n">
         <v>21.3091922</v>
       </c>
-      <c r="I134" s="5" t="n">
+      <c r="I134" s="6" t="n">
         <v>0.6</v>
       </c>
       <c r="J134" s="6" t="n">
@@ -12067,25 +12067,25 @@
         <v>160.65</v>
       </c>
       <c r="N134" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O134" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P134" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q134" s="6" t="n">
         <v>1.1</v>
       </c>
       <c r="R134" s="6" t="n">
-        <v>41.73</v>
+        <v>161.75</v>
       </c>
       <c r="S134" s="6" t="n">
-        <v>4.17</v>
+        <v>16.18</v>
       </c>
       <c r="T134" s="6" t="n">
-        <v>0.58</v>
+        <v>2.25</v>
       </c>
       <c r="U134" s="4" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       <c r="H135" s="4" t="n">
         <v>359.33147632</v>
       </c>
-      <c r="I135" s="5" t="n">
+      <c r="I135" s="6" t="n">
         <v>4.2</v>
       </c>
       <c r="J135" s="6" t="n">
@@ -12153,25 +12153,25 @@
         <v>2709</v>
       </c>
       <c r="N135" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O135" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P135" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q135" s="6" t="n">
-        <v>7.7</v>
+        <v>7.71</v>
       </c>
       <c r="R135" s="6" t="n">
-        <v>1798.66</v>
+        <v>2716.71</v>
       </c>
       <c r="S135" s="6" t="n">
-        <v>899.33</v>
+        <v>1358.36</v>
       </c>
       <c r="T135" s="6" t="n">
-        <v>125.25</v>
+        <v>189.19</v>
       </c>
       <c r="U135" s="4" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
       <c r="H136" s="4" t="n">
         <v>17.827298</v>
       </c>
-      <c r="I136" s="5" t="n">
+      <c r="I136" s="6" t="n">
         <v>1.5</v>
       </c>
       <c r="J136" s="6" t="n">
@@ -12239,25 +12239,25 @@
         <v>134.4</v>
       </c>
       <c r="N136" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O136" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P136" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q136" s="6" t="n">
         <v>2.75</v>
       </c>
       <c r="R136" s="6" t="n">
-        <v>219.36</v>
+        <v>137.15</v>
       </c>
       <c r="S136" s="6" t="n">
-        <v>5.48</v>
+        <v>3.43</v>
       </c>
       <c r="T136" s="6" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="U136" s="4" t="inlineStr">
         <is>
@@ -12309,7 +12309,7 @@
       <c r="H137" s="4" t="n">
         <v>88.02228416</v>
       </c>
-      <c r="I137" s="5" t="n">
+      <c r="I137" s="6" t="n">
         <v>16.5</v>
       </c>
       <c r="J137" s="6" t="n">
@@ -12325,25 +12325,25 @@
         <v>663.6</v>
       </c>
       <c r="N137" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O137" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P137" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q137" s="6" t="n">
-        <v>30.26</v>
+        <v>30.3</v>
       </c>
       <c r="R137" s="6" t="n">
-        <v>25799.53</v>
+        <v>693.9</v>
       </c>
       <c r="S137" s="6" t="n">
-        <v>3224.94</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="T137" s="6" t="n">
-        <v>449.16</v>
+        <v>12.08</v>
       </c>
       <c r="U137" s="4" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
       <c r="H138" s="4" t="n">
         <v>57.93871864</v>
       </c>
-      <c r="I138" s="5" t="n">
+      <c r="I138" s="6" t="n">
         <v>0.5</v>
       </c>
       <c r="J138" s="6" t="n">
@@ -12411,25 +12411,25 @@
         <v>436.8</v>
       </c>
       <c r="N138" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O138" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P138" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q138" s="6" t="n">
         <v>0.92</v>
       </c>
       <c r="R138" s="6" t="n">
-        <v>44.47</v>
+        <v>437.72</v>
       </c>
       <c r="S138" s="6" t="n">
-        <v>5.56</v>
+        <v>54.71</v>
       </c>
       <c r="T138" s="6" t="n">
-        <v>0.77</v>
+        <v>7.62</v>
       </c>
       <c r="U138" s="4" t="inlineStr">
         <is>
@@ -12481,7 +12481,7 @@
       <c r="H139" s="4" t="n">
         <v>3075.20891328</v>
       </c>
-      <c r="I139" s="5" t="n">
+      <c r="I139" s="6" t="n">
         <v>96</v>
       </c>
       <c r="J139" s="6" t="n">
@@ -12497,25 +12497,25 @@
         <v>23184</v>
       </c>
       <c r="N139" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O139" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P139" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q139" s="6" t="n">
-        <v>176.08</v>
+        <v>176.32</v>
       </c>
       <c r="R139" s="6" t="n">
-        <v>873380.52</v>
+        <v>23360.32</v>
       </c>
       <c r="S139" s="6" t="n">
-        <v>9097.709999999999</v>
+        <v>243.34</v>
       </c>
       <c r="T139" s="6" t="n">
-        <v>1267.09</v>
+        <v>33.89</v>
       </c>
       <c r="U139" s="4" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
       <c r="H140" s="4" t="n">
         <v>128.13370472</v>
       </c>
-      <c r="I140" s="5" t="n">
+      <c r="I140" s="6" t="n">
         <v>4</v>
       </c>
       <c r="J140" s="6" t="n">
@@ -12583,25 +12583,25 @@
         <v>966</v>
       </c>
       <c r="N140" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O140" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P140" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q140" s="6" t="n">
-        <v>7.34</v>
+        <v>7.35</v>
       </c>
       <c r="R140" s="6" t="n">
-        <v>1560.39</v>
+        <v>973.35</v>
       </c>
       <c r="S140" s="6" t="n">
-        <v>390.1</v>
+        <v>243.34</v>
       </c>
       <c r="T140" s="6" t="n">
-        <v>54.33</v>
+        <v>33.89</v>
       </c>
       <c r="U140" s="4" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
       <c r="H141" s="4" t="n">
         <v>15.04178272</v>
       </c>
-      <c r="I141" s="5" t="n">
+      <c r="I141" s="6" t="n">
         <v>0.36</v>
       </c>
       <c r="J141" s="6" t="n">
@@ -12669,25 +12669,25 @@
         <v>113.4</v>
       </c>
       <c r="N141" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O141" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P141" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q141" s="6" t="n">
         <v>0.66</v>
       </c>
       <c r="R141" s="6" t="n">
-        <v>17.67</v>
+        <v>114.06</v>
       </c>
       <c r="S141" s="6" t="n">
-        <v>8.83</v>
+        <v>57.03</v>
       </c>
       <c r="T141" s="6" t="n">
-        <v>1.23</v>
+        <v>7.94</v>
       </c>
       <c r="U141" s="4" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
       <c r="H142" s="4" t="n">
         <v>69.637883</v>
       </c>
-      <c r="I142" s="5" t="n">
+      <c r="I142" s="6" t="n">
         <v>0.4</v>
       </c>
       <c r="J142" s="6" t="n">
@@ -12755,25 +12755,25 @@
         <v>525</v>
       </c>
       <c r="N142" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O142" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P142" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q142" s="6" t="n">
         <v>0.73</v>
       </c>
       <c r="R142" s="6" t="n">
-        <v>40.16</v>
+        <v>525.73</v>
       </c>
       <c r="S142" s="6" t="n">
-        <v>20.08</v>
+        <v>262.87</v>
       </c>
       <c r="T142" s="6" t="n">
-        <v>2.8</v>
+        <v>36.61</v>
       </c>
       <c r="U142" s="4" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
       <c r="H143" s="4" t="n">
         <v>13.9275766</v>
       </c>
-      <c r="I143" s="5" t="n">
+      <c r="I143" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="J143" s="6" t="n">
@@ -12841,25 +12841,25 @@
         <v>105</v>
       </c>
       <c r="N143" s="6" t="n">
-        <v>172.59</v>
+        <v>181.22</v>
       </c>
       <c r="O143" s="6" t="n">
         <v>6339.01</v>
       </c>
       <c r="P143" s="6" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q143" s="6" t="n">
         <v>0.37</v>
       </c>
       <c r="R143" s="6" t="n">
-        <v>8.789999999999999</v>
+        <v>105.37</v>
       </c>
       <c r="S143" s="6" t="n">
-        <v>2.2</v>
+        <v>26.34</v>
       </c>
       <c r="T143" s="6" t="n">
-        <v>0.31</v>
+        <v>3.67</v>
       </c>
       <c r="U143" s="4" t="inlineStr">
         <is>
@@ -12895,7 +12895,7 @@
       <c r="H144" s="4" t="n">
         <v>43704.55849411</v>
       </c>
-      <c r="I144" s="5" t="n">
+      <c r="I144" s="6" t="n">
         <v>3550.09</v>
       </c>
       <c r="J144" s="6" t="n"/>
@@ -12911,7 +12911,7 @@
       <c r="P144" s="6" t="n"/>
       <c r="Q144" s="6" t="n"/>
       <c r="R144" s="6" t="n">
-        <v>238919410</v>
+        <v>336008.96</v>
       </c>
       <c r="S144" s="6" t="n"/>
       <c r="T144" s="6" t="n"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -86,7 +88,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -99,6 +101,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -647,10 +652,10 @@
           <t>XH2,54 端子，1包50个</t>
         </is>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>0.00278765</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="6" t="n">
         <v>7000</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -658,43 +663,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="7" t="n">
         <v>19.51355</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>1.19</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="7" t="n">
         <v>140</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>147</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O2" s="6" t="n">
+      <c r="O2" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q2" s="6" t="n">
+      <c r="Q2" s="7" t="n">
         <v>2.21</v>
       </c>
-      <c r="R2" s="6" t="n">
+      <c r="R2" s="7" t="n">
         <v>149.21</v>
       </c>
-      <c r="S2" s="6" t="n">
+      <c r="S2" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="T2" s="6" t="n">
+      <c r="T2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
@@ -733,10 +738,10 @@
           <t>VH3.96 端子，1包50个</t>
         </is>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="5" t="n">
         <v>0.00696913</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>3000</v>
       </c>
       <c r="G3" s="4" t="inlineStr">
@@ -744,43 +749,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="7" t="n">
         <v>20.90739</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="K3" s="6" t="n">
+      <c r="K3" s="7" t="n">
         <v>150</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <v>157.5</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O3" s="6" t="n">
+      <c r="O3" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P3" s="6" t="n">
+      <c r="P3" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q3" s="6" t="n">
+      <c r="Q3" s="7" t="n">
         <v>0.95</v>
       </c>
-      <c r="R3" s="6" t="n">
+      <c r="R3" s="7" t="n">
         <v>158.45</v>
       </c>
-      <c r="S3" s="6" t="n">
+      <c r="S3" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="T3" s="6" t="n">
+      <c r="T3" s="7" t="n">
         <v>0.01</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
@@ -826,10 +831,10 @@
 Kinfe Diameter: 1.6mm</t>
         </is>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>450</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
@@ -837,43 +842,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="7" t="n">
         <v>313.610706</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>2.33</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="7" t="n">
         <v>2250</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <v>2362.5</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O4" s="6" t="n">
+      <c r="O4" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q4" s="6" t="n">
+      <c r="Q4" s="7" t="n">
         <v>4.33</v>
       </c>
-      <c r="R4" s="6" t="n">
+      <c r="R4" s="7" t="n">
         <v>2366.83</v>
       </c>
-      <c r="S4" s="6" t="n">
+      <c r="S4" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T4" s="6" t="n">
+      <c r="T4" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -915,10 +920,10 @@
 self-adhesive upper cover material Film</t>
         </is>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <v>3.67969893</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="6" t="n">
         <v>30</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
@@ -926,43 +931,43 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="7" t="n">
         <v>110.3909679</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="7" t="n">
         <v>26.4</v>
       </c>
-      <c r="K5" s="6" t="n">
+      <c r="K5" s="7" t="n">
         <v>792</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="7" t="n">
         <v>27.72</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>831.6</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O5" s="6" t="n">
+      <c r="O5" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="7" t="n">
         <v>844.6</v>
       </c>
-      <c r="S5" s="6" t="n">
+      <c r="S5" s="7" t="n">
         <v>28.15</v>
       </c>
-      <c r="T5" s="6" t="n">
+      <c r="T5" s="7" t="n">
         <v>3.92</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
@@ -1002,10 +1007,10 @@
 21.3mm 200M/卷</t>
         </is>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>6.28615235</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="6" t="n">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
@@ -1013,43 +1018,43 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="7" t="n">
         <v>37.7169141</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="7" t="n">
         <v>45.1</v>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="7" t="n">
         <v>270.6</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="7" t="n">
         <v>47.36</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="7" t="n">
         <v>284.13</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O6" s="6" t="n">
+      <c r="O6" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="7" t="n">
         <v>5.57</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="7" t="n">
         <v>289.7</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="7" t="n">
         <v>48.28</v>
       </c>
-      <c r="T6" s="6" t="n">
+      <c r="T6" s="7" t="n">
         <v>6.73</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
@@ -1090,10 +1095,10 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
@@ -1101,43 +1106,43 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="7" t="n">
         <v>53.35563453</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>5.82</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="7" t="n">
         <v>127.6</v>
       </c>
-      <c r="K7" s="6" t="n">
+      <c r="K7" s="7" t="n">
         <v>382.8</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="7" t="n">
         <v>133.98</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>401.94</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O7" s="6" t="n">
+      <c r="O7" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P7" s="6" t="n">
+      <c r="P7" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q7" s="6" t="n">
+      <c r="Q7" s="7" t="n">
         <v>10.81</v>
       </c>
-      <c r="R7" s="6" t="n">
+      <c r="R7" s="7" t="n">
         <v>412.75</v>
       </c>
-      <c r="S7" s="6" t="n">
+      <c r="S7" s="7" t="n">
         <v>137.58</v>
       </c>
-      <c r="T7" s="6" t="n">
+      <c r="T7" s="7" t="n">
         <v>19.18</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
@@ -1178,10 +1183,10 @@
 200米/卷</t>
         </is>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>17.78521151</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="6" t="n">
         <v>4</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
@@ -1189,43 +1194,43 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="7" t="n">
         <v>71.14084604</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="7" t="n">
         <v>127.6</v>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="7" t="n">
         <v>510.4</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="7" t="n">
         <v>133.98</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="7" t="n">
         <v>535.92</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O8" s="6" t="n">
+      <c r="O8" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q8" s="6" t="n">
+      <c r="Q8" s="7" t="n">
         <v>17.09</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="7" t="n">
         <v>553.01</v>
       </c>
-      <c r="S8" s="6" t="n">
+      <c r="S8" s="7" t="n">
         <v>138.25</v>
       </c>
-      <c r="T8" s="6" t="n">
+      <c r="T8" s="7" t="n">
         <v>19.27</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
@@ -1264,10 +1269,10 @@
           <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
         </is>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="5" t="n">
         <v>24.53132622</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
@@ -1275,43 +1280,43 @@
           <t>卷</t>
         </is>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="7" t="n">
         <v>49.06265244</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>5.69</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="7" t="n">
         <v>176</v>
       </c>
-      <c r="K9" s="6" t="n">
+      <c r="K9" s="7" t="n">
         <v>352</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="7" t="n">
         <v>184.8</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>369.6</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O9" s="6" t="n">
+      <c r="O9" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P9" s="6" t="n">
+      <c r="P9" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q9" s="6" t="n">
+      <c r="Q9" s="7" t="n">
         <v>10.57</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="7" t="n">
         <v>380.17</v>
       </c>
-      <c r="S9" s="6" t="n">
+      <c r="S9" s="7" t="n">
         <v>190.08</v>
       </c>
-      <c r="T9" s="6" t="n">
+      <c r="T9" s="7" t="n">
         <v>26.49</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
@@ -1352,10 +1357,10 @@
 3.刀口宽度：5mm</t>
         </is>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>465</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
@@ -1363,43 +1368,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="7" t="n">
         <v>324.0643962</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <v>2.56</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="7" t="n">
         <v>2325</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="7" t="n">
         <v>2441.25</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O10" s="6" t="n">
+      <c r="O10" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q10" s="6" t="n">
+      <c r="Q10" s="7" t="n">
         <v>4.75</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="7" t="n">
         <v>2446</v>
       </c>
-      <c r="S10" s="6" t="n">
+      <c r="S10" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T10" s="6" t="n">
+      <c r="T10" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
@@ -1440,10 +1445,10 @@
 3.圆头，宽度1.2mm</t>
         </is>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="6" t="n">
         <v>500</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
@@ -1451,43 +1456,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="7" t="n">
         <v>348.45634</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="7" t="n">
         <v>2.75</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K11" s="6" t="n">
+      <c r="K11" s="7" t="n">
         <v>2500</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <v>2625</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O11" s="6" t="n">
+      <c r="O11" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P11" s="6" t="n">
+      <c r="P11" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q11" s="6" t="n">
+      <c r="Q11" s="7" t="n">
         <v>5.11</v>
       </c>
-      <c r="R11" s="6" t="n">
+      <c r="R11" s="7" t="n">
         <v>2630.11</v>
       </c>
-      <c r="S11" s="6" t="n">
+      <c r="S11" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T11" s="6" t="n">
+      <c r="T11" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
@@ -1526,10 +1531,10 @@
           <t>900M-T-4C</t>
         </is>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="6" t="n">
         <v>546</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
@@ -1537,43 +1542,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="7" t="n">
         <v>380.51432328</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="7" t="n">
         <v>2730</v>
       </c>
-      <c r="L12" s="6" t="n">
+      <c r="L12" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <v>2866.5</v>
       </c>
-      <c r="N12" s="6" t="n">
+      <c r="N12" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O12" s="6" t="n">
+      <c r="O12" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="7" t="n">
         <v>5.57</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="7" t="n">
         <v>2872.07</v>
       </c>
-      <c r="S12" s="6" t="n">
+      <c r="S12" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T12" s="6" t="n">
+      <c r="T12" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
@@ -1612,10 +1617,10 @@
           <t>900M-T-2C</t>
         </is>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="6" t="n">
         <v>40</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
@@ -1623,43 +1628,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="7" t="n">
         <v>27.8765072</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K13" s="6" t="n">
+      <c r="K13" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="L13" s="6" t="n">
+      <c r="L13" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="N13" s="6" t="n">
+      <c r="N13" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O13" s="6" t="n">
+      <c r="O13" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P13" s="6" t="n">
+      <c r="P13" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q13" s="6" t="n">
+      <c r="Q13" s="7" t="n">
         <v>0.41</v>
       </c>
-      <c r="R13" s="6" t="n">
+      <c r="R13" s="7" t="n">
         <v>210.41</v>
       </c>
-      <c r="S13" s="6" t="n">
+      <c r="S13" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T13" s="6" t="n">
+      <c r="T13" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U13" s="4" t="inlineStr">
@@ -1698,10 +1703,10 @@
           <t>900-T-1.2D</t>
         </is>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="5" t="n">
         <v>0.69691268</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>40</v>
       </c>
       <c r="G14" s="4" t="inlineStr">
@@ -1709,43 +1714,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="7" t="n">
         <v>27.8765072</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="7" t="n">
         <v>0.22</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="7" t="n">
         <v>200</v>
       </c>
-      <c r="L14" s="6" t="n">
+      <c r="L14" s="7" t="n">
         <v>5.25</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>210</v>
       </c>
-      <c r="N14" s="6" t="n">
+      <c r="N14" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O14" s="6" t="n">
+      <c r="O14" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q14" s="6" t="n">
+      <c r="Q14" s="7" t="n">
         <v>0.41</v>
       </c>
-      <c r="R14" s="6" t="n">
+      <c r="R14" s="7" t="n">
         <v>210.41</v>
       </c>
-      <c r="S14" s="6" t="n">
+      <c r="S14" s="7" t="n">
         <v>5.26</v>
       </c>
-      <c r="T14" s="6" t="n">
+      <c r="T14" s="7" t="n">
         <v>0.73</v>
       </c>
       <c r="U14" s="4" t="inlineStr">
@@ -1784,10 +1789,10 @@
           <t>size:60mm X 55mm</t>
         </is>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.13798871</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="6" t="n">
         <v>250</v>
       </c>
       <c r="G15" s="4" t="inlineStr">
@@ -1795,43 +1800,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="7" t="n">
         <v>34.4971775</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <v>0.2</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>0.99</v>
       </c>
-      <c r="K15" s="6" t="n">
+      <c r="K15" s="7" t="n">
         <v>247.5</v>
       </c>
-      <c r="L15" s="6" t="n">
+      <c r="L15" s="7" t="n">
         <v>1.04</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>259.88</v>
       </c>
-      <c r="N15" s="6" t="n">
+      <c r="N15" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O15" s="6" t="n">
+      <c r="O15" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P15" s="6" t="n">
+      <c r="P15" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q15" s="6" t="n">
+      <c r="Q15" s="7" t="n">
         <v>0.37</v>
       </c>
-      <c r="R15" s="6" t="n">
+      <c r="R15" s="7" t="n">
         <v>260.25</v>
       </c>
-      <c r="S15" s="6" t="n">
+      <c r="S15" s="7" t="n">
         <v>1.04</v>
       </c>
-      <c r="T15" s="6" t="n">
+      <c r="T15" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
@@ -1870,10 +1875,10 @@
           <t>L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>4.10063419</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="6" t="n">
         <v>100</v>
       </c>
       <c r="G16" s="4" t="inlineStr">
@@ -1881,43 +1886,43 @@
           <t>包</t>
         </is>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="7" t="n">
         <v>410.063419</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <v>40.3</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="7" t="n">
         <v>29.42</v>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="7" t="n">
         <v>2942</v>
       </c>
-      <c r="L16" s="6" t="n">
+      <c r="L16" s="7" t="n">
         <v>30.89</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="7" t="n">
         <v>3089.1</v>
       </c>
-      <c r="N16" s="6" t="n">
+      <c r="N16" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O16" s="6" t="n">
+      <c r="O16" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q16" s="6" t="n">
+      <c r="Q16" s="7" t="n">
         <v>74.84</v>
       </c>
-      <c r="R16" s="6" t="n">
+      <c r="R16" s="7" t="n">
         <v>3163.94</v>
       </c>
-      <c r="S16" s="6" t="n">
+      <c r="S16" s="7" t="n">
         <v>31.64</v>
       </c>
-      <c r="T16" s="6" t="n">
+      <c r="T16" s="7" t="n">
         <v>4.41</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
@@ -1956,10 +1961,10 @@
           <t>6.30x75x4.0x1</t>
         </is>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F17" s="5" t="n">
+      <c r="F17" s="6" t="n">
         <v>400</v>
       </c>
       <c r="G17" s="4" t="inlineStr">
@@ -1967,43 +1972,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="7" t="n">
         <v>73.59398</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <v>3.36</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K17" s="6" t="n">
+      <c r="K17" s="7" t="n">
         <v>528</v>
       </c>
-      <c r="L17" s="6" t="n">
+      <c r="L17" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <v>554.4</v>
       </c>
-      <c r="N17" s="6" t="n">
+      <c r="N17" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O17" s="6" t="n">
+      <c r="O17" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="7" t="n">
         <v>6.24</v>
       </c>
-      <c r="R17" s="6" t="n">
+      <c r="R17" s="7" t="n">
         <v>560.64</v>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T17" s="6" t="n">
+      <c r="T17" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
@@ -2042,10 +2047,10 @@
           <t>6.30X75X3.0</t>
         </is>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="6" t="n">
         <v>395</v>
       </c>
       <c r="G18" s="4" t="inlineStr">
@@ -2053,43 +2058,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="7" t="n">
         <v>72.67405524999999</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <v>3.31</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="7" t="n">
         <v>521.4</v>
       </c>
-      <c r="L18" s="6" t="n">
+      <c r="L18" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <v>547.47</v>
       </c>
-      <c r="N18" s="6" t="n">
+      <c r="N18" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O18" s="6" t="n">
+      <c r="O18" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q18" s="6" t="n">
+      <c r="Q18" s="7" t="n">
         <v>6.15</v>
       </c>
-      <c r="R18" s="6" t="n">
+      <c r="R18" s="7" t="n">
         <v>553.62</v>
       </c>
-      <c r="S18" s="6" t="n">
+      <c r="S18" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T18" s="6" t="n">
+      <c r="T18" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
@@ -2128,10 +2133,10 @@
           <t>6.30X75X3.5</t>
         </is>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="6" t="n">
         <v>400</v>
       </c>
       <c r="G19" s="4" t="inlineStr">
@@ -2139,43 +2144,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="7" t="n">
         <v>73.59398</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="7" t="n">
         <v>3.36</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K19" s="6" t="n">
+      <c r="K19" s="7" t="n">
         <v>528</v>
       </c>
-      <c r="L19" s="6" t="n">
+      <c r="L19" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="7" t="n">
         <v>554.4</v>
       </c>
-      <c r="N19" s="6" t="n">
+      <c r="N19" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O19" s="6" t="n">
+      <c r="O19" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P19" s="6" t="n">
+      <c r="P19" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q19" s="6" t="n">
+      <c r="Q19" s="7" t="n">
         <v>6.24</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="7" t="n">
         <v>560.64</v>
       </c>
-      <c r="S19" s="6" t="n">
+      <c r="S19" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T19" s="6" t="n">
+      <c r="T19" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
@@ -2214,10 +2219,10 @@
           <t>6.30X75X2.5X1</t>
         </is>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F20" s="5" t="n">
+      <c r="F20" s="6" t="n">
         <v>200</v>
       </c>
       <c r="G20" s="4" t="inlineStr">
@@ -2225,43 +2230,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="7" t="n">
         <v>36.79699</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <v>1.68</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="7" t="n">
         <v>264</v>
       </c>
-      <c r="L20" s="6" t="n">
+      <c r="L20" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <v>277.2</v>
       </c>
-      <c r="N20" s="6" t="n">
+      <c r="N20" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O20" s="6" t="n">
+      <c r="O20" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q20" s="6" t="n">
+      <c r="Q20" s="7" t="n">
         <v>3.12</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="7" t="n">
         <v>280.32</v>
       </c>
-      <c r="S20" s="6" t="n">
+      <c r="S20" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T20" s="6" t="n">
+      <c r="T20" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
@@ -2300,10 +2305,10 @@
           <t>6.30X75XT6</t>
         </is>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F21" s="5" t="n">
+      <c r="F21" s="6" t="n">
         <v>90</v>
       </c>
       <c r="G21" s="4" t="inlineStr">
@@ -2311,43 +2316,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="7" t="n">
         <v>16.5586455</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="7" t="n">
         <v>0.75</v>
       </c>
-      <c r="J21" s="6" t="n">
+      <c r="J21" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K21" s="6" t="n">
+      <c r="K21" s="7" t="n">
         <v>118.8</v>
       </c>
-      <c r="L21" s="6" t="n">
+      <c r="L21" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="7" t="n">
         <v>124.74</v>
       </c>
-      <c r="N21" s="6" t="n">
+      <c r="N21" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O21" s="6" t="n">
+      <c r="O21" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P21" s="6" t="n">
+      <c r="P21" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q21" s="6" t="n">
+      <c r="Q21" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="R21" s="6" t="n">
+      <c r="R21" s="7" t="n">
         <v>126.13</v>
       </c>
-      <c r="S21" s="6" t="n">
+      <c r="S21" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T21" s="6" t="n">
+      <c r="T21" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
@@ -2386,10 +2391,10 @@
           <t>6.30X75XT7</t>
         </is>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="6" t="n">
         <v>60</v>
       </c>
       <c r="G22" s="4" t="inlineStr">
@@ -2397,43 +2402,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="7" t="n">
         <v>11.039097</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="7" t="n">
         <v>79.2</v>
       </c>
-      <c r="L22" s="6" t="n">
+      <c r="L22" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>83.16</v>
       </c>
-      <c r="N22" s="6" t="n">
+      <c r="N22" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O22" s="6" t="n">
+      <c r="O22" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="P22" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q22" s="6" t="n">
+      <c r="Q22" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="R22" s="6" t="n">
+      <c r="R22" s="7" t="n">
         <v>84.09</v>
       </c>
-      <c r="S22" s="6" t="n">
+      <c r="S22" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T22" s="6" t="n">
+      <c r="T22" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
@@ -2472,10 +2477,10 @@
           <t>6.30X75XT8</t>
         </is>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="6" t="n">
         <v>50</v>
       </c>
       <c r="G23" s="4" t="inlineStr">
@@ -2483,43 +2488,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="7" t="n">
         <v>9.1992475</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K23" s="6" t="n">
+      <c r="K23" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="L23" s="6" t="n">
+      <c r="L23" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="7" t="n">
         <v>69.3</v>
       </c>
-      <c r="N23" s="6" t="n">
+      <c r="N23" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O23" s="6" t="n">
+      <c r="O23" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P23" s="6" t="n">
+      <c r="P23" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q23" s="6" t="n">
+      <c r="Q23" s="7" t="n">
         <v>0.78</v>
       </c>
-      <c r="R23" s="6" t="n">
+      <c r="R23" s="7" t="n">
         <v>70.08</v>
       </c>
-      <c r="S23" s="6" t="n">
+      <c r="S23" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T23" s="6" t="n">
+      <c r="T23" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
@@ -2558,10 +2563,10 @@
           <t>6.30X100X3.8XT9</t>
         </is>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="6" t="n">
         <v>50</v>
       </c>
       <c r="G24" s="4" t="inlineStr">
@@ -2569,43 +2574,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="7" t="n">
         <v>9.1992475</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="7" t="n">
         <v>0.42</v>
       </c>
-      <c r="J24" s="6" t="n">
+      <c r="J24" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="7" t="n">
         <v>66</v>
       </c>
-      <c r="L24" s="6" t="n">
+      <c r="L24" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="7" t="n">
         <v>69.3</v>
       </c>
-      <c r="N24" s="6" t="n">
+      <c r="N24" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O24" s="6" t="n">
+      <c r="O24" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="P24" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q24" s="6" t="n">
+      <c r="Q24" s="7" t="n">
         <v>0.78</v>
       </c>
-      <c r="R24" s="6" t="n">
+      <c r="R24" s="7" t="n">
         <v>70.08</v>
       </c>
-      <c r="S24" s="6" t="n">
+      <c r="S24" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T24" s="6" t="n">
+      <c r="T24" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
@@ -2644,10 +2649,10 @@
           <t>6.30X100X3.8XT10</t>
         </is>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="5" t="n">
         <v>0.18398495</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="6" t="n">
         <v>110</v>
       </c>
       <c r="G25" s="4" t="inlineStr">
@@ -2655,43 +2660,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="7" t="n">
         <v>20.2383445</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <v>0.92</v>
       </c>
-      <c r="J25" s="6" t="n">
+      <c r="J25" s="7" t="n">
         <v>1.32</v>
       </c>
-      <c r="K25" s="6" t="n">
+      <c r="K25" s="7" t="n">
         <v>145.2</v>
       </c>
-      <c r="L25" s="6" t="n">
+      <c r="L25" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="7" t="n">
         <v>152.46</v>
       </c>
-      <c r="N25" s="6" t="n">
+      <c r="N25" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O25" s="6" t="n">
+      <c r="O25" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P25" s="6" t="n">
+      <c r="P25" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q25" s="6" t="n">
+      <c r="Q25" s="7" t="n">
         <v>1.71</v>
       </c>
-      <c r="R25" s="6" t="n">
+      <c r="R25" s="7" t="n">
         <v>154.17</v>
       </c>
-      <c r="S25" s="6" t="n">
+      <c r="S25" s="7" t="n">
         <v>1.4</v>
       </c>
-      <c r="T25" s="6" t="n">
+      <c r="T25" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
@@ -2730,10 +2735,10 @@
           <t>50.60 mtrX300 mm</t>
         </is>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="5" t="n">
         <v>153.79468953</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="6" t="n">
         <v>3</v>
       </c>
       <c r="G26" s="4" t="inlineStr">
@@ -2741,43 +2746,43 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="7" t="n">
         <v>461.38406859</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="7" t="n">
         <v>57</v>
       </c>
-      <c r="J26" s="6" t="n">
+      <c r="J26" s="7" t="n">
         <v>1103.4</v>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="7" t="n">
         <v>3310.2</v>
       </c>
-      <c r="L26" s="6" t="n">
+      <c r="L26" s="7" t="n">
         <v>1158.57</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="7" t="n">
         <v>3475.71</v>
       </c>
-      <c r="N26" s="6" t="n">
+      <c r="N26" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O26" s="6" t="n">
+      <c r="O26" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q26" s="6" t="n">
+      <c r="Q26" s="7" t="n">
         <v>105.86</v>
       </c>
-      <c r="R26" s="6" t="n">
+      <c r="R26" s="7" t="n">
         <v>3581.57</v>
       </c>
-      <c r="S26" s="6" t="n">
+      <c r="S26" s="7" t="n">
         <v>1193.86</v>
       </c>
-      <c r="T26" s="6" t="n">
+      <c r="T26" s="7" t="n">
         <v>166.4</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
@@ -2816,10 +2821,10 @@
           <t>50.20mtrx400 mm</t>
         </is>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="5" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="F27" s="5" t="n">
+      <c r="F27" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="4" t="inlineStr">
@@ -2827,43 +2832,43 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="7" t="n">
         <v>203.47062513</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="J27" s="6" t="n">
+      <c r="J27" s="7" t="n">
         <v>1459.8</v>
       </c>
-      <c r="K27" s="6" t="n">
+      <c r="K27" s="7" t="n">
         <v>1459.8</v>
       </c>
-      <c r="L27" s="6" t="n">
+      <c r="L27" s="7" t="n">
         <v>1532.79</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="7" t="n">
         <v>1532.79</v>
       </c>
-      <c r="N27" s="6" t="n">
+      <c r="N27" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O27" s="6" t="n">
+      <c r="O27" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P27" s="6" t="n">
+      <c r="P27" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q27" s="6" t="n">
+      <c r="Q27" s="7" t="n">
         <v>35.29</v>
       </c>
-      <c r="R27" s="6" t="n">
+      <c r="R27" s="7" t="n">
         <v>1568.08</v>
       </c>
-      <c r="S27" s="6" t="n">
+      <c r="S27" s="7" t="n">
         <v>1568.08</v>
       </c>
-      <c r="T27" s="6" t="n">
+      <c r="T27" s="7" t="n">
         <v>218.56</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
@@ -2902,10 +2907,10 @@
           <t>40.5mtrX300 mm</t>
         </is>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="5" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="F28" s="5" t="n">
+      <c r="F28" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="inlineStr">
@@ -2913,43 +2918,43 @@
           <t>条</t>
         </is>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="7" t="n">
         <v>123.06084048</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="7" t="n">
         <v>882.9</v>
       </c>
-      <c r="K28" s="6" t="n">
+      <c r="K28" s="7" t="n">
         <v>882.9</v>
       </c>
-      <c r="L28" s="6" t="n">
+      <c r="L28" s="7" t="n">
         <v>927.04</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <v>927.04</v>
       </c>
-      <c r="N28" s="6" t="n">
+      <c r="N28" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O28" s="6" t="n">
+      <c r="O28" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q28" s="6" t="n">
+      <c r="Q28" s="7" t="n">
         <v>35.29</v>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="7" t="n">
         <v>962.33</v>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="S28" s="7" t="n">
         <v>962.33</v>
       </c>
-      <c r="T28" s="6" t="n">
+      <c r="T28" s="7" t="n">
         <v>134.13</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
@@ -2988,10 +2993,10 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="5" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="6" t="n">
         <v>6</v>
       </c>
       <c r="G29" s="4" t="inlineStr">
@@ -2999,43 +3004,43 @@
           <t>件</t>
         </is>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="7" t="n">
         <v>585.40664856</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <v>30.52</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="7" t="n">
         <v>700</v>
       </c>
-      <c r="K29" s="6" t="n">
+      <c r="K29" s="7" t="n">
         <v>4200</v>
       </c>
-      <c r="L29" s="6" t="n">
+      <c r="L29" s="7" t="n">
         <v>735</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="7" t="n">
         <v>4410</v>
       </c>
-      <c r="N29" s="6" t="n">
+      <c r="N29" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O29" s="6" t="n">
+      <c r="O29" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P29" s="6" t="n">
+      <c r="P29" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q29" s="6" t="n">
+      <c r="Q29" s="7" t="n">
         <v>56.68</v>
       </c>
-      <c r="R29" s="6" t="n">
+      <c r="R29" s="7" t="n">
         <v>4466.68</v>
       </c>
-      <c r="S29" s="6" t="n">
+      <c r="S29" s="7" t="n">
         <v>744.45</v>
       </c>
-      <c r="T29" s="6" t="n">
+      <c r="T29" s="7" t="n">
         <v>103.76</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
@@ -3074,10 +3079,10 @@
           <t>长510MM 宽223MM  高11MM</t>
         </is>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="5" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="inlineStr">
@@ -3085,43 +3090,43 @@
           <t>件</t>
         </is>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="7" t="n">
         <v>97.56777476000001</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="7" t="n">
         <v>700</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K30" s="7" t="n">
         <v>700</v>
       </c>
-      <c r="L30" s="6" t="n">
+      <c r="L30" s="7" t="n">
         <v>735</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="7" t="n">
         <v>735</v>
       </c>
-      <c r="N30" s="6" t="n">
+      <c r="N30" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O30" s="6" t="n">
+      <c r="O30" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="7" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="7" t="n">
         <v>744.29</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="S30" s="7" t="n">
         <v>744.29</v>
       </c>
-      <c r="T30" s="6" t="n">
+      <c r="T30" s="7" t="n">
         <v>103.74</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
@@ -3160,10 +3165,10 @@
           <t>FW07014AA</t>
         </is>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="5" t="n">
         <v>1.10251585</v>
       </c>
-      <c r="F31" s="5" t="n">
+      <c r="F31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G31" s="4" t="inlineStr">
@@ -3171,43 +3176,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="7" t="n">
         <v>5.51257925</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="J31" s="6" t="n">
+      <c r="J31" s="7" t="n">
         <v>7.91</v>
       </c>
-      <c r="K31" s="6" t="n">
+      <c r="K31" s="7" t="n">
         <v>39.55</v>
       </c>
-      <c r="L31" s="6" t="n">
+      <c r="L31" s="7" t="n">
         <v>8.31</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="7" t="n">
         <v>41.53</v>
       </c>
-      <c r="N31" s="6" t="n">
+      <c r="N31" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O31" s="6" t="n">
+      <c r="O31" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="P31" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q31" s="6" t="n">
+      <c r="Q31" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="R31" s="6" t="n">
+      <c r="R31" s="7" t="n">
         <v>41.62</v>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="S31" s="7" t="n">
         <v>8.32</v>
       </c>
-      <c r="T31" s="6" t="n">
+      <c r="T31" s="7" t="n">
         <v>1.16</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
@@ -3246,10 +3251,10 @@
           <t>排料机保险丝座</t>
         </is>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F32" s="5" t="n">
+      <c r="F32" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G32" s="4" t="inlineStr">
@@ -3257,43 +3262,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="7" t="n">
         <v>13.93825355</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K32" s="6" t="n">
+      <c r="K32" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="L32" s="6" t="n">
+      <c r="L32" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="N32" s="6" t="n">
+      <c r="N32" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O32" s="6" t="n">
+      <c r="O32" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P32" s="6" t="n">
+      <c r="P32" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q32" s="6" t="n">
+      <c r="Q32" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="R32" s="6" t="n">
+      <c r="R32" s="7" t="n">
         <v>105.09</v>
       </c>
-      <c r="S32" s="6" t="n">
+      <c r="S32" s="7" t="n">
         <v>21.02</v>
       </c>
-      <c r="T32" s="6" t="n">
+      <c r="T32" s="7" t="n">
         <v>2.93</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
@@ -3332,10 +3337,10 @@
           <t>排料机三角刀</t>
         </is>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="5" t="n">
         <v>9.75677748</v>
       </c>
-      <c r="F33" s="5" t="n">
+      <c r="F33" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G33" s="4" t="inlineStr">
@@ -3343,43 +3348,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="7" t="n">
         <v>19.51355496</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="J33" s="6" t="n">
+      <c r="J33" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="K33" s="6" t="n">
+      <c r="K33" s="7" t="n">
         <v>140</v>
       </c>
-      <c r="L33" s="6" t="n">
+      <c r="L33" s="7" t="n">
         <v>73.5</v>
       </c>
-      <c r="M33" s="6" t="n">
+      <c r="M33" s="7" t="n">
         <v>147</v>
       </c>
-      <c r="N33" s="6" t="n">
+      <c r="N33" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O33" s="6" t="n">
+      <c r="O33" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="P33" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q33" s="6" t="n">
+      <c r="Q33" s="7" t="n">
         <v>0.04</v>
       </c>
-      <c r="R33" s="6" t="n">
+      <c r="R33" s="7" t="n">
         <v>147.04</v>
       </c>
-      <c r="S33" s="6" t="n">
+      <c r="S33" s="7" t="n">
         <v>73.52</v>
       </c>
-      <c r="T33" s="6" t="n">
+      <c r="T33" s="7" t="n">
         <v>10.25</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
@@ -3418,10 +3423,10 @@
           <t>排料机送料器切刀</t>
         </is>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G34" s="4" t="inlineStr">
@@ -3429,43 +3434,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="7" t="n">
         <v>13.93825355</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="J34" s="6" t="n">
+      <c r="J34" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K34" s="6" t="n">
+      <c r="K34" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="L34" s="6" t="n">
+      <c r="L34" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="N34" s="6" t="n">
+      <c r="N34" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O34" s="6" t="n">
+      <c r="O34" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="7" t="n">
         <v>105.09</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="S34" s="7" t="n">
         <v>21.02</v>
       </c>
-      <c r="T34" s="6" t="n">
+      <c r="T34" s="7" t="n">
         <v>2.93</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
@@ -3504,10 +3509,10 @@
           <t>WS1D-08004</t>
         </is>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="5" t="n">
         <v>2.78765071</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="6" t="n">
         <v>5</v>
       </c>
       <c r="G35" s="4" t="inlineStr">
@@ -3515,43 +3520,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="7" t="n">
         <v>13.93825355</v>
       </c>
-      <c r="I35" s="6" t="n">
+      <c r="I35" s="7" t="n">
         <v>0.05</v>
       </c>
-      <c r="J35" s="6" t="n">
+      <c r="J35" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="K35" s="6" t="n">
+      <c r="K35" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="L35" s="6" t="n">
+      <c r="L35" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="N35" s="6" t="n">
+      <c r="N35" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O35" s="6" t="n">
+      <c r="O35" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="P35" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q35" s="6" t="n">
+      <c r="Q35" s="7" t="n">
         <v>0.09</v>
       </c>
-      <c r="R35" s="6" t="n">
+      <c r="R35" s="7" t="n">
         <v>105.09</v>
       </c>
-      <c r="S35" s="6" t="n">
+      <c r="S35" s="7" t="n">
         <v>21.02</v>
       </c>
-      <c r="T35" s="6" t="n">
+      <c r="T35" s="7" t="n">
         <v>2.93</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
@@ -3590,10 +3595,10 @@
           <t>Part No.: WJ-10509</t>
         </is>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F36" s="5" t="n">
+      <c r="F36" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G36" s="4" t="inlineStr">
@@ -3601,43 +3606,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="7" t="n">
         <v>2.7876508</v>
       </c>
-      <c r="I36" s="6" t="n">
+      <c r="I36" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="J36" s="6" t="n">
+      <c r="J36" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K36" s="6" t="n">
+      <c r="K36" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L36" s="6" t="n">
+      <c r="L36" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="N36" s="6" t="n">
+      <c r="N36" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O36" s="6" t="n">
+      <c r="O36" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P36" s="6" t="n">
+      <c r="P36" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q36" s="6" t="n">
+      <c r="Q36" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="R36" s="6" t="n">
+      <c r="R36" s="7" t="n">
         <v>21.19</v>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="S36" s="7" t="n">
         <v>1.06</v>
       </c>
-      <c r="T36" s="6" t="n">
+      <c r="T36" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
@@ -3676,10 +3681,10 @@
           <t>Part No.: WJ-10301</t>
         </is>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G37" s="4" t="inlineStr">
@@ -3687,43 +3692,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="7" t="n">
         <v>2.7876508</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K37" s="6" t="n">
+      <c r="K37" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L37" s="6" t="n">
+      <c r="L37" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="N37" s="6" t="n">
+      <c r="N37" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O37" s="6" t="n">
+      <c r="O37" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P37" s="6" t="n">
+      <c r="P37" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q37" s="6" t="n">
+      <c r="Q37" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="R37" s="6" t="n">
+      <c r="R37" s="7" t="n">
         <v>21.19</v>
       </c>
-      <c r="S37" s="6" t="n">
+      <c r="S37" s="7" t="n">
         <v>1.06</v>
       </c>
-      <c r="T37" s="6" t="n">
+      <c r="T37" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
@@ -3762,10 +3767,10 @@
           <t>Part No.: LS1D-04026</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="6" t="n">
         <v>20</v>
       </c>
       <c r="G38" s="4" t="inlineStr">
@@ -3773,43 +3778,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="7" t="n">
         <v>2.7876508</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I38" s="7" t="n">
         <v>0.1</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K38" s="6" t="n">
+      <c r="K38" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="L38" s="6" t="n">
+      <c r="L38" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="N38" s="6" t="n">
+      <c r="N38" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O38" s="6" t="n">
+      <c r="O38" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P38" s="6" t="n">
+      <c r="P38" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q38" s="6" t="n">
+      <c r="Q38" s="7" t="n">
         <v>0.19</v>
       </c>
-      <c r="R38" s="6" t="n">
+      <c r="R38" s="7" t="n">
         <v>21.19</v>
       </c>
-      <c r="S38" s="6" t="n">
+      <c r="S38" s="7" t="n">
         <v>1.06</v>
       </c>
-      <c r="T38" s="6" t="n">
+      <c r="T38" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
@@ -3848,10 +3853,10 @@
           <t>Part No.: LS1D-04021</t>
         </is>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="5" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="4" t="inlineStr">
@@ -3859,43 +3864,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="7" t="n">
         <v>30.38539271</v>
       </c>
-      <c r="I39" s="6" t="n">
+      <c r="I39" s="7" t="n">
         <v>0.01</v>
       </c>
-      <c r="J39" s="6" t="n">
+      <c r="J39" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="K39" s="6" t="n">
+      <c r="K39" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="L39" s="6" t="n">
+      <c r="L39" s="7" t="n">
         <v>228.9</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="7" t="n">
         <v>228.9</v>
       </c>
-      <c r="N39" s="6" t="n">
+      <c r="N39" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O39" s="6" t="n">
+      <c r="O39" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P39" s="6" t="n">
+      <c r="P39" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q39" s="6" t="n">
+      <c r="Q39" s="7" t="n">
         <v>0.02</v>
       </c>
-      <c r="R39" s="6" t="n">
+      <c r="R39" s="7" t="n">
         <v>228.92</v>
       </c>
-      <c r="S39" s="6" t="n">
+      <c r="S39" s="7" t="n">
         <v>228.92</v>
       </c>
-      <c r="T39" s="6" t="n">
+      <c r="T39" s="7" t="n">
         <v>31.91</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
@@ -3934,10 +3939,10 @@
           <t>LS1D-07037</t>
         </is>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="5" t="n">
         <v>0.13938254</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="6" t="n">
         <v>100</v>
       </c>
       <c r="G40" s="4" t="inlineStr">
@@ -3945,43 +3950,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="7" t="n">
         <v>13.938254</v>
       </c>
-      <c r="I40" s="6" t="n">
+      <c r="I40" s="7" t="n">
         <v>0.03</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K40" s="6" t="n">
+      <c r="K40" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="L40" s="6" t="n">
+      <c r="L40" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="N40" s="6" t="n">
+      <c r="N40" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O40" s="6" t="n">
+      <c r="O40" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P40" s="6" t="n">
+      <c r="P40" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q40" s="6" t="n">
+      <c r="Q40" s="7" t="n">
         <v>0.06</v>
       </c>
-      <c r="R40" s="6" t="n">
+      <c r="R40" s="7" t="n">
         <v>105.06</v>
       </c>
-      <c r="S40" s="6" t="n">
+      <c r="S40" s="7" t="n">
         <v>1.05</v>
       </c>
-      <c r="T40" s="6" t="n">
+      <c r="T40" s="7" t="n">
         <v>0.15</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
@@ -4020,10 +4025,10 @@
           <t>DH 21_1341 B/T</t>
         </is>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="5" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G41" s="4" t="inlineStr">
@@ -4031,43 +4036,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="7" t="n">
         <v>133.80723396</v>
       </c>
-      <c r="I41" s="6" t="n">
+      <c r="I41" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J41" s="6" t="n">
+      <c r="J41" s="7" t="n">
         <v>480</v>
       </c>
-      <c r="K41" s="6" t="n">
+      <c r="K41" s="7" t="n">
         <v>960</v>
       </c>
-      <c r="L41" s="6" t="n">
+      <c r="L41" s="7" t="n">
         <v>504</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="7" t="n">
         <v>1008</v>
       </c>
-      <c r="N41" s="6" t="n">
+      <c r="N41" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O41" s="6" t="n">
+      <c r="O41" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P41" s="6" t="n">
+      <c r="P41" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q41" s="6" t="n">
+      <c r="Q41" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="R41" s="6" t="n">
+      <c r="R41" s="7" t="n">
         <v>1021</v>
       </c>
-      <c r="S41" s="6" t="n">
+      <c r="S41" s="7" t="n">
         <v>510.5</v>
       </c>
-      <c r="T41" s="6" t="n">
+      <c r="T41" s="7" t="n">
         <v>71.15000000000001</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
@@ -4106,10 +4111,10 @@
           <t>DH 21_1340 B/T</t>
         </is>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="5" t="n">
         <v>66.90361698</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G42" s="4" t="inlineStr">
@@ -4117,43 +4122,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="7" t="n">
         <v>133.80723396</v>
       </c>
-      <c r="I42" s="6" t="n">
+      <c r="I42" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J42" s="6" t="n">
+      <c r="J42" s="7" t="n">
         <v>480</v>
       </c>
-      <c r="K42" s="6" t="n">
+      <c r="K42" s="7" t="n">
         <v>960</v>
       </c>
-      <c r="L42" s="6" t="n">
+      <c r="L42" s="7" t="n">
         <v>504</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="7" t="n">
         <v>1008</v>
       </c>
-      <c r="N42" s="6" t="n">
+      <c r="N42" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O42" s="6" t="n">
+      <c r="O42" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P42" s="6" t="n">
+      <c r="P42" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q42" s="6" t="n">
+      <c r="Q42" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="R42" s="6" t="n">
+      <c r="R42" s="7" t="n">
         <v>1021</v>
       </c>
-      <c r="S42" s="6" t="n">
+      <c r="S42" s="7" t="n">
         <v>510.5</v>
       </c>
-      <c r="T42" s="6" t="n">
+      <c r="T42" s="7" t="n">
         <v>71.15000000000001</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
@@ -4192,10 +4197,10 @@
           <t>DH 21_1341 D/P</t>
         </is>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="5" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="4" t="inlineStr">
@@ -4203,43 +4208,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="7" t="n">
         <v>128.23193254</v>
       </c>
-      <c r="I43" s="6" t="n">
+      <c r="I43" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="J43" s="6" t="n">
+      <c r="J43" s="7" t="n">
         <v>460</v>
       </c>
-      <c r="K43" s="6" t="n">
+      <c r="K43" s="7" t="n">
         <v>920</v>
       </c>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="7" t="n">
         <v>483</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="7" t="n">
         <v>966</v>
       </c>
-      <c r="N43" s="6" t="n">
+      <c r="N43" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O43" s="6" t="n">
+      <c r="O43" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P43" s="6" t="n">
+      <c r="P43" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q43" s="6" t="n">
+      <c r="Q43" s="7" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="R43" s="7" t="n">
         <v>975.29</v>
       </c>
-      <c r="S43" s="6" t="n">
+      <c r="S43" s="7" t="n">
         <v>487.64</v>
       </c>
-      <c r="T43" s="6" t="n">
+      <c r="T43" s="7" t="n">
         <v>67.97</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
@@ -4278,10 +4283,10 @@
           <t>DH 21_1340 D/P</t>
         </is>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="5" t="n">
         <v>64.11596627</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="6" t="n">
         <v>2</v>
       </c>
       <c r="G44" s="4" t="inlineStr">
@@ -4289,43 +4294,43 @@
           <t>个</t>
         </is>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="7" t="n">
         <v>128.23193254</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="7" t="n">
         <v>460</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="7" t="n">
         <v>920</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="7" t="n">
         <v>483</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="7" t="n">
         <v>966</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="7" t="n">
         <v>19.33</v>
       </c>
-      <c r="O44" s="6" t="n">
+      <c r="O44" s="7" t="n">
         <v>452</v>
       </c>
-      <c r="P44" s="6" t="n">
+      <c r="P44" s="7" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q44" s="6" t="n">
+      <c r="Q44" s="7" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="R44" s="6" t="n">
+      <c r="R44" s="7" t="n">
         <v>975.29</v>
       </c>
-      <c r="S44" s="6" t="n">
+      <c r="S44" s="7" t="n">
         <v>487.64</v>
       </c>
-      <c r="T44" s="6" t="n">
+      <c r="T44" s="7" t="n">
         <v>67.97</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
@@ -4354,34 +4359,34 @@
       </c>
       <c r="C45" s="4" t="n"/>
       <c r="D45" s="4" t="n"/>
-      <c r="E45" s="4" t="n"/>
-      <c r="F45" s="5" t="n">
+      <c r="E45" s="5" t="n"/>
+      <c r="F45" s="6" t="n">
         <v>14394</v>
       </c>
       <c r="G45" s="4" t="n"/>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="7" t="n">
         <v>4666.436703130002</v>
       </c>
-      <c r="I45" s="6" t="n">
+      <c r="I45" s="7" t="n">
         <v>253.79</v>
       </c>
-      <c r="J45" s="6" t="n"/>
-      <c r="K45" s="6" t="n">
+      <c r="J45" s="7" t="n"/>
+      <c r="K45" s="7" t="n">
         <v>33479.35000000001</v>
       </c>
-      <c r="L45" s="6" t="n"/>
-      <c r="M45" s="6" t="n">
+      <c r="L45" s="7" t="n"/>
+      <c r="M45" s="7" t="n">
         <v>35153.32</v>
       </c>
-      <c r="N45" s="6" t="n"/>
-      <c r="O45" s="6" t="n"/>
-      <c r="P45" s="6" t="n"/>
-      <c r="Q45" s="6" t="n"/>
-      <c r="R45" s="6" t="n">
+      <c r="N45" s="7" t="n"/>
+      <c r="O45" s="7" t="n"/>
+      <c r="P45" s="7" t="n"/>
+      <c r="Q45" s="7" t="n"/>
+      <c r="R45" s="7" t="n">
         <v>35624.69</v>
       </c>
-      <c r="S45" s="6" t="n"/>
-      <c r="T45" s="6" t="n"/>
+      <c r="S45" s="7" t="n"/>
+      <c r="T45" s="7" t="n"/>
       <c r="U45" s="4" t="n"/>
       <c r="V45" s="4" t="n"/>
       <c r="W45" s="4" t="n"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -509,6 +509,7 @@
     <col width="12" customWidth="1" min="22" max="22"/>
     <col width="15" customWidth="1" min="23" max="23"/>
     <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="12" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -632,6 +633,11 @@
           <t>end use</t>
         </is>
       </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>G.W (KG)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -718,6 +724,9 @@
         </is>
       </c>
       <c r="X2" s="4" t="n"/>
+      <c r="Y2" s="4" t="n">
+        <v>1.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -804,6 +813,7 @@
         </is>
       </c>
       <c r="X3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -897,6 +907,9 @@
         </is>
       </c>
       <c r="X4" s="4" t="n"/>
+      <c r="Y4" s="4" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -986,6 +999,9 @@
         </is>
       </c>
       <c r="X5" s="4" t="n"/>
+      <c r="Y5" s="4" t="n">
+        <v>10.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -1073,6 +1089,7 @@
         </is>
       </c>
       <c r="X6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1161,6 +1178,9 @@
         </is>
       </c>
       <c r="X7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n">
+        <v>6.92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1249,6 +1269,9 @@
         </is>
       </c>
       <c r="X8" s="4" t="n"/>
+      <c r="Y8" s="4" t="n">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -1335,6 +1358,9 @@
         </is>
       </c>
       <c r="X9" s="4" t="n"/>
+      <c r="Y9" s="4" t="n">
+        <v>5.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -1423,6 +1449,9 @@
         </is>
       </c>
       <c r="X10" s="4" t="n"/>
+      <c r="Y10" s="4" t="n">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -1511,6 +1540,7 @@
         </is>
       </c>
       <c r="X11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1597,6 +1627,7 @@
         </is>
       </c>
       <c r="X12" s="4" t="n"/>
+      <c r="Y12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1683,6 +1714,7 @@
         </is>
       </c>
       <c r="X13" s="4" t="n"/>
+      <c r="Y13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1769,6 +1801,7 @@
         </is>
       </c>
       <c r="X14" s="4" t="n"/>
+      <c r="Y14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1855,6 +1888,7 @@
         </is>
       </c>
       <c r="X15" s="4" t="n"/>
+      <c r="Y15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1941,6 +1975,9 @@
         </is>
       </c>
       <c r="X16" s="4" t="n"/>
+      <c r="Y16" s="4" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -2027,6 +2064,9 @@
         </is>
       </c>
       <c r="X17" s="4" t="n"/>
+      <c r="Y17" s="4" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -2113,6 +2153,7 @@
         </is>
       </c>
       <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -2199,6 +2240,7 @@
         </is>
       </c>
       <c r="X19" s="4" t="n"/>
+      <c r="Y19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -2285,6 +2327,7 @@
         </is>
       </c>
       <c r="X20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -2371,6 +2414,7 @@
         </is>
       </c>
       <c r="X21" s="4" t="n"/>
+      <c r="Y21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -2457,6 +2501,7 @@
         </is>
       </c>
       <c r="X22" s="4" t="n"/>
+      <c r="Y22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -2543,6 +2588,7 @@
         </is>
       </c>
       <c r="X23" s="4" t="n"/>
+      <c r="Y23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -2629,6 +2675,7 @@
         </is>
       </c>
       <c r="X24" s="4" t="n"/>
+      <c r="Y24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -2715,6 +2762,7 @@
         </is>
       </c>
       <c r="X25" s="4" t="n"/>
+      <c r="Y25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -2801,6 +2849,9 @@
         </is>
       </c>
       <c r="X26" s="4" t="n"/>
+      <c r="Y26" s="4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -2887,6 +2938,9 @@
         </is>
       </c>
       <c r="X27" s="4" t="n"/>
+      <c r="Y27" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -2973,6 +3027,9 @@
         </is>
       </c>
       <c r="X28" s="4" t="n"/>
+      <c r="Y28" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -3059,6 +3116,9 @@
         </is>
       </c>
       <c r="X29" s="4" t="n"/>
+      <c r="Y29" s="4" t="n">
+        <v>30.9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -3145,6 +3205,9 @@
         </is>
       </c>
       <c r="X30" s="4" t="n"/>
+      <c r="Y30" s="4" t="n">
+        <v>5.16</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -3231,6 +3294,9 @@
         </is>
       </c>
       <c r="X31" s="4" t="n"/>
+      <c r="Y31" s="4" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -3317,6 +3383,7 @@
         </is>
       </c>
       <c r="X32" s="4" t="n"/>
+      <c r="Y32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -3403,6 +3470,7 @@
         </is>
       </c>
       <c r="X33" s="4" t="n"/>
+      <c r="Y33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -3489,6 +3557,7 @@
         </is>
       </c>
       <c r="X34" s="4" t="n"/>
+      <c r="Y34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -3575,6 +3644,7 @@
         </is>
       </c>
       <c r="X35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -3661,6 +3731,7 @@
         </is>
       </c>
       <c r="X36" s="4" t="n"/>
+      <c r="Y36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -3747,6 +3818,7 @@
         </is>
       </c>
       <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -3833,6 +3905,7 @@
         </is>
       </c>
       <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -3919,6 +3992,7 @@
         </is>
       </c>
       <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -4005,6 +4079,7 @@
         </is>
       </c>
       <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -4091,6 +4166,9 @@
         </is>
       </c>
       <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n">
+        <v>7.54</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -4177,6 +4255,9 @@
         </is>
       </c>
       <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n">
+        <v>7.54</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -4263,6 +4344,9 @@
         </is>
       </c>
       <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n">
+        <v>11.08</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -4349,6 +4433,7 @@
         </is>
       </c>
       <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -4391,6 +4476,7 @@
       <c r="V45" s="4" t="n"/>
       <c r="W45" s="4" t="n"/>
       <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H2" s="7" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H4" s="7" t="n">
@@ -893,7 +893,7 @@
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H5" s="7" t="n">
@@ -985,7 +985,7 @@
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H6" s="7" t="n">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H7" s="7" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H8" s="7" t="n">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="H9" s="7" t="n">
@@ -1344,7 +1344,7 @@
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>ROLL</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H10" s="7" t="n">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H11" s="7" t="n">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H12" s="7" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H13" s="7" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H14" s="7" t="n">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H15" s="7" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H17" s="7" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H18" s="7" t="n">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H19" s="7" t="n">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H20" s="7" t="n">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H21" s="7" t="n">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H22" s="7" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H23" s="7" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H24" s="7" t="n">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H25" s="7" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H29" s="7" t="n">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H30" s="7" t="n">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H31" s="7" t="n">
@@ -3280,7 +3280,7 @@
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H32" s="7" t="n">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H33" s="7" t="n">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -3483,7 +3483,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H34" s="7" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H35" s="7" t="n">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H36" s="7" t="n">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H37" s="7" t="n">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H38" s="7" t="n">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H39" s="7" t="n">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H40" s="7" t="n">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H41" s="7" t="n">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H42" s="7" t="n">
@@ -4241,7 +4241,7 @@
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H43" s="7" t="n">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="H44" s="7" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>PCS</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y45"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -510,6 +510,7 @@
     <col width="15" customWidth="1" min="23" max="23"/>
     <col width="15" customWidth="1" min="24" max="24"/>
     <col width="12" customWidth="1" min="25" max="25"/>
+    <col width="12" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,6 +639,11 @@
           <t>G.W (KG)</t>
         </is>
       </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Original_Unit</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -666,7 +672,7 @@
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H2" s="7" t="n">
@@ -710,7 +716,7 @@
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -726,6 +732,11 @@
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n">
         <v>1.86</v>
+      </c>
+      <c r="Z2" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -755,7 +766,7 @@
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
@@ -799,7 +810,7 @@
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -814,6 +825,11 @@
       </c>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
+      <c r="Z3" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -849,7 +865,7 @@
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H4" s="7" t="n">
@@ -893,7 +909,7 @@
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -909,6 +925,11 @@
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n">
         <v>2.42</v>
+      </c>
+      <c r="Z4" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -941,7 +962,7 @@
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H5" s="7" t="n">
@@ -985,7 +1006,7 @@
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -1001,6 +1022,11 @@
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n">
         <v>10.24</v>
+      </c>
+      <c r="Z5" s="4" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1031,7 +1057,7 @@
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H6" s="7" t="n">
@@ -1075,7 +1101,7 @@
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -1090,6 +1116,11 @@
       </c>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n"/>
+      <c r="Z6" s="4" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1120,7 +1151,7 @@
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H7" s="7" t="n">
@@ -1164,7 +1195,7 @@
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -1180,6 +1211,11 @@
       <c r="X7" s="4" t="n"/>
       <c r="Y7" s="4" t="n">
         <v>6.92</v>
+      </c>
+      <c r="Z7" s="4" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1211,7 +1247,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H8" s="7" t="n">
@@ -1255,7 +1291,7 @@
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -1271,6 +1307,11 @@
       <c r="X8" s="4" t="n"/>
       <c r="Y8" s="4" t="n">
         <v>9.4</v>
+      </c>
+      <c r="Z8" s="4" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1341,7 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H9" s="7" t="n">
@@ -1344,7 +1385,7 @@
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>ROLL</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -1360,6 +1401,11 @@
       <c r="X9" s="4" t="n"/>
       <c r="Y9" s="4" t="n">
         <v>5.84</v>
+      </c>
+      <c r="Z9" s="4" t="inlineStr">
+        <is>
+          <t>卷</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1391,7 +1437,7 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H10" s="7" t="n">
@@ -1435,7 +1481,7 @@
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -1451,6 +1497,11 @@
       <c r="X10" s="4" t="n"/>
       <c r="Y10" s="4" t="n">
         <v>10.08</v>
+      </c>
+      <c r="Z10" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1482,7 +1533,7 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H11" s="7" t="n">
@@ -1526,7 +1577,7 @@
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -1541,6 +1592,11 @@
       </c>
       <c r="X11" s="4" t="n"/>
       <c r="Y11" s="4" t="n"/>
+      <c r="Z11" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1569,7 +1625,7 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H12" s="7" t="n">
@@ -1613,7 +1669,7 @@
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1628,6 +1684,11 @@
       </c>
       <c r="X12" s="4" t="n"/>
       <c r="Y12" s="4" t="n"/>
+      <c r="Z12" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1656,7 +1717,7 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H13" s="7" t="n">
@@ -1700,7 +1761,7 @@
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1715,6 +1776,11 @@
       </c>
       <c r="X13" s="4" t="n"/>
       <c r="Y13" s="4" t="n"/>
+      <c r="Z13" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1743,7 +1809,7 @@
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H14" s="7" t="n">
@@ -1787,7 +1853,7 @@
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -1802,6 +1868,11 @@
       </c>
       <c r="X14" s="4" t="n"/>
       <c r="Y14" s="4" t="n"/>
+      <c r="Z14" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1830,7 +1901,7 @@
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H15" s="7" t="n">
@@ -1874,7 +1945,7 @@
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -1889,6 +1960,11 @@
       </c>
       <c r="X15" s="4" t="n"/>
       <c r="Y15" s="4" t="n"/>
+      <c r="Z15" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1978,6 +2054,11 @@
       <c r="Y16" s="4" t="n">
         <v>40.6</v>
       </c>
+      <c r="Z16" s="4" t="inlineStr">
+        <is>
+          <t>包</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -2006,7 +2087,7 @@
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H17" s="7" t="n">
@@ -2050,7 +2131,7 @@
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -2066,6 +2147,11 @@
       <c r="X17" s="4" t="n"/>
       <c r="Y17" s="4" t="n">
         <v>15</v>
+      </c>
+      <c r="Z17" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2095,7 +2181,7 @@
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H18" s="7" t="n">
@@ -2139,7 +2225,7 @@
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -2154,6 +2240,11 @@
       </c>
       <c r="X18" s="4" t="n"/>
       <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -2182,7 +2273,7 @@
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H19" s="7" t="n">
@@ -2226,7 +2317,7 @@
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2241,6 +2332,11 @@
       </c>
       <c r="X19" s="4" t="n"/>
       <c r="Y19" s="4" t="n"/>
+      <c r="Z19" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -2269,7 +2365,7 @@
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H20" s="7" t="n">
@@ -2313,7 +2409,7 @@
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2328,6 +2424,11 @@
       </c>
       <c r="X20" s="4" t="n"/>
       <c r="Y20" s="4" t="n"/>
+      <c r="Z20" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -2356,7 +2457,7 @@
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H21" s="7" t="n">
@@ -2400,7 +2501,7 @@
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2415,6 +2516,11 @@
       </c>
       <c r="X21" s="4" t="n"/>
       <c r="Y21" s="4" t="n"/>
+      <c r="Z21" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -2443,7 +2549,7 @@
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H22" s="7" t="n">
@@ -2487,7 +2593,7 @@
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2502,6 +2608,11 @@
       </c>
       <c r="X22" s="4" t="n"/>
       <c r="Y22" s="4" t="n"/>
+      <c r="Z22" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -2530,7 +2641,7 @@
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H23" s="7" t="n">
@@ -2574,7 +2685,7 @@
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -2589,6 +2700,11 @@
       </c>
       <c r="X23" s="4" t="n"/>
       <c r="Y23" s="4" t="n"/>
+      <c r="Z23" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -2617,7 +2733,7 @@
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H24" s="7" t="n">
@@ -2661,7 +2777,7 @@
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -2676,6 +2792,11 @@
       </c>
       <c r="X24" s="4" t="n"/>
       <c r="Y24" s="4" t="n"/>
+      <c r="Z24" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -2704,7 +2825,7 @@
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H25" s="7" t="n">
@@ -2748,7 +2869,7 @@
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -2763,6 +2884,11 @@
       </c>
       <c r="X25" s="4" t="n"/>
       <c r="Y25" s="4" t="n"/>
+      <c r="Z25" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -2852,6 +2978,11 @@
       <c r="Y26" s="4" t="n">
         <v>60</v>
       </c>
+      <c r="Z26" s="4" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -2941,6 +3072,11 @@
       <c r="Y27" s="4" t="n">
         <v>20</v>
       </c>
+      <c r="Z27" s="4" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -3030,6 +3166,11 @@
       <c r="Y28" s="4" t="n">
         <v>20</v>
       </c>
+      <c r="Z28" s="4" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -3058,7 +3199,7 @@
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H29" s="7" t="n">
@@ -3102,7 +3243,7 @@
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -3118,6 +3259,11 @@
       <c r="X29" s="4" t="n"/>
       <c r="Y29" s="4" t="n">
         <v>30.9</v>
+      </c>
+      <c r="Z29" s="4" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3147,7 +3293,7 @@
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H30" s="7" t="n">
@@ -3191,7 +3337,7 @@
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -3207,6 +3353,11 @@
       <c r="X30" s="4" t="n"/>
       <c r="Y30" s="4" t="n">
         <v>5.16</v>
+      </c>
+      <c r="Z30" s="4" t="inlineStr">
+        <is>
+          <t>件</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3236,7 +3387,7 @@
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H31" s="7" t="n">
@@ -3280,7 +3431,7 @@
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -3296,6 +3447,11 @@
       <c r="X31" s="4" t="n"/>
       <c r="Y31" s="4" t="n">
         <v>0.58</v>
+      </c>
+      <c r="Z31" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3325,7 +3481,7 @@
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H32" s="7" t="n">
@@ -3369,7 +3525,7 @@
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -3384,6 +3540,11 @@
       </c>
       <c r="X32" s="4" t="n"/>
       <c r="Y32" s="4" t="n"/>
+      <c r="Z32" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -3412,7 +3573,7 @@
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H33" s="7" t="n">
@@ -3456,7 +3617,7 @@
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -3471,6 +3632,11 @@
       </c>
       <c r="X33" s="4" t="n"/>
       <c r="Y33" s="4" t="n"/>
+      <c r="Z33" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -3499,7 +3665,7 @@
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H34" s="7" t="n">
@@ -3543,7 +3709,7 @@
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -3558,6 +3724,11 @@
       </c>
       <c r="X34" s="4" t="n"/>
       <c r="Y34" s="4" t="n"/>
+      <c r="Z34" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -3586,7 +3757,7 @@
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H35" s="7" t="n">
@@ -3630,7 +3801,7 @@
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -3645,6 +3816,11 @@
       </c>
       <c r="X35" s="4" t="n"/>
       <c r="Y35" s="4" t="n"/>
+      <c r="Z35" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -3673,7 +3849,7 @@
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H36" s="7" t="n">
@@ -3717,7 +3893,7 @@
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -3732,6 +3908,11 @@
       </c>
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="4" t="n"/>
+      <c r="Z36" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -3760,7 +3941,7 @@
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H37" s="7" t="n">
@@ -3804,7 +3985,7 @@
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -3819,6 +4000,11 @@
       </c>
       <c r="X37" s="4" t="n"/>
       <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -3847,7 +4033,7 @@
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H38" s="7" t="n">
@@ -3891,7 +4077,7 @@
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -3906,6 +4092,11 @@
       </c>
       <c r="X38" s="4" t="n"/>
       <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -3934,7 +4125,7 @@
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H39" s="7" t="n">
@@ -3978,7 +4169,7 @@
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -3993,6 +4184,11 @@
       </c>
       <c r="X39" s="4" t="n"/>
       <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -4021,7 +4217,7 @@
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H40" s="7" t="n">
@@ -4065,7 +4261,7 @@
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -4080,6 +4276,11 @@
       </c>
       <c r="X40" s="4" t="n"/>
       <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -4108,7 +4309,7 @@
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H41" s="7" t="n">
@@ -4152,7 +4353,7 @@
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -4168,6 +4369,11 @@
       <c r="X41" s="4" t="n"/>
       <c r="Y41" s="4" t="n">
         <v>7.54</v>
+      </c>
+      <c r="Z41" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -4197,7 +4403,7 @@
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H42" s="7" t="n">
@@ -4241,7 +4447,7 @@
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -4257,6 +4463,11 @@
       <c r="X42" s="4" t="n"/>
       <c r="Y42" s="4" t="n">
         <v>7.54</v>
+      </c>
+      <c r="Z42" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -4286,7 +4497,7 @@
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H43" s="7" t="n">
@@ -4330,7 +4541,7 @@
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -4346,6 +4557,11 @@
       <c r="X43" s="4" t="n"/>
       <c r="Y43" s="4" t="n">
         <v>11.08</v>
+      </c>
+      <c r="Z43" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -4375,7 +4591,7 @@
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H44" s="7" t="n">
@@ -4419,7 +4635,7 @@
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -4434,6 +4650,11 @@
       </c>
       <c r="X44" s="4" t="n"/>
       <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -4477,6 +4698,7 @@
       <c r="W45" s="4" t="n"/>
       <c r="X45" s="4" t="n"/>
       <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -647,28 +647,28 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>C100.030911007</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>Connector-XH2,54</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>XH2,54 端子，1包50个</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.00278765</v>
+        <v>15.334</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>7000</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
@@ -676,43 +676,43 @@
         </is>
       </c>
       <c r="H2" s="7" t="n">
-        <v>19.51355</v>
+        <v>46.002</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.02</v>
+        <v>110</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>0.02</v>
+        <v>115.5</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>147</v>
+        <v>346.5</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P2" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>2.21</v>
+        <v>0.18</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>149.21</v>
+        <v>346.68</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>0.02</v>
+        <v>115.56</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>0</v>
+        <v>16.11</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
@@ -721,17 +721,17 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="Z2" s="4" t="inlineStr">
         <is>
@@ -741,72 +741,72 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>E100.020310014</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>E100.020310014</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>10.8732</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>C100.030911008</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Connector-VH3.96</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>VH3.96 端子，1包50个</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>0.00696913</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>3000</v>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
-        <v>20.90739</v>
+        <v>21.7464</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.05</v>
+        <v>78</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>0.05</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>157.5</v>
+        <v>163.8</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0.95</v>
+        <v>0.08</v>
       </c>
       <c r="R3" s="7" t="n">
-        <v>158.45</v>
+        <v>163.88</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>0.05</v>
+        <v>81.94</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>0.01</v>
+        <v>11.42</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X3" s="4" t="n"/>
@@ -833,35 +833,28 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>Milling cutter</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.69691268</v>
+        <v>10.8732</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>450</v>
+        <v>1</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
@@ -869,43 +862,43 @@
         </is>
       </c>
       <c r="H4" s="7" t="n">
-        <v>313.610706</v>
+        <v>10.8732</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>2.33</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>2250</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>5.25</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>2362.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>4.33</v>
+        <v>0.03</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>2366.83</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>5.26</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.73</v>
+        <v>11.42</v>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
@@ -914,18 +907,16 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X4" s="4" t="n"/>
-      <c r="Y4" s="4" t="n">
-        <v>2.42</v>
-      </c>
+      <c r="Y4" s="4" t="n"/>
       <c r="Z4" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -934,506 +925,494 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>C100.C09-004-01-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>Adhesive tape-13.3mm*200m</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>13.3mm*200m/
-JL62 13.3*200
-230415455Y8212
-self-adhesive upper cover material Film</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.67969893</v>
+        <v>15.334</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H5" s="7" t="n">
-        <v>110.3909679</v>
+        <v>46.002</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>26.4</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>792</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>27.72</v>
+        <v>115.5</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>831.6</v>
+        <v>346.5</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>13</v>
+        <v>0.26</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>844.6</v>
+        <v>346.76</v>
       </c>
       <c r="S5" s="7" t="n">
-        <v>28.15</v>
+        <v>115.59</v>
       </c>
       <c r="T5" s="7" t="n">
-        <v>3.92</v>
+        <v>16.11</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n">
-        <v>10.24</v>
+        <v>1.88</v>
       </c>
       <c r="Z5" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>C100.010503001</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Adhesive tape-21.3mm 200M/roll</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
-21.3mm 200M/卷</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.28615235</v>
+        <v>3.15044</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H6" s="7" t="n">
-        <v>37.7169141</v>
+        <v>315.044</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>45.1</v>
+        <v>22.6</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>270.6</v>
+        <v>2260</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>47.36</v>
+        <v>23.73</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>284.13</v>
+        <v>2373</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P6" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>5.57</v>
+        <v>0.33</v>
       </c>
       <c r="R6" s="7" t="n">
-        <v>289.7</v>
+        <v>2373.33</v>
       </c>
       <c r="S6" s="7" t="n">
-        <v>48.28</v>
+        <v>23.73</v>
       </c>
       <c r="T6" s="7" t="n">
-        <v>6.73</v>
+        <v>3.31</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X6" s="4" t="n"/>
-      <c r="Y6" s="4" t="n"/>
+      <c r="Y6" s="4" t="n">
+        <v>4.3</v>
+      </c>
       <c r="Z6" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>SMT carrier tape-200M/roll</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17.78521151</v>
+        <v>0.11152</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3</v>
+        <v>137</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H7" s="7" t="n">
-        <v>53.35563453</v>
+        <v>15.27824</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>5.82</v>
+        <v>2.1</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>127.6</v>
+        <v>0.8</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>382.8</v>
+        <v>109.6</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>133.98</v>
+        <v>0.84</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>401.94</v>
+        <v>115.08</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>10.81</v>
+        <v>0.35</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>412.75</v>
+        <v>115.43</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>137.58</v>
+        <v>0.84</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>19.18</v>
+        <v>0.12</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n">
-        <v>6.92</v>
-      </c>
+      <c r="Y7" s="4" t="n"/>
       <c r="Z7" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>SMT carrier tape-200M/roll</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17.78521151</v>
+        <v>158.916</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H8" s="7" t="n">
-        <v>71.14084604</v>
+        <v>158.916</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>127.6</v>
+        <v>1140</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>510.4</v>
+        <v>1140</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>133.98</v>
+        <v>1197</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>535.92</v>
+        <v>1197</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>17.09</v>
+        <v>0.49</v>
       </c>
       <c r="R8" s="7" t="n">
-        <v>553.01</v>
+        <v>1197.49</v>
       </c>
       <c r="S8" s="7" t="n">
-        <v>138.25</v>
+        <v>1197.49</v>
       </c>
       <c r="T8" s="7" t="n">
-        <v>19.27</v>
+        <v>166.93</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X8" s="4" t="n"/>
       <c r="Y8" s="4" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="Z8" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>C100.010523004</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>SMT carrier tape-400M/roll</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24.53132622</v>
+        <v>32.062</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H9" s="7" t="n">
-        <v>49.06265244</v>
+        <v>32.062</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5.69</v>
+        <v>5</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>352</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>184.8</v>
+        <v>241.5</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>369.6</v>
+        <v>241.5</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>10.57</v>
+        <v>0.82</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>380.17</v>
+        <v>242.32</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>190.08</v>
+        <v>242.32</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>26.49</v>
+        <v>33.78</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n">
-        <v>5.84</v>
-      </c>
+      <c r="Y9" s="4" t="n"/>
       <c r="Z9" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-05-01</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-K-5mm</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-K
-3.刀口宽度：5mm</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.69691268</v>
+        <v>25.789</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
@@ -1441,43 +1420,43 @@
         </is>
       </c>
       <c r="H10" s="7" t="n">
-        <v>324.0643962</v>
+        <v>77.367</v>
       </c>
       <c r="I10" s="7" t="n">
-        <v>2.56</v>
+        <v>5</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>2325</v>
+        <v>555</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>5.25</v>
+        <v>194.25</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>2441.25</v>
+        <v>582.75</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>4.75</v>
+        <v>0.82</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>2446</v>
+        <v>583.5700000000001</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>5.26</v>
+        <v>194.52</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>0.73</v>
+        <v>27.12</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1486,18 +1465,16 @@
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n">
-        <v>10.08</v>
-      </c>
+      <c r="Y10" s="4" t="n"/>
       <c r="Z10" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -1506,30 +1483,28 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Point Bit-900M-T-B-1.2mm</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.69691268</v>
+        <v>48.79</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
@@ -1537,43 +1512,43 @@
         </is>
       </c>
       <c r="H11" s="7" t="n">
-        <v>348.45634</v>
+        <v>243.95</v>
       </c>
       <c r="I11" s="7" t="n">
-        <v>2.75</v>
+        <v>1.23</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>5.25</v>
+        <v>367.5</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>2625</v>
+        <v>1837.5</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>5.11</v>
+        <v>0.2</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>2630.11</v>
+        <v>1837.7</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>5.26</v>
+        <v>367.54</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>0.73</v>
+        <v>51.24</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1582,16 +1557,18 @@
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n">
+        <v>1.44</v>
+      </c>
       <c r="Z11" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -1600,28 +1577,28 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-4C</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>546</v>
+        <v>30</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
@@ -1629,40 +1606,40 @@
         </is>
       </c>
       <c r="H12" s="7" t="n">
-        <v>380.51432328</v>
+        <v>20.91</v>
       </c>
       <c r="I12" s="7" t="n">
-        <v>3</v>
+        <v>0.15</v>
       </c>
       <c r="J12" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>2730</v>
+        <v>150</v>
       </c>
       <c r="L12" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>2866.5</v>
+        <v>157.5</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O12" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>5.57</v>
+        <v>0.02</v>
       </c>
       <c r="R12" s="7" t="n">
-        <v>2872.07</v>
+        <v>157.52</v>
       </c>
       <c r="S12" s="7" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="T12" s="7" t="n">
         <v>0.73</v>
@@ -1674,16 +1651,18 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
+      <c r="Y12" s="4" t="n">
+        <v>7.55</v>
+      </c>
       <c r="Z12" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -1692,28 +1671,28 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Solder tip-900M-T-2C</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
@@ -1721,40 +1700,40 @@
         </is>
       </c>
       <c r="H13" s="7" t="n">
-        <v>27.8765072</v>
+        <v>348.5</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>0.22</v>
+        <v>2.5</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>210</v>
+        <v>2625</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>0.41</v>
       </c>
       <c r="R13" s="7" t="n">
-        <v>210.41</v>
+        <v>2625.41</v>
       </c>
       <c r="S13" s="7" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="T13" s="7" t="n">
         <v>0.73</v>
@@ -1766,12 +1745,12 @@
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X13" s="4" t="n"/>
@@ -1784,28 +1763,28 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Solder tip-900-T-1.2D</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.69691268</v>
+        <v>0.697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
@@ -1813,40 +1792,40 @@
         </is>
       </c>
       <c r="H14" s="7" t="n">
-        <v>27.8765072</v>
+        <v>278.8</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>0.22</v>
+        <v>2</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q14" s="7" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="R14" s="7" t="n">
-        <v>210.41</v>
+        <v>2100.33</v>
       </c>
       <c r="S14" s="7" t="n">
-        <v>5.26</v>
+        <v>5.25</v>
       </c>
       <c r="T14" s="7" t="n">
         <v>0.73</v>
@@ -1858,12 +1837,12 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X14" s="4" t="n"/>
@@ -1876,28 +1855,28 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>Soldering sponge-size:60mm X 55mm</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>size:60mm X 55mm</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.13798871</v>
+        <v>0.697</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
@@ -1905,43 +1884,43 @@
         </is>
       </c>
       <c r="H15" s="7" t="n">
-        <v>34.4971775</v>
+        <v>27.88</v>
       </c>
       <c r="I15" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="J15" s="7" t="n">
-        <v>0.99</v>
+        <v>5</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>247.5</v>
+        <v>200</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>1.04</v>
+        <v>5.25</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>259.88</v>
+        <v>210</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q15" s="7" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="R15" s="7" t="n">
-        <v>260.25</v>
+        <v>210.03</v>
       </c>
       <c r="S15" s="7" t="n">
-        <v>1.04</v>
+        <v>5.25</v>
       </c>
       <c r="T15" s="7" t="n">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
@@ -1950,12 +1929,12 @@
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X15" s="4" t="n"/>
@@ -1968,122 +1947,120 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-019-05-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>L*W 4*4CM 400pcs/bog</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.10063419</v>
+        <v>0.4182</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H16" s="7" t="n">
-        <v>410.063419</v>
+        <v>16.728</v>
       </c>
       <c r="I16" s="7" t="n">
-        <v>40.3</v>
+        <v>0.2</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>29.42</v>
+        <v>3</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>2942</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>30.89</v>
+        <v>3.15</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>3089.1</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q16" s="7" t="n">
-        <v>74.84</v>
+        <v>0.03</v>
       </c>
       <c r="R16" s="7" t="n">
-        <v>3163.94</v>
+        <v>126.03</v>
       </c>
       <c r="S16" s="7" t="n">
-        <v>31.64</v>
+        <v>3.15</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n">
-        <v>40.6</v>
-      </c>
+      <c r="Y16" s="4" t="n"/>
       <c r="Z16" s="4" t="inlineStr">
         <is>
-          <t>包</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30x75x4.0x1</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>6.30x75x4.0x1</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.16728</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
@@ -2091,43 +2068,43 @@
         </is>
       </c>
       <c r="H17" s="7" t="n">
-        <v>73.59398</v>
+        <v>23.4192</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>3.36</v>
+        <v>0.7</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>528</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>554.4</v>
+        <v>176.4</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>6.24</v>
+        <v>0.12</v>
       </c>
       <c r="R17" s="7" t="n">
-        <v>560.64</v>
+        <v>176.52</v>
       </c>
       <c r="S17" s="7" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="T17" s="7" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2136,18 +2113,16 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n">
-        <v>15</v>
-      </c>
+      <c r="Y17" s="4" t="n"/>
       <c r="Z17" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -2156,28 +2131,28 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X3.0</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>6.30X75X3.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.138006</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
@@ -2185,43 +2160,43 @@
         </is>
       </c>
       <c r="H18" s="7" t="n">
-        <v>72.67405524999999</v>
+        <v>34.5015</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>3.31</v>
+        <v>1.25</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>521.4</v>
+        <v>247.5</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>547.47</v>
+        <v>259.88</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>6.15</v>
+        <v>0.21</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>553.62</v>
+        <v>260.08</v>
       </c>
       <c r="S18" s="7" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2230,12 +2205,12 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X18" s="4" t="n"/>
@@ -2248,28 +2223,28 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X3.5</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>6.30X75X3.5</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
@@ -2277,43 +2252,43 @@
         </is>
       </c>
       <c r="H19" s="7" t="n">
-        <v>73.59398</v>
+        <v>71.395104</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="J19" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>528</v>
+        <v>512.16</v>
       </c>
       <c r="L19" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>554.4</v>
+        <v>537.77</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O19" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>6.24</v>
+        <v>0.58</v>
       </c>
       <c r="R19" s="7" t="n">
-        <v>560.64</v>
+        <v>538.34</v>
       </c>
       <c r="S19" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T19" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2322,16 +2297,18 @@
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
+      <c r="Y19" s="4" t="n">
+        <v>20</v>
+      </c>
       <c r="Z19" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -2340,28 +2317,28 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75X2.5X1</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>6.30X75X2.5X1</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
@@ -2369,43 +2346,43 @@
         </is>
       </c>
       <c r="H20" s="7" t="n">
-        <v>36.79699</v>
+        <v>84.091656</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>1.68</v>
+        <v>4.11</v>
       </c>
       <c r="J20" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>264</v>
+        <v>603.24</v>
       </c>
       <c r="L20" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>277.2</v>
+        <v>633.4</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O20" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>3.12</v>
+        <v>0.68</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>280.32</v>
+        <v>634.08</v>
       </c>
       <c r="S20" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T20" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
@@ -2414,12 +2391,12 @@
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X20" s="4" t="n"/>
@@ -2432,28 +2409,28 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT6</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>6.30X75XT6</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
@@ -2461,43 +2438,43 @@
         </is>
       </c>
       <c r="H21" s="7" t="n">
-        <v>16.5586455</v>
+        <v>84.27566400000001</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>0.75</v>
+        <v>4.12</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>118.8</v>
+        <v>604.5599999999999</v>
       </c>
       <c r="L21" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>124.74</v>
+        <v>634.79</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q21" s="7" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="R21" s="7" t="n">
+        <v>635.47</v>
+      </c>
+      <c r="S21" s="7" t="n">
         <v>1.39</v>
       </c>
-      <c r="R21" s="7" t="n">
-        <v>126.13</v>
-      </c>
-      <c r="S21" s="7" t="n">
-        <v>1.4</v>
-      </c>
       <c r="T21" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
@@ -2506,12 +2483,12 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X21" s="4" t="n"/>
@@ -2524,28 +2501,28 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT7</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>6.30X75XT7</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
@@ -2553,43 +2530,43 @@
         </is>
       </c>
       <c r="H22" s="7" t="n">
-        <v>11.039097</v>
+        <v>52.810296</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>0.5</v>
+        <v>2.58</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>79.2</v>
+        <v>378.84</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>83.16</v>
+        <v>397.78</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P22" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q22" s="7" t="n">
-        <v>0.93</v>
+        <v>0.43</v>
       </c>
       <c r="R22" s="7" t="n">
-        <v>84.09</v>
+        <v>398.21</v>
       </c>
       <c r="S22" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T22" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
@@ -2598,12 +2575,12 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X22" s="4" t="n"/>
@@ -2616,28 +2593,28 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X75XT8</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>6.30X75XT8</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
@@ -2645,43 +2622,43 @@
         </is>
       </c>
       <c r="H23" s="7" t="n">
-        <v>9.1992475</v>
+        <v>7.36032</v>
       </c>
       <c r="I23" s="7" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J23" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>66</v>
+        <v>52.8</v>
       </c>
       <c r="L23" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>69.3</v>
+        <v>55.44</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O23" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P23" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>0.78</v>
+        <v>0.06</v>
       </c>
       <c r="R23" s="7" t="n">
-        <v>70.08</v>
+        <v>55.5</v>
       </c>
       <c r="S23" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T23" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
@@ -2690,12 +2667,12 @@
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X23" s="4" t="n"/>
@@ -2708,28 +2685,28 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Screw Bit-6.30X100X3.8XT9</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT9</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
@@ -2737,43 +2714,43 @@
         </is>
       </c>
       <c r="H24" s="7" t="n">
-        <v>9.1992475</v>
+        <v>11.04048</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="J24" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>66</v>
+        <v>79.2</v>
       </c>
       <c r="L24" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>69.3</v>
+        <v>83.16</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O24" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>0.78</v>
+        <v>0.09</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>70.08</v>
+        <v>83.25</v>
       </c>
       <c r="S24" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T24" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
@@ -2782,12 +2759,12 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X24" s="4" t="n"/>
@@ -2800,28 +2777,28 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>Screw bit-6.30X100X3.8XT10</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT10</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.18398495</v>
+        <v>0.184008</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
@@ -2829,43 +2806,43 @@
         </is>
       </c>
       <c r="H25" s="7" t="n">
-        <v>20.2383445</v>
+        <v>9.2004</v>
       </c>
       <c r="I25" s="7" t="n">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="J25" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>145.2</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>152.46</v>
+        <v>69.3</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O25" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P25" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q25" s="7" t="n">
-        <v>1.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R25" s="7" t="n">
-        <v>154.17</v>
+        <v>69.37</v>
       </c>
       <c r="S25" s="7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T25" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
@@ -2874,12 +2851,12 @@
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X25" s="4" t="n"/>
@@ -2892,495 +2869,491 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>E100.019100006</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Conveyor Belt-50.60 mtrX300 mm</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>50.60 mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" s="5" t="n">
-        <v>153.79468953</v>
+        <v>0.184008</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="G26" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H26" s="7" t="n">
-        <v>461.38406859</v>
+        <v>9.2004</v>
       </c>
       <c r="I26" s="7" t="n">
-        <v>57</v>
+        <v>0.45</v>
       </c>
       <c r="J26" s="7" t="n">
-        <v>1103.4</v>
+        <v>1.32</v>
       </c>
       <c r="K26" s="7" t="n">
-        <v>3310.2</v>
+        <v>66</v>
       </c>
       <c r="L26" s="7" t="n">
-        <v>1158.57</v>
+        <v>1.39</v>
       </c>
       <c r="M26" s="7" t="n">
-        <v>3475.71</v>
+        <v>69.3</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O26" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P26" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q26" s="7" t="n">
-        <v>105.86</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R26" s="7" t="n">
-        <v>3581.57</v>
+        <v>69.37</v>
       </c>
       <c r="S26" s="7" t="n">
-        <v>1193.86</v>
+        <v>1.39</v>
       </c>
       <c r="T26" s="7" t="n">
-        <v>166.4</v>
+        <v>0.19</v>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n">
-        <v>60</v>
-      </c>
+      <c r="Y26" s="4" t="n"/>
       <c r="Z26" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>E100.019100007</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Conveyor Belt-50.20mtrx400 mm</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>50.20mtrx400 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E27" s="5" t="n">
-        <v>203.47062513</v>
+        <v>0.184008</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H27" s="7" t="n">
-        <v>203.47062513</v>
+        <v>20.24088</v>
       </c>
       <c r="I27" s="7" t="n">
-        <v>19</v>
+        <v>0.99</v>
       </c>
       <c r="J27" s="7" t="n">
-        <v>1459.8</v>
+        <v>1.32</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>1459.8</v>
+        <v>145.2</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>1532.79</v>
+        <v>1.39</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>1532.79</v>
+        <v>152.46</v>
       </c>
       <c r="N27" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O27" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P27" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q27" s="7" t="n">
-        <v>35.29</v>
+        <v>0.16</v>
       </c>
       <c r="R27" s="7" t="n">
-        <v>1568.08</v>
+        <v>152.62</v>
       </c>
       <c r="S27" s="7" t="n">
-        <v>1568.08</v>
+        <v>1.39</v>
       </c>
       <c r="T27" s="7" t="n">
-        <v>218.56</v>
+        <v>0.19</v>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y27" s="4" t="n"/>
       <c r="Z27" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>E100.019100008</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Conveyor Belt-40.5mtrX300 mm</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>40.5mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>123.06084048</v>
+        <v>2.06312</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>1</v>
+        <v>2040</v>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H28" s="7" t="n">
-        <v>123.06084048</v>
+        <v>4208.7648</v>
       </c>
       <c r="I28" s="7" t="n">
-        <v>19</v>
+        <v>1200</v>
       </c>
       <c r="J28" s="7" t="n">
-        <v>882.9</v>
+        <v>14.8</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>882.9</v>
+        <v>30192</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>927.04</v>
+        <v>15.54</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>927.04</v>
+        <v>31701.6</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O28" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q28" s="7" t="n">
-        <v>35.29</v>
+        <v>197.9</v>
       </c>
       <c r="R28" s="7" t="n">
-        <v>962.33</v>
+        <v>31899.5</v>
       </c>
       <c r="S28" s="7" t="n">
-        <v>962.33</v>
+        <v>15.64</v>
       </c>
       <c r="T28" s="7" t="n">
-        <v>134.13</v>
+        <v>2.18</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Daman</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X28" s="4" t="n"/>
       <c r="Y28" s="4" t="n">
-        <v>20</v>
+        <v>17.71</v>
       </c>
       <c r="Z28" s="4" t="inlineStr">
         <is>
-          <t>条</t>
+          <t>卷</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>97.56777476000001</v>
+        <v>1.01762</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>6</v>
+        <v>2800</v>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H29" s="7" t="n">
-        <v>585.40664856</v>
+        <v>2849.336</v>
       </c>
       <c r="I29" s="7" t="n">
-        <v>30.52</v>
+        <v>866</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>700</v>
+        <v>7.3</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>4200</v>
+        <v>20440</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>735</v>
+        <v>7.66</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>4410</v>
+        <v>21462</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q29" s="7" t="n">
-        <v>56.68</v>
+        <v>142.82</v>
       </c>
       <c r="R29" s="7" t="n">
-        <v>4466.68</v>
+        <v>21604.82</v>
       </c>
       <c r="S29" s="7" t="n">
-        <v>744.45</v>
+        <v>7.72</v>
       </c>
       <c r="T29" s="7" t="n">
-        <v>103.76</v>
+        <v>1.08</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X29" s="4" t="n"/>
       <c r="Y29" s="4" t="n">
-        <v>30.9</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>卷</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97.56777476000001</v>
+        <v>80.852</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H30" s="7" t="n">
-        <v>97.56777476000001</v>
+        <v>161.704</v>
       </c>
       <c r="I30" s="7" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>700</v>
+        <v>580</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>700</v>
+        <v>1160</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>735</v>
+        <v>609</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>735</v>
+        <v>1218</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O30" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q30" s="7" t="n">
-        <v>9.289999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="R30" s="7" t="n">
-        <v>744.29</v>
+        <v>1218.05</v>
       </c>
       <c r="S30" s="7" t="n">
-        <v>744.29</v>
+        <v>609.02</v>
       </c>
       <c r="T30" s="7" t="n">
-        <v>103.74</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X30" s="4" t="n"/>
       <c r="Y30" s="4" t="n">
-        <v>5.16</v>
+        <v>1</v>
       </c>
       <c r="Z30" s="4" t="inlineStr">
         <is>
-          <t>件</t>
+          <t>个</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>E100.0203133015</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Positioning pin-FW07014AA</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>FW07014AA</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1.10251585</v>
+        <v>11.152</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>5</v>
@@ -3391,43 +3364,43 @@
         </is>
       </c>
       <c r="H31" s="7" t="n">
-        <v>5.51257925</v>
+        <v>55.76</v>
       </c>
       <c r="I31" s="7" t="n">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>7.91</v>
+        <v>80</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>39.55</v>
+        <v>400</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>8.31</v>
+        <v>84</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>41.53</v>
+        <v>420</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O31" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q31" s="7" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R31" s="7" t="n">
-        <v>41.62</v>
+        <v>420.1</v>
       </c>
       <c r="S31" s="7" t="n">
-        <v>8.32</v>
+        <v>84.02</v>
       </c>
       <c r="T31" s="7" t="n">
-        <v>1.16</v>
+        <v>11.71</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3436,18 +3409,16 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n">
-        <v>0.58</v>
-      </c>
+      <c r="Y31" s="4" t="n"/>
       <c r="Z31" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -3456,488 +3427,498 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104009</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Fuse holder-plastic</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>排料机保险丝座</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2.78765071</v>
+        <v>161.704</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H32" s="7" t="n">
-        <v>13.93825355</v>
+        <v>485.112</v>
       </c>
       <c r="I32" s="7" t="n">
-        <v>0.05</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>20</v>
+        <v>1160</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>100</v>
+        <v>3480</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>21</v>
+        <v>1218</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>105</v>
+        <v>3654</v>
       </c>
       <c r="N32" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O32" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q32" s="7" t="n">
-        <v>0.09</v>
+        <v>10.9</v>
       </c>
       <c r="R32" s="7" t="n">
-        <v>105.09</v>
+        <v>3664.9</v>
       </c>
       <c r="S32" s="7" t="n">
-        <v>21.02</v>
+        <v>1221.63</v>
       </c>
       <c r="T32" s="7" t="n">
-        <v>2.93</v>
+        <v>170.3</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n"/>
+      <c r="Y32" s="4" t="n">
+        <v>34.24</v>
+      </c>
       <c r="Z32" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104007</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Metal cutters for feeder-triangle</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>排料机三角刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E33" s="5" t="n">
-        <v>9.75677748</v>
+        <v>181.22</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H33" s="7" t="n">
-        <v>19.51355496</v>
+        <v>2174.64</v>
       </c>
       <c r="I33" s="7" t="n">
-        <v>0.02</v>
+        <v>34</v>
       </c>
       <c r="J33" s="7" t="n">
-        <v>70</v>
+        <v>1300</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>140</v>
+        <v>15600</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>73.5</v>
+        <v>1365</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>147</v>
+        <v>16380</v>
       </c>
       <c r="N33" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O33" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q33" s="7" t="n">
-        <v>0.04</v>
+        <v>5.61</v>
       </c>
       <c r="R33" s="7" t="n">
-        <v>147.04</v>
+        <v>16385.61</v>
       </c>
       <c r="S33" s="7" t="n">
-        <v>73.52</v>
+        <v>1365.47</v>
       </c>
       <c r="T33" s="7" t="n">
-        <v>10.25</v>
+        <v>190.35</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="4" t="n"/>
+      <c r="Y33" s="4" t="n">
+        <v>34.91</v>
+      </c>
       <c r="Z33" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104017</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Metal cutters for feeder</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>排料机送料器切刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.78765071</v>
+        <v>41.82</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H34" s="7" t="n">
-        <v>13.93825355</v>
+        <v>376.38</v>
       </c>
       <c r="I34" s="7" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>100</v>
+        <v>2700</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>105</v>
+        <v>2835</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O34" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q34" s="7" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>105.09</v>
+        <v>2835</v>
       </c>
       <c r="S34" s="7" t="n">
-        <v>21.02</v>
+        <v>315</v>
       </c>
       <c r="T34" s="7" t="n">
-        <v>2.93</v>
+        <v>43.91</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X34" s="4" t="n"/>
-      <c r="Y34" s="4" t="n"/>
+      <c r="Y34" s="4" t="n">
+        <v>10.63</v>
+      </c>
       <c r="Z34" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>套</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162160</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>Threaded rod-WS1D-08004</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>WS1D-08004</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.78765071</v>
+        <v>473.96</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H35" s="7" t="n">
-        <v>13.93825355</v>
+        <v>4739.6</v>
       </c>
       <c r="I35" s="7" t="n">
-        <v>0.05</v>
+        <v>270</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>20</v>
+        <v>3400</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>100</v>
+        <v>34000</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>21</v>
+        <v>3570</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>105</v>
+        <v>35700</v>
       </c>
       <c r="N35" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O35" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q35" s="7" t="n">
-        <v>0.09</v>
+        <v>44.53</v>
       </c>
       <c r="R35" s="7" t="n">
-        <v>105.09</v>
+        <v>35744.53</v>
       </c>
       <c r="S35" s="7" t="n">
-        <v>21.02</v>
+        <v>3574.45</v>
       </c>
       <c r="T35" s="7" t="n">
-        <v>2.93</v>
+        <v>498.28</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X35" s="4" t="n"/>
-      <c r="Y35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n">
+        <v>37</v>
+      </c>
       <c r="Z35" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162100</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>Screw-M5x12 WJ-10509</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10509</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.13938254</v>
+        <v>717.91</v>
       </c>
       <c r="F36" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H36" s="7" t="n">
-        <v>2.7876508</v>
+        <v>7179.1</v>
       </c>
       <c r="I36" s="7" t="n">
-        <v>0.1</v>
+        <v>440</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>1</v>
+        <v>5150</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>20</v>
+        <v>51500</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>1.05</v>
+        <v>5407.5</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>21</v>
+        <v>54075</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O36" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q36" s="7" t="n">
-        <v>0.19</v>
+        <v>72.56</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>21.19</v>
+        <v>54147.56</v>
       </c>
       <c r="S36" s="7" t="n">
-        <v>1.06</v>
+        <v>5414.76</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>0.15</v>
+        <v>754.8200000000001</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X36" s="4" t="n"/>
-      <c r="Y36" s="4" t="n"/>
+      <c r="Y36" s="4" t="n">
+        <v>54</v>
+      </c>
       <c r="Z36" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162049</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Screw-M3X12 WJ-10301</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10301</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.13938254</v>
+        <v>130.339</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
@@ -3945,43 +3926,43 @@
         </is>
       </c>
       <c r="H37" s="7" t="n">
-        <v>2.7876508</v>
+        <v>130.339</v>
       </c>
       <c r="I37" s="7" t="n">
-        <v>0.1</v>
+        <v>15</v>
       </c>
       <c r="J37" s="7" t="n">
-        <v>1</v>
+        <v>935</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>20</v>
+        <v>935</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>1.05</v>
+        <v>981.75</v>
       </c>
       <c r="M37" s="7" t="n">
-        <v>21</v>
+        <v>981.75</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O37" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q37" s="7" t="n">
-        <v>0.19</v>
+        <v>2.47</v>
       </c>
       <c r="R37" s="7" t="n">
-        <v>21.19</v>
+        <v>984.22</v>
       </c>
       <c r="S37" s="7" t="n">
-        <v>1.06</v>
+        <v>984.22</v>
       </c>
       <c r="T37" s="7" t="n">
-        <v>0.15</v>
+        <v>137.2</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3990,16 +3971,18 @@
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X37" s="4" t="n"/>
-      <c r="Y37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n">
+        <v>15.16</v>
+      </c>
       <c r="Z37" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -4008,28 +3991,28 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162047</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Screw-LS1D-04026</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04026</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.13938254</v>
+        <v>3.0668</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
@@ -4037,43 +4020,43 @@
         </is>
       </c>
       <c r="H38" s="7" t="n">
-        <v>2.7876508</v>
+        <v>30.668</v>
       </c>
       <c r="I38" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>1.05</v>
+        <v>23.1</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O38" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q38" s="7" t="n">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
       <c r="R38" s="7" t="n">
-        <v>21.19</v>
+        <v>231.01</v>
       </c>
       <c r="S38" s="7" t="n">
-        <v>1.06</v>
+        <v>23.1</v>
       </c>
       <c r="T38" s="7" t="n">
-        <v>0.15</v>
+        <v>3.22</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -4082,16 +4065,18 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X38" s="4" t="n"/>
-      <c r="Y38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n">
+        <v>5</v>
+      </c>
       <c r="Z38" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -4100,28 +4085,28 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162043</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Metal block-LS1D-04021</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04021</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E39" s="5" t="n">
-        <v>30.38539271</v>
+        <v>48.79</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
@@ -4129,43 +4114,43 @@
         </is>
       </c>
       <c r="H39" s="7" t="n">
-        <v>30.38539271</v>
+        <v>243.95</v>
       </c>
       <c r="I39" s="7" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J39" s="7" t="n">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>218</v>
+        <v>1750</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>228.9</v>
+        <v>367.5</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>228.9</v>
+        <v>1837.5</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O39" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q39" s="7" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R39" s="7" t="n">
-        <v>228.92</v>
+        <v>1837.51</v>
       </c>
       <c r="S39" s="7" t="n">
-        <v>228.92</v>
+        <v>367.5</v>
       </c>
       <c r="T39" s="7" t="n">
-        <v>31.91</v>
+        <v>51.23</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -4174,12 +4159,12 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X39" s="4" t="n"/>
@@ -4192,28 +4177,28 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>E100.020344000</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>Screw -LS1D-07037</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>LS1D-07037</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0.13938254</v>
+        <v>1.1152</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
@@ -4221,43 +4206,43 @@
         </is>
       </c>
       <c r="H40" s="7" t="n">
-        <v>13.938254</v>
+        <v>557.6</v>
       </c>
       <c r="I40" s="7" t="n">
-        <v>0.03</v>
+        <v>4.5</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K40" s="7" t="n">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>1.05</v>
+        <v>8.4</v>
       </c>
       <c r="M40" s="7" t="n">
-        <v>105</v>
+        <v>4200</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O40" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q40" s="7" t="n">
-        <v>0.06</v>
+        <v>0.74</v>
       </c>
       <c r="R40" s="7" t="n">
-        <v>105.06</v>
+        <v>4200.74</v>
       </c>
       <c r="S40" s="7" t="n">
-        <v>1.05</v>
+        <v>8.4</v>
       </c>
       <c r="T40" s="7" t="n">
-        <v>0.15</v>
+        <v>1.17</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4266,12 +4251,12 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X40" s="4" t="n"/>
@@ -4284,28 +4269,28 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>Stencil-DH 21_1341 B/T</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>DH 21_1341 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
-        <v>66.90361698</v>
+        <v>15.334</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
@@ -4313,43 +4298,43 @@
         </is>
       </c>
       <c r="H41" s="7" t="n">
-        <v>133.80723396</v>
+        <v>61.336</v>
       </c>
       <c r="I41" s="7" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>480</v>
+        <v>110</v>
       </c>
       <c r="K41" s="7" t="n">
-        <v>960</v>
+        <v>440</v>
       </c>
       <c r="L41" s="7" t="n">
-        <v>504</v>
+        <v>115.5</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>1008</v>
+        <v>462</v>
       </c>
       <c r="N41" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O41" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q41" s="7" t="n">
-        <v>13</v>
+        <v>0.01</v>
       </c>
       <c r="R41" s="7" t="n">
-        <v>1021</v>
+        <v>462.01</v>
       </c>
       <c r="S41" s="7" t="n">
-        <v>510.5</v>
+        <v>115.5</v>
       </c>
       <c r="T41" s="7" t="n">
-        <v>71.15000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4358,18 +4343,16 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X41" s="4" t="n"/>
-      <c r="Y41" s="4" t="n">
-        <v>7.54</v>
-      </c>
+      <c r="Y41" s="4" t="n"/>
       <c r="Z41" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -4378,28 +4361,28 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Stencil-DH 21_1340 B/T</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>DH 21_1340 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>66.90361698</v>
+        <v>25.99113</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
@@ -4407,43 +4390,43 @@
         </is>
       </c>
       <c r="H42" s="7" t="n">
-        <v>133.80723396</v>
+        <v>129.95565</v>
       </c>
       <c r="I42" s="7" t="n">
-        <v>7</v>
+        <v>0.04</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>480</v>
+        <v>186.45</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>960</v>
+        <v>932.25</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>504</v>
+        <v>195.77</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>1008</v>
+        <v>978.86</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O42" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q42" s="7" t="n">
-        <v>13</v>
+        <v>0.01</v>
       </c>
       <c r="R42" s="7" t="n">
-        <v>1021</v>
+        <v>978.87</v>
       </c>
       <c r="S42" s="7" t="n">
-        <v>510.5</v>
+        <v>195.77</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>71.15000000000001</v>
+        <v>27.29</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4452,18 +4435,16 @@
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X42" s="4" t="n"/>
-      <c r="Y42" s="4" t="n">
-        <v>7.54</v>
-      </c>
+      <c r="Y42" s="4" t="n"/>
       <c r="Z42" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -4472,25 +4453,25 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>D-panel Fixture-DH 21_1341 D/P</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>DH 21_1341 D/P</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E43" s="5" t="n">
-        <v>64.11596627</v>
+        <v>690.03</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>2</v>
@@ -4501,43 +4482,43 @@
         </is>
       </c>
       <c r="H43" s="7" t="n">
-        <v>128.23193254</v>
+        <v>1380.06</v>
       </c>
       <c r="I43" s="7" t="n">
-        <v>5</v>
+        <v>0.02</v>
       </c>
       <c r="J43" s="7" t="n">
-        <v>460</v>
+        <v>4950</v>
       </c>
       <c r="K43" s="7" t="n">
-        <v>920</v>
+        <v>9900</v>
       </c>
       <c r="L43" s="7" t="n">
-        <v>483</v>
+        <v>5197.5</v>
       </c>
       <c r="M43" s="7" t="n">
-        <v>966</v>
+        <v>10395</v>
       </c>
       <c r="N43" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O43" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P43" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q43" s="7" t="n">
-        <v>9.289999999999999</v>
+        <v>0</v>
       </c>
       <c r="R43" s="7" t="n">
-        <v>975.29</v>
+        <v>10395</v>
       </c>
       <c r="S43" s="7" t="n">
-        <v>487.64</v>
+        <v>5197.5</v>
       </c>
       <c r="T43" s="7" t="n">
-        <v>67.97</v>
+        <v>724.53</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4546,18 +4527,16 @@
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X43" s="4" t="n"/>
-      <c r="Y43" s="4" t="n">
-        <v>11.08</v>
-      </c>
+      <c r="Y43" s="4" t="n"/>
       <c r="Z43" s="4" t="inlineStr">
         <is>
           <t>个</t>
@@ -4566,28 +4545,28 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>D-panel Fixture-DH 21_1340 D/P</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>DH 21_1340 D/P</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E44" s="5" t="n">
-        <v>64.11596627</v>
+        <v>0.9061</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
@@ -4595,43 +4574,43 @@
         </is>
       </c>
       <c r="H44" s="7" t="n">
-        <v>128.23193254</v>
+        <v>9.061</v>
       </c>
       <c r="I44" s="7" t="n">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>460</v>
+        <v>6.5</v>
       </c>
       <c r="K44" s="7" t="n">
-        <v>920</v>
+        <v>65</v>
       </c>
       <c r="L44" s="7" t="n">
-        <v>483</v>
+        <v>6.82</v>
       </c>
       <c r="M44" s="7" t="n">
-        <v>966</v>
+        <v>68.25</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>19.33</v>
+        <v>113.01</v>
       </c>
       <c r="O44" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>1.86</v>
+        <v>0.16</v>
       </c>
       <c r="Q44" s="7" t="n">
-        <v>9.289999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="R44" s="7" t="n">
-        <v>975.29</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="S44" s="7" t="n">
-        <v>487.64</v>
+        <v>6.83</v>
       </c>
       <c r="T44" s="7" t="n">
-        <v>67.97</v>
+        <v>0.95</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4640,12 +4619,12 @@
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>Silvassa</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="X44" s="4" t="n"/>
@@ -4657,48 +4636,694 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
+      <c r="A45" s="3" t="n">
+        <v>54</v>
+      </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="n"/>
-      <c r="D45" s="4" t="n"/>
-      <c r="E45" s="5" t="n"/>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0.9061</v>
+      </c>
       <c r="F45" s="6" t="n">
-        <v>14394</v>
-      </c>
-      <c r="G45" s="4" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="G45" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
       <c r="H45" s="7" t="n">
-        <v>4666.436703130002</v>
+        <v>9.061</v>
       </c>
       <c r="I45" s="7" t="n">
-        <v>253.79</v>
-      </c>
-      <c r="J45" s="7" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J45" s="7" t="n">
+        <v>6.5</v>
+      </c>
       <c r="K45" s="7" t="n">
-        <v>33479.35000000001</v>
-      </c>
-      <c r="L45" s="7" t="n"/>
+        <v>65</v>
+      </c>
+      <c r="L45" s="7" t="n">
+        <v>6.82</v>
+      </c>
       <c r="M45" s="7" t="n">
-        <v>35153.32</v>
-      </c>
-      <c r="N45" s="7" t="n"/>
-      <c r="O45" s="7" t="n"/>
-      <c r="P45" s="7" t="n"/>
-      <c r="Q45" s="7" t="n"/>
+        <v>68.25</v>
+      </c>
+      <c r="N45" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O45" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P45" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q45" s="7" t="n">
+        <v>0.01</v>
+      </c>
       <c r="R45" s="7" t="n">
-        <v>35624.69</v>
-      </c>
-      <c r="S45" s="7" t="n"/>
-      <c r="T45" s="7" t="n"/>
-      <c r="U45" s="4" t="n"/>
-      <c r="V45" s="4" t="n"/>
-      <c r="W45" s="4" t="n"/>
+        <v>68.26000000000001</v>
+      </c>
+      <c r="S45" s="7" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="T45" s="7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U45" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V45" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W45" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
       <c r="X45" s="4" t="n"/>
       <c r="Y45" s="4" t="n"/>
-      <c r="Z45" s="4" t="n"/>
+      <c r="Z45" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H46" s="7" t="n">
+        <v>61.336</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J46" s="7" t="n">
+        <v>220</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>440</v>
+      </c>
+      <c r="L46" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="M46" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="N46" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O46" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P46" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q46" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="S46" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="T46" s="7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="U46" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V46" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W46" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H47" s="7" t="n">
+        <v>61.336</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J47" s="7" t="n">
+        <v>220</v>
+      </c>
+      <c r="K47" s="7" t="n">
+        <v>440</v>
+      </c>
+      <c r="L47" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="M47" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="N47" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O47" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P47" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q47" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="S47" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="T47" s="7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="U47" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V47" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W47" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C48" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H48" s="7" t="n">
+        <v>61.336</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J48" s="7" t="n">
+        <v>220</v>
+      </c>
+      <c r="K48" s="7" t="n">
+        <v>440</v>
+      </c>
+      <c r="L48" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="M48" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="N48" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O48" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P48" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q48" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="S48" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="T48" s="7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="U48" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W48" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C49" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>30.668</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="n">
+        <v>61.336</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J49" s="7" t="n">
+        <v>220</v>
+      </c>
+      <c r="K49" s="7" t="n">
+        <v>440</v>
+      </c>
+      <c r="L49" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="M49" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="N49" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O49" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P49" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q49" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="7" t="n">
+        <v>462</v>
+      </c>
+      <c r="S49" s="7" t="n">
+        <v>231</v>
+      </c>
+      <c r="T49" s="7" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="U49" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W49" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H50" s="7" t="n">
+        <v>91.4464</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J50" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="K50" s="7" t="n">
+        <v>656</v>
+      </c>
+      <c r="L50" s="7" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="M50" s="7" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="N50" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O50" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P50" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q50" s="7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="R50" s="7" t="n">
+        <v>689.49</v>
+      </c>
+      <c r="S50" s="7" t="n">
+        <v>344.75</v>
+      </c>
+      <c r="T50" s="7" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="U50" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z50" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H51" s="7" t="n">
+        <v>91.4464</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>656</v>
+      </c>
+      <c r="L51" s="7" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="M51" s="7" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="N51" s="7" t="n">
+        <v>113.01</v>
+      </c>
+      <c r="O51" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P51" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q51" s="7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R51" s="7" t="n">
+        <v>689.46</v>
+      </c>
+      <c r="S51" s="7" t="n">
+        <v>344.73</v>
+      </c>
+      <c r="T51" s="7" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="U51" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V51" s="4" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="5" t="n"/>
+      <c r="F52" s="6" t="n">
+        <v>9006</v>
+      </c>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="7" t="n">
+        <v>27278.25899</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>2950.96</v>
+      </c>
+      <c r="J52" s="7" t="n"/>
+      <c r="K52" s="7" t="n">
+        <v>195683.35</v>
+      </c>
+      <c r="L52" s="7" t="n"/>
+      <c r="M52" s="7" t="n">
+        <v>205467.52</v>
+      </c>
+      <c r="N52" s="7" t="n"/>
+      <c r="O52" s="7" t="n"/>
+      <c r="P52" s="7" t="n"/>
+      <c r="Q52" s="7" t="n"/>
+      <c r="R52" s="7" t="n">
+        <v>205954.12</v>
+      </c>
+      <c r="S52" s="7" t="n"/>
+      <c r="T52" s="7" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -510,7 +510,6 @@
     <col width="15" customWidth="1" min="23" max="23"/>
     <col width="15" customWidth="1" min="24" max="24"/>
     <col width="12" customWidth="1" min="25" max="25"/>
-    <col width="12" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,11 +638,6 @@
           <t>G.W (KG)</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Original_Unit</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -726,18 +720,13 @@
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n">
         <v>2.04</v>
       </c>
-      <c r="Z2" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -820,16 +809,11 @@
       </c>
       <c r="W3" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n"/>
-      <c r="Z3" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -912,16 +896,11 @@
       </c>
       <c r="W4" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
-      <c r="Z4" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -1004,18 +983,13 @@
       </c>
       <c r="W5" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="Z5" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -1098,18 +1072,13 @@
       </c>
       <c r="W6" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n">
         <v>4.3</v>
       </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -1192,16 +1161,11 @@
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X7" s="4" t="n"/>
       <c r="Y7" s="4" t="n"/>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -1284,18 +1248,13 @@
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X8" s="4" t="n"/>
       <c r="Y8" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="Z8" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -1378,16 +1337,11 @@
       </c>
       <c r="W9" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X9" s="4" t="n"/>
       <c r="Y9" s="4" t="n"/>
-      <c r="Z9" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -1470,16 +1424,11 @@
       </c>
       <c r="W10" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X10" s="4" t="n"/>
       <c r="Y10" s="4" t="n"/>
-      <c r="Z10" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -1562,18 +1511,13 @@
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X11" s="4" t="n"/>
       <c r="Y11" s="4" t="n">
         <v>1.44</v>
       </c>
-      <c r="Z11" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1656,18 +1600,13 @@
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X12" s="4" t="n"/>
       <c r="Y12" s="4" t="n">
         <v>7.55</v>
       </c>
-      <c r="Z12" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1750,16 +1689,11 @@
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X13" s="4" t="n"/>
       <c r="Y13" s="4" t="n"/>
-      <c r="Z13" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1842,16 +1776,11 @@
       </c>
       <c r="W14" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X14" s="4" t="n"/>
       <c r="Y14" s="4" t="n"/>
-      <c r="Z14" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1934,16 +1863,11 @@
       </c>
       <c r="W15" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X15" s="4" t="n"/>
       <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -2026,16 +1950,11 @@
       </c>
       <c r="W16" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X16" s="4" t="n"/>
       <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -2118,16 +2037,11 @@
       </c>
       <c r="W17" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X17" s="4" t="n"/>
       <c r="Y17" s="4" t="n"/>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -2210,16 +2124,11 @@
       </c>
       <c r="W18" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X18" s="4" t="n"/>
       <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -2302,18 +2211,13 @@
       </c>
       <c r="W19" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X19" s="4" t="n"/>
       <c r="Y19" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Z19" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -2396,16 +2300,11 @@
       </c>
       <c r="W20" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X20" s="4" t="n"/>
       <c r="Y20" s="4" t="n"/>
-      <c r="Z20" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -2488,16 +2387,11 @@
       </c>
       <c r="W21" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X21" s="4" t="n"/>
       <c r="Y21" s="4" t="n"/>
-      <c r="Z21" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -2580,16 +2474,11 @@
       </c>
       <c r="W22" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X22" s="4" t="n"/>
       <c r="Y22" s="4" t="n"/>
-      <c r="Z22" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -2672,16 +2561,11 @@
       </c>
       <c r="W23" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X23" s="4" t="n"/>
       <c r="Y23" s="4" t="n"/>
-      <c r="Z23" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -2764,16 +2648,11 @@
       </c>
       <c r="W24" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X24" s="4" t="n"/>
       <c r="Y24" s="4" t="n"/>
-      <c r="Z24" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -2856,16 +2735,11 @@
       </c>
       <c r="W25" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X25" s="4" t="n"/>
       <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -2948,16 +2822,11 @@
       </c>
       <c r="W26" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X26" s="4" t="n"/>
       <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -3040,16 +2909,11 @@
       </c>
       <c r="W27" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X27" s="4" t="n"/>
       <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -3132,18 +2996,13 @@
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X28" s="4" t="n"/>
       <c r="Y28" s="4" t="n">
         <v>17.71</v>
       </c>
-      <c r="Z28" s="4" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -3226,18 +3085,13 @@
       </c>
       <c r="W29" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X29" s="4" t="n"/>
       <c r="Y29" s="4" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z29" s="4" t="inlineStr">
-        <is>
-          <t>卷</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -3320,18 +3174,13 @@
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="X30" s="4" t="n"/>
       <c r="Y30" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="Z30" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -3414,16 +3263,11 @@
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X31" s="4" t="n"/>
       <c r="Y31" s="4" t="n"/>
-      <c r="Z31" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -3506,18 +3350,13 @@
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X32" s="4" t="n"/>
       <c r="Y32" s="4" t="n">
         <v>34.24</v>
       </c>
-      <c r="Z32" s="4" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -3600,18 +3439,13 @@
       </c>
       <c r="W33" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X33" s="4" t="n"/>
       <c r="Y33" s="4" t="n">
         <v>34.91</v>
       </c>
-      <c r="Z33" s="4" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -3694,18 +3528,13 @@
       </c>
       <c r="W34" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X34" s="4" t="n"/>
       <c r="Y34" s="4" t="n">
         <v>10.63</v>
       </c>
-      <c r="Z34" s="4" t="inlineStr">
-        <is>
-          <t>套</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -3788,18 +3617,13 @@
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="X35" s="4" t="n"/>
       <c r="Y35" s="4" t="n">
         <v>37</v>
       </c>
-      <c r="Z35" s="4" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -3882,18 +3706,13 @@
       </c>
       <c r="W36" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="4" t="n">
         <v>54</v>
       </c>
-      <c r="Z36" s="4" t="inlineStr">
-        <is>
-          <t>台</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -3976,18 +3795,13 @@
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X37" s="4" t="n"/>
       <c r="Y37" s="4" t="n">
         <v>15.16</v>
       </c>
-      <c r="Z37" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -4070,18 +3884,13 @@
       </c>
       <c r="W38" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X38" s="4" t="n"/>
       <c r="Y38" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="Z38" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -4164,16 +3973,11 @@
       </c>
       <c r="W39" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X39" s="4" t="n"/>
       <c r="Y39" s="4" t="n"/>
-      <c r="Z39" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -4256,16 +4060,11 @@
       </c>
       <c r="W40" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X40" s="4" t="n"/>
       <c r="Y40" s="4" t="n"/>
-      <c r="Z40" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -4348,16 +4147,11 @@
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X41" s="4" t="n"/>
       <c r="Y41" s="4" t="n"/>
-      <c r="Z41" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -4440,16 +4234,11 @@
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X42" s="4" t="n"/>
       <c r="Y42" s="4" t="n"/>
-      <c r="Z42" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -4532,16 +4321,11 @@
       </c>
       <c r="W43" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X43" s="4" t="n"/>
       <c r="Y43" s="4" t="n"/>
-      <c r="Z43" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -4624,16 +4408,11 @@
       </c>
       <c r="W44" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X44" s="4" t="n"/>
       <c r="Y44" s="4" t="n"/>
-      <c r="Z44" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -4716,16 +4495,11 @@
       </c>
       <c r="W45" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X45" s="4" t="n"/>
       <c r="Y45" s="4" t="n"/>
-      <c r="Z45" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -4808,16 +4582,11 @@
       </c>
       <c r="W46" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X46" s="4" t="n"/>
       <c r="Y46" s="4" t="n"/>
-      <c r="Z46" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -4900,16 +4669,11 @@
       </c>
       <c r="W47" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X47" s="4" t="n"/>
       <c r="Y47" s="4" t="n"/>
-      <c r="Z47" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -4992,16 +4756,11 @@
       </c>
       <c r="W48" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X48" s="4" t="n"/>
       <c r="Y48" s="4" t="n"/>
-      <c r="Z48" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -5084,16 +4843,11 @@
       </c>
       <c r="W49" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X49" s="4" t="n"/>
       <c r="Y49" s="4" t="n"/>
-      <c r="Z49" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -5176,18 +4930,13 @@
       </c>
       <c r="W50" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X50" s="4" t="n"/>
       <c r="Y50" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="Z50" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -5270,16 +5019,11 @@
       </c>
       <c r="W51" s="4" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X51" s="4" t="n"/>
       <c r="Y51" s="4" t="n"/>
-      <c r="Z51" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
@@ -5323,7 +5067,6 @@
       <c r="W52" s="4" t="n"/>
       <c r="X52" s="4" t="n"/>
       <c r="Y52" s="4" t="n"/>
-      <c r="Z52" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -641,16 +641,16 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="E2" s="5" t="n">
-        <v>15.334</v>
+        <v>0.697</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
@@ -670,43 +670,43 @@
         </is>
       </c>
       <c r="H2" s="7" t="n">
-        <v>46.002</v>
+        <v>348.5</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>330</v>
+        <v>2500</v>
       </c>
       <c r="L2" s="7" t="n">
-        <v>115.5</v>
+        <v>5.25</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>346.5</v>
+        <v>2625</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P2" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0.18</v>
+        <v>0.43</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>346.68</v>
+        <v>2625.43</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>115.56</v>
+        <v>5.25</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>16.11</v>
+        <v>0.73</v>
       </c>
       <c r="U2" s="4" t="inlineStr">
         <is>
@@ -715,87 +715,87 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>15.334</v>
+      </c>
+      <c r="F3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>E100.020310014</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>12-14</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>10.8732</v>
-      </c>
-      <c r="F3" s="6" t="n">
-        <v>2</v>
-      </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
           <t>个</t>
         </is>
       </c>
       <c r="H3" s="7" t="n">
-        <v>21.7464</v>
+        <v>46.002</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>81.90000000000001</v>
+        <v>115.5</v>
       </c>
       <c r="M3" s="7" t="n">
-        <v>163.8</v>
+        <v>346.5</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P3" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q3" s="7" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="R3" s="7" t="n">
-        <v>163.88</v>
+        <v>346.68</v>
       </c>
       <c r="S3" s="7" t="n">
-        <v>81.94</v>
+        <v>115.56</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>11.42</v>
+        <v>16.11</v>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
@@ -804,41 +804,43 @@
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W3" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
       <c r="X3" s="4" t="n"/>
-      <c r="Y3" s="4" t="n"/>
+      <c r="Y3" s="4" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E4" s="5" t="n">
         <v>10.8732</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
@@ -846,40 +848,40 @@
         </is>
       </c>
       <c r="H4" s="7" t="n">
-        <v>10.8732</v>
+        <v>21.7464</v>
       </c>
       <c r="I4" s="7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="7" t="n">
         <v>78</v>
       </c>
       <c r="K4" s="7" t="n">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>81.90000000000001</v>
+        <v>163.8</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>81.93000000000001</v>
+        <v>163.88</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>81.93000000000001</v>
+        <v>81.94</v>
       </c>
       <c r="T4" s="7" t="n">
         <v>11.42</v>
@@ -891,7 +893,7 @@
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -904,28 +906,28 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15.334</v>
+        <v>10.8732</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
@@ -933,43 +935,43 @@
         </is>
       </c>
       <c r="H5" s="7" t="n">
-        <v>46.002</v>
+        <v>10.8732</v>
       </c>
       <c r="I5" s="7" t="n">
-        <v>1.55</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="n">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="L5" s="7" t="n">
-        <v>115.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>346.5</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q5" s="7" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="R5" s="7" t="n">
-        <v>346.76</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="S5" s="7" t="n">
-        <v>115.59</v>
+        <v>81.93000000000001</v>
       </c>
       <c r="T5" s="7" t="n">
-        <v>16.11</v>
+        <v>11.42</v>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
@@ -978,43 +980,41 @@
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
       <c r="X5" s="4" t="n"/>
-      <c r="Y5" s="4" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="Y5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.15044</v>
+        <v>15.334</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
@@ -1022,43 +1022,43 @@
         </is>
       </c>
       <c r="H6" s="7" t="n">
-        <v>315.044</v>
+        <v>46.002</v>
       </c>
       <c r="I6" s="7" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>22.6</v>
+        <v>110</v>
       </c>
       <c r="K6" s="7" t="n">
-        <v>2260</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="n">
-        <v>23.73</v>
+        <v>115.5</v>
       </c>
       <c r="M6" s="7" t="n">
-        <v>2373</v>
+        <v>346.5</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P6" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
       <c r="R6" s="7" t="n">
-        <v>2373.33</v>
+        <v>346.76</v>
       </c>
       <c r="S6" s="7" t="n">
-        <v>23.73</v>
+        <v>115.59</v>
       </c>
       <c r="T6" s="7" t="n">
-        <v>3.31</v>
+        <v>16.11</v>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="V6" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W6" s="4" t="inlineStr">
@@ -1077,33 +1077,33 @@
       </c>
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n">
-        <v>4.3</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>N510059196AA</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.11152</v>
+        <v>3.15044</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
@@ -1111,43 +1111,43 @@
         </is>
       </c>
       <c r="H7" s="7" t="n">
-        <v>15.27824</v>
+        <v>315.044</v>
       </c>
       <c r="I7" s="7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.8</v>
+        <v>22.6</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>109.6</v>
+        <v>2260</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.84</v>
+        <v>23.73</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>115.08</v>
+        <v>2373</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>115.43</v>
+        <v>2373.33</v>
       </c>
       <c r="S7" s="7" t="n">
-        <v>0.84</v>
+        <v>23.73</v>
       </c>
       <c r="T7" s="7" t="n">
-        <v>0.12</v>
+        <v>3.31</v>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
@@ -1156,41 +1156,43 @@
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
+      <c r="Y7" s="4" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>158.916</v>
+        <v>0.11152</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
@@ -1198,43 +1200,43 @@
         </is>
       </c>
       <c r="H8" s="7" t="n">
-        <v>158.916</v>
+        <v>15.27824</v>
       </c>
       <c r="I8" s="7" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>1140</v>
+        <v>0.8</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>1140</v>
+        <v>109.6</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>1197</v>
+        <v>0.84</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>1197</v>
+        <v>115.08</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="R8" s="7" t="n">
-        <v>1197.49</v>
+        <v>115.43</v>
       </c>
       <c r="S8" s="7" t="n">
-        <v>1197.49</v>
+        <v>0.84</v>
       </c>
       <c r="T8" s="7" t="n">
-        <v>166.93</v>
+        <v>0.12</v>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
@@ -1243,40 +1245,38 @@
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n">
-        <v>14</v>
-      </c>
+      <c r="Y8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32.062</v>
+        <v>158.916</v>
       </c>
       <c r="F9" s="6" t="n">
         <v>1</v>
@@ -1287,43 +1287,43 @@
         </is>
       </c>
       <c r="H9" s="7" t="n">
-        <v>32.062</v>
+        <v>158.916</v>
       </c>
       <c r="I9" s="7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>230</v>
+        <v>1140</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>230</v>
+        <v>1140</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>241.5</v>
+        <v>1197</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>241.5</v>
+        <v>1197</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>242.32</v>
+        <v>1197.5</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>242.32</v>
+        <v>1197.5</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>33.78</v>
+        <v>166.93</v>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
@@ -1332,41 +1332,43 @@
       </c>
       <c r="V9" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W9" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
       <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
+      <c r="Y9" s="4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25.789</v>
+        <v>32.062</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
@@ -1374,43 +1376,43 @@
         </is>
       </c>
       <c r="H10" s="7" t="n">
-        <v>77.367</v>
+        <v>32.062</v>
       </c>
       <c r="I10" s="7" t="n">
         <v>5</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="n">
-        <v>555</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="n">
-        <v>194.25</v>
+        <v>241.5</v>
       </c>
       <c r="M10" s="7" t="n">
-        <v>582.75</v>
+        <v>241.5</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>583.5700000000001</v>
+        <v>242.33</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>194.52</v>
+        <v>242.33</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>27.12</v>
+        <v>33.78</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1419,7 +1421,7 @@
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -1432,72 +1434,72 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48.79</v>
+        <v>25.789</v>
       </c>
       <c r="F11" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="n">
+        <v>77.367</v>
+      </c>
+      <c r="I11" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>个</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="n">
-        <v>243.95</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>1.23</v>
-      </c>
       <c r="J11" s="7" t="n">
-        <v>350</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>1750</v>
+        <v>555</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>367.5</v>
+        <v>194.25</v>
       </c>
       <c r="M11" s="7" t="n">
-        <v>1837.5</v>
+        <v>582.75</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>0.2</v>
+        <v>0.83</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>1837.7</v>
+        <v>583.58</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>367.54</v>
+        <v>194.53</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>51.24</v>
+        <v>27.12</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1506,43 +1508,41 @@
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n">
-        <v>1.44</v>
-      </c>
+      <c r="Y11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>900M-T-sk</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.697</v>
+        <v>48.79</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
@@ -1550,43 +1550,43 @@
         </is>
       </c>
       <c r="H12" s="7" t="n">
-        <v>20.91</v>
+        <v>243.95</v>
       </c>
       <c r="I12" s="7" t="n">
-        <v>0.15</v>
+        <v>1.23</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>5</v>
+        <v>350</v>
       </c>
       <c r="K12" s="7" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="L12" s="7" t="n">
-        <v>5.25</v>
+        <v>367.5</v>
       </c>
       <c r="M12" s="7" t="n">
-        <v>157.5</v>
+        <v>1837.5</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O12" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R12" s="7" t="n">
-        <v>157.52</v>
+        <v>1837.7</v>
       </c>
       <c r="S12" s="7" t="n">
-        <v>5.25</v>
+        <v>367.54</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>0.73</v>
+        <v>51.24</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1595,43 +1595,43 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X12" s="4" t="n"/>
       <c r="Y12" s="4" t="n">
-        <v>7.55</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.697</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
@@ -1639,37 +1639,37 @@
         </is>
       </c>
       <c r="H13" s="7" t="n">
-        <v>348.5</v>
+        <v>20.91</v>
       </c>
       <c r="I13" s="7" t="n">
-        <v>2.5</v>
+        <v>0.15</v>
       </c>
       <c r="J13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>2625</v>
+        <v>157.5</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q13" s="7" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="R13" s="7" t="n">
-        <v>2625.41</v>
+        <v>157.52</v>
       </c>
       <c r="S13" s="7" t="n">
         <v>5.25</v>
@@ -1684,41 +1684,43 @@
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
+      <c r="Y13" s="4" t="n">
+        <v>7.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E14" s="5" t="n">
         <v>0.697</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
@@ -1726,37 +1728,37 @@
         </is>
       </c>
       <c r="H14" s="7" t="n">
-        <v>278.8</v>
+        <v>348.5</v>
       </c>
       <c r="I14" s="7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L14" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M14" s="7" t="n">
-        <v>2100</v>
+        <v>2625</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q14" s="7" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="R14" s="7" t="n">
-        <v>2100.33</v>
+        <v>2625.41</v>
       </c>
       <c r="S14" s="7" t="n">
         <v>5.25</v>
@@ -1771,7 +1773,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -1784,28 +1786,28 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E15" s="5" t="n">
         <v>0.697</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
@@ -1813,37 +1815,37 @@
         </is>
       </c>
       <c r="H15" s="7" t="n">
-        <v>27.88</v>
+        <v>278.8</v>
       </c>
       <c r="I15" s="7" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="L15" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>210</v>
+        <v>2100</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q15" s="7" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="R15" s="7" t="n">
-        <v>210.03</v>
+        <v>2100.33</v>
       </c>
       <c r="S15" s="7" t="n">
         <v>5.25</v>
@@ -1858,7 +1860,7 @@
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -1871,25 +1873,25 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.4182</v>
+        <v>0.697</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>40</v>
@@ -1900,43 +1902,43 @@
         </is>
       </c>
       <c r="H16" s="7" t="n">
-        <v>16.728</v>
+        <v>27.88</v>
       </c>
       <c r="I16" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="J16" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>3.15</v>
+        <v>5.25</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>126</v>
+        <v>210</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q16" s="7" t="n">
         <v>0.03</v>
       </c>
       <c r="R16" s="7" t="n">
-        <v>126.03</v>
+        <v>210.03</v>
       </c>
       <c r="S16" s="7" t="n">
-        <v>3.15</v>
+        <v>5.25</v>
       </c>
       <c r="T16" s="7" t="n">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
@@ -1945,7 +1947,7 @@
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -1958,28 +1960,28 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>WRNT-013</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.16728</v>
+        <v>0.4182</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4" t="inlineStr">
         <is>
@@ -1987,43 +1989,43 @@
         </is>
       </c>
       <c r="H17" s="7" t="n">
-        <v>23.4192</v>
+        <v>16.728</v>
       </c>
       <c r="I17" s="7" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="7" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>1.26</v>
+        <v>3.15</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>176.4</v>
+        <v>126</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q17" s="7" t="n">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="R17" s="7" t="n">
-        <v>176.52</v>
+        <v>126.03</v>
       </c>
       <c r="S17" s="7" t="n">
-        <v>1.26</v>
+        <v>3.15</v>
       </c>
       <c r="T17" s="7" t="n">
-        <v>0.18</v>
+        <v>0.44</v>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
@@ -2032,7 +2034,7 @@
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -2045,28 +2047,28 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.138006</v>
+        <v>0.16728</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="G18" s="4" t="inlineStr">
         <is>
@@ -2074,43 +2076,43 @@
         </is>
       </c>
       <c r="H18" s="7" t="n">
-        <v>34.5015</v>
+        <v>23.4192</v>
       </c>
       <c r="I18" s="7" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="J18" s="7" t="n">
-        <v>0.99</v>
+        <v>1.2</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>247.5</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="M18" s="7" t="n">
-        <v>259.88</v>
+        <v>176.4</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>260.08</v>
+        <v>176.52</v>
       </c>
       <c r="S18" s="7" t="n">
-        <v>1.04</v>
+        <v>1.26</v>
       </c>
       <c r="T18" s="7" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
@@ -2119,7 +2121,7 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -2132,16 +2134,16 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2150,10 +2152,10 @@
         </is>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.184008</v>
+        <v>0.138006</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>388</v>
+        <v>250</v>
       </c>
       <c r="G19" s="4" t="inlineStr">
         <is>
@@ -2161,43 +2163,43 @@
         </is>
       </c>
       <c r="H19" s="7" t="n">
-        <v>71.395104</v>
+        <v>34.5015</v>
       </c>
       <c r="I19" s="7" t="n">
-        <v>3.49</v>
+        <v>1.25</v>
       </c>
       <c r="J19" s="7" t="n">
-        <v>1.32</v>
+        <v>0.99</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>512.16</v>
+        <v>247.5</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>537.77</v>
+        <v>259.88</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O19" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0.58</v>
+        <v>0.21</v>
       </c>
       <c r="R19" s="7" t="n">
-        <v>538.34</v>
+        <v>260.08</v>
       </c>
       <c r="S19" s="7" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="T19" s="7" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
@@ -2206,31 +2208,29 @@
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
+          <t>Daman</t>
+        </is>
+      </c>
+      <c r="W19" s="4" t="inlineStr">
+        <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
-      <c r="W19" s="4" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
       <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n">
-        <v>20</v>
-      </c>
+      <c r="Y19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -2242,7 +2242,7 @@
         <v>0.184008</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="G20" s="4" t="inlineStr">
         <is>
@@ -2250,37 +2250,37 @@
         </is>
       </c>
       <c r="H20" s="7" t="n">
-        <v>84.091656</v>
+        <v>71.395104</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>4.11</v>
+        <v>3.49</v>
       </c>
       <c r="J20" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>603.24</v>
+        <v>512.16</v>
       </c>
       <c r="L20" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>633.4</v>
+        <v>537.77</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O20" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>634.08</v>
+        <v>538.34</v>
       </c>
       <c r="S20" s="7" t="n">
         <v>1.39</v>
@@ -2295,29 +2295,31 @@
       </c>
       <c r="V20" s="4" t="inlineStr">
         <is>
+          <t>Daman</t>
+        </is>
+      </c>
+      <c r="W20" s="4" t="inlineStr">
+        <is>
           <t>组装厂月度辅耗材</t>
         </is>
       </c>
-      <c r="W20" s="4" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
       <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -2329,7 +2331,7 @@
         <v>0.184008</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G21" s="4" t="inlineStr">
         <is>
@@ -2337,37 +2339,37 @@
         </is>
       </c>
       <c r="H21" s="7" t="n">
-        <v>84.27566400000001</v>
+        <v>84.091656</v>
       </c>
       <c r="I21" s="7" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="J21" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K21" s="7" t="n">
-        <v>604.5599999999999</v>
+        <v>603.24</v>
       </c>
       <c r="L21" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>634.79</v>
+        <v>633.4</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q21" s="7" t="n">
         <v>0.68</v>
       </c>
       <c r="R21" s="7" t="n">
-        <v>635.47</v>
+        <v>634.08</v>
       </c>
       <c r="S21" s="7" t="n">
         <v>1.39</v>
@@ -2382,7 +2384,7 @@
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -2395,16 +2397,16 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -2416,7 +2418,7 @@
         <v>0.184008</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="G22" s="4" t="inlineStr">
         <is>
@@ -2424,37 +2426,37 @@
         </is>
       </c>
       <c r="H22" s="7" t="n">
-        <v>52.810296</v>
+        <v>84.27566400000001</v>
       </c>
       <c r="I22" s="7" t="n">
-        <v>2.58</v>
+        <v>4.12</v>
       </c>
       <c r="J22" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>378.84</v>
+        <v>604.5599999999999</v>
       </c>
       <c r="L22" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M22" s="7" t="n">
-        <v>397.78</v>
+        <v>634.79</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P22" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q22" s="7" t="n">
-        <v>0.43</v>
+        <v>0.68</v>
       </c>
       <c r="R22" s="7" t="n">
-        <v>398.21</v>
+        <v>635.47</v>
       </c>
       <c r="S22" s="7" t="n">
         <v>1.39</v>
@@ -2469,7 +2471,7 @@
       </c>
       <c r="V22" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W22" s="4" t="inlineStr">
@@ -2482,16 +2484,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -2503,7 +2505,7 @@
         <v>0.184008</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="G23" s="4" t="inlineStr">
         <is>
@@ -2511,37 +2513,37 @@
         </is>
       </c>
       <c r="H23" s="7" t="n">
-        <v>7.36032</v>
+        <v>52.810296</v>
       </c>
       <c r="I23" s="7" t="n">
-        <v>0.36</v>
+        <v>2.58</v>
       </c>
       <c r="J23" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>52.8</v>
+        <v>378.84</v>
       </c>
       <c r="L23" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>55.44</v>
+        <v>397.78</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O23" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P23" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="R23" s="7" t="n">
-        <v>55.5</v>
+        <v>398.21</v>
       </c>
       <c r="S23" s="7" t="n">
         <v>1.39</v>
@@ -2556,7 +2558,7 @@
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -2569,16 +2571,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -2590,7 +2592,7 @@
         <v>0.184008</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G24" s="4" t="inlineStr">
         <is>
@@ -2598,37 +2600,37 @@
         </is>
       </c>
       <c r="H24" s="7" t="n">
-        <v>11.04048</v>
+        <v>7.36032</v>
       </c>
       <c r="I24" s="7" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="J24" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K24" s="7" t="n">
-        <v>79.2</v>
+        <v>52.8</v>
       </c>
       <c r="L24" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M24" s="7" t="n">
-        <v>83.16</v>
+        <v>55.44</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O24" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q24" s="7" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="R24" s="7" t="n">
-        <v>83.25</v>
+        <v>55.5</v>
       </c>
       <c r="S24" s="7" t="n">
         <v>1.39</v>
@@ -2643,7 +2645,7 @@
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -2656,16 +2658,16 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2677,7 +2679,7 @@
         <v>0.184008</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4" t="inlineStr">
         <is>
@@ -2685,37 +2687,37 @@
         </is>
       </c>
       <c r="H25" s="7" t="n">
-        <v>9.2004</v>
+        <v>11.04048</v>
       </c>
       <c r="I25" s="7" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="J25" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K25" s="7" t="n">
-        <v>66</v>
+        <v>79.2</v>
       </c>
       <c r="L25" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M25" s="7" t="n">
-        <v>69.3</v>
+        <v>83.16</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O25" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P25" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q25" s="7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="R25" s="7" t="n">
-        <v>69.37</v>
+        <v>83.25</v>
       </c>
       <c r="S25" s="7" t="n">
         <v>1.39</v>
@@ -2730,7 +2732,7 @@
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -2743,16 +2745,16 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2790,13 +2792,13 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O26" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P26" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q26" s="7" t="n">
         <v>0.07000000000000001</v>
@@ -2817,7 +2819,7 @@
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -2830,16 +2832,16 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -2851,7 +2853,7 @@
         <v>0.184008</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4" t="inlineStr">
         <is>
@@ -2859,37 +2861,37 @@
         </is>
       </c>
       <c r="H27" s="7" t="n">
-        <v>20.24088</v>
+        <v>9.2004</v>
       </c>
       <c r="I27" s="7" t="n">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="J27" s="7" t="n">
         <v>1.32</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>145.2</v>
+        <v>66</v>
       </c>
       <c r="L27" s="7" t="n">
         <v>1.39</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>152.46</v>
+        <v>69.3</v>
       </c>
       <c r="N27" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O27" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P27" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q27" s="7" t="n">
-        <v>0.16</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="R27" s="7" t="n">
-        <v>152.62</v>
+        <v>69.37</v>
       </c>
       <c r="S27" s="7" t="n">
         <v>1.39</v>
@@ -2904,7 +2906,7 @@
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -2917,16 +2919,16 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -2935,87 +2937,85 @@
         </is>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.06312</v>
+        <v>0.184008</v>
       </c>
       <c r="F28" s="6" t="n">
-        <v>2040</v>
+        <v>110</v>
       </c>
       <c r="G28" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H28" s="7" t="n">
-        <v>4208.7648</v>
+        <v>20.24088</v>
       </c>
       <c r="I28" s="7" t="n">
-        <v>1200</v>
+        <v>0.99</v>
       </c>
       <c r="J28" s="7" t="n">
-        <v>14.8</v>
+        <v>1.32</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>30192</v>
+        <v>145.2</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>15.54</v>
+        <v>1.39</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>31701.6</v>
+        <v>152.46</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O28" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P28" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q28" s="7" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q28" s="7" t="n">
-        <v>197.9</v>
-      </c>
       <c r="R28" s="7" t="n">
-        <v>31899.5</v>
+        <v>152.62</v>
       </c>
       <c r="S28" s="7" t="n">
-        <v>15.64</v>
+        <v>1.39</v>
       </c>
       <c r="T28" s="7" t="n">
-        <v>2.18</v>
+        <v>0.19</v>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
-          <t>卷</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n">
-        <v>17.71</v>
-      </c>
+      <c r="Y28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -3024,10 +3024,10 @@
         </is>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.01762</v>
+        <v>2.06312</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>2800</v>
+        <v>2040</v>
       </c>
       <c r="G29" s="4" t="inlineStr">
         <is>
@@ -3035,43 +3035,43 @@
         </is>
       </c>
       <c r="H29" s="7" t="n">
-        <v>2849.336</v>
+        <v>4208.7648</v>
       </c>
       <c r="I29" s="7" t="n">
-        <v>866</v>
+        <v>1200</v>
       </c>
       <c r="J29" s="7" t="n">
-        <v>7.3</v>
+        <v>14.8</v>
       </c>
       <c r="K29" s="7" t="n">
-        <v>20440</v>
+        <v>30192</v>
       </c>
       <c r="L29" s="7" t="n">
-        <v>7.66</v>
+        <v>15.54</v>
       </c>
       <c r="M29" s="7" t="n">
-        <v>21462</v>
+        <v>31701.6</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q29" s="7" t="n">
-        <v>142.82</v>
+        <v>198.26</v>
       </c>
       <c r="R29" s="7" t="n">
-        <v>21604.82</v>
+        <v>31899.86</v>
       </c>
       <c r="S29" s="7" t="n">
-        <v>7.72</v>
+        <v>15.64</v>
       </c>
       <c r="T29" s="7" t="n">
-        <v>1.08</v>
+        <v>2.18</v>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -3090,122 +3090,122 @@
       </c>
       <c r="X29" s="4" t="n"/>
       <c r="Y29" s="4" t="n">
-        <v>15.5</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>AT-TSSOP20-CMS</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E30" s="5" t="n">
-        <v>80.852</v>
+        <v>1.01762</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2</v>
+        <v>2800</v>
       </c>
       <c r="G30" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="H30" s="7" t="n">
-        <v>161.704</v>
+        <v>2849.336</v>
       </c>
       <c r="I30" s="7" t="n">
-        <v>0.3</v>
+        <v>866</v>
       </c>
       <c r="J30" s="7" t="n">
-        <v>580</v>
+        <v>7.3</v>
       </c>
       <c r="K30" s="7" t="n">
-        <v>1160</v>
+        <v>20440</v>
       </c>
       <c r="L30" s="7" t="n">
-        <v>609</v>
+        <v>7.66</v>
       </c>
       <c r="M30" s="7" t="n">
-        <v>1218</v>
+        <v>21462</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O30" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q30" s="7" t="n">
-        <v>0.05</v>
+        <v>143.08</v>
       </c>
       <c r="R30" s="7" t="n">
-        <v>1218.05</v>
+        <v>21605.08</v>
       </c>
       <c r="S30" s="7" t="n">
-        <v>609.02</v>
+        <v>7.72</v>
       </c>
       <c r="T30" s="7" t="n">
-        <v>84.90000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>卷</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="X30" s="4" t="n"/>
       <c r="Y30" s="4" t="n">
-        <v>1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E31" s="5" t="n">
-        <v>11.152</v>
+        <v>80.852</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31" s="4" t="inlineStr">
         <is>
@@ -3213,43 +3213,43 @@
         </is>
       </c>
       <c r="H31" s="7" t="n">
-        <v>55.76</v>
+        <v>161.704</v>
       </c>
       <c r="I31" s="7" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J31" s="7" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>400</v>
+        <v>1160</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>84</v>
+        <v>609</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>420</v>
+        <v>1218</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O31" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q31" s="7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="R31" s="7" t="n">
-        <v>420.1</v>
+        <v>1218.05</v>
       </c>
       <c r="S31" s="7" t="n">
-        <v>84.02</v>
+        <v>609.02</v>
       </c>
       <c r="T31" s="7" t="n">
-        <v>11.71</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
@@ -3258,118 +3258,118 @@
       </c>
       <c r="V31" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W31" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
+      <c r="Y31" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E32" s="5" t="n">
-        <v>161.704</v>
+        <v>11.152</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32" s="4" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H32" s="7" t="n">
-        <v>485.112</v>
+        <v>55.76</v>
       </c>
       <c r="I32" s="7" t="n">
-        <v>66.09999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J32" s="7" t="n">
-        <v>1160</v>
+        <v>80</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>3480</v>
+        <v>400</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>1218</v>
+        <v>84</v>
       </c>
       <c r="M32" s="7" t="n">
-        <v>3654</v>
+        <v>420</v>
       </c>
       <c r="N32" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O32" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q32" s="7" t="n">
-        <v>10.9</v>
+        <v>0.1</v>
       </c>
       <c r="R32" s="7" t="n">
-        <v>3664.9</v>
+        <v>420.1</v>
       </c>
       <c r="S32" s="7" t="n">
-        <v>1221.63</v>
+        <v>84.02</v>
       </c>
       <c r="T32" s="7" t="n">
-        <v>170.3</v>
+        <v>11.71</v>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>个</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n">
-        <v>34.24</v>
-      </c>
+      <c r="Y32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -3378,63 +3378,63 @@
         </is>
       </c>
       <c r="E33" s="5" t="n">
-        <v>181.22</v>
+        <v>161.704</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G33" s="4" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H33" s="7" t="n">
-        <v>2174.64</v>
+        <v>485.112</v>
       </c>
       <c r="I33" s="7" t="n">
-        <v>34</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J33" s="7" t="n">
-        <v>1300</v>
+        <v>1160</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>15600</v>
+        <v>3480</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>1365</v>
+        <v>1218</v>
       </c>
       <c r="M33" s="7" t="n">
-        <v>16380</v>
+        <v>3654</v>
       </c>
       <c r="N33" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O33" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q33" s="7" t="n">
-        <v>5.61</v>
+        <v>10.92</v>
       </c>
       <c r="R33" s="7" t="n">
-        <v>16385.61</v>
+        <v>3664.92</v>
       </c>
       <c r="S33" s="7" t="n">
-        <v>1365.47</v>
+        <v>1221.64</v>
       </c>
       <c r="T33" s="7" t="n">
-        <v>190.35</v>
+        <v>170.3</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -3444,21 +3444,21 @@
       </c>
       <c r="X33" s="4" t="n"/>
       <c r="Y33" s="4" t="n">
-        <v>34.91</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -3467,63 +3467,63 @@
         </is>
       </c>
       <c r="E34" s="5" t="n">
-        <v>41.82</v>
+        <v>181.22</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G34" s="4" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H34" s="7" t="n">
-        <v>376.38</v>
+        <v>2174.64</v>
       </c>
       <c r="I34" s="7" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J34" s="7" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>2700</v>
+        <v>15600</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>315</v>
+        <v>1365</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>2835</v>
+        <v>16380</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O34" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q34" s="7" t="n">
-        <v>0</v>
+        <v>5.62</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>2835</v>
+        <v>16385.62</v>
       </c>
       <c r="S34" s="7" t="n">
-        <v>315</v>
+        <v>1365.47</v>
       </c>
       <c r="T34" s="7" t="n">
-        <v>43.91</v>
+        <v>190.35</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
-          <t>套</t>
+          <t>台</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -3533,21 +3533,21 @@
       </c>
       <c r="X34" s="4" t="n"/>
       <c r="Y34" s="4" t="n">
-        <v>10.63</v>
+        <v>34.91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -3556,87 +3556,87 @@
         </is>
       </c>
       <c r="E35" s="5" t="n">
-        <v>473.96</v>
+        <v>41.82</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="H35" s="7" t="n">
-        <v>4739.6</v>
+        <v>376.38</v>
       </c>
       <c r="I35" s="7" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J35" s="7" t="n">
-        <v>3400</v>
+        <v>300</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>34000</v>
+        <v>2700</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>3570</v>
+        <v>315</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>35700</v>
+        <v>2835</v>
       </c>
       <c r="N35" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O35" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q35" s="7" t="n">
-        <v>44.53</v>
+        <v>0</v>
       </c>
       <c r="R35" s="7" t="n">
-        <v>35744.53</v>
+        <v>2835</v>
       </c>
       <c r="S35" s="7" t="n">
-        <v>3574.45</v>
+        <v>315</v>
       </c>
       <c r="T35" s="7" t="n">
-        <v>498.28</v>
+        <v>43.91</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t>台</t>
+          <t>套</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="X35" s="4" t="n"/>
       <c r="Y35" s="4" t="n">
-        <v>37</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -3645,7 +3645,7 @@
         </is>
       </c>
       <c r="E36" s="5" t="n">
-        <v>717.91</v>
+        <v>473.96</v>
       </c>
       <c r="F36" s="6" t="n">
         <v>10</v>
@@ -3656,43 +3656,43 @@
         </is>
       </c>
       <c r="H36" s="7" t="n">
-        <v>7179.1</v>
+        <v>4739.6</v>
       </c>
       <c r="I36" s="7" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="J36" s="7" t="n">
-        <v>5150</v>
+        <v>3400</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>51500</v>
+        <v>34000</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>5407.5</v>
+        <v>3570</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>54075</v>
+        <v>35700</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O36" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q36" s="7" t="n">
-        <v>72.56</v>
+        <v>44.61</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>54147.56</v>
+        <v>35744.61</v>
       </c>
       <c r="S36" s="7" t="n">
-        <v>5414.76</v>
+        <v>3574.46</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>754.8200000000001</v>
+        <v>498.28</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -3711,122 +3711,122 @@
       </c>
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="4" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130.339</v>
+        <v>717.91</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="H37" s="7" t="n">
-        <v>130.339</v>
+        <v>7179.1</v>
       </c>
       <c r="I37" s="7" t="n">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="J37" s="7" t="n">
-        <v>935</v>
+        <v>5150</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>935</v>
+        <v>51500</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>981.75</v>
+        <v>5407.5</v>
       </c>
       <c r="M37" s="7" t="n">
-        <v>981.75</v>
+        <v>54075</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O37" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q37" s="7" t="n">
-        <v>2.47</v>
+        <v>72.69</v>
       </c>
       <c r="R37" s="7" t="n">
-        <v>984.22</v>
+        <v>54147.69</v>
       </c>
       <c r="S37" s="7" t="n">
-        <v>984.22</v>
+        <v>5414.77</v>
       </c>
       <c r="T37" s="7" t="n">
-        <v>137.2</v>
+        <v>754.8200000000001</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
-          <t>个</t>
+          <t>台</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Daman</t>
         </is>
       </c>
       <c r="W37" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="X37" s="4" t="n"/>
       <c r="Y37" s="4" t="n">
-        <v>15.16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3.0668</v>
+        <v>130.339</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G38" s="4" t="inlineStr">
         <is>
@@ -3834,43 +3834,43 @@
         </is>
       </c>
       <c r="H38" s="7" t="n">
-        <v>30.668</v>
+        <v>130.339</v>
       </c>
       <c r="I38" s="7" t="n">
-        <v>0.09</v>
+        <v>15</v>
       </c>
       <c r="J38" s="7" t="n">
-        <v>22</v>
+        <v>935</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>220</v>
+        <v>935</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>23.1</v>
+        <v>981.75</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>231</v>
+        <v>981.75</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O38" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q38" s="7" t="n">
-        <v>0.01</v>
+        <v>2.48</v>
       </c>
       <c r="R38" s="7" t="n">
-        <v>231.01</v>
+        <v>984.23</v>
       </c>
       <c r="S38" s="7" t="n">
-        <v>23.1</v>
+        <v>984.23</v>
       </c>
       <c r="T38" s="7" t="n">
-        <v>3.22</v>
+        <v>137.2</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="V38" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W38" s="4" t="inlineStr">
@@ -3889,33 +3889,33 @@
       </c>
       <c r="X38" s="4" t="n"/>
       <c r="Y38" s="4" t="n">
-        <v>5</v>
+        <v>15.16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" s="5" t="n">
-        <v>48.79</v>
+        <v>3.0668</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="inlineStr">
         <is>
@@ -3923,43 +3923,43 @@
         </is>
       </c>
       <c r="H39" s="7" t="n">
-        <v>243.95</v>
+        <v>30.668</v>
       </c>
       <c r="I39" s="7" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="J39" s="7" t="n">
-        <v>350</v>
+        <v>22</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>1750</v>
+        <v>220</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>367.5</v>
+        <v>23.1</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>1837.5</v>
+        <v>231</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O39" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q39" s="7" t="n">
         <v>0.01</v>
       </c>
       <c r="R39" s="7" t="n">
-        <v>1837.51</v>
+        <v>231.01</v>
       </c>
       <c r="S39" s="7" t="n">
-        <v>367.5</v>
+        <v>23.1</v>
       </c>
       <c r="T39" s="7" t="n">
-        <v>51.23</v>
+        <v>3.22</v>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
@@ -3968,41 +3968,43 @@
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W39" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W39" s="4" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
       <c r="X39" s="4" t="n"/>
-      <c r="Y39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.1152</v>
+        <v>48.79</v>
       </c>
       <c r="F40" s="6" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4" t="inlineStr">
         <is>
@@ -4010,43 +4012,43 @@
         </is>
       </c>
       <c r="H40" s="7" t="n">
-        <v>557.6</v>
+        <v>243.95</v>
       </c>
       <c r="I40" s="7" t="n">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="J40" s="7" t="n">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="K40" s="7" t="n">
-        <v>4000</v>
+        <v>1750</v>
       </c>
       <c r="L40" s="7" t="n">
-        <v>8.4</v>
+        <v>367.5</v>
       </c>
       <c r="M40" s="7" t="n">
-        <v>4200</v>
+        <v>1837.5</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O40" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q40" s="7" t="n">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
       <c r="R40" s="7" t="n">
-        <v>4200.74</v>
+        <v>1837.51</v>
       </c>
       <c r="S40" s="7" t="n">
-        <v>8.4</v>
+        <v>367.5</v>
       </c>
       <c r="T40" s="7" t="n">
-        <v>1.17</v>
+        <v>51.23</v>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
@@ -4055,7 +4057,7 @@
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -4068,28 +4070,28 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.334</v>
+        <v>1.1152</v>
       </c>
       <c r="F41" s="6" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="G41" s="4" t="inlineStr">
         <is>
@@ -4097,43 +4099,43 @@
         </is>
       </c>
       <c r="H41" s="7" t="n">
-        <v>61.336</v>
+        <v>557.6</v>
       </c>
       <c r="I41" s="7" t="n">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="J41" s="7" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="K41" s="7" t="n">
-        <v>440</v>
+        <v>4000</v>
       </c>
       <c r="L41" s="7" t="n">
-        <v>115.5</v>
+        <v>8.4</v>
       </c>
       <c r="M41" s="7" t="n">
-        <v>462</v>
+        <v>4200</v>
       </c>
       <c r="N41" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O41" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q41" s="7" t="n">
-        <v>0.01</v>
+        <v>0.74</v>
       </c>
       <c r="R41" s="7" t="n">
-        <v>462.01</v>
+        <v>4200.74</v>
       </c>
       <c r="S41" s="7" t="n">
-        <v>115.5</v>
+        <v>8.4</v>
       </c>
       <c r="T41" s="7" t="n">
-        <v>16.1</v>
+        <v>1.17</v>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
@@ -4142,7 +4144,7 @@
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
@@ -4155,16 +4157,16 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -4173,10 +4175,10 @@
         </is>
       </c>
       <c r="E42" s="5" t="n">
-        <v>25.99113</v>
+        <v>15.334</v>
       </c>
       <c r="F42" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42" s="4" t="inlineStr">
         <is>
@@ -4184,43 +4186,43 @@
         </is>
       </c>
       <c r="H42" s="7" t="n">
-        <v>129.95565</v>
+        <v>61.336</v>
       </c>
       <c r="I42" s="7" t="n">
         <v>0.04</v>
       </c>
       <c r="J42" s="7" t="n">
-        <v>186.45</v>
+        <v>110</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>932.25</v>
+        <v>440</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>195.77</v>
+        <v>115.5</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>978.86</v>
+        <v>462</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O42" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q42" s="7" t="n">
         <v>0.01</v>
       </c>
       <c r="R42" s="7" t="n">
-        <v>978.87</v>
+        <v>462.01</v>
       </c>
       <c r="S42" s="7" t="n">
-        <v>195.77</v>
+        <v>115.5</v>
       </c>
       <c r="T42" s="7" t="n">
-        <v>27.29</v>
+        <v>16.1</v>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
@@ -4229,7 +4231,7 @@
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -4242,28 +4244,28 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" s="5" t="n">
-        <v>690.03</v>
+        <v>25.99113</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G43" s="4" t="inlineStr">
         <is>
@@ -4271,43 +4273,43 @@
         </is>
       </c>
       <c r="H43" s="7" t="n">
-        <v>1380.06</v>
+        <v>129.95565</v>
       </c>
       <c r="I43" s="7" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J43" s="7" t="n">
-        <v>4950</v>
+        <v>186.45</v>
       </c>
       <c r="K43" s="7" t="n">
-        <v>9900</v>
+        <v>932.25</v>
       </c>
       <c r="L43" s="7" t="n">
-        <v>5197.5</v>
+        <v>195.77</v>
       </c>
       <c r="M43" s="7" t="n">
-        <v>10395</v>
+        <v>978.86</v>
       </c>
       <c r="N43" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O43" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P43" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q43" s="7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R43" s="7" t="n">
-        <v>10395</v>
+        <v>978.87</v>
       </c>
       <c r="S43" s="7" t="n">
-        <v>5197.5</v>
+        <v>195.77</v>
       </c>
       <c r="T43" s="7" t="n">
-        <v>724.53</v>
+        <v>27.29</v>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
@@ -4316,7 +4318,7 @@
       </c>
       <c r="V43" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W43" s="4" t="inlineStr">
@@ -4329,28 +4331,28 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E44" s="5" t="n">
-        <v>0.9061</v>
+        <v>690.03</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44" s="4" t="inlineStr">
         <is>
@@ -4358,43 +4360,43 @@
         </is>
       </c>
       <c r="H44" s="7" t="n">
-        <v>9.061</v>
+        <v>1380.06</v>
       </c>
       <c r="I44" s="7" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="J44" s="7" t="n">
-        <v>6.5</v>
+        <v>4950</v>
       </c>
       <c r="K44" s="7" t="n">
-        <v>65</v>
+        <v>9900</v>
       </c>
       <c r="L44" s="7" t="n">
-        <v>6.82</v>
+        <v>5197.5</v>
       </c>
       <c r="M44" s="7" t="n">
-        <v>68.25</v>
+        <v>10395</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O44" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q44" s="7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R44" s="7" t="n">
-        <v>68.26000000000001</v>
+        <v>10395</v>
       </c>
       <c r="S44" s="7" t="n">
-        <v>6.83</v>
+        <v>5197.5</v>
       </c>
       <c r="T44" s="7" t="n">
-        <v>0.95</v>
+        <v>724.53</v>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
@@ -4403,7 +4405,7 @@
       </c>
       <c r="V44" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W44" s="4" t="inlineStr">
@@ -4416,16 +4418,16 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -4463,13 +4465,13 @@
         <v>68.25</v>
       </c>
       <c r="N45" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O45" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P45" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q45" s="7" t="n">
         <v>0.01</v>
@@ -4490,7 +4492,7 @@
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -4503,16 +4505,16 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -4521,10 +4523,10 @@
         </is>
       </c>
       <c r="E46" s="5" t="n">
-        <v>30.668</v>
+        <v>0.9061</v>
       </c>
       <c r="F46" s="6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4" t="inlineStr">
         <is>
@@ -4532,43 +4534,43 @@
         </is>
       </c>
       <c r="H46" s="7" t="n">
-        <v>61.336</v>
+        <v>9.061</v>
       </c>
       <c r="I46" s="7" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J46" s="7" t="n">
-        <v>220</v>
+        <v>6.5</v>
       </c>
       <c r="K46" s="7" t="n">
-        <v>440</v>
+        <v>65</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>231</v>
+        <v>6.82</v>
       </c>
       <c r="M46" s="7" t="n">
-        <v>462</v>
+        <v>68.25</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O46" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P46" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q46" s="7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R46" s="7" t="n">
-        <v>462</v>
+        <v>68.26000000000001</v>
       </c>
       <c r="S46" s="7" t="n">
-        <v>231</v>
+        <v>6.83</v>
       </c>
       <c r="T46" s="7" t="n">
-        <v>32.2</v>
+        <v>0.95</v>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
@@ -4577,7 +4579,7 @@
       </c>
       <c r="V46" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W46" s="4" t="inlineStr">
@@ -4590,16 +4592,16 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -4637,13 +4639,13 @@
         <v>462</v>
       </c>
       <c r="N47" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O47" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P47" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q47" s="7" t="n">
         <v>0</v>
@@ -4664,7 +4666,7 @@
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -4677,16 +4679,16 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
@@ -4724,13 +4726,13 @@
         <v>462</v>
       </c>
       <c r="N48" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O48" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P48" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q48" s="7" t="n">
         <v>0</v>
@@ -4751,7 +4753,7 @@
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -4764,16 +4766,16 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -4811,13 +4813,13 @@
         <v>462</v>
       </c>
       <c r="N49" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O49" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P49" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q49" s="7" t="n">
         <v>0</v>
@@ -4838,7 +4840,7 @@
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>Silvass</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -4851,16 +4853,16 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -4869,7 +4871,7 @@
         </is>
       </c>
       <c r="E50" s="5" t="n">
-        <v>45.7232</v>
+        <v>30.668</v>
       </c>
       <c r="F50" s="6" t="n">
         <v>2</v>
@@ -4880,43 +4882,43 @@
         </is>
       </c>
       <c r="H50" s="7" t="n">
-        <v>91.4464</v>
+        <v>61.336</v>
       </c>
       <c r="I50" s="7" t="n">
-        <v>4.2</v>
+        <v>0.02</v>
       </c>
       <c r="J50" s="7" t="n">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="K50" s="7" t="n">
-        <v>656</v>
+        <v>440</v>
       </c>
       <c r="L50" s="7" t="n">
-        <v>344.4</v>
+        <v>231</v>
       </c>
       <c r="M50" s="7" t="n">
-        <v>688.8</v>
+        <v>462</v>
       </c>
       <c r="N50" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O50" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P50" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q50" s="7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="R50" s="7" t="n">
-        <v>689.49</v>
+        <v>462</v>
       </c>
       <c r="S50" s="7" t="n">
-        <v>344.75</v>
+        <v>231</v>
       </c>
       <c r="T50" s="7" t="n">
-        <v>48.06</v>
+        <v>32.2</v>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
@@ -4925,31 +4927,29 @@
       </c>
       <c r="V50" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W50" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W50" s="4" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
       <c r="X50" s="4" t="n"/>
-      <c r="Y50" s="4" t="n">
-        <v>9</v>
-      </c>
+      <c r="Y50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -4972,7 +4972,7 @@
         <v>91.4464</v>
       </c>
       <c r="I51" s="7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J51" s="7" t="n">
         <v>328</v>
@@ -4987,22 +4987,22 @@
         <v>688.8</v>
       </c>
       <c r="N51" s="7" t="n">
-        <v>113.01</v>
+        <v>114.45</v>
       </c>
       <c r="O51" s="7" t="n">
         <v>452</v>
       </c>
       <c r="P51" s="7" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Q51" s="7" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R51" s="7" t="n">
-        <v>689.46</v>
+        <v>689.49</v>
       </c>
       <c r="S51" s="7" t="n">
-        <v>344.73</v>
+        <v>344.75</v>
       </c>
       <c r="T51" s="7" t="n">
         <v>48.06</v>
@@ -5014,59 +5014,148 @@
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W51" s="4" t="inlineStr">
+        <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="W51" s="4" t="inlineStr">
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B52" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C52" s="4" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>45.7232</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="H52" s="7" t="n">
+        <v>91.4464</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="K52" s="7" t="n">
+        <v>656</v>
+      </c>
+      <c r="L52" s="7" t="n">
+        <v>344.4</v>
+      </c>
+      <c r="M52" s="7" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="N52" s="7" t="n">
+        <v>114.45</v>
+      </c>
+      <c r="O52" s="7" t="n">
+        <v>452</v>
+      </c>
+      <c r="P52" s="7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q52" s="7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="R52" s="7" t="n">
+        <v>689.46</v>
+      </c>
+      <c r="S52" s="7" t="n">
+        <v>344.73</v>
+      </c>
+      <c r="T52" s="7" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="U52" s="4" t="inlineStr">
+        <is>
+          <t>个</t>
+        </is>
+      </c>
+      <c r="V52" s="4" t="inlineStr">
+        <is>
+          <t>Silvass</t>
+        </is>
+      </c>
+      <c r="W52" s="4" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
         </is>
       </c>
-      <c r="X51" s="4" t="n"/>
-      <c r="Y51" s="4" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C52" s="4" t="n"/>
-      <c r="D52" s="4" t="n"/>
-      <c r="E52" s="5" t="n"/>
-      <c r="F52" s="6" t="n">
-        <v>9006</v>
-      </c>
-      <c r="G52" s="4" t="n"/>
-      <c r="H52" s="7" t="n">
-        <v>27278.25899</v>
-      </c>
-      <c r="I52" s="7" t="n">
-        <v>2950.96</v>
-      </c>
-      <c r="J52" s="7" t="n"/>
-      <c r="K52" s="7" t="n">
-        <v>195683.35</v>
-      </c>
-      <c r="L52" s="7" t="n"/>
-      <c r="M52" s="7" t="n">
-        <v>205467.52</v>
-      </c>
-      <c r="N52" s="7" t="n"/>
-      <c r="O52" s="7" t="n"/>
-      <c r="P52" s="7" t="n"/>
-      <c r="Q52" s="7" t="n"/>
-      <c r="R52" s="7" t="n">
-        <v>205954.12</v>
-      </c>
-      <c r="S52" s="7" t="n"/>
-      <c r="T52" s="7" t="n"/>
-      <c r="U52" s="4" t="n"/>
-      <c r="V52" s="4" t="n"/>
-      <c r="W52" s="4" t="n"/>
       <c r="X52" s="4" t="n"/>
       <c r="Y52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="5" t="n"/>
+      <c r="F53" s="6" t="n">
+        <v>9506</v>
+      </c>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="7" t="n">
+        <v>27626.75899000001</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>2953.559999999999</v>
+      </c>
+      <c r="J53" s="7" t="n"/>
+      <c r="K53" s="7" t="n">
+        <v>198183.35</v>
+      </c>
+      <c r="L53" s="7" t="n"/>
+      <c r="M53" s="7" t="n">
+        <v>208092.52</v>
+      </c>
+      <c r="N53" s="7" t="n"/>
+      <c r="O53" s="7" t="n"/>
+      <c r="P53" s="7" t="n"/>
+      <c r="Q53" s="7" t="n"/>
+      <c r="R53" s="7" t="n">
+        <v>208580.45</v>
+      </c>
+      <c r="S53" s="7" t="n"/>
+      <c r="T53" s="7" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
+          <t>铣刀</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
@@ -662,7 +662,7 @@
         <v>0.697</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="H2" s="7" t="n">
-        <v>348.5</v>
+        <v>347.106</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>2.6</v>
@@ -679,13 +679,13 @@
         <v>5</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>2500</v>
+        <v>2490</v>
       </c>
       <c r="L2" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>2625</v>
+        <v>2614.5</v>
       </c>
       <c r="N2" s="7" t="n">
         <v>114.45</v>
@@ -694,13 +694,13 @@
         <v>452</v>
       </c>
       <c r="P2" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q2" s="7" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>2625.43</v>
+        <v>2614.91</v>
       </c>
       <c r="S2" s="7" t="n">
         <v>5.25</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>红外发热管</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -783,13 +783,13 @@
         <v>452</v>
       </c>
       <c r="P3" s="7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q3" s="7" t="n">
         <v>0.17</v>
       </c>
-      <c r="Q3" s="7" t="n">
-        <v>0.18</v>
-      </c>
       <c r="R3" s="7" t="n">
-        <v>346.68</v>
+        <v>346.67</v>
       </c>
       <c r="S3" s="7" t="n">
         <v>115.56</v>
@@ -828,7 +828,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
@@ -872,7 +872,7 @@
         <v>452</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q4" s="7" t="n">
         <v>0.08</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>联轴器</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
@@ -959,7 +959,7 @@
         <v>452</v>
       </c>
       <c r="P5" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q5" s="7" t="n">
         <v>0.03</v>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>红外发热管</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -1046,16 +1046,16 @@
         <v>452</v>
       </c>
       <c r="P6" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q6" s="7" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="R6" s="7" t="n">
-        <v>346.76</v>
+        <v>346.74</v>
       </c>
       <c r="S6" s="7" t="n">
-        <v>115.59</v>
+        <v>115.58</v>
       </c>
       <c r="T6" s="7" t="n">
         <v>16.11</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>重型双柱爪</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -1135,13 +1135,13 @@
         <v>452</v>
       </c>
       <c r="P7" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="R7" s="7" t="n">
-        <v>2373.33</v>
+        <v>2373.31</v>
       </c>
       <c r="S7" s="7" t="n">
         <v>23.73</v>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>过滤棉</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
@@ -1224,13 +1224,13 @@
         <v>452</v>
       </c>
       <c r="P8" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="R8" s="7" t="n">
-        <v>115.43</v>
+        <v>115.41</v>
       </c>
       <c r="S8" s="7" t="n">
         <v>0.84</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>变频器</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -1311,16 +1311,16 @@
         <v>452</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>1197.5</v>
+        <v>1197.47</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>1197.5</v>
+        <v>1197.47</v>
       </c>
       <c r="T9" s="7" t="n">
         <v>166.93</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
@@ -1400,19 +1400,19 @@
         <v>452</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" s="7" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="R10" s="7" t="n">
-        <v>242.33</v>
+        <v>242.28</v>
       </c>
       <c r="S10" s="7" t="n">
-        <v>242.33</v>
+        <v>242.28</v>
       </c>
       <c r="T10" s="7" t="n">
-        <v>33.78</v>
+        <v>33.77</v>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
@@ -1487,19 +1487,19 @@
         <v>452</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q11" s="7" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="R11" s="7" t="n">
-        <v>583.58</v>
+        <v>583.53</v>
       </c>
       <c r="S11" s="7" t="n">
-        <v>194.53</v>
+        <v>194.51</v>
       </c>
       <c r="T11" s="7" t="n">
-        <v>27.12</v>
+        <v>27.11</v>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>气密阀</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1574,19 +1574,19 @@
         <v>452</v>
       </c>
       <c r="P12" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q12" s="7" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="R12" s="7" t="n">
-        <v>1837.7</v>
+        <v>1837.69</v>
       </c>
       <c r="S12" s="7" t="n">
         <v>367.54</v>
       </c>
       <c r="T12" s="7" t="n">
-        <v>51.24</v>
+        <v>51.23</v>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -1663,7 +1663,7 @@
         <v>452</v>
       </c>
       <c r="P13" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q13" s="7" t="n">
         <v>0.02</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1752,13 +1752,13 @@
         <v>452</v>
       </c>
       <c r="P14" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q14" s="7" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="R14" s="7" t="n">
-        <v>2625.41</v>
+        <v>2625.39</v>
       </c>
       <c r="S14" s="7" t="n">
         <v>5.25</v>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1839,13 +1839,13 @@
         <v>452</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q15" s="7" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="R15" s="7" t="n">
-        <v>2100.33</v>
+        <v>2100.31</v>
       </c>
       <c r="S15" s="7" t="n">
         <v>5.25</v>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1926,7 +1926,7 @@
         <v>452</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q16" s="7" t="n">
         <v>0.03</v>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>烙铁头</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
@@ -2013,7 +2013,7 @@
         <v>452</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q17" s="7" t="n">
         <v>0.03</v>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>热电偶</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -2100,13 +2100,13 @@
         <v>452</v>
       </c>
       <c r="P18" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q18" s="7" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R18" s="7" t="n">
-        <v>176.52</v>
+        <v>176.51</v>
       </c>
       <c r="S18" s="7" t="n">
         <v>1.26</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>焊接海绵</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -2187,13 +2187,13 @@
         <v>452</v>
       </c>
       <c r="P19" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q19" s="7" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="R19" s="7" t="n">
-        <v>260.08</v>
+        <v>260.07</v>
       </c>
       <c r="S19" s="7" t="n">
         <v>1.04</v>
@@ -2230,7 +2230,7 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
@@ -2274,13 +2274,13 @@
         <v>452</v>
       </c>
       <c r="P20" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q20" s="7" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="R20" s="7" t="n">
-        <v>538.34</v>
+        <v>538.3099999999999</v>
       </c>
       <c r="S20" s="7" t="n">
         <v>1.39</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
@@ -2363,13 +2363,13 @@
         <v>452</v>
       </c>
       <c r="P21" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q21" s="7" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="R21" s="7" t="n">
-        <v>634.08</v>
+        <v>634.04</v>
       </c>
       <c r="S21" s="7" t="n">
         <v>1.39</v>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
@@ -2450,13 +2450,13 @@
         <v>452</v>
       </c>
       <c r="P22" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q22" s="7" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="R22" s="7" t="n">
-        <v>635.47</v>
+        <v>635.4299999999999</v>
       </c>
       <c r="S22" s="7" t="n">
         <v>1.39</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
@@ -2537,13 +2537,13 @@
         <v>452</v>
       </c>
       <c r="P23" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q23" s="7" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="R23" s="7" t="n">
-        <v>398.21</v>
+        <v>398.18</v>
       </c>
       <c r="S23" s="7" t="n">
         <v>1.39</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
@@ -2624,7 +2624,7 @@
         <v>452</v>
       </c>
       <c r="P24" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q24" s="7" t="n">
         <v>0.06</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -2711,13 +2711,13 @@
         <v>452</v>
       </c>
       <c r="P25" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q25" s="7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="R25" s="7" t="n">
-        <v>83.25</v>
+        <v>83.23999999999999</v>
       </c>
       <c r="S25" s="7" t="n">
         <v>1.39</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
@@ -2798,7 +2798,7 @@
         <v>452</v>
       </c>
       <c r="P26" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q26" s="7" t="n">
         <v>0.07000000000000001</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
@@ -2885,7 +2885,7 @@
         <v>452</v>
       </c>
       <c r="P27" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q27" s="7" t="n">
         <v>0.07000000000000001</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>电批头</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -2972,13 +2972,13 @@
         <v>452</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q28" s="7" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="R28" s="7" t="n">
-        <v>152.62</v>
+        <v>152.61</v>
       </c>
       <c r="S28" s="7" t="n">
         <v>1.39</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
@@ -3059,16 +3059,16 @@
         <v>452</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q29" s="7" t="n">
-        <v>198.26</v>
+        <v>186.95</v>
       </c>
       <c r="R29" s="7" t="n">
-        <v>31899.86</v>
+        <v>31888.55</v>
       </c>
       <c r="S29" s="7" t="n">
-        <v>15.64</v>
+        <v>15.63</v>
       </c>
       <c r="T29" s="7" t="n">
         <v>2.18</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>钢网擦拭纸</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
@@ -3148,16 +3148,16 @@
         <v>452</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q30" s="7" t="n">
-        <v>143.08</v>
+        <v>134.91</v>
       </c>
       <c r="R30" s="7" t="n">
-        <v>21605.08</v>
+        <v>21596.91</v>
       </c>
       <c r="S30" s="7" t="n">
-        <v>7.72</v>
+        <v>7.71</v>
       </c>
       <c r="T30" s="7" t="n">
         <v>1.08</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>烧录座</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
@@ -3237,7 +3237,7 @@
         <v>452</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q31" s="7" t="n">
         <v>0.05</v>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>滑轮</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -3326,13 +3326,13 @@
         <v>452</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q32" s="7" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="R32" s="7" t="n">
-        <v>420.1</v>
+        <v>420.09</v>
       </c>
       <c r="S32" s="7" t="n">
         <v>84.02</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>打包架</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
@@ -3392,7 +3392,7 @@
         <v>485.112</v>
       </c>
       <c r="I33" s="7" t="n">
-        <v>66.09999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="J33" s="7" t="n">
         <v>1160</v>
@@ -3413,19 +3413,19 @@
         <v>452</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q33" s="7" t="n">
-        <v>10.92</v>
+        <v>10.29</v>
       </c>
       <c r="R33" s="7" t="n">
-        <v>3664.92</v>
+        <v>3664.29</v>
       </c>
       <c r="S33" s="7" t="n">
-        <v>1221.64</v>
+        <v>1221.43</v>
       </c>
       <c r="T33" s="7" t="n">
-        <v>170.3</v>
+        <v>170.27</v>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>周转车</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
@@ -3502,19 +3502,19 @@
         <v>452</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q34" s="7" t="n">
-        <v>5.62</v>
+        <v>5.3</v>
       </c>
       <c r="R34" s="7" t="n">
-        <v>16385.62</v>
+        <v>16385.3</v>
       </c>
       <c r="S34" s="7" t="n">
-        <v>1365.47</v>
+        <v>1365.44</v>
       </c>
       <c r="T34" s="7" t="n">
-        <v>190.35</v>
+        <v>190.34</v>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>物料架</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
@@ -3570,7 +3570,7 @@
         <v>376.38</v>
       </c>
       <c r="I35" s="7" t="n">
-        <v>0</v>
+        <v>207.46</v>
       </c>
       <c r="J35" s="7" t="n">
         <v>300</v>
@@ -3591,19 +3591,19 @@
         <v>452</v>
       </c>
       <c r="P35" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q35" s="7" t="n">
-        <v>0</v>
+        <v>32.32</v>
       </c>
       <c r="R35" s="7" t="n">
-        <v>2835</v>
+        <v>2867.32</v>
       </c>
       <c r="S35" s="7" t="n">
-        <v>315</v>
+        <v>318.59</v>
       </c>
       <c r="T35" s="7" t="n">
-        <v>43.91</v>
+        <v>44.41</v>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
@@ -3680,19 +3680,19 @@
         <v>452</v>
       </c>
       <c r="P36" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q36" s="7" t="n">
-        <v>44.61</v>
+        <v>42.06</v>
       </c>
       <c r="R36" s="7" t="n">
-        <v>35744.61</v>
+        <v>35742.06</v>
       </c>
       <c r="S36" s="7" t="n">
-        <v>3574.46</v>
+        <v>3574.21</v>
       </c>
       <c r="T36" s="7" t="n">
-        <v>498.28</v>
+        <v>498.24</v>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>屏蔽箱</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
@@ -3769,19 +3769,19 @@
         <v>452</v>
       </c>
       <c r="P37" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q37" s="7" t="n">
-        <v>72.69</v>
+        <v>68.55</v>
       </c>
       <c r="R37" s="7" t="n">
-        <v>54147.69</v>
+        <v>54143.55</v>
       </c>
       <c r="S37" s="7" t="n">
-        <v>5414.77</v>
+        <v>5414.35</v>
       </c>
       <c r="T37" s="7" t="n">
-        <v>754.8200000000001</v>
+        <v>754.76</v>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>马达</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
@@ -3858,19 +3858,19 @@
         <v>452</v>
       </c>
       <c r="P38" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q38" s="7" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="R38" s="7" t="n">
-        <v>984.23</v>
+        <v>984.09</v>
       </c>
       <c r="S38" s="7" t="n">
-        <v>984.23</v>
+        <v>984.09</v>
       </c>
       <c r="T38" s="7" t="n">
-        <v>137.2</v>
+        <v>137.18</v>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>太阳片</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
@@ -3947,7 +3947,7 @@
         <v>452</v>
       </c>
       <c r="P39" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q39" s="7" t="n">
         <v>0.01</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>电机</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
@@ -4036,7 +4036,7 @@
         <v>452</v>
       </c>
       <c r="P40" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q40" s="7" t="n">
         <v>0.01</v>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>链夹</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
@@ -4123,13 +4123,13 @@
         <v>452</v>
       </c>
       <c r="P41" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q41" s="7" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="R41" s="7" t="n">
-        <v>4200.74</v>
+        <v>4200.7</v>
       </c>
       <c r="S41" s="7" t="n">
         <v>8.4</v>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>调节座</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
@@ -4210,7 +4210,7 @@
         <v>452</v>
       </c>
       <c r="P42" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q42" s="7" t="n">
         <v>0.01</v>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>模头</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
@@ -4297,7 +4297,7 @@
         <v>452</v>
       </c>
       <c r="P43" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q43" s="7" t="n">
         <v>0.01</v>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>电刷</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
@@ -4384,7 +4384,7 @@
         <v>452</v>
       </c>
       <c r="P44" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q44" s="7" t="n">
         <v>0</v>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
@@ -4471,7 +4471,7 @@
         <v>452</v>
       </c>
       <c r="P45" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q45" s="7" t="n">
         <v>0.01</v>
@@ -4514,7 +4514,7 @@
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>密封圈</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
@@ -4558,7 +4558,7 @@
         <v>452</v>
       </c>
       <c r="P46" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q46" s="7" t="n">
         <v>0.01</v>
@@ -4601,7 +4601,7 @@
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
@@ -4645,7 +4645,7 @@
         <v>452</v>
       </c>
       <c r="P47" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q47" s="7" t="n">
         <v>0</v>
@@ -4688,7 +4688,7 @@
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
@@ -4732,7 +4732,7 @@
         <v>452</v>
       </c>
       <c r="P48" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q48" s="7" t="n">
         <v>0</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
@@ -4819,7 +4819,7 @@
         <v>452</v>
       </c>
       <c r="P49" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q49" s="7" t="n">
         <v>0</v>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>齿轮</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
@@ -4906,7 +4906,7 @@
         <v>452</v>
       </c>
       <c r="P50" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q50" s="7" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -4993,19 +4993,19 @@
         <v>452</v>
       </c>
       <c r="P51" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q51" s="7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="R51" s="7" t="n">
-        <v>689.49</v>
+        <v>689.45</v>
       </c>
       <c r="S51" s="7" t="n">
-        <v>344.75</v>
+        <v>344.73</v>
       </c>
       <c r="T51" s="7" t="n">
-        <v>48.06</v>
+        <v>48.05</v>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>发热板</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
@@ -5082,19 +5082,19 @@
         <v>452</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q52" s="7" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="R52" s="7" t="n">
-        <v>689.46</v>
+        <v>689.42</v>
       </c>
       <c r="S52" s="7" t="n">
-        <v>344.73</v>
+        <v>344.71</v>
       </c>
       <c r="T52" s="7" t="n">
-        <v>48.06</v>
+        <v>48.05</v>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
@@ -5125,29 +5125,29 @@
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="5" t="n"/>
       <c r="F53" s="6" t="n">
-        <v>9506</v>
+        <v>9504</v>
       </c>
       <c r="G53" s="4" t="n"/>
       <c r="H53" s="7" t="n">
-        <v>27626.75899000001</v>
+        <v>27625.36499000001</v>
       </c>
       <c r="I53" s="7" t="n">
-        <v>2953.559999999999</v>
+        <v>3160.94</v>
       </c>
       <c r="J53" s="7" t="n"/>
       <c r="K53" s="7" t="n">
-        <v>198183.35</v>
+        <v>198173.35</v>
       </c>
       <c r="L53" s="7" t="n"/>
       <c r="M53" s="7" t="n">
-        <v>208092.52</v>
+        <v>208082.02</v>
       </c>
       <c r="N53" s="7" t="n"/>
       <c r="O53" s="7" t="n"/>
       <c r="P53" s="7" t="n"/>
       <c r="Q53" s="7" t="n"/>
       <c r="R53" s="7" t="n">
-        <v>208580.45</v>
+        <v>208574.43</v>
       </c>
       <c r="S53" s="7" t="n"/>
       <c r="T53" s="7" t="n"/>

--- a/outputs/cif_original_invoice.xlsx
+++ b/outputs/cif_original_invoice.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -510,6 +510,7 @@
     <col width="15" customWidth="1" min="23" max="23"/>
     <col width="15" customWidth="1" min="24" max="24"/>
     <col width="12" customWidth="1" min="25" max="25"/>
+    <col width="12" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -638,6 +639,11 @@
           <t>G.W (KG)</t>
         </is>
       </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Total Net Weight (kg)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
@@ -662,7 +668,7 @@
         <v>0.697</v>
       </c>
       <c r="F2" s="6" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
@@ -670,7 +676,7 @@
         </is>
       </c>
       <c r="H2" s="7" t="n">
-        <v>347.106</v>
+        <v>346.409</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>2.6</v>
@@ -679,16 +685,16 @@
         <v>5</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="L2" s="7" t="n">
         <v>5.25</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>2614.5</v>
+        <v>2609.25</v>
       </c>
       <c r="N2" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O2" s="7" t="n">
         <v>452</v>
@@ -700,7 +706,7 @@
         <v>0.41</v>
       </c>
       <c r="R2" s="7" t="n">
-        <v>2614.91</v>
+        <v>2609.66</v>
       </c>
       <c r="S2" s="7" t="n">
         <v>5.25</v>
@@ -726,6 +732,9 @@
       <c r="X2" s="4" t="n"/>
       <c r="Y2" s="4" t="n">
         <v>2.8</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -777,7 +786,7 @@
         <v>346.5</v>
       </c>
       <c r="N3" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O3" s="7" t="n">
         <v>452</v>
@@ -815,6 +824,9 @@
       <c r="X3" s="4" t="n"/>
       <c r="Y3" s="4" t="n">
         <v>2.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -866,7 +878,7 @@
         <v>163.8</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>452</v>
@@ -903,6 +915,9 @@
       </c>
       <c r="X4" s="4" t="n"/>
       <c r="Y4" s="4" t="n"/>
+      <c r="Z4" s="4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -953,7 +968,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="N5" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O5" s="7" t="n">
         <v>452</v>
@@ -990,6 +1005,9 @@
       </c>
       <c r="X5" s="4" t="n"/>
       <c r="Y5" s="4" t="n"/>
+      <c r="Z5" s="4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -1040,7 +1058,7 @@
         <v>346.5</v>
       </c>
       <c r="N6" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O6" s="7" t="n">
         <v>452</v>
@@ -1078,6 +1096,9 @@
       <c r="X6" s="4" t="n"/>
       <c r="Y6" s="4" t="n">
         <v>1.88</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="7">
@@ -1129,7 +1150,7 @@
         <v>2373</v>
       </c>
       <c r="N7" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>452</v>
@@ -1167,6 +1188,9 @@
       <c r="X7" s="4" t="n"/>
       <c r="Y7" s="4" t="n">
         <v>4.3</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1218,7 +1242,7 @@
         <v>115.08</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>452</v>
@@ -1255,6 +1279,9 @@
       </c>
       <c r="X8" s="4" t="n"/>
       <c r="Y8" s="4" t="n"/>
+      <c r="Z8" s="4" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -1305,7 +1332,7 @@
         <v>1197</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O9" s="7" t="n">
         <v>452</v>
@@ -1343,6 +1370,9 @@
       <c r="X9" s="4" t="n"/>
       <c r="Y9" s="4" t="n">
         <v>14</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +1424,7 @@
         <v>241.5</v>
       </c>
       <c r="N10" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O10" s="7" t="n">
         <v>452</v>
@@ -1431,6 +1461,9 @@
       </c>
       <c r="X10" s="4" t="n"/>
       <c r="Y10" s="4" t="n"/>
+      <c r="Z10" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -1481,7 +1514,7 @@
         <v>582.75</v>
       </c>
       <c r="N11" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O11" s="7" t="n">
         <v>452</v>
@@ -1518,6 +1551,9 @@
       </c>
       <c r="X11" s="4" t="n"/>
       <c r="Y11" s="4" t="n"/>
+      <c r="Z11" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1568,7 +1604,7 @@
         <v>1837.5</v>
       </c>
       <c r="N12" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O12" s="7" t="n">
         <v>452</v>
@@ -1606,6 +1642,9 @@
       <c r="X12" s="4" t="n"/>
       <c r="Y12" s="4" t="n">
         <v>1.44</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="13">
@@ -1657,7 +1696,7 @@
         <v>157.5</v>
       </c>
       <c r="N13" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O13" s="7" t="n">
         <v>452</v>
@@ -1695,6 +1734,9 @@
       <c r="X13" s="4" t="n"/>
       <c r="Y13" s="4" t="n">
         <v>7.55</v>
+      </c>
+      <c r="Z13" s="4" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="14">
@@ -1746,7 +1788,7 @@
         <v>2625</v>
       </c>
       <c r="N14" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O14" s="7" t="n">
         <v>452</v>
@@ -1783,6 +1825,9 @@
       </c>
       <c r="X14" s="4" t="n"/>
       <c r="Y14" s="4" t="n"/>
+      <c r="Z14" s="4" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1833,7 +1878,7 @@
         <v>2100</v>
       </c>
       <c r="N15" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O15" s="7" t="n">
         <v>452</v>
@@ -1870,6 +1915,9 @@
       </c>
       <c r="X15" s="4" t="n"/>
       <c r="Y15" s="4" t="n"/>
+      <c r="Z15" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1920,7 +1968,7 @@
         <v>210</v>
       </c>
       <c r="N16" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O16" s="7" t="n">
         <v>452</v>
@@ -1957,6 +2005,9 @@
       </c>
       <c r="X16" s="4" t="n"/>
       <c r="Y16" s="4" t="n"/>
+      <c r="Z16" s="4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -2007,7 +2058,7 @@
         <v>126</v>
       </c>
       <c r="N17" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O17" s="7" t="n">
         <v>452</v>
@@ -2044,6 +2095,9 @@
       </c>
       <c r="X17" s="4" t="n"/>
       <c r="Y17" s="4" t="n"/>
+      <c r="Z17" s="4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -2094,7 +2148,7 @@
         <v>176.4</v>
       </c>
       <c r="N18" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O18" s="7" t="n">
         <v>452</v>
@@ -2131,6 +2185,9 @@
       </c>
       <c r="X18" s="4" t="n"/>
       <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -2181,7 +2238,7 @@
         <v>259.88</v>
       </c>
       <c r="N19" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O19" s="7" t="n">
         <v>452</v>
@@ -2218,6 +2275,9 @@
       </c>
       <c r="X19" s="4" t="n"/>
       <c r="Y19" s="4" t="n"/>
+      <c r="Z19" s="4" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -2268,7 +2328,7 @@
         <v>537.77</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O20" s="7" t="n">
         <v>452</v>
@@ -2306,6 +2366,9 @@
       <c r="X20" s="4" t="n"/>
       <c r="Y20" s="4" t="n">
         <v>20</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>3.49</v>
       </c>
     </row>
     <row r="21">
@@ -2357,7 +2420,7 @@
         <v>633.4</v>
       </c>
       <c r="N21" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O21" s="7" t="n">
         <v>452</v>
@@ -2394,6 +2457,9 @@
       </c>
       <c r="X21" s="4" t="n"/>
       <c r="Y21" s="4" t="n"/>
+      <c r="Z21" s="4" t="n">
+        <v>4.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -2444,7 +2510,7 @@
         <v>634.79</v>
       </c>
       <c r="N22" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O22" s="7" t="n">
         <v>452</v>
@@ -2481,6 +2547,9 @@
       </c>
       <c r="X22" s="4" t="n"/>
       <c r="Y22" s="4" t="n"/>
+      <c r="Z22" s="4" t="n">
+        <v>4.12</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -2531,7 +2600,7 @@
         <v>397.78</v>
       </c>
       <c r="N23" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O23" s="7" t="n">
         <v>452</v>
@@ -2568,6 +2637,9 @@
       </c>
       <c r="X23" s="4" t="n"/>
       <c r="Y23" s="4" t="n"/>
+      <c r="Z23" s="4" t="n">
+        <v>2.58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -2618,7 +2690,7 @@
         <v>55.44</v>
       </c>
       <c r="N24" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O24" s="7" t="n">
         <v>452</v>
@@ -2655,6 +2727,9 @@
       </c>
       <c r="X24" s="4" t="n"/>
       <c r="Y24" s="4" t="n"/>
+      <c r="Z24" s="4" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -2705,7 +2780,7 @@
         <v>83.16</v>
       </c>
       <c r="N25" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O25" s="7" t="n">
         <v>452</v>
@@ -2742,6 +2817,9 @@
       </c>
       <c r="X25" s="4" t="n"/>
       <c r="Y25" s="4" t="n"/>
+      <c r="Z25" s="4" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -2792,7 +2870,7 @@
         <v>69.3</v>
       </c>
       <c r="N26" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O26" s="7" t="n">
         <v>452</v>
@@ -2829,6 +2907,9 @@
       </c>
       <c r="X26" s="4" t="n"/>
       <c r="Y26" s="4" t="n"/>
+      <c r="Z26" s="4" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -2879,7 +2960,7 @@
         <v>69.3</v>
       </c>
       <c r="N27" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O27" s="7" t="n">
         <v>452</v>
@@ -2916,6 +2997,9 @@
       </c>
       <c r="X27" s="4" t="n"/>
       <c r="Y27" s="4" t="n"/>
+      <c r="Z27" s="4" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -2966,7 +3050,7 @@
         <v>152.46</v>
       </c>
       <c r="N28" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O28" s="7" t="n">
         <v>452</v>
@@ -3003,6 +3087,9 @@
       </c>
       <c r="X28" s="4" t="n"/>
       <c r="Y28" s="4" t="n"/>
+      <c r="Z28" s="4" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -3053,7 +3140,7 @@
         <v>31701.6</v>
       </c>
       <c r="N29" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O29" s="7" t="n">
         <v>452</v>
@@ -3091,6 +3178,9 @@
       <c r="X29" s="4" t="n"/>
       <c r="Y29" s="4" t="n">
         <v>17.71</v>
+      </c>
+      <c r="Z29" s="4" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="30">
@@ -3142,7 +3232,7 @@
         <v>21462</v>
       </c>
       <c r="N30" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O30" s="7" t="n">
         <v>452</v>
@@ -3180,6 +3270,9 @@
       <c r="X30" s="4" t="n"/>
       <c r="Y30" s="4" t="n">
         <v>15.5</v>
+      </c>
+      <c r="Z30" s="4" t="n">
+        <v>866</v>
       </c>
     </row>
     <row r="31">
@@ -3231,7 +3324,7 @@
         <v>1218</v>
       </c>
       <c r="N31" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O31" s="7" t="n">
         <v>452</v>
@@ -3269,6 +3362,9 @@
       <c r="X31" s="4" t="n"/>
       <c r="Y31" s="4" t="n">
         <v>1</v>
+      </c>
+      <c r="Z31" s="4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="32">
@@ -3320,7 +3416,7 @@
         <v>420</v>
       </c>
       <c r="N32" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O32" s="7" t="n">
         <v>452</v>
@@ -3357,6 +3453,9 @@
       </c>
       <c r="X32" s="4" t="n"/>
       <c r="Y32" s="4" t="n"/>
+      <c r="Z32" s="4" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -3407,7 +3506,7 @@
         <v>3654</v>
       </c>
       <c r="N33" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O33" s="7" t="n">
         <v>452</v>
@@ -3445,6 +3544,9 @@
       <c r="X33" s="4" t="n"/>
       <c r="Y33" s="4" t="n">
         <v>34.24</v>
+      </c>
+      <c r="Z33" s="4" t="n">
+        <v>66.02</v>
       </c>
     </row>
     <row r="34">
@@ -3496,7 +3598,7 @@
         <v>16380</v>
       </c>
       <c r="N34" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O34" s="7" t="n">
         <v>452</v>
@@ -3534,6 +3636,9 @@
       <c r="X34" s="4" t="n"/>
       <c r="Y34" s="4" t="n">
         <v>34.91</v>
+      </c>
+      <c r="Z34" s="4" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3585,7 +3690,7 @@
         <v>2835</v>
       </c>
       <c r="N35" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O35" s="7" t="n">
         <v>452</v>
@@ -3623,6 +3728,9 @@
       <c r="X35" s="4" t="n"/>
       <c r="Y35" s="4" t="n">
         <v>10.63</v>
+      </c>
+      <c r="Z35" s="4" t="n">
+        <v>207.46</v>
       </c>
     </row>
     <row r="36">
@@ -3674,7 +3782,7 @@
         <v>35700</v>
       </c>
       <c r="N36" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O36" s="7" t="n">
         <v>452</v>
@@ -3712,6 +3820,9 @@
       <c r="X36" s="4" t="n"/>
       <c r="Y36" s="4" t="n">
         <v>37</v>
+      </c>
+      <c r="Z36" s="4" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="37">
@@ -3763,7 +3874,7 @@
         <v>54075</v>
       </c>
       <c r="N37" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O37" s="7" t="n">
         <v>452</v>
@@ -3801,6 +3912,9 @@
       <c r="X37" s="4" t="n"/>
       <c r="Y37" s="4" t="n">
         <v>54</v>
+      </c>
+      <c r="Z37" s="4" t="n">
+        <v>440</v>
       </c>
     </row>
     <row r="38">
@@ -3852,7 +3966,7 @@
         <v>981.75</v>
       </c>
       <c r="N38" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O38" s="7" t="n">
         <v>452</v>
@@ -3890,6 +4004,9 @@
       <c r="X38" s="4" t="n"/>
       <c r="Y38" s="4" t="n">
         <v>15.16</v>
+      </c>
+      <c r="Z38" s="4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
@@ -3941,7 +4058,7 @@
         <v>231</v>
       </c>
       <c r="N39" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O39" s="7" t="n">
         <v>452</v>
@@ -3979,6 +4096,9 @@
       <c r="X39" s="4" t="n"/>
       <c r="Y39" s="4" t="n">
         <v>5</v>
+      </c>
+      <c r="Z39" s="4" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="40">
@@ -4030,7 +4150,7 @@
         <v>1837.5</v>
       </c>
       <c r="N40" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O40" s="7" t="n">
         <v>452</v>
@@ -4067,6 +4187,9 @@
       </c>
       <c r="X40" s="4" t="n"/>
       <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -4117,7 +4240,7 @@
         <v>4200</v>
       </c>
       <c r="N41" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O41" s="7" t="n">
         <v>452</v>
@@ -4154,6 +4277,9 @@
       </c>
       <c r="X41" s="4" t="n"/>
       <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -4204,7 +4330,7 @@
         <v>462</v>
       </c>
       <c r="N42" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O42" s="7" t="n">
         <v>452</v>
@@ -4241,6 +4367,9 @@
       </c>
       <c r="X42" s="4" t="n"/>
       <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -4291,7 +4420,7 @@
         <v>978.86</v>
       </c>
       <c r="N43" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O43" s="7" t="n">
         <v>452</v>
@@ -4328,6 +4457,9 @@
       </c>
       <c r="X43" s="4" t="n"/>
       <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -4378,7 +4510,7 @@
         <v>10395</v>
       </c>
       <c r="N44" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O44" s="7" t="n">
         <v>452</v>
@@ -4415,6 +4547,9 @@
       </c>
       <c r="X44" s="4" t="n"/>
       <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
@@ -4465,7 +4600,7 @@
         <v>68.25</v>
       </c>
       <c r="N45" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O45" s="7" t="n">
         <v>452</v>
@@ -4502,6 +4637,9 @@
       </c>
       <c r="X45" s="4" t="n"/>
       <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
@@ -4552,7 +4690,7 @@
         <v>68.25</v>
       </c>
       <c r="N46" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O46" s="7" t="n">
         <v>452</v>
@@ -4589,6 +4727,9 @@
       </c>
       <c r="X46" s="4" t="n"/>
       <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -4639,7 +4780,7 @@
         <v>462</v>
       </c>
       <c r="N47" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O47" s="7" t="n">
         <v>452</v>
@@ -4676,6 +4817,9 @@
       </c>
       <c r="X47" s="4" t="n"/>
       <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
@@ -4726,7 +4870,7 @@
         <v>462</v>
       </c>
       <c r="N48" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O48" s="7" t="n">
         <v>452</v>
@@ -4763,6 +4907,9 @@
       </c>
       <c r="X48" s="4" t="n"/>
       <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
@@ -4813,7 +4960,7 @@
         <v>462</v>
       </c>
       <c r="N49" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O49" s="7" t="n">
         <v>452</v>
@@ -4850,6 +4997,9 @@
       </c>
       <c r="X49" s="4" t="n"/>
       <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
@@ -4900,7 +5050,7 @@
         <v>462</v>
       </c>
       <c r="N50" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O50" s="7" t="n">
         <v>452</v>
@@ -4937,6 +5087,9 @@
       </c>
       <c r="X50" s="4" t="n"/>
       <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
@@ -4987,7 +5140,7 @@
         <v>688.8</v>
       </c>
       <c r="N51" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O51" s="7" t="n">
         <v>452</v>
@@ -5025,6 +5178,9 @@
       <c r="X51" s="4" t="n"/>
       <c r="Y51" s="4" t="n">
         <v>9</v>
+      </c>
+      <c r="Z51" s="4" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="52">
@@ -5076,7 +5232,7 @@
         <v>688.8</v>
       </c>
       <c r="N52" s="7" t="n">
-        <v>114.45</v>
+        <v>114.44</v>
       </c>
       <c r="O52" s="7" t="n">
         <v>452</v>
@@ -5113,6 +5269,9 @@
       </c>
       <c r="X52" s="4" t="n"/>
       <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
@@ -5125,29 +5284,29 @@
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="5" t="n"/>
       <c r="F53" s="6" t="n">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="G53" s="4" t="n"/>
       <c r="H53" s="7" t="n">
-        <v>27625.36499000001</v>
+        <v>27624.66799000001</v>
       </c>
       <c r="I53" s="7" t="n">
         <v>3160.94</v>
       </c>
       <c r="J53" s="7" t="n"/>
       <c r="K53" s="7" t="n">
-        <v>198173.35</v>
+        <v>198168.35</v>
       </c>
       <c r="L53" s="7" t="n"/>
       <c r="M53" s="7" t="n">
-        <v>208082.02</v>
+        <v>208076.77</v>
       </c>
       <c r="N53" s="7" t="n"/>
       <c r="O53" s="7" t="n"/>
       <c r="P53" s="7" t="n"/>
       <c r="Q53" s="7" t="n"/>
       <c r="R53" s="7" t="n">
-        <v>208574.43</v>
+        <v>208569.18</v>
       </c>
       <c r="S53" s="7" t="n"/>
       <c r="T53" s="7" t="n"/>
@@ -5156,6 +5315,7 @@
       <c r="W53" s="4" t="n"/>
       <c r="X53" s="4" t="n"/>
       <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
